--- a/appendix.xlsx
+++ b/appendix.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント・管理対象ID紐付解除パターン" sheetId="4" r:id="rId1"/>
-    <sheet name="アカウント紐付取得" sheetId="3" r:id="rId2"/>
-    <sheet name="アカウント・グループ紐付解除パターン" sheetId="1" r:id="rId3"/>
-    <sheet name="主アカウント切り替えパターン" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="アカウント紐付取得" sheetId="3" r:id="rId3"/>
+    <sheet name="アカウント・グループ紐付解除パターン" sheetId="1" r:id="rId4"/>
+    <sheet name="主アカウント切り替えパターン" sheetId="2" r:id="rId5"/>
+    <sheet name="Gitテスト" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="115">
   <si>
     <t>アカウント・グループ紐付解除パターン</t>
     <rPh sb="10" eb="11">
@@ -1634,6 +1636,10 @@
     <t>Pattern1 アカウントに紐付く管理対象IDが0つ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Gitテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1976,6 +1982,78 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1994,52 +2072,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2054,10 +2093,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2066,42 +2108,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -35015,8 +35021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -35293,6 +35299,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T26"/>
   <sheetViews>
@@ -35567,7 +35586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U368"/>
   <sheetViews>
@@ -35945,35 +35964,35 @@
       </c>
     </row>
     <row r="67" spans="2:21">
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="N67" s="32" t="s">
+      <c r="C67" s="37"/>
+      <c r="N67" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O67" s="32"/>
+      <c r="O67" s="37"/>
     </row>
     <row r="68" spans="2:21">
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="N68" s="31" t="s">
+      <c r="C68" s="40"/>
+      <c r="N68" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O68" s="31"/>
+      <c r="O68" s="40"/>
     </row>
     <row r="69" spans="2:21">
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="N69" s="31" t="s">
+      <c r="C69" s="40"/>
+      <c r="N69" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="O69" s="31"/>
-      <c r="P69" s="68" t="s">
+      <c r="O69" s="40"/>
+      <c r="P69" s="35" t="s">
         <v>85</v>
       </c>
     </row>
@@ -35986,94 +36005,94 @@
       </c>
     </row>
     <row r="71" spans="2:21">
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32" t="s">
+      <c r="C71" s="37"/>
+      <c r="D71" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32" t="s">
+      <c r="E71" s="37"/>
+      <c r="F71" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G71" s="32"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="41"/>
-      <c r="N71" s="32" t="s">
+      <c r="G71" s="37"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="39"/>
+      <c r="N71" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O71" s="32"/>
-      <c r="P71" s="32" t="s">
+      <c r="O71" s="37"/>
+      <c r="P71" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q71" s="32"/>
-      <c r="R71" s="32" t="s">
+      <c r="Q71" s="37"/>
+      <c r="R71" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S71" s="32"/>
-      <c r="T71" s="46"/>
-      <c r="U71" s="55"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="30"/>
     </row>
     <row r="72" spans="2:21">
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31" t="s">
+      <c r="C72" s="40"/>
+      <c r="D72" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="31"/>
-      <c r="F72" s="34" t="s">
+      <c r="E72" s="40"/>
+      <c r="F72" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="34"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="33"/>
-      <c r="N72" s="31" t="s">
+      <c r="G72" s="41"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="43"/>
+      <c r="N72" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O72" s="31"/>
-      <c r="P72" s="31" t="s">
+      <c r="O72" s="40"/>
+      <c r="P72" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q72" s="31"/>
-      <c r="R72" s="34" t="s">
+      <c r="Q72" s="40"/>
+      <c r="R72" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S72" s="34"/>
-      <c r="T72" s="45"/>
-      <c r="U72" s="44"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="28"/>
+      <c r="U72" s="27"/>
     </row>
     <row r="73" spans="2:21">
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31" t="s">
+      <c r="C73" s="40"/>
+      <c r="D73" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E73" s="31"/>
-      <c r="F73" s="34" t="s">
+      <c r="E73" s="40"/>
+      <c r="F73" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G73" s="34"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="33"/>
-      <c r="N73" s="64" t="s">
+      <c r="G73" s="41"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="43"/>
+      <c r="N73" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="O73" s="64"/>
-      <c r="P73" s="64" t="s">
+      <c r="O73" s="49"/>
+      <c r="P73" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="Q73" s="64"/>
-      <c r="R73" s="65" t="s">
+      <c r="Q73" s="49"/>
+      <c r="R73" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="S73" s="65"/>
-      <c r="T73" s="45"/>
-      <c r="U73" s="44"/>
+      <c r="S73" s="50"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="27"/>
     </row>
     <row r="74" spans="2:21">
       <c r="B74" t="s">
@@ -36082,82 +36101,82 @@
       <c r="N74" t="s">
         <v>68</v>
       </c>
-      <c r="T74" s="45"/>
-      <c r="U74" s="44"/>
+      <c r="T74" s="28"/>
+      <c r="U74" s="27"/>
     </row>
     <row r="75" spans="2:21">
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32" t="s">
+      <c r="C75" s="37"/>
+      <c r="D75" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32" t="s">
+      <c r="E75" s="37"/>
+      <c r="F75" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G75" s="32"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="33"/>
-      <c r="N75" s="32" t="s">
+      <c r="G75" s="37"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="43"/>
+      <c r="N75" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="O75" s="32"/>
-      <c r="P75" s="32" t="s">
+      <c r="O75" s="37"/>
+      <c r="P75" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="Q75" s="32"/>
-      <c r="R75" s="32" t="s">
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S75" s="32"/>
-      <c r="T75" s="60"/>
-      <c r="U75" s="61"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="33"/>
+      <c r="U75" s="34"/>
     </row>
     <row r="76" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31">
+      <c r="C76" s="40"/>
+      <c r="D76" s="40">
         <v>1</v>
       </c>
-      <c r="E76" s="31"/>
-      <c r="F76" s="34" t="s">
+      <c r="E76" s="40"/>
+      <c r="F76" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G76" s="34"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="33"/>
-      <c r="N76" s="31" t="s">
+      <c r="G76" s="41"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="43"/>
+      <c r="N76" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="O76" s="31"/>
-      <c r="P76" s="31">
+      <c r="O76" s="40"/>
+      <c r="P76" s="40">
         <v>1</v>
       </c>
-      <c r="Q76" s="31"/>
-      <c r="R76" s="34" t="s">
+      <c r="Q76" s="40"/>
+      <c r="R76" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S76" s="34"/>
-      <c r="T76" s="41"/>
-      <c r="U76" s="51"/>
+      <c r="S76" s="41"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="46"/>
     </row>
     <row r="77" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="T77" s="52"/>
-      <c r="U77" s="52"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="T77" s="36"/>
+      <c r="U77" s="36"/>
     </row>
     <row r="78" spans="2:21">
-      <c r="T78" s="61"/>
-      <c r="U78" s="61"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
     </row>
     <row r="79" spans="2:21">
       <c r="B79" s="2" t="s">
@@ -36183,47 +36202,47 @@
       </c>
     </row>
     <row r="105" spans="2:21">
-      <c r="B105" s="32" t="s">
+      <c r="B105" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C105" s="32"/>
-      <c r="N105" s="32" t="s">
+      <c r="C105" s="37"/>
+      <c r="N105" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O105" s="32"/>
+      <c r="O105" s="37"/>
     </row>
     <row r="106" spans="2:21">
-      <c r="B106" s="31" t="s">
+      <c r="B106" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C106" s="31"/>
-      <c r="N106" s="31" t="s">
+      <c r="C106" s="40"/>
+      <c r="N106" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O106" s="31"/>
+      <c r="O106" s="40"/>
     </row>
     <row r="107" spans="2:21">
-      <c r="B107" s="31" t="s">
+      <c r="B107" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C107" s="31"/>
-      <c r="N107" s="31" t="s">
+      <c r="C107" s="40"/>
+      <c r="N107" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="O107" s="31"/>
-      <c r="P107" s="68" t="s">
+      <c r="O107" s="40"/>
+      <c r="P107" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="108" spans="2:21">
-      <c r="B108" s="31" t="s">
+      <c r="B108" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C108" s="31"/>
-      <c r="N108" s="31" t="s">
+      <c r="C108" s="40"/>
+      <c r="N108" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="O108" s="31"/>
+      <c r="O108" s="40"/>
     </row>
     <row r="109" spans="2:21">
       <c r="B109" t="s">
@@ -36234,124 +36253,124 @@
       </c>
     </row>
     <row r="110" spans="2:21">
-      <c r="B110" s="32" t="s">
+      <c r="B110" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32" t="s">
+      <c r="C110" s="37"/>
+      <c r="D110" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E110" s="32"/>
-      <c r="F110" s="32" t="s">
+      <c r="E110" s="37"/>
+      <c r="F110" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G110" s="32"/>
-      <c r="H110" s="40"/>
-      <c r="I110" s="41"/>
-      <c r="N110" s="32" t="s">
+      <c r="G110" s="37"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="39"/>
+      <c r="N110" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O110" s="32"/>
-      <c r="P110" s="32" t="s">
+      <c r="O110" s="37"/>
+      <c r="P110" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q110" s="32"/>
-      <c r="R110" s="32" t="s">
+      <c r="Q110" s="37"/>
+      <c r="R110" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S110" s="32"/>
-      <c r="T110" s="46"/>
-      <c r="U110" s="55"/>
+      <c r="S110" s="37"/>
+      <c r="T110" s="29"/>
+      <c r="U110" s="30"/>
     </row>
     <row r="111" spans="2:21">
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31" t="s">
+      <c r="C111" s="40"/>
+      <c r="D111" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E111" s="31"/>
-      <c r="F111" s="34" t="s">
+      <c r="E111" s="40"/>
+      <c r="F111" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G111" s="34"/>
-      <c r="H111" s="39"/>
-      <c r="I111" s="33"/>
-      <c r="N111" s="31" t="s">
+      <c r="G111" s="41"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="43"/>
+      <c r="N111" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O111" s="31"/>
-      <c r="P111" s="31" t="s">
+      <c r="O111" s="40"/>
+      <c r="P111" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q111" s="31"/>
-      <c r="R111" s="34" t="s">
+      <c r="Q111" s="40"/>
+      <c r="R111" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S111" s="34"/>
-      <c r="T111" s="45"/>
-      <c r="U111" s="44"/>
+      <c r="S111" s="41"/>
+      <c r="T111" s="28"/>
+      <c r="U111" s="27"/>
     </row>
     <row r="112" spans="2:21">
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31" t="s">
+      <c r="C112" s="40"/>
+      <c r="D112" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E112" s="31"/>
-      <c r="F112" s="34" t="s">
+      <c r="E112" s="40"/>
+      <c r="F112" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G112" s="34"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="33"/>
-      <c r="N112" s="64" t="s">
+      <c r="G112" s="41"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="43"/>
+      <c r="N112" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="O112" s="64"/>
-      <c r="P112" s="64" t="s">
+      <c r="O112" s="49"/>
+      <c r="P112" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="Q112" s="64"/>
-      <c r="R112" s="65" t="s">
+      <c r="Q112" s="49"/>
+      <c r="R112" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="S112" s="65"/>
-      <c r="T112" s="45"/>
-      <c r="U112" s="44"/>
+      <c r="S112" s="50"/>
+      <c r="T112" s="28"/>
+      <c r="U112" s="27"/>
     </row>
     <row r="113" spans="2:21">
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31" t="s">
+      <c r="C113" s="40"/>
+      <c r="D113" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E113" s="31"/>
-      <c r="F113" s="34" t="s">
+      <c r="E113" s="40"/>
+      <c r="F113" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G113" s="34"/>
-      <c r="H113" s="39"/>
-      <c r="I113" s="33"/>
-      <c r="N113" s="31" t="s">
+      <c r="G113" s="41"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="43"/>
+      <c r="N113" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="O113" s="31"/>
-      <c r="P113" s="31" t="s">
+      <c r="O113" s="40"/>
+      <c r="P113" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q113" s="31"/>
-      <c r="R113" s="34" t="s">
+      <c r="Q113" s="40"/>
+      <c r="R113" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S113" s="34"/>
-      <c r="T113" s="45"/>
-      <c r="U113" s="44"/>
+      <c r="S113" s="41"/>
+      <c r="T113" s="28"/>
+      <c r="U113" s="27"/>
     </row>
     <row r="114" spans="2:21">
       <c r="B114" t="s">
@@ -36360,78 +36379,78 @@
       <c r="N114" t="s">
         <v>68</v>
       </c>
-      <c r="T114" s="45"/>
-      <c r="U114" s="44"/>
+      <c r="T114" s="28"/>
+      <c r="U114" s="27"/>
     </row>
     <row r="115" spans="2:21">
-      <c r="B115" s="32" t="s">
+      <c r="B115" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="32"/>
-      <c r="D115" s="32" t="s">
+      <c r="C115" s="37"/>
+      <c r="D115" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E115" s="32"/>
-      <c r="F115" s="32" t="s">
+      <c r="E115" s="37"/>
+      <c r="F115" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G115" s="32"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="33"/>
-      <c r="N115" s="32" t="s">
+      <c r="G115" s="37"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="43"/>
+      <c r="N115" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="O115" s="32"/>
-      <c r="P115" s="32" t="s">
+      <c r="O115" s="37"/>
+      <c r="P115" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="Q115" s="32"/>
-      <c r="R115" s="32" t="s">
+      <c r="Q115" s="37"/>
+      <c r="R115" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S115" s="32"/>
-      <c r="T115" s="60"/>
-      <c r="U115" s="61"/>
+      <c r="S115" s="37"/>
+      <c r="T115" s="33"/>
+      <c r="U115" s="34"/>
     </row>
     <row r="116" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C116" s="31"/>
-      <c r="D116" s="31">
+      <c r="C116" s="40"/>
+      <c r="D116" s="40">
         <v>1</v>
       </c>
-      <c r="E116" s="31"/>
-      <c r="F116" s="34" t="s">
+      <c r="E116" s="40"/>
+      <c r="F116" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G116" s="34"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="33"/>
-      <c r="N116" s="31" t="s">
+      <c r="G116" s="41"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="43"/>
+      <c r="N116" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="O116" s="31"/>
-      <c r="P116" s="31">
+      <c r="O116" s="40"/>
+      <c r="P116" s="40">
         <v>1</v>
       </c>
-      <c r="Q116" s="31"/>
-      <c r="R116" s="34" t="s">
+      <c r="Q116" s="40"/>
+      <c r="R116" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S116" s="34"/>
-      <c r="T116" s="41"/>
-      <c r="U116" s="51"/>
+      <c r="S116" s="41"/>
+      <c r="T116" s="39"/>
+      <c r="U116" s="46"/>
     </row>
     <row r="117" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B117" s="35"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="36"/>
-      <c r="G117" s="36"/>
-      <c r="T117" s="52"/>
-      <c r="U117" s="52"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="T117" s="36"/>
+      <c r="U117" s="36"/>
     </row>
     <row r="119" spans="2:21">
       <c r="B119" s="2" t="s">
@@ -36457,67 +36476,67 @@
       </c>
     </row>
     <row r="149" spans="2:21">
-      <c r="B149" s="32" t="s">
+      <c r="B149" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C149" s="32"/>
-      <c r="N149" s="32" t="s">
+      <c r="C149" s="37"/>
+      <c r="N149" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O149" s="32"/>
+      <c r="O149" s="37"/>
     </row>
     <row r="150" spans="2:21">
-      <c r="B150" s="31" t="s">
+      <c r="B150" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C150" s="31"/>
-      <c r="N150" s="31" t="s">
+      <c r="C150" s="40"/>
+      <c r="N150" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O150" s="31"/>
+      <c r="O150" s="40"/>
     </row>
     <row r="151" spans="2:21">
-      <c r="B151" s="31" t="s">
+      <c r="B151" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C151" s="31"/>
-      <c r="N151" s="31" t="s">
+      <c r="C151" s="40"/>
+      <c r="N151" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="O151" s="31"/>
-      <c r="P151" s="68" t="s">
+      <c r="O151" s="40"/>
+      <c r="P151" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="152" spans="2:21">
-      <c r="B152" s="31" t="s">
+      <c r="B152" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C152" s="31"/>
-      <c r="N152" s="31" t="s">
+      <c r="C152" s="40"/>
+      <c r="N152" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="O152" s="31"/>
+      <c r="O152" s="40"/>
     </row>
     <row r="153" spans="2:21">
-      <c r="B153" s="31" t="s">
+      <c r="B153" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C153" s="31"/>
-      <c r="N153" s="31" t="s">
+      <c r="C153" s="40"/>
+      <c r="N153" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="O153" s="31"/>
+      <c r="O153" s="40"/>
     </row>
     <row r="154" spans="2:21">
-      <c r="B154" s="31" t="s">
+      <c r="B154" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C154" s="31"/>
-      <c r="N154" s="31" t="s">
+      <c r="C154" s="40"/>
+      <c r="N154" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="O154" s="31"/>
+      <c r="O154" s="40"/>
     </row>
     <row r="155" spans="2:21">
       <c r="B155" t="s">
@@ -36528,214 +36547,214 @@
       </c>
     </row>
     <row r="156" spans="2:21">
-      <c r="B156" s="32" t="s">
+      <c r="B156" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C156" s="32"/>
-      <c r="D156" s="32" t="s">
+      <c r="C156" s="37"/>
+      <c r="D156" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E156" s="32"/>
-      <c r="F156" s="32" t="s">
+      <c r="E156" s="37"/>
+      <c r="F156" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G156" s="32"/>
-      <c r="H156" s="40"/>
-      <c r="I156" s="41"/>
-      <c r="N156" s="32" t="s">
+      <c r="G156" s="37"/>
+      <c r="H156" s="38"/>
+      <c r="I156" s="39"/>
+      <c r="N156" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O156" s="32"/>
-      <c r="P156" s="32" t="s">
+      <c r="O156" s="37"/>
+      <c r="P156" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q156" s="32"/>
-      <c r="R156" s="32" t="s">
+      <c r="Q156" s="37"/>
+      <c r="R156" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S156" s="32"/>
-      <c r="T156" s="46"/>
-      <c r="U156" s="55"/>
+      <c r="S156" s="37"/>
+      <c r="T156" s="29"/>
+      <c r="U156" s="30"/>
     </row>
     <row r="157" spans="2:21">
-      <c r="B157" s="31" t="s">
+      <c r="B157" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C157" s="31"/>
-      <c r="D157" s="31" t="s">
+      <c r="C157" s="40"/>
+      <c r="D157" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E157" s="31"/>
-      <c r="F157" s="34" t="s">
+      <c r="E157" s="40"/>
+      <c r="F157" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G157" s="34"/>
-      <c r="H157" s="39"/>
-      <c r="I157" s="33"/>
-      <c r="N157" s="31" t="s">
+      <c r="G157" s="41"/>
+      <c r="H157" s="42"/>
+      <c r="I157" s="43"/>
+      <c r="N157" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O157" s="31"/>
-      <c r="P157" s="31" t="s">
+      <c r="O157" s="40"/>
+      <c r="P157" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q157" s="31"/>
-      <c r="R157" s="34" t="s">
+      <c r="Q157" s="40"/>
+      <c r="R157" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S157" s="34"/>
-      <c r="T157" s="45"/>
-      <c r="U157" s="44"/>
+      <c r="S157" s="41"/>
+      <c r="T157" s="28"/>
+      <c r="U157" s="27"/>
     </row>
     <row r="158" spans="2:21">
-      <c r="B158" s="31" t="s">
+      <c r="B158" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C158" s="31"/>
-      <c r="D158" s="31" t="s">
+      <c r="C158" s="40"/>
+      <c r="D158" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E158" s="31"/>
-      <c r="F158" s="34" t="s">
+      <c r="E158" s="40"/>
+      <c r="F158" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G158" s="34"/>
-      <c r="H158" s="39"/>
-      <c r="I158" s="33"/>
-      <c r="N158" s="62" t="s">
+      <c r="G158" s="41"/>
+      <c r="H158" s="42"/>
+      <c r="I158" s="43"/>
+      <c r="N158" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="O158" s="62"/>
-      <c r="P158" s="62" t="s">
+      <c r="O158" s="44"/>
+      <c r="P158" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="Q158" s="62"/>
-      <c r="R158" s="63" t="s">
+      <c r="Q158" s="44"/>
+      <c r="R158" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="S158" s="63"/>
-      <c r="T158" s="45"/>
-      <c r="U158" s="44"/>
+      <c r="S158" s="45"/>
+      <c r="T158" s="28"/>
+      <c r="U158" s="27"/>
     </row>
     <row r="159" spans="2:21">
-      <c r="B159" s="31" t="s">
+      <c r="B159" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="31"/>
-      <c r="D159" s="31" t="s">
+      <c r="C159" s="40"/>
+      <c r="D159" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E159" s="31"/>
-      <c r="F159" s="34" t="s">
+      <c r="E159" s="40"/>
+      <c r="F159" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G159" s="34"/>
-      <c r="H159" s="39"/>
-      <c r="I159" s="33"/>
-      <c r="N159" s="31" t="s">
+      <c r="G159" s="41"/>
+      <c r="H159" s="42"/>
+      <c r="I159" s="43"/>
+      <c r="N159" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="O159" s="31"/>
-      <c r="P159" s="31" t="s">
+      <c r="O159" s="40"/>
+      <c r="P159" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q159" s="31"/>
-      <c r="R159" s="34" t="s">
+      <c r="Q159" s="40"/>
+      <c r="R159" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S159" s="34"/>
-      <c r="T159" s="45"/>
-      <c r="U159" s="44"/>
+      <c r="S159" s="41"/>
+      <c r="T159" s="28"/>
+      <c r="U159" s="27"/>
     </row>
     <row r="160" spans="2:21">
-      <c r="B160" s="31" t="s">
+      <c r="B160" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C160" s="31"/>
-      <c r="D160" s="31" t="s">
+      <c r="C160" s="40"/>
+      <c r="D160" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E160" s="31"/>
-      <c r="F160" s="34" t="s">
+      <c r="E160" s="40"/>
+      <c r="F160" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G160" s="34"/>
-      <c r="H160" s="56"/>
-      <c r="I160" s="57"/>
-      <c r="N160" s="31" t="s">
+      <c r="G160" s="41"/>
+      <c r="H160" s="31"/>
+      <c r="I160" s="32"/>
+      <c r="N160" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="O160" s="31"/>
-      <c r="P160" s="31" t="s">
+      <c r="O160" s="40"/>
+      <c r="P160" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="Q160" s="31"/>
-      <c r="R160" s="34" t="s">
+      <c r="Q160" s="40"/>
+      <c r="R160" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S160" s="34"/>
-      <c r="T160" s="45"/>
-      <c r="U160" s="44"/>
+      <c r="S160" s="41"/>
+      <c r="T160" s="28"/>
+      <c r="U160" s="27"/>
     </row>
     <row r="161" spans="2:21">
-      <c r="B161" s="31" t="s">
+      <c r="B161" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C161" s="31"/>
-      <c r="D161" s="31" t="s">
+      <c r="C161" s="40"/>
+      <c r="D161" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E161" s="31"/>
-      <c r="F161" s="34" t="s">
+      <c r="E161" s="40"/>
+      <c r="F161" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G161" s="34"/>
-      <c r="H161" s="39"/>
-      <c r="I161" s="33"/>
-      <c r="N161" s="31" t="s">
+      <c r="G161" s="41"/>
+      <c r="H161" s="42"/>
+      <c r="I161" s="43"/>
+      <c r="N161" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="O161" s="31"/>
-      <c r="P161" s="31" t="s">
+      <c r="O161" s="40"/>
+      <c r="P161" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="Q161" s="31"/>
-      <c r="R161" s="34" t="s">
+      <c r="Q161" s="40"/>
+      <c r="R161" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S161" s="34"/>
-      <c r="T161" s="45"/>
-      <c r="U161" s="44"/>
+      <c r="S161" s="41"/>
+      <c r="T161" s="28"/>
+      <c r="U161" s="27"/>
     </row>
     <row r="162" spans="2:21">
-      <c r="B162" s="31" t="s">
+      <c r="B162" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C162" s="31"/>
-      <c r="D162" s="31" t="s">
+      <c r="C162" s="40"/>
+      <c r="D162" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E162" s="31"/>
-      <c r="F162" s="34" t="s">
+      <c r="E162" s="40"/>
+      <c r="F162" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G162" s="34"/>
-      <c r="H162" s="39"/>
-      <c r="I162" s="33"/>
-      <c r="N162" s="31" t="s">
+      <c r="G162" s="41"/>
+      <c r="H162" s="42"/>
+      <c r="I162" s="43"/>
+      <c r="N162" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O162" s="31"/>
-      <c r="P162" s="31" t="s">
+      <c r="O162" s="40"/>
+      <c r="P162" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="Q162" s="31"/>
-      <c r="R162" s="34" t="s">
+      <c r="Q162" s="40"/>
+      <c r="R162" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S162" s="34"/>
-      <c r="T162" s="45"/>
-      <c r="U162" s="44"/>
+      <c r="S162" s="41"/>
+      <c r="T162" s="28"/>
+      <c r="U162" s="27"/>
     </row>
     <row r="163" spans="2:21">
       <c r="B163" t="s">
@@ -36744,108 +36763,108 @@
       <c r="N163" t="s">
         <v>68</v>
       </c>
-      <c r="T163" s="45"/>
-      <c r="U163" s="44"/>
+      <c r="T163" s="28"/>
+      <c r="U163" s="27"/>
     </row>
     <row r="164" spans="2:21">
-      <c r="B164" s="32" t="s">
+      <c r="B164" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C164" s="32"/>
-      <c r="D164" s="32" t="s">
+      <c r="C164" s="37"/>
+      <c r="D164" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E164" s="32"/>
-      <c r="F164" s="32" t="s">
+      <c r="E164" s="37"/>
+      <c r="F164" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G164" s="32"/>
-      <c r="H164" s="39"/>
-      <c r="I164" s="33"/>
-      <c r="N164" s="32" t="s">
+      <c r="G164" s="37"/>
+      <c r="H164" s="42"/>
+      <c r="I164" s="43"/>
+      <c r="N164" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="O164" s="32"/>
-      <c r="P164" s="32" t="s">
+      <c r="O164" s="37"/>
+      <c r="P164" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="Q164" s="32"/>
-      <c r="R164" s="32" t="s">
+      <c r="Q164" s="37"/>
+      <c r="R164" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S164" s="32"/>
-      <c r="T164" s="60"/>
-      <c r="U164" s="61"/>
+      <c r="S164" s="37"/>
+      <c r="T164" s="33"/>
+      <c r="U164" s="34"/>
     </row>
     <row r="165" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B165" s="31" t="s">
+      <c r="B165" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C165" s="31"/>
-      <c r="D165" s="31">
+      <c r="C165" s="40"/>
+      <c r="D165" s="40">
         <v>1</v>
       </c>
-      <c r="E165" s="31"/>
-      <c r="F165" s="34" t="s">
+      <c r="E165" s="40"/>
+      <c r="F165" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G165" s="34"/>
-      <c r="H165" s="39"/>
-      <c r="I165" s="33"/>
-      <c r="N165" s="31" t="s">
+      <c r="G165" s="41"/>
+      <c r="H165" s="42"/>
+      <c r="I165" s="43"/>
+      <c r="N165" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="O165" s="31"/>
-      <c r="P165" s="31">
+      <c r="O165" s="40"/>
+      <c r="P165" s="40">
         <v>1</v>
       </c>
-      <c r="Q165" s="31"/>
-      <c r="R165" s="34" t="s">
+      <c r="Q165" s="40"/>
+      <c r="R165" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S165" s="34"/>
-      <c r="T165" s="41"/>
-      <c r="U165" s="51"/>
+      <c r="S165" s="41"/>
+      <c r="T165" s="39"/>
+      <c r="U165" s="46"/>
     </row>
     <row r="166" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B166" s="31" t="s">
+      <c r="B166" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C166" s="31"/>
-      <c r="D166" s="31">
+      <c r="C166" s="40"/>
+      <c r="D166" s="40">
         <v>1</v>
       </c>
-      <c r="E166" s="31"/>
-      <c r="F166" s="34" t="s">
+      <c r="E166" s="40"/>
+      <c r="F166" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G166" s="34"/>
-      <c r="H166" s="39"/>
-      <c r="I166" s="33"/>
-      <c r="N166" s="31" t="s">
+      <c r="G166" s="41"/>
+      <c r="H166" s="42"/>
+      <c r="I166" s="43"/>
+      <c r="N166" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="O166" s="31"/>
-      <c r="P166" s="31">
+      <c r="O166" s="40"/>
+      <c r="P166" s="40">
         <v>1</v>
       </c>
-      <c r="Q166" s="31"/>
-      <c r="R166" s="34" t="s">
+      <c r="Q166" s="40"/>
+      <c r="R166" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S166" s="34"/>
-      <c r="T166" s="41"/>
-      <c r="U166" s="51"/>
+      <c r="S166" s="41"/>
+      <c r="T166" s="39"/>
+      <c r="U166" s="46"/>
     </row>
     <row r="167" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B167" s="35"/>
-      <c r="C167" s="35"/>
-      <c r="D167" s="35"/>
-      <c r="E167" s="35"/>
-      <c r="F167" s="36"/>
-      <c r="G167" s="36"/>
-      <c r="T167" s="52"/>
-      <c r="U167" s="52"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="25"/>
+      <c r="F167" s="26"/>
+      <c r="G167" s="26"/>
+      <c r="T167" s="36"/>
+      <c r="U167" s="36"/>
     </row>
     <row r="168" spans="2:21">
       <c r="B168" s="2" t="s">
@@ -36879,65 +36898,65 @@
       </c>
     </row>
     <row r="199" spans="2:21">
-      <c r="B199" s="32" t="s">
+      <c r="B199" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C199" s="32"/>
-      <c r="N199" s="32" t="s">
+      <c r="C199" s="37"/>
+      <c r="N199" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O199" s="32"/>
+      <c r="O199" s="37"/>
     </row>
     <row r="200" spans="2:21">
-      <c r="B200" s="31" t="s">
+      <c r="B200" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C200" s="31"/>
-      <c r="N200" s="31" t="s">
+      <c r="C200" s="40"/>
+      <c r="N200" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O200" s="31"/>
+      <c r="O200" s="40"/>
     </row>
     <row r="201" spans="2:21">
-      <c r="B201" s="31" t="s">
+      <c r="B201" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C201" s="31"/>
-      <c r="N201" s="31" t="s">
+      <c r="C201" s="40"/>
+      <c r="N201" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="O201" s="31"/>
-      <c r="P201" s="68"/>
+      <c r="O201" s="40"/>
+      <c r="P201" s="35"/>
     </row>
     <row r="202" spans="2:21">
-      <c r="B202" s="31" t="s">
+      <c r="B202" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C202" s="31"/>
-      <c r="N202" s="31" t="s">
+      <c r="C202" s="40"/>
+      <c r="N202" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="O202" s="31"/>
+      <c r="O202" s="40"/>
     </row>
     <row r="203" spans="2:21">
-      <c r="B203" s="31" t="s">
+      <c r="B203" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C203" s="31"/>
-      <c r="N203" s="31" t="s">
+      <c r="C203" s="40"/>
+      <c r="N203" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="O203" s="31"/>
+      <c r="O203" s="40"/>
     </row>
     <row r="204" spans="2:21">
-      <c r="B204" s="31" t="s">
+      <c r="B204" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C204" s="31"/>
-      <c r="N204" s="31" t="s">
+      <c r="C204" s="40"/>
+      <c r="N204" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="O204" s="31"/>
+      <c r="O204" s="40"/>
     </row>
     <row r="205" spans="2:21">
       <c r="B205" t="s">
@@ -36948,214 +36967,214 @@
       </c>
     </row>
     <row r="206" spans="2:21">
-      <c r="B206" s="32" t="s">
+      <c r="B206" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C206" s="32"/>
-      <c r="D206" s="32" t="s">
+      <c r="C206" s="37"/>
+      <c r="D206" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E206" s="32"/>
-      <c r="F206" s="32" t="s">
+      <c r="E206" s="37"/>
+      <c r="F206" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G206" s="32"/>
-      <c r="H206" s="40"/>
-      <c r="I206" s="41"/>
-      <c r="N206" s="32" t="s">
+      <c r="G206" s="37"/>
+      <c r="H206" s="38"/>
+      <c r="I206" s="39"/>
+      <c r="N206" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O206" s="32"/>
-      <c r="P206" s="32" t="s">
+      <c r="O206" s="37"/>
+      <c r="P206" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q206" s="32"/>
-      <c r="R206" s="32" t="s">
+      <c r="Q206" s="37"/>
+      <c r="R206" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S206" s="32"/>
-      <c r="T206" s="46"/>
-      <c r="U206" s="55"/>
+      <c r="S206" s="37"/>
+      <c r="T206" s="29"/>
+      <c r="U206" s="30"/>
     </row>
     <row r="207" spans="2:21">
-      <c r="B207" s="31" t="s">
+      <c r="B207" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C207" s="31"/>
-      <c r="D207" s="31" t="s">
+      <c r="C207" s="40"/>
+      <c r="D207" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E207" s="31"/>
-      <c r="F207" s="34" t="s">
+      <c r="E207" s="40"/>
+      <c r="F207" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G207" s="34"/>
-      <c r="H207" s="39"/>
-      <c r="I207" s="33"/>
-      <c r="N207" s="31" t="s">
+      <c r="G207" s="41"/>
+      <c r="H207" s="42"/>
+      <c r="I207" s="43"/>
+      <c r="N207" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O207" s="31"/>
-      <c r="P207" s="31" t="s">
+      <c r="O207" s="40"/>
+      <c r="P207" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q207" s="31"/>
-      <c r="R207" s="34" t="s">
+      <c r="Q207" s="40"/>
+      <c r="R207" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S207" s="34"/>
-      <c r="T207" s="45"/>
-      <c r="U207" s="44"/>
+      <c r="S207" s="41"/>
+      <c r="T207" s="28"/>
+      <c r="U207" s="27"/>
     </row>
     <row r="208" spans="2:21">
-      <c r="B208" s="31" t="s">
+      <c r="B208" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C208" s="31"/>
-      <c r="D208" s="31" t="s">
+      <c r="C208" s="40"/>
+      <c r="D208" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E208" s="31"/>
-      <c r="F208" s="34" t="s">
+      <c r="E208" s="40"/>
+      <c r="F208" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G208" s="34"/>
-      <c r="H208" s="39"/>
-      <c r="I208" s="33"/>
-      <c r="N208" s="66" t="s">
+      <c r="G208" s="41"/>
+      <c r="H208" s="42"/>
+      <c r="I208" s="43"/>
+      <c r="N208" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="O208" s="66"/>
-      <c r="P208" s="66" t="s">
+      <c r="O208" s="48"/>
+      <c r="P208" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="Q208" s="66"/>
-      <c r="R208" s="67" t="s">
+      <c r="Q208" s="48"/>
+      <c r="R208" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="S208" s="67"/>
-      <c r="T208" s="45"/>
-      <c r="U208" s="44"/>
+      <c r="S208" s="47"/>
+      <c r="T208" s="28"/>
+      <c r="U208" s="27"/>
     </row>
     <row r="209" spans="2:21">
-      <c r="B209" s="31" t="s">
+      <c r="B209" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C209" s="31"/>
-      <c r="D209" s="31" t="s">
+      <c r="C209" s="40"/>
+      <c r="D209" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E209" s="31"/>
-      <c r="F209" s="34" t="s">
+      <c r="E209" s="40"/>
+      <c r="F209" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G209" s="34"/>
-      <c r="H209" s="39"/>
-      <c r="I209" s="33"/>
-      <c r="N209" s="31" t="s">
+      <c r="G209" s="41"/>
+      <c r="H209" s="42"/>
+      <c r="I209" s="43"/>
+      <c r="N209" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="O209" s="31"/>
-      <c r="P209" s="31" t="s">
+      <c r="O209" s="40"/>
+      <c r="P209" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q209" s="31"/>
-      <c r="R209" s="34" t="s">
+      <c r="Q209" s="40"/>
+      <c r="R209" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S209" s="34"/>
-      <c r="T209" s="45"/>
-      <c r="U209" s="44"/>
+      <c r="S209" s="41"/>
+      <c r="T209" s="28"/>
+      <c r="U209" s="27"/>
     </row>
     <row r="210" spans="2:21">
-      <c r="B210" s="31" t="s">
+      <c r="B210" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C210" s="31"/>
-      <c r="D210" s="31" t="s">
+      <c r="C210" s="40"/>
+      <c r="D210" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E210" s="31"/>
-      <c r="F210" s="34" t="s">
+      <c r="E210" s="40"/>
+      <c r="F210" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G210" s="34"/>
-      <c r="H210" s="56"/>
-      <c r="I210" s="57"/>
-      <c r="N210" s="31" t="s">
+      <c r="G210" s="41"/>
+      <c r="H210" s="31"/>
+      <c r="I210" s="32"/>
+      <c r="N210" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="O210" s="31"/>
-      <c r="P210" s="31" t="s">
+      <c r="O210" s="40"/>
+      <c r="P210" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="Q210" s="31"/>
-      <c r="R210" s="34" t="s">
+      <c r="Q210" s="40"/>
+      <c r="R210" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S210" s="34"/>
-      <c r="T210" s="45"/>
-      <c r="U210" s="44"/>
+      <c r="S210" s="41"/>
+      <c r="T210" s="28"/>
+      <c r="U210" s="27"/>
     </row>
     <row r="211" spans="2:21">
-      <c r="B211" s="31" t="s">
+      <c r="B211" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C211" s="31"/>
-      <c r="D211" s="31" t="s">
+      <c r="C211" s="40"/>
+      <c r="D211" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E211" s="31"/>
-      <c r="F211" s="34" t="s">
+      <c r="E211" s="40"/>
+      <c r="F211" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G211" s="34"/>
-      <c r="H211" s="39"/>
-      <c r="I211" s="33"/>
-      <c r="N211" s="31" t="s">
+      <c r="G211" s="41"/>
+      <c r="H211" s="42"/>
+      <c r="I211" s="43"/>
+      <c r="N211" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="O211" s="31"/>
-      <c r="P211" s="31" t="s">
+      <c r="O211" s="40"/>
+      <c r="P211" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="Q211" s="31"/>
-      <c r="R211" s="34" t="s">
+      <c r="Q211" s="40"/>
+      <c r="R211" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S211" s="34"/>
-      <c r="T211" s="45"/>
-      <c r="U211" s="44"/>
+      <c r="S211" s="41"/>
+      <c r="T211" s="28"/>
+      <c r="U211" s="27"/>
     </row>
     <row r="212" spans="2:21">
-      <c r="B212" s="31" t="s">
+      <c r="B212" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C212" s="31"/>
-      <c r="D212" s="31" t="s">
+      <c r="C212" s="40"/>
+      <c r="D212" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E212" s="31"/>
-      <c r="F212" s="34" t="s">
+      <c r="E212" s="40"/>
+      <c r="F212" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G212" s="34"/>
-      <c r="H212" s="39"/>
-      <c r="I212" s="33"/>
-      <c r="N212" s="62" t="s">
+      <c r="G212" s="41"/>
+      <c r="H212" s="42"/>
+      <c r="I212" s="43"/>
+      <c r="N212" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="O212" s="62"/>
-      <c r="P212" s="62" t="s">
+      <c r="O212" s="44"/>
+      <c r="P212" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="Q212" s="62"/>
-      <c r="R212" s="63" t="s">
+      <c r="Q212" s="44"/>
+      <c r="R212" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="S212" s="63"/>
-      <c r="T212" s="45"/>
-      <c r="U212" s="44"/>
+      <c r="S212" s="45"/>
+      <c r="T212" s="28"/>
+      <c r="U212" s="27"/>
     </row>
     <row r="213" spans="2:21">
       <c r="B213" t="s">
@@ -37164,108 +37183,108 @@
       <c r="N213" t="s">
         <v>68</v>
       </c>
-      <c r="T213" s="45"/>
-      <c r="U213" s="44"/>
+      <c r="T213" s="28"/>
+      <c r="U213" s="27"/>
     </row>
     <row r="214" spans="2:21">
-      <c r="B214" s="32" t="s">
+      <c r="B214" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C214" s="32"/>
-      <c r="D214" s="32" t="s">
+      <c r="C214" s="37"/>
+      <c r="D214" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E214" s="32"/>
-      <c r="F214" s="32" t="s">
+      <c r="E214" s="37"/>
+      <c r="F214" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G214" s="32"/>
-      <c r="H214" s="39"/>
-      <c r="I214" s="33"/>
-      <c r="N214" s="32" t="s">
+      <c r="G214" s="37"/>
+      <c r="H214" s="42"/>
+      <c r="I214" s="43"/>
+      <c r="N214" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="O214" s="32"/>
-      <c r="P214" s="32" t="s">
+      <c r="O214" s="37"/>
+      <c r="P214" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="Q214" s="32"/>
-      <c r="R214" s="32" t="s">
+      <c r="Q214" s="37"/>
+      <c r="R214" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S214" s="32"/>
-      <c r="T214" s="60"/>
-      <c r="U214" s="61"/>
+      <c r="S214" s="37"/>
+      <c r="T214" s="33"/>
+      <c r="U214" s="34"/>
     </row>
     <row r="215" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B215" s="31" t="s">
+      <c r="B215" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C215" s="31"/>
-      <c r="D215" s="31">
+      <c r="C215" s="40"/>
+      <c r="D215" s="40">
         <v>1</v>
       </c>
-      <c r="E215" s="31"/>
-      <c r="F215" s="34" t="s">
+      <c r="E215" s="40"/>
+      <c r="F215" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G215" s="34"/>
-      <c r="H215" s="39"/>
-      <c r="I215" s="33"/>
-      <c r="N215" s="31" t="s">
+      <c r="G215" s="41"/>
+      <c r="H215" s="42"/>
+      <c r="I215" s="43"/>
+      <c r="N215" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="O215" s="31"/>
-      <c r="P215" s="31">
+      <c r="O215" s="40"/>
+      <c r="P215" s="40">
         <v>1</v>
       </c>
-      <c r="Q215" s="31"/>
-      <c r="R215" s="34" t="s">
+      <c r="Q215" s="40"/>
+      <c r="R215" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S215" s="34"/>
-      <c r="T215" s="41"/>
-      <c r="U215" s="51"/>
+      <c r="S215" s="41"/>
+      <c r="T215" s="39"/>
+      <c r="U215" s="46"/>
     </row>
     <row r="216" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B216" s="31" t="s">
+      <c r="B216" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C216" s="31"/>
-      <c r="D216" s="31">
+      <c r="C216" s="40"/>
+      <c r="D216" s="40">
         <v>1</v>
       </c>
-      <c r="E216" s="31"/>
-      <c r="F216" s="34" t="s">
+      <c r="E216" s="40"/>
+      <c r="F216" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G216" s="34"/>
-      <c r="H216" s="39"/>
-      <c r="I216" s="33"/>
-      <c r="N216" s="31" t="s">
+      <c r="G216" s="41"/>
+      <c r="H216" s="42"/>
+      <c r="I216" s="43"/>
+      <c r="N216" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="O216" s="31"/>
-      <c r="P216" s="31">
+      <c r="O216" s="40"/>
+      <c r="P216" s="40">
         <v>1</v>
       </c>
-      <c r="Q216" s="31"/>
-      <c r="R216" s="34" t="s">
+      <c r="Q216" s="40"/>
+      <c r="R216" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S216" s="34"/>
-      <c r="T216" s="41"/>
-      <c r="U216" s="51"/>
+      <c r="S216" s="41"/>
+      <c r="T216" s="39"/>
+      <c r="U216" s="46"/>
     </row>
     <row r="217" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B217" s="35"/>
-      <c r="C217" s="35"/>
-      <c r="D217" s="35"/>
-      <c r="E217" s="35"/>
-      <c r="F217" s="36"/>
-      <c r="G217" s="36"/>
-      <c r="T217" s="52"/>
-      <c r="U217" s="52"/>
+      <c r="B217" s="25"/>
+      <c r="C217" s="25"/>
+      <c r="D217" s="25"/>
+      <c r="E217" s="25"/>
+      <c r="F217" s="26"/>
+      <c r="G217" s="26"/>
+      <c r="T217" s="36"/>
+      <c r="U217" s="36"/>
     </row>
     <row r="221" spans="2:21">
       <c r="B221" t="s">
@@ -37286,67 +37305,67 @@
       </c>
     </row>
     <row r="248" spans="2:21">
-      <c r="B248" s="32" t="s">
+      <c r="B248" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C248" s="32"/>
-      <c r="N248" s="32" t="s">
+      <c r="C248" s="37"/>
+      <c r="N248" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O248" s="32"/>
+      <c r="O248" s="37"/>
     </row>
     <row r="249" spans="2:21">
-      <c r="B249" s="31" t="s">
+      <c r="B249" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C249" s="31"/>
-      <c r="N249" s="31" t="s">
+      <c r="C249" s="40"/>
+      <c r="N249" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O249" s="31"/>
+      <c r="O249" s="40"/>
     </row>
     <row r="250" spans="2:21">
-      <c r="B250" s="31" t="s">
+      <c r="B250" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C250" s="31"/>
-      <c r="N250" s="31" t="s">
+      <c r="C250" s="40"/>
+      <c r="N250" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="O250" s="31"/>
-      <c r="P250" s="68" t="s">
+      <c r="O250" s="40"/>
+      <c r="P250" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="251" spans="2:21">
-      <c r="B251" s="31" t="s">
+      <c r="B251" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C251" s="31"/>
-      <c r="N251" s="31" t="s">
+      <c r="C251" s="40"/>
+      <c r="N251" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="O251" s="31"/>
+      <c r="O251" s="40"/>
     </row>
     <row r="252" spans="2:21">
-      <c r="B252" s="31" t="s">
+      <c r="B252" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C252" s="31"/>
-      <c r="N252" s="31" t="s">
+      <c r="C252" s="40"/>
+      <c r="N252" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="O252" s="31"/>
+      <c r="O252" s="40"/>
     </row>
     <row r="253" spans="2:21">
-      <c r="B253" s="31" t="s">
+      <c r="B253" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C253" s="31"/>
-      <c r="N253" s="31" t="s">
+      <c r="C253" s="40"/>
+      <c r="N253" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="O253" s="31"/>
+      <c r="O253" s="40"/>
     </row>
     <row r="254" spans="2:21">
       <c r="B254" t="s">
@@ -37357,214 +37376,214 @@
       </c>
     </row>
     <row r="255" spans="2:21">
-      <c r="B255" s="32" t="s">
+      <c r="B255" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C255" s="32"/>
-      <c r="D255" s="32" t="s">
+      <c r="C255" s="37"/>
+      <c r="D255" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E255" s="32"/>
-      <c r="F255" s="32" t="s">
+      <c r="E255" s="37"/>
+      <c r="F255" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G255" s="32"/>
-      <c r="H255" s="40"/>
-      <c r="I255" s="41"/>
-      <c r="N255" s="32" t="s">
+      <c r="G255" s="37"/>
+      <c r="H255" s="38"/>
+      <c r="I255" s="39"/>
+      <c r="N255" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O255" s="32"/>
-      <c r="P255" s="32" t="s">
+      <c r="O255" s="37"/>
+      <c r="P255" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q255" s="32"/>
-      <c r="R255" s="32" t="s">
+      <c r="Q255" s="37"/>
+      <c r="R255" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S255" s="32"/>
-      <c r="T255" s="46"/>
-      <c r="U255" s="55"/>
+      <c r="S255" s="37"/>
+      <c r="T255" s="29"/>
+      <c r="U255" s="30"/>
     </row>
     <row r="256" spans="2:21">
-      <c r="B256" s="31" t="s">
+      <c r="B256" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C256" s="31"/>
-      <c r="D256" s="31" t="s">
+      <c r="C256" s="40"/>
+      <c r="D256" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E256" s="31"/>
-      <c r="F256" s="34" t="s">
+      <c r="E256" s="40"/>
+      <c r="F256" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G256" s="34"/>
-      <c r="H256" s="39"/>
-      <c r="I256" s="33"/>
-      <c r="N256" s="31" t="s">
+      <c r="G256" s="41"/>
+      <c r="H256" s="42"/>
+      <c r="I256" s="43"/>
+      <c r="N256" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O256" s="31"/>
-      <c r="P256" s="31" t="s">
+      <c r="O256" s="40"/>
+      <c r="P256" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q256" s="31"/>
-      <c r="R256" s="34" t="s">
+      <c r="Q256" s="40"/>
+      <c r="R256" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S256" s="34"/>
-      <c r="T256" s="45"/>
-      <c r="U256" s="44"/>
+      <c r="S256" s="41"/>
+      <c r="T256" s="28"/>
+      <c r="U256" s="27"/>
     </row>
     <row r="257" spans="2:21">
-      <c r="B257" s="31" t="s">
+      <c r="B257" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C257" s="31"/>
-      <c r="D257" s="31" t="s">
+      <c r="C257" s="40"/>
+      <c r="D257" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E257" s="31"/>
-      <c r="F257" s="34" t="s">
+      <c r="E257" s="40"/>
+      <c r="F257" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G257" s="34"/>
-      <c r="H257" s="39"/>
-      <c r="I257" s="33"/>
-      <c r="N257" s="62" t="s">
+      <c r="G257" s="41"/>
+      <c r="H257" s="42"/>
+      <c r="I257" s="43"/>
+      <c r="N257" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="O257" s="62"/>
-      <c r="P257" s="62" t="s">
+      <c r="O257" s="44"/>
+      <c r="P257" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="Q257" s="62"/>
-      <c r="R257" s="63" t="s">
+      <c r="Q257" s="44"/>
+      <c r="R257" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="S257" s="63"/>
-      <c r="T257" s="45"/>
-      <c r="U257" s="44"/>
+      <c r="S257" s="45"/>
+      <c r="T257" s="28"/>
+      <c r="U257" s="27"/>
     </row>
     <row r="258" spans="2:21">
-      <c r="B258" s="31" t="s">
+      <c r="B258" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C258" s="31"/>
-      <c r="D258" s="31" t="s">
+      <c r="C258" s="40"/>
+      <c r="D258" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E258" s="31"/>
-      <c r="F258" s="34" t="s">
+      <c r="E258" s="40"/>
+      <c r="F258" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G258" s="34"/>
-      <c r="H258" s="39"/>
-      <c r="I258" s="33"/>
-      <c r="N258" s="31" t="s">
+      <c r="G258" s="41"/>
+      <c r="H258" s="42"/>
+      <c r="I258" s="43"/>
+      <c r="N258" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="O258" s="31"/>
-      <c r="P258" s="31" t="s">
+      <c r="O258" s="40"/>
+      <c r="P258" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q258" s="31"/>
-      <c r="R258" s="34" t="s">
+      <c r="Q258" s="40"/>
+      <c r="R258" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S258" s="34"/>
-      <c r="T258" s="45"/>
-      <c r="U258" s="44"/>
+      <c r="S258" s="41"/>
+      <c r="T258" s="28"/>
+      <c r="U258" s="27"/>
     </row>
     <row r="259" spans="2:21">
-      <c r="B259" s="31" t="s">
+      <c r="B259" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C259" s="31"/>
-      <c r="D259" s="31" t="s">
+      <c r="C259" s="40"/>
+      <c r="D259" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E259" s="31"/>
-      <c r="F259" s="34" t="s">
+      <c r="E259" s="40"/>
+      <c r="F259" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G259" s="34"/>
-      <c r="H259" s="56"/>
-      <c r="I259" s="57"/>
-      <c r="N259" s="31" t="s">
+      <c r="G259" s="41"/>
+      <c r="H259" s="31"/>
+      <c r="I259" s="32"/>
+      <c r="N259" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="O259" s="31"/>
-      <c r="P259" s="31" t="s">
+      <c r="O259" s="40"/>
+      <c r="P259" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="Q259" s="31"/>
-      <c r="R259" s="34" t="s">
+      <c r="Q259" s="40"/>
+      <c r="R259" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S259" s="34"/>
-      <c r="T259" s="45"/>
-      <c r="U259" s="44"/>
+      <c r="S259" s="41"/>
+      <c r="T259" s="28"/>
+      <c r="U259" s="27"/>
     </row>
     <row r="260" spans="2:21">
-      <c r="B260" s="31" t="s">
+      <c r="B260" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C260" s="31"/>
-      <c r="D260" s="31" t="s">
+      <c r="C260" s="40"/>
+      <c r="D260" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E260" s="31"/>
-      <c r="F260" s="34" t="s">
+      <c r="E260" s="40"/>
+      <c r="F260" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G260" s="34"/>
-      <c r="H260" s="39"/>
-      <c r="I260" s="33"/>
-      <c r="N260" s="66" t="s">
+      <c r="G260" s="41"/>
+      <c r="H260" s="42"/>
+      <c r="I260" s="43"/>
+      <c r="N260" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="O260" s="66"/>
-      <c r="P260" s="66" t="s">
+      <c r="O260" s="48"/>
+      <c r="P260" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="Q260" s="66"/>
-      <c r="R260" s="67" t="s">
+      <c r="Q260" s="48"/>
+      <c r="R260" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="S260" s="67"/>
-      <c r="T260" s="45"/>
-      <c r="U260" s="44"/>
+      <c r="S260" s="47"/>
+      <c r="T260" s="28"/>
+      <c r="U260" s="27"/>
     </row>
     <row r="261" spans="2:21">
-      <c r="B261" s="31" t="s">
+      <c r="B261" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C261" s="31"/>
-      <c r="D261" s="31" t="s">
+      <c r="C261" s="40"/>
+      <c r="D261" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E261" s="31"/>
-      <c r="F261" s="34" t="s">
+      <c r="E261" s="40"/>
+      <c r="F261" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G261" s="34"/>
-      <c r="H261" s="39"/>
-      <c r="I261" s="33"/>
-      <c r="N261" s="66" t="s">
+      <c r="G261" s="41"/>
+      <c r="H261" s="42"/>
+      <c r="I261" s="43"/>
+      <c r="N261" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="O261" s="66"/>
-      <c r="P261" s="66" t="s">
+      <c r="O261" s="48"/>
+      <c r="P261" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="Q261" s="66"/>
-      <c r="R261" s="67" t="s">
+      <c r="Q261" s="48"/>
+      <c r="R261" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="S261" s="67"/>
-      <c r="T261" s="45"/>
-      <c r="U261" s="44"/>
+      <c r="S261" s="47"/>
+      <c r="T261" s="28"/>
+      <c r="U261" s="27"/>
     </row>
     <row r="262" spans="2:21">
       <c r="B262" t="s">
@@ -37573,108 +37592,108 @@
       <c r="N262" t="s">
         <v>68</v>
       </c>
-      <c r="T262" s="45"/>
-      <c r="U262" s="44"/>
+      <c r="T262" s="28"/>
+      <c r="U262" s="27"/>
     </row>
     <row r="263" spans="2:21">
-      <c r="B263" s="32" t="s">
+      <c r="B263" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C263" s="32"/>
-      <c r="D263" s="32" t="s">
+      <c r="C263" s="37"/>
+      <c r="D263" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E263" s="32"/>
-      <c r="F263" s="32" t="s">
+      <c r="E263" s="37"/>
+      <c r="F263" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G263" s="32"/>
-      <c r="H263" s="39"/>
-      <c r="I263" s="33"/>
-      <c r="N263" s="32" t="s">
+      <c r="G263" s="37"/>
+      <c r="H263" s="42"/>
+      <c r="I263" s="43"/>
+      <c r="N263" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="O263" s="32"/>
-      <c r="P263" s="32" t="s">
+      <c r="O263" s="37"/>
+      <c r="P263" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="Q263" s="32"/>
-      <c r="R263" s="32" t="s">
+      <c r="Q263" s="37"/>
+      <c r="R263" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S263" s="32"/>
-      <c r="T263" s="60"/>
-      <c r="U263" s="61"/>
+      <c r="S263" s="37"/>
+      <c r="T263" s="33"/>
+      <c r="U263" s="34"/>
     </row>
     <row r="264" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B264" s="31" t="s">
+      <c r="B264" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C264" s="31"/>
-      <c r="D264" s="31">
+      <c r="C264" s="40"/>
+      <c r="D264" s="40">
         <v>1</v>
       </c>
-      <c r="E264" s="31"/>
-      <c r="F264" s="34" t="s">
+      <c r="E264" s="40"/>
+      <c r="F264" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G264" s="34"/>
-      <c r="H264" s="39"/>
-      <c r="I264" s="33"/>
-      <c r="N264" s="31" t="s">
+      <c r="G264" s="41"/>
+      <c r="H264" s="42"/>
+      <c r="I264" s="43"/>
+      <c r="N264" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="O264" s="31"/>
-      <c r="P264" s="31">
+      <c r="O264" s="40"/>
+      <c r="P264" s="40">
         <v>1</v>
       </c>
-      <c r="Q264" s="31"/>
-      <c r="R264" s="34" t="s">
+      <c r="Q264" s="40"/>
+      <c r="R264" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S264" s="34"/>
-      <c r="T264" s="41"/>
-      <c r="U264" s="51"/>
+      <c r="S264" s="41"/>
+      <c r="T264" s="39"/>
+      <c r="U264" s="46"/>
     </row>
     <row r="265" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B265" s="31" t="s">
+      <c r="B265" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C265" s="31"/>
-      <c r="D265" s="31">
+      <c r="C265" s="40"/>
+      <c r="D265" s="40">
         <v>1</v>
       </c>
-      <c r="E265" s="31"/>
-      <c r="F265" s="34" t="s">
+      <c r="E265" s="40"/>
+      <c r="F265" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G265" s="34"/>
-      <c r="H265" s="39"/>
-      <c r="I265" s="33"/>
-      <c r="N265" s="31" t="s">
+      <c r="G265" s="41"/>
+      <c r="H265" s="42"/>
+      <c r="I265" s="43"/>
+      <c r="N265" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="O265" s="31"/>
-      <c r="P265" s="31">
+      <c r="O265" s="40"/>
+      <c r="P265" s="40">
         <v>1</v>
       </c>
-      <c r="Q265" s="31"/>
-      <c r="R265" s="34" t="s">
+      <c r="Q265" s="40"/>
+      <c r="R265" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S265" s="34"/>
-      <c r="T265" s="41"/>
-      <c r="U265" s="51"/>
+      <c r="S265" s="41"/>
+      <c r="T265" s="39"/>
+      <c r="U265" s="46"/>
     </row>
     <row r="266" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B266" s="35"/>
-      <c r="C266" s="35"/>
-      <c r="D266" s="35"/>
-      <c r="E266" s="35"/>
-      <c r="F266" s="36"/>
-      <c r="G266" s="36"/>
-      <c r="T266" s="52"/>
-      <c r="U266" s="52"/>
+      <c r="B266" s="25"/>
+      <c r="C266" s="25"/>
+      <c r="D266" s="25"/>
+      <c r="E266" s="25"/>
+      <c r="F266" s="26"/>
+      <c r="G266" s="26"/>
+      <c r="T266" s="36"/>
+      <c r="U266" s="36"/>
     </row>
     <row r="268" spans="2:21">
       <c r="B268" s="2" t="s">
@@ -37700,38 +37719,38 @@
       </c>
     </row>
     <row r="287" spans="2:16">
-      <c r="B287" s="32" t="s">
+      <c r="B287" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C287" s="32"/>
-      <c r="N287" s="32" t="s">
+      <c r="C287" s="37"/>
+      <c r="N287" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O287" s="32"/>
+      <c r="O287" s="37"/>
     </row>
     <row r="288" spans="2:16">
-      <c r="B288" s="31" t="s">
+      <c r="B288" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C288" s="31"/>
-      <c r="N288" s="31" t="s">
+      <c r="C288" s="40"/>
+      <c r="N288" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O288" s="31"/>
-      <c r="P288" s="68" t="s">
+      <c r="O288" s="40"/>
+      <c r="P288" s="35" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="289" spans="2:21">
-      <c r="B289" s="31" t="s">
+      <c r="B289" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C289" s="31"/>
-      <c r="N289" s="31" t="s">
+      <c r="C289" s="40"/>
+      <c r="N289" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="O289" s="31"/>
-      <c r="P289" s="68"/>
+      <c r="O289" s="40"/>
+      <c r="P289" s="35"/>
     </row>
     <row r="290" spans="2:21">
       <c r="B290" t="s">
@@ -37742,94 +37761,94 @@
       </c>
     </row>
     <row r="291" spans="2:21">
-      <c r="B291" s="32" t="s">
+      <c r="B291" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C291" s="32"/>
-      <c r="D291" s="32" t="s">
+      <c r="C291" s="37"/>
+      <c r="D291" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E291" s="32"/>
-      <c r="F291" s="32" t="s">
+      <c r="E291" s="37"/>
+      <c r="F291" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G291" s="32"/>
-      <c r="H291" s="40"/>
-      <c r="I291" s="41"/>
-      <c r="N291" s="32" t="s">
+      <c r="G291" s="37"/>
+      <c r="H291" s="38"/>
+      <c r="I291" s="39"/>
+      <c r="N291" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O291" s="32"/>
-      <c r="P291" s="32" t="s">
+      <c r="O291" s="37"/>
+      <c r="P291" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q291" s="32"/>
-      <c r="R291" s="32" t="s">
+      <c r="Q291" s="37"/>
+      <c r="R291" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S291" s="32"/>
-      <c r="T291" s="46"/>
-      <c r="U291" s="55"/>
+      <c r="S291" s="37"/>
+      <c r="T291" s="29"/>
+      <c r="U291" s="30"/>
     </row>
     <row r="292" spans="2:21">
-      <c r="B292" s="31" t="s">
+      <c r="B292" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C292" s="31"/>
-      <c r="D292" s="31" t="s">
+      <c r="C292" s="40"/>
+      <c r="D292" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E292" s="31"/>
-      <c r="F292" s="34" t="s">
+      <c r="E292" s="40"/>
+      <c r="F292" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G292" s="34"/>
-      <c r="H292" s="39"/>
-      <c r="I292" s="33"/>
-      <c r="N292" s="62" t="s">
+      <c r="G292" s="41"/>
+      <c r="H292" s="42"/>
+      <c r="I292" s="43"/>
+      <c r="N292" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="O292" s="62"/>
-      <c r="P292" s="62" t="s">
+      <c r="O292" s="44"/>
+      <c r="P292" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="Q292" s="62"/>
-      <c r="R292" s="63" t="s">
+      <c r="Q292" s="44"/>
+      <c r="R292" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="S292" s="63"/>
-      <c r="T292" s="45"/>
-      <c r="U292" s="44"/>
+      <c r="S292" s="45"/>
+      <c r="T292" s="28"/>
+      <c r="U292" s="27"/>
     </row>
     <row r="293" spans="2:21">
-      <c r="B293" s="31" t="s">
+      <c r="B293" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C293" s="31"/>
-      <c r="D293" s="31" t="s">
+      <c r="C293" s="40"/>
+      <c r="D293" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E293" s="31"/>
-      <c r="F293" s="34" t="s">
+      <c r="E293" s="40"/>
+      <c r="F293" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G293" s="34"/>
-      <c r="H293" s="39"/>
-      <c r="I293" s="33"/>
-      <c r="N293" s="66" t="s">
+      <c r="G293" s="41"/>
+      <c r="H293" s="42"/>
+      <c r="I293" s="43"/>
+      <c r="N293" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="O293" s="66"/>
-      <c r="P293" s="31" t="s">
+      <c r="O293" s="48"/>
+      <c r="P293" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="Q293" s="31"/>
-      <c r="R293" s="67" t="s">
+      <c r="Q293" s="40"/>
+      <c r="R293" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="S293" s="67"/>
-      <c r="T293" s="45"/>
-      <c r="U293" s="44"/>
+      <c r="S293" s="47"/>
+      <c r="T293" s="28"/>
+      <c r="U293" s="27"/>
     </row>
     <row r="294" spans="2:21">
       <c r="B294" t="s">
@@ -37838,78 +37857,78 @@
       <c r="N294" t="s">
         <v>68</v>
       </c>
-      <c r="T294" s="45"/>
-      <c r="U294" s="44"/>
+      <c r="T294" s="28"/>
+      <c r="U294" s="27"/>
     </row>
     <row r="295" spans="2:21">
-      <c r="B295" s="32" t="s">
+      <c r="B295" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C295" s="32"/>
-      <c r="D295" s="32" t="s">
+      <c r="C295" s="37"/>
+      <c r="D295" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E295" s="32"/>
-      <c r="F295" s="32" t="s">
+      <c r="E295" s="37"/>
+      <c r="F295" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G295" s="32"/>
-      <c r="H295" s="39"/>
-      <c r="I295" s="33"/>
-      <c r="N295" s="32" t="s">
+      <c r="G295" s="37"/>
+      <c r="H295" s="42"/>
+      <c r="I295" s="43"/>
+      <c r="N295" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="O295" s="32"/>
-      <c r="P295" s="32" t="s">
+      <c r="O295" s="37"/>
+      <c r="P295" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="Q295" s="32"/>
-      <c r="R295" s="32" t="s">
+      <c r="Q295" s="37"/>
+      <c r="R295" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S295" s="32"/>
-      <c r="T295" s="60"/>
-      <c r="U295" s="61"/>
+      <c r="S295" s="37"/>
+      <c r="T295" s="33"/>
+      <c r="U295" s="34"/>
     </row>
     <row r="296" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B296" s="31" t="s">
+      <c r="B296" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C296" s="31"/>
-      <c r="D296" s="31">
+      <c r="C296" s="40"/>
+      <c r="D296" s="40">
         <v>1</v>
       </c>
-      <c r="E296" s="31"/>
-      <c r="F296" s="34" t="s">
+      <c r="E296" s="40"/>
+      <c r="F296" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G296" s="34"/>
-      <c r="H296" s="39"/>
-      <c r="I296" s="33"/>
-      <c r="N296" s="31" t="s">
+      <c r="G296" s="41"/>
+      <c r="H296" s="42"/>
+      <c r="I296" s="43"/>
+      <c r="N296" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="O296" s="31"/>
-      <c r="P296" s="31">
+      <c r="O296" s="40"/>
+      <c r="P296" s="40">
         <v>1</v>
       </c>
-      <c r="Q296" s="31"/>
-      <c r="R296" s="34" t="s">
+      <c r="Q296" s="40"/>
+      <c r="R296" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S296" s="34"/>
-      <c r="T296" s="41"/>
-      <c r="U296" s="51"/>
+      <c r="S296" s="41"/>
+      <c r="T296" s="39"/>
+      <c r="U296" s="46"/>
     </row>
     <row r="297" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B297" s="35"/>
-      <c r="C297" s="35"/>
-      <c r="D297" s="35"/>
-      <c r="E297" s="35"/>
-      <c r="F297" s="36"/>
-      <c r="G297" s="36"/>
-      <c r="T297" s="52"/>
-      <c r="U297" s="52"/>
+      <c r="B297" s="25"/>
+      <c r="C297" s="25"/>
+      <c r="D297" s="25"/>
+      <c r="E297" s="25"/>
+      <c r="F297" s="26"/>
+      <c r="G297" s="26"/>
+      <c r="T297" s="36"/>
+      <c r="U297" s="36"/>
     </row>
     <row r="298" spans="2:21">
       <c r="B298" s="2" t="s">
@@ -37935,65 +37954,65 @@
       </c>
     </row>
     <row r="327" spans="2:21">
-      <c r="B327" s="32" t="s">
+      <c r="B327" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C327" s="32"/>
-      <c r="N327" s="32" t="s">
+      <c r="C327" s="37"/>
+      <c r="N327" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O327" s="32"/>
+      <c r="O327" s="37"/>
     </row>
     <row r="328" spans="2:21">
-      <c r="B328" s="31" t="s">
+      <c r="B328" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C328" s="31"/>
-      <c r="N328" s="31" t="s">
+      <c r="C328" s="40"/>
+      <c r="N328" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O328" s="31"/>
+      <c r="O328" s="40"/>
     </row>
     <row r="329" spans="2:21">
-      <c r="B329" s="31" t="s">
+      <c r="B329" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C329" s="31"/>
-      <c r="N329" s="31" t="s">
+      <c r="C329" s="40"/>
+      <c r="N329" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="O329" s="31"/>
-      <c r="P329" s="68"/>
+      <c r="O329" s="40"/>
+      <c r="P329" s="35"/>
     </row>
     <row r="330" spans="2:21">
-      <c r="B330" s="31" t="s">
+      <c r="B330" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C330" s="31"/>
-      <c r="N330" s="31" t="s">
+      <c r="C330" s="40"/>
+      <c r="N330" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="O330" s="31"/>
+      <c r="O330" s="40"/>
     </row>
     <row r="331" spans="2:21">
-      <c r="B331" s="31" t="s">
+      <c r="B331" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C331" s="31"/>
-      <c r="N331" s="31" t="s">
+      <c r="C331" s="40"/>
+      <c r="N331" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="O331" s="31"/>
+      <c r="O331" s="40"/>
     </row>
     <row r="332" spans="2:21">
-      <c r="B332" s="31" t="s">
+      <c r="B332" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C332" s="31"/>
-      <c r="N332" s="31" t="s">
+      <c r="C332" s="40"/>
+      <c r="N332" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="O332" s="31"/>
+      <c r="O332" s="40"/>
     </row>
     <row r="333" spans="2:21">
       <c r="B333" t="s">
@@ -38004,214 +38023,214 @@
       </c>
     </row>
     <row r="334" spans="2:21">
-      <c r="B334" s="32" t="s">
+      <c r="B334" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C334" s="32"/>
-      <c r="D334" s="32" t="s">
+      <c r="C334" s="37"/>
+      <c r="D334" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E334" s="32"/>
-      <c r="F334" s="32" t="s">
+      <c r="E334" s="37"/>
+      <c r="F334" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G334" s="32"/>
-      <c r="H334" s="40"/>
-      <c r="I334" s="41"/>
-      <c r="N334" s="32" t="s">
+      <c r="G334" s="37"/>
+      <c r="H334" s="38"/>
+      <c r="I334" s="39"/>
+      <c r="N334" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O334" s="32"/>
-      <c r="P334" s="32" t="s">
+      <c r="O334" s="37"/>
+      <c r="P334" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q334" s="32"/>
-      <c r="R334" s="32" t="s">
+      <c r="Q334" s="37"/>
+      <c r="R334" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S334" s="32"/>
-      <c r="T334" s="46"/>
-      <c r="U334" s="55"/>
+      <c r="S334" s="37"/>
+      <c r="T334" s="29"/>
+      <c r="U334" s="30"/>
     </row>
     <row r="335" spans="2:21">
-      <c r="B335" s="31" t="s">
+      <c r="B335" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C335" s="31"/>
-      <c r="D335" s="31" t="s">
+      <c r="C335" s="40"/>
+      <c r="D335" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E335" s="31"/>
-      <c r="F335" s="34" t="s">
+      <c r="E335" s="40"/>
+      <c r="F335" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G335" s="34"/>
-      <c r="H335" s="39"/>
-      <c r="I335" s="33"/>
-      <c r="N335" s="62" t="s">
+      <c r="G335" s="41"/>
+      <c r="H335" s="42"/>
+      <c r="I335" s="43"/>
+      <c r="N335" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="O335" s="62"/>
-      <c r="P335" s="62" t="s">
+      <c r="O335" s="44"/>
+      <c r="P335" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="Q335" s="62"/>
-      <c r="R335" s="63" t="s">
+      <c r="Q335" s="44"/>
+      <c r="R335" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="S335" s="63"/>
-      <c r="T335" s="45"/>
-      <c r="U335" s="44"/>
+      <c r="S335" s="45"/>
+      <c r="T335" s="28"/>
+      <c r="U335" s="27"/>
     </row>
     <row r="336" spans="2:21">
-      <c r="B336" s="31" t="s">
+      <c r="B336" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C336" s="31"/>
-      <c r="D336" s="31" t="s">
+      <c r="C336" s="40"/>
+      <c r="D336" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E336" s="31"/>
-      <c r="F336" s="34" t="s">
+      <c r="E336" s="40"/>
+      <c r="F336" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G336" s="34"/>
-      <c r="H336" s="39"/>
-      <c r="I336" s="33"/>
-      <c r="N336" s="66" t="s">
+      <c r="G336" s="41"/>
+      <c r="H336" s="42"/>
+      <c r="I336" s="43"/>
+      <c r="N336" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="O336" s="66"/>
-      <c r="P336" s="31" t="s">
+      <c r="O336" s="48"/>
+      <c r="P336" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="Q336" s="31"/>
-      <c r="R336" s="67" t="s">
+      <c r="Q336" s="40"/>
+      <c r="R336" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="S336" s="67"/>
-      <c r="T336" s="45"/>
-      <c r="U336" s="44"/>
+      <c r="S336" s="47"/>
+      <c r="T336" s="28"/>
+      <c r="U336" s="27"/>
     </row>
     <row r="337" spans="2:21">
-      <c r="B337" s="31" t="s">
+      <c r="B337" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C337" s="31"/>
-      <c r="D337" s="31" t="s">
+      <c r="C337" s="40"/>
+      <c r="D337" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E337" s="31"/>
-      <c r="F337" s="34" t="s">
+      <c r="E337" s="40"/>
+      <c r="F337" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G337" s="34"/>
-      <c r="H337" s="39"/>
-      <c r="I337" s="33"/>
-      <c r="N337" s="31" t="s">
+      <c r="G337" s="41"/>
+      <c r="H337" s="42"/>
+      <c r="I337" s="43"/>
+      <c r="N337" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="O337" s="31"/>
-      <c r="P337" s="31" t="s">
+      <c r="O337" s="40"/>
+      <c r="P337" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="Q337" s="31"/>
-      <c r="R337" s="34" t="s">
+      <c r="Q337" s="40"/>
+      <c r="R337" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S337" s="34"/>
-      <c r="T337" s="45"/>
-      <c r="U337" s="44"/>
+      <c r="S337" s="41"/>
+      <c r="T337" s="28"/>
+      <c r="U337" s="27"/>
     </row>
     <row r="338" spans="2:21">
-      <c r="B338" s="31" t="s">
+      <c r="B338" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C338" s="31"/>
-      <c r="D338" s="31" t="s">
+      <c r="C338" s="40"/>
+      <c r="D338" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="E338" s="31"/>
-      <c r="F338" s="34" t="s">
+      <c r="E338" s="40"/>
+      <c r="F338" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G338" s="34"/>
-      <c r="H338" s="56"/>
-      <c r="I338" s="57"/>
-      <c r="N338" s="31" t="s">
+      <c r="G338" s="41"/>
+      <c r="H338" s="31"/>
+      <c r="I338" s="32"/>
+      <c r="N338" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="O338" s="31"/>
-      <c r="P338" s="31" t="s">
+      <c r="O338" s="40"/>
+      <c r="P338" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="Q338" s="31"/>
-      <c r="R338" s="34" t="s">
+      <c r="Q338" s="40"/>
+      <c r="R338" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S338" s="34"/>
-      <c r="T338" s="45"/>
-      <c r="U338" s="44"/>
+      <c r="S338" s="41"/>
+      <c r="T338" s="28"/>
+      <c r="U338" s="27"/>
     </row>
     <row r="339" spans="2:21">
-      <c r="B339" s="31" t="s">
+      <c r="B339" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C339" s="31"/>
-      <c r="D339" s="31" t="s">
+      <c r="C339" s="40"/>
+      <c r="D339" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="E339" s="31"/>
-      <c r="F339" s="34" t="s">
+      <c r="E339" s="40"/>
+      <c r="F339" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G339" s="34"/>
-      <c r="H339" s="39"/>
-      <c r="I339" s="33"/>
-      <c r="N339" s="66" t="s">
+      <c r="G339" s="41"/>
+      <c r="H339" s="42"/>
+      <c r="I339" s="43"/>
+      <c r="N339" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="O339" s="66"/>
-      <c r="P339" s="31" t="s">
+      <c r="O339" s="48"/>
+      <c r="P339" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="Q339" s="31"/>
-      <c r="R339" s="67" t="s">
+      <c r="Q339" s="40"/>
+      <c r="R339" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="S339" s="67"/>
-      <c r="T339" s="45"/>
-      <c r="U339" s="44"/>
+      <c r="S339" s="47"/>
+      <c r="T339" s="28"/>
+      <c r="U339" s="27"/>
     </row>
     <row r="340" spans="2:21">
-      <c r="B340" s="31" t="s">
+      <c r="B340" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C340" s="31"/>
-      <c r="D340" s="31" t="s">
+      <c r="C340" s="40"/>
+      <c r="D340" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="E340" s="31"/>
-      <c r="F340" s="34" t="s">
+      <c r="E340" s="40"/>
+      <c r="F340" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G340" s="34"/>
-      <c r="H340" s="39"/>
-      <c r="I340" s="33"/>
-      <c r="N340" s="66" t="s">
+      <c r="G340" s="41"/>
+      <c r="H340" s="42"/>
+      <c r="I340" s="43"/>
+      <c r="N340" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="O340" s="66"/>
-      <c r="P340" s="31" t="s">
+      <c r="O340" s="48"/>
+      <c r="P340" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="Q340" s="31"/>
-      <c r="R340" s="67" t="s">
+      <c r="Q340" s="40"/>
+      <c r="R340" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="S340" s="67"/>
-      <c r="T340" s="45"/>
-      <c r="U340" s="44"/>
+      <c r="S340" s="47"/>
+      <c r="T340" s="28"/>
+      <c r="U340" s="27"/>
     </row>
     <row r="341" spans="2:21">
       <c r="B341" t="s">
@@ -38220,108 +38239,108 @@
       <c r="N341" t="s">
         <v>68</v>
       </c>
-      <c r="T341" s="45"/>
-      <c r="U341" s="44"/>
+      <c r="T341" s="28"/>
+      <c r="U341" s="27"/>
     </row>
     <row r="342" spans="2:21">
-      <c r="B342" s="32" t="s">
+      <c r="B342" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C342" s="32"/>
-      <c r="D342" s="32" t="s">
+      <c r="C342" s="37"/>
+      <c r="D342" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E342" s="32"/>
-      <c r="F342" s="32" t="s">
+      <c r="E342" s="37"/>
+      <c r="F342" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G342" s="32"/>
-      <c r="H342" s="39"/>
-      <c r="I342" s="33"/>
-      <c r="N342" s="32" t="s">
+      <c r="G342" s="37"/>
+      <c r="H342" s="42"/>
+      <c r="I342" s="43"/>
+      <c r="N342" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="O342" s="32"/>
-      <c r="P342" s="32" t="s">
+      <c r="O342" s="37"/>
+      <c r="P342" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="Q342" s="32"/>
-      <c r="R342" s="32" t="s">
+      <c r="Q342" s="37"/>
+      <c r="R342" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S342" s="32"/>
-      <c r="T342" s="60"/>
-      <c r="U342" s="61"/>
+      <c r="S342" s="37"/>
+      <c r="T342" s="33"/>
+      <c r="U342" s="34"/>
     </row>
     <row r="343" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B343" s="31" t="s">
+      <c r="B343" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C343" s="31"/>
-      <c r="D343" s="31">
+      <c r="C343" s="40"/>
+      <c r="D343" s="40">
         <v>1</v>
       </c>
-      <c r="E343" s="31"/>
-      <c r="F343" s="34" t="s">
+      <c r="E343" s="40"/>
+      <c r="F343" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G343" s="34"/>
-      <c r="H343" s="39"/>
-      <c r="I343" s="33"/>
-      <c r="N343" s="31" t="s">
+      <c r="G343" s="41"/>
+      <c r="H343" s="42"/>
+      <c r="I343" s="43"/>
+      <c r="N343" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="O343" s="31"/>
-      <c r="P343" s="31">
+      <c r="O343" s="40"/>
+      <c r="P343" s="40">
         <v>1</v>
       </c>
-      <c r="Q343" s="31"/>
-      <c r="R343" s="34" t="s">
+      <c r="Q343" s="40"/>
+      <c r="R343" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S343" s="34"/>
-      <c r="T343" s="41"/>
-      <c r="U343" s="51"/>
+      <c r="S343" s="41"/>
+      <c r="T343" s="39"/>
+      <c r="U343" s="46"/>
     </row>
     <row r="344" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B344" s="31" t="s">
+      <c r="B344" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C344" s="31"/>
-      <c r="D344" s="31">
+      <c r="C344" s="40"/>
+      <c r="D344" s="40">
         <v>1</v>
       </c>
-      <c r="E344" s="31"/>
-      <c r="F344" s="34" t="s">
+      <c r="E344" s="40"/>
+      <c r="F344" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G344" s="34"/>
-      <c r="H344" s="39"/>
-      <c r="I344" s="33"/>
-      <c r="N344" s="31" t="s">
+      <c r="G344" s="41"/>
+      <c r="H344" s="42"/>
+      <c r="I344" s="43"/>
+      <c r="N344" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="O344" s="31"/>
-      <c r="P344" s="31">
+      <c r="O344" s="40"/>
+      <c r="P344" s="40">
         <v>1</v>
       </c>
-      <c r="Q344" s="31"/>
-      <c r="R344" s="34" t="s">
+      <c r="Q344" s="40"/>
+      <c r="R344" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S344" s="34"/>
-      <c r="T344" s="41"/>
-      <c r="U344" s="51"/>
+      <c r="S344" s="41"/>
+      <c r="T344" s="39"/>
+      <c r="U344" s="46"/>
     </row>
     <row r="345" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B345" s="35"/>
-      <c r="C345" s="35"/>
-      <c r="D345" s="35"/>
-      <c r="E345" s="35"/>
-      <c r="F345" s="36"/>
-      <c r="G345" s="36"/>
-      <c r="T345" s="52"/>
-      <c r="U345" s="52"/>
+      <c r="B345" s="25"/>
+      <c r="C345" s="25"/>
+      <c r="D345" s="25"/>
+      <c r="E345" s="25"/>
+      <c r="F345" s="26"/>
+      <c r="G345" s="26"/>
+      <c r="T345" s="36"/>
+      <c r="U345" s="36"/>
     </row>
     <row r="348" spans="2:21" ht="14.25">
       <c r="B348" s="20" t="s">
@@ -38358,22 +38377,22 @@
       <c r="O352" s="24"/>
     </row>
     <row r="353" spans="2:15" ht="66" customHeight="1">
-      <c r="B353" s="25" t="s">
+      <c r="B353" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C353" s="28"/>
-      <c r="D353" s="28"/>
-      <c r="E353" s="28"/>
-      <c r="F353" s="28"/>
-      <c r="G353" s="28"/>
-      <c r="H353" s="28"/>
-      <c r="I353" s="28"/>
-      <c r="J353" s="28"/>
-      <c r="K353" s="28"/>
-      <c r="L353" s="28"/>
-      <c r="M353" s="28"/>
-      <c r="N353" s="28"/>
-      <c r="O353" s="29"/>
+      <c r="C353" s="54"/>
+      <c r="D353" s="54"/>
+      <c r="E353" s="54"/>
+      <c r="F353" s="54"/>
+      <c r="G353" s="54"/>
+      <c r="H353" s="54"/>
+      <c r="I353" s="54"/>
+      <c r="J353" s="54"/>
+      <c r="K353" s="54"/>
+      <c r="L353" s="54"/>
+      <c r="M353" s="54"/>
+      <c r="N353" s="54"/>
+      <c r="O353" s="55"/>
     </row>
     <row r="355" spans="2:15">
       <c r="B355" s="22" t="s">
@@ -38394,22 +38413,22 @@
       <c r="O355" s="24"/>
     </row>
     <row r="356" spans="2:15" ht="30.75" customHeight="1">
-      <c r="B356" s="30" t="s">
+      <c r="B356" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C356" s="26"/>
-      <c r="D356" s="26"/>
-      <c r="E356" s="26"/>
-      <c r="F356" s="26"/>
-      <c r="G356" s="26"/>
-      <c r="H356" s="26"/>
-      <c r="I356" s="26"/>
-      <c r="J356" s="26"/>
-      <c r="K356" s="26"/>
-      <c r="L356" s="26"/>
-      <c r="M356" s="26"/>
-      <c r="N356" s="26"/>
-      <c r="O356" s="27"/>
+      <c r="C356" s="52"/>
+      <c r="D356" s="52"/>
+      <c r="E356" s="52"/>
+      <c r="F356" s="52"/>
+      <c r="G356" s="52"/>
+      <c r="H356" s="52"/>
+      <c r="I356" s="52"/>
+      <c r="J356" s="52"/>
+      <c r="K356" s="52"/>
+      <c r="L356" s="52"/>
+      <c r="M356" s="52"/>
+      <c r="N356" s="52"/>
+      <c r="O356" s="53"/>
     </row>
     <row r="357" spans="2:15">
       <c r="B357" s="22" t="s">
@@ -38430,22 +38449,22 @@
       <c r="O357" s="24"/>
     </row>
     <row r="358" spans="2:15" ht="64.5" customHeight="1">
-      <c r="B358" s="25" t="s">
+      <c r="B358" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C358" s="26"/>
-      <c r="D358" s="26"/>
-      <c r="E358" s="26"/>
-      <c r="F358" s="26"/>
-      <c r="G358" s="26"/>
-      <c r="H358" s="26"/>
-      <c r="I358" s="26"/>
-      <c r="J358" s="26"/>
-      <c r="K358" s="26"/>
-      <c r="L358" s="26"/>
-      <c r="M358" s="26"/>
-      <c r="N358" s="26"/>
-      <c r="O358" s="27"/>
+      <c r="C358" s="52"/>
+      <c r="D358" s="52"/>
+      <c r="E358" s="52"/>
+      <c r="F358" s="52"/>
+      <c r="G358" s="52"/>
+      <c r="H358" s="52"/>
+      <c r="I358" s="52"/>
+      <c r="J358" s="52"/>
+      <c r="K358" s="52"/>
+      <c r="L358" s="52"/>
+      <c r="M358" s="52"/>
+      <c r="N358" s="52"/>
+      <c r="O358" s="53"/>
     </row>
     <row r="359" spans="2:15">
       <c r="B359" s="22" t="s">
@@ -38466,22 +38485,22 @@
       <c r="O359" s="24"/>
     </row>
     <row r="360" spans="2:15" ht="66.75" customHeight="1">
-      <c r="B360" s="25" t="s">
+      <c r="B360" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C360" s="26"/>
-      <c r="D360" s="26"/>
-      <c r="E360" s="26"/>
-      <c r="F360" s="26"/>
-      <c r="G360" s="26"/>
-      <c r="H360" s="26"/>
-      <c r="I360" s="26"/>
-      <c r="J360" s="26"/>
-      <c r="K360" s="26"/>
-      <c r="L360" s="26"/>
-      <c r="M360" s="26"/>
-      <c r="N360" s="26"/>
-      <c r="O360" s="27"/>
+      <c r="C360" s="52"/>
+      <c r="D360" s="52"/>
+      <c r="E360" s="52"/>
+      <c r="F360" s="52"/>
+      <c r="G360" s="52"/>
+      <c r="H360" s="52"/>
+      <c r="I360" s="52"/>
+      <c r="J360" s="52"/>
+      <c r="K360" s="52"/>
+      <c r="L360" s="52"/>
+      <c r="M360" s="52"/>
+      <c r="N360" s="52"/>
+      <c r="O360" s="53"/>
     </row>
     <row r="361" spans="2:15">
       <c r="B361" s="22" t="s">
@@ -38502,22 +38521,22 @@
       <c r="O361" s="24"/>
     </row>
     <row r="362" spans="2:15" ht="61.5" customHeight="1">
-      <c r="B362" s="25" t="s">
+      <c r="B362" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C362" s="26"/>
-      <c r="D362" s="26"/>
-      <c r="E362" s="26"/>
-      <c r="F362" s="26"/>
-      <c r="G362" s="26"/>
-      <c r="H362" s="26"/>
-      <c r="I362" s="26"/>
-      <c r="J362" s="26"/>
-      <c r="K362" s="26"/>
-      <c r="L362" s="26"/>
-      <c r="M362" s="26"/>
-      <c r="N362" s="26"/>
-      <c r="O362" s="27"/>
+      <c r="C362" s="52"/>
+      <c r="D362" s="52"/>
+      <c r="E362" s="52"/>
+      <c r="F362" s="52"/>
+      <c r="G362" s="52"/>
+      <c r="H362" s="52"/>
+      <c r="I362" s="52"/>
+      <c r="J362" s="52"/>
+      <c r="K362" s="52"/>
+      <c r="L362" s="52"/>
+      <c r="M362" s="52"/>
+      <c r="N362" s="52"/>
+      <c r="O362" s="53"/>
     </row>
     <row r="363" spans="2:15">
       <c r="B363" s="22" t="s">
@@ -38538,22 +38557,22 @@
       <c r="O363" s="24"/>
     </row>
     <row r="364" spans="2:15" ht="66.75" customHeight="1">
-      <c r="B364" s="25" t="s">
+      <c r="B364" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C364" s="26"/>
-      <c r="D364" s="26"/>
-      <c r="E364" s="26"/>
-      <c r="F364" s="26"/>
-      <c r="G364" s="26"/>
-      <c r="H364" s="26"/>
-      <c r="I364" s="26"/>
-      <c r="J364" s="26"/>
-      <c r="K364" s="26"/>
-      <c r="L364" s="26"/>
-      <c r="M364" s="26"/>
-      <c r="N364" s="26"/>
-      <c r="O364" s="27"/>
+      <c r="C364" s="52"/>
+      <c r="D364" s="52"/>
+      <c r="E364" s="52"/>
+      <c r="F364" s="52"/>
+      <c r="G364" s="52"/>
+      <c r="H364" s="52"/>
+      <c r="I364" s="52"/>
+      <c r="J364" s="52"/>
+      <c r="K364" s="52"/>
+      <c r="L364" s="52"/>
+      <c r="M364" s="52"/>
+      <c r="N364" s="52"/>
+      <c r="O364" s="53"/>
     </row>
     <row r="365" spans="2:15">
       <c r="B365" s="22" t="s">
@@ -38574,22 +38593,22 @@
       <c r="O365" s="24"/>
     </row>
     <row r="366" spans="2:15" ht="67.5" customHeight="1">
-      <c r="B366" s="25" t="s">
+      <c r="B366" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C366" s="26"/>
-      <c r="D366" s="26"/>
-      <c r="E366" s="26"/>
-      <c r="F366" s="26"/>
-      <c r="G366" s="26"/>
-      <c r="H366" s="26"/>
-      <c r="I366" s="26"/>
-      <c r="J366" s="26"/>
-      <c r="K366" s="26"/>
-      <c r="L366" s="26"/>
-      <c r="M366" s="26"/>
-      <c r="N366" s="26"/>
-      <c r="O366" s="27"/>
+      <c r="C366" s="52"/>
+      <c r="D366" s="52"/>
+      <c r="E366" s="52"/>
+      <c r="F366" s="52"/>
+      <c r="G366" s="52"/>
+      <c r="H366" s="52"/>
+      <c r="I366" s="52"/>
+      <c r="J366" s="52"/>
+      <c r="K366" s="52"/>
+      <c r="L366" s="52"/>
+      <c r="M366" s="52"/>
+      <c r="N366" s="52"/>
+      <c r="O366" s="53"/>
     </row>
     <row r="367" spans="2:15">
       <c r="B367" s="22" t="s">
@@ -38610,25 +38629,483 @@
       <c r="O367" s="24"/>
     </row>
     <row r="368" spans="2:15" ht="54" customHeight="1">
-      <c r="B368" s="25" t="s">
+      <c r="B368" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C368" s="26"/>
-      <c r="D368" s="26"/>
-      <c r="E368" s="26"/>
-      <c r="F368" s="26"/>
-      <c r="G368" s="26"/>
-      <c r="H368" s="26"/>
-      <c r="I368" s="26"/>
-      <c r="J368" s="26"/>
-      <c r="K368" s="26"/>
-      <c r="L368" s="26"/>
-      <c r="M368" s="26"/>
-      <c r="N368" s="26"/>
-      <c r="O368" s="27"/>
+      <c r="C368" s="52"/>
+      <c r="D368" s="52"/>
+      <c r="E368" s="52"/>
+      <c r="F368" s="52"/>
+      <c r="G368" s="52"/>
+      <c r="H368" s="52"/>
+      <c r="I368" s="52"/>
+      <c r="J368" s="52"/>
+      <c r="K368" s="52"/>
+      <c r="L368" s="52"/>
+      <c r="M368" s="52"/>
+      <c r="N368" s="52"/>
+      <c r="O368" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="482">
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="B366:O366"/>
+    <mergeCell ref="B368:O368"/>
+    <mergeCell ref="B353:O353"/>
+    <mergeCell ref="B356:O356"/>
+    <mergeCell ref="B358:O358"/>
+    <mergeCell ref="B360:O360"/>
+    <mergeCell ref="B362:O362"/>
+    <mergeCell ref="B364:O364"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="R115:S115"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="R110:S110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="R111:S111"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="R116:S116"/>
+    <mergeCell ref="T116:U116"/>
+    <mergeCell ref="T117:U117"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="R113:S113"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="R112:S112"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="N156:O156"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="P156:Q156"/>
+    <mergeCell ref="R156:S156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="N157:O157"/>
+    <mergeCell ref="P157:Q157"/>
+    <mergeCell ref="R157:S157"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="N159:O159"/>
+    <mergeCell ref="P159:Q159"/>
+    <mergeCell ref="R159:S159"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="N158:O158"/>
+    <mergeCell ref="T165:U165"/>
+    <mergeCell ref="T167:U167"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="N161:O161"/>
+    <mergeCell ref="P161:Q161"/>
+    <mergeCell ref="R161:S161"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="N166:O166"/>
+    <mergeCell ref="P166:Q166"/>
+    <mergeCell ref="R166:S166"/>
+    <mergeCell ref="T166:U166"/>
+    <mergeCell ref="P164:Q164"/>
+    <mergeCell ref="R164:S164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="N165:O165"/>
+    <mergeCell ref="P165:Q165"/>
+    <mergeCell ref="R165:S165"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="N199:O199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="N200:O200"/>
+    <mergeCell ref="N160:O160"/>
+    <mergeCell ref="P160:Q160"/>
+    <mergeCell ref="R160:S160"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="N164:O164"/>
+    <mergeCell ref="P158:Q158"/>
+    <mergeCell ref="R158:S158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="N204:O204"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="F206:G206"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="N206:O206"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="N201:O201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="N202:O202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="N203:O203"/>
+    <mergeCell ref="P206:Q206"/>
+    <mergeCell ref="R206:S206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="F207:G207"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="P207:Q207"/>
+    <mergeCell ref="R207:S207"/>
+    <mergeCell ref="P208:Q208"/>
+    <mergeCell ref="R208:S208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="F209:G209"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="N209:O209"/>
+    <mergeCell ref="P209:Q209"/>
+    <mergeCell ref="R209:S209"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="F208:G208"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="N208:O208"/>
+    <mergeCell ref="R210:S210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="F211:G211"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="N211:O211"/>
+    <mergeCell ref="P211:Q211"/>
+    <mergeCell ref="R211:S211"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="F210:G210"/>
+    <mergeCell ref="N210:O210"/>
+    <mergeCell ref="P210:Q210"/>
+    <mergeCell ref="P214:Q214"/>
+    <mergeCell ref="R214:S214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="F215:G215"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="N215:O215"/>
+    <mergeCell ref="P215:Q215"/>
+    <mergeCell ref="R215:S215"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="N214:O214"/>
+    <mergeCell ref="T217:U217"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="N162:O162"/>
+    <mergeCell ref="P162:Q162"/>
+    <mergeCell ref="R162:S162"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="N212:O212"/>
+    <mergeCell ref="P212:Q212"/>
+    <mergeCell ref="R212:S212"/>
+    <mergeCell ref="T215:U215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="N216:O216"/>
+    <mergeCell ref="P216:Q216"/>
+    <mergeCell ref="R216:S216"/>
+    <mergeCell ref="T216:U216"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="N251:O251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="N248:O248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="N249:O249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="N250:O250"/>
+    <mergeCell ref="P255:Q255"/>
+    <mergeCell ref="R255:S255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="F256:G256"/>
+    <mergeCell ref="H256:I256"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="P256:Q256"/>
+    <mergeCell ref="R256:S256"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="F255:G255"/>
+    <mergeCell ref="H255:I255"/>
+    <mergeCell ref="N255:O255"/>
+    <mergeCell ref="P257:Q257"/>
+    <mergeCell ref="R257:S257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="P258:Q258"/>
+    <mergeCell ref="R258:S258"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="F257:G257"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="R259:S259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="H260:I260"/>
+    <mergeCell ref="N260:O260"/>
+    <mergeCell ref="P260:Q260"/>
+    <mergeCell ref="R260:S260"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="F259:G259"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="P259:Q259"/>
+    <mergeCell ref="P261:Q261"/>
+    <mergeCell ref="R261:S261"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="F263:G263"/>
+    <mergeCell ref="H263:I263"/>
+    <mergeCell ref="N263:O263"/>
+    <mergeCell ref="P263:Q263"/>
+    <mergeCell ref="R263:S263"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="F261:G261"/>
+    <mergeCell ref="H261:I261"/>
+    <mergeCell ref="N261:O261"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="N288:O288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="N289:O289"/>
+    <mergeCell ref="T266:U266"/>
+    <mergeCell ref="P264:Q264"/>
+    <mergeCell ref="R264:S264"/>
+    <mergeCell ref="T264:U264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="N265:O265"/>
+    <mergeCell ref="P265:Q265"/>
+    <mergeCell ref="R265:S265"/>
+    <mergeCell ref="T265:U265"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="F264:G264"/>
+    <mergeCell ref="H264:I264"/>
+    <mergeCell ref="N264:O264"/>
+    <mergeCell ref="P293:Q293"/>
+    <mergeCell ref="R293:S293"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="N291:O291"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="D293:E293"/>
+    <mergeCell ref="F293:G293"/>
+    <mergeCell ref="H293:I293"/>
+    <mergeCell ref="N293:O293"/>
+    <mergeCell ref="B327:C327"/>
+    <mergeCell ref="N327:O327"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="N328:O328"/>
+    <mergeCell ref="P295:Q295"/>
+    <mergeCell ref="R295:S295"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="F296:G296"/>
+    <mergeCell ref="H296:I296"/>
+    <mergeCell ref="N296:O296"/>
+    <mergeCell ref="P296:Q296"/>
+    <mergeCell ref="R296:S296"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="D295:E295"/>
+    <mergeCell ref="F295:G295"/>
+    <mergeCell ref="H295:I295"/>
+    <mergeCell ref="N295:O295"/>
+    <mergeCell ref="B332:C332"/>
+    <mergeCell ref="N332:O332"/>
+    <mergeCell ref="B334:C334"/>
+    <mergeCell ref="D334:E334"/>
+    <mergeCell ref="F334:G334"/>
+    <mergeCell ref="H334:I334"/>
+    <mergeCell ref="N334:O334"/>
+    <mergeCell ref="B329:C329"/>
+    <mergeCell ref="N329:O329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="N330:O330"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="N331:O331"/>
+    <mergeCell ref="P334:Q334"/>
+    <mergeCell ref="R334:S334"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="D335:E335"/>
+    <mergeCell ref="F335:G335"/>
+    <mergeCell ref="H335:I335"/>
+    <mergeCell ref="N335:O335"/>
+    <mergeCell ref="P335:Q335"/>
+    <mergeCell ref="R335:S335"/>
+    <mergeCell ref="P336:Q336"/>
+    <mergeCell ref="R336:S336"/>
+    <mergeCell ref="B337:C337"/>
+    <mergeCell ref="D337:E337"/>
+    <mergeCell ref="F337:G337"/>
+    <mergeCell ref="H337:I337"/>
+    <mergeCell ref="N337:O337"/>
+    <mergeCell ref="P337:Q337"/>
+    <mergeCell ref="R337:S337"/>
+    <mergeCell ref="B336:C336"/>
+    <mergeCell ref="D336:E336"/>
+    <mergeCell ref="F336:G336"/>
+    <mergeCell ref="H336:I336"/>
+    <mergeCell ref="N336:O336"/>
+    <mergeCell ref="R338:S338"/>
+    <mergeCell ref="B339:C339"/>
+    <mergeCell ref="D339:E339"/>
+    <mergeCell ref="F339:G339"/>
+    <mergeCell ref="H339:I339"/>
+    <mergeCell ref="N339:O339"/>
+    <mergeCell ref="P339:Q339"/>
+    <mergeCell ref="R339:S339"/>
+    <mergeCell ref="B338:C338"/>
+    <mergeCell ref="D338:E338"/>
+    <mergeCell ref="F338:G338"/>
+    <mergeCell ref="N338:O338"/>
+    <mergeCell ref="P338:Q338"/>
+    <mergeCell ref="P340:Q340"/>
+    <mergeCell ref="R340:S340"/>
+    <mergeCell ref="B342:C342"/>
+    <mergeCell ref="D342:E342"/>
+    <mergeCell ref="F342:G342"/>
+    <mergeCell ref="H342:I342"/>
+    <mergeCell ref="N342:O342"/>
+    <mergeCell ref="P342:Q342"/>
+    <mergeCell ref="R342:S342"/>
+    <mergeCell ref="B340:C340"/>
+    <mergeCell ref="D340:E340"/>
+    <mergeCell ref="F340:G340"/>
+    <mergeCell ref="H340:I340"/>
+    <mergeCell ref="N340:O340"/>
+    <mergeCell ref="N344:O344"/>
+    <mergeCell ref="P344:Q344"/>
+    <mergeCell ref="R344:S344"/>
+    <mergeCell ref="T344:U344"/>
+    <mergeCell ref="B343:C343"/>
+    <mergeCell ref="D343:E343"/>
+    <mergeCell ref="F343:G343"/>
+    <mergeCell ref="H343:I343"/>
+    <mergeCell ref="N343:O343"/>
     <mergeCell ref="T297:U297"/>
     <mergeCell ref="T345:U345"/>
     <mergeCell ref="B287:C287"/>
@@ -38653,464 +39130,6 @@
     <mergeCell ref="D344:E344"/>
     <mergeCell ref="F344:G344"/>
     <mergeCell ref="H344:I344"/>
-    <mergeCell ref="N344:O344"/>
-    <mergeCell ref="P344:Q344"/>
-    <mergeCell ref="R344:S344"/>
-    <mergeCell ref="T344:U344"/>
-    <mergeCell ref="B343:C343"/>
-    <mergeCell ref="D343:E343"/>
-    <mergeCell ref="F343:G343"/>
-    <mergeCell ref="H343:I343"/>
-    <mergeCell ref="N343:O343"/>
-    <mergeCell ref="P340:Q340"/>
-    <mergeCell ref="R340:S340"/>
-    <mergeCell ref="B342:C342"/>
-    <mergeCell ref="D342:E342"/>
-    <mergeCell ref="F342:G342"/>
-    <mergeCell ref="H342:I342"/>
-    <mergeCell ref="N342:O342"/>
-    <mergeCell ref="P342:Q342"/>
-    <mergeCell ref="R342:S342"/>
-    <mergeCell ref="B340:C340"/>
-    <mergeCell ref="D340:E340"/>
-    <mergeCell ref="F340:G340"/>
-    <mergeCell ref="H340:I340"/>
-    <mergeCell ref="N340:O340"/>
-    <mergeCell ref="R338:S338"/>
-    <mergeCell ref="B339:C339"/>
-    <mergeCell ref="D339:E339"/>
-    <mergeCell ref="F339:G339"/>
-    <mergeCell ref="H339:I339"/>
-    <mergeCell ref="N339:O339"/>
-    <mergeCell ref="P339:Q339"/>
-    <mergeCell ref="R339:S339"/>
-    <mergeCell ref="B338:C338"/>
-    <mergeCell ref="D338:E338"/>
-    <mergeCell ref="F338:G338"/>
-    <mergeCell ref="N338:O338"/>
-    <mergeCell ref="P338:Q338"/>
-    <mergeCell ref="P336:Q336"/>
-    <mergeCell ref="R336:S336"/>
-    <mergeCell ref="B337:C337"/>
-    <mergeCell ref="D337:E337"/>
-    <mergeCell ref="F337:G337"/>
-    <mergeCell ref="H337:I337"/>
-    <mergeCell ref="N337:O337"/>
-    <mergeCell ref="P337:Q337"/>
-    <mergeCell ref="R337:S337"/>
-    <mergeCell ref="B336:C336"/>
-    <mergeCell ref="D336:E336"/>
-    <mergeCell ref="F336:G336"/>
-    <mergeCell ref="H336:I336"/>
-    <mergeCell ref="N336:O336"/>
-    <mergeCell ref="P334:Q334"/>
-    <mergeCell ref="R334:S334"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="D335:E335"/>
-    <mergeCell ref="F335:G335"/>
-    <mergeCell ref="H335:I335"/>
-    <mergeCell ref="N335:O335"/>
-    <mergeCell ref="P335:Q335"/>
-    <mergeCell ref="R335:S335"/>
-    <mergeCell ref="B332:C332"/>
-    <mergeCell ref="N332:O332"/>
-    <mergeCell ref="B334:C334"/>
-    <mergeCell ref="D334:E334"/>
-    <mergeCell ref="F334:G334"/>
-    <mergeCell ref="H334:I334"/>
-    <mergeCell ref="N334:O334"/>
-    <mergeCell ref="B329:C329"/>
-    <mergeCell ref="N329:O329"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="N330:O330"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="N331:O331"/>
-    <mergeCell ref="B327:C327"/>
-    <mergeCell ref="N327:O327"/>
-    <mergeCell ref="B328:C328"/>
-    <mergeCell ref="N328:O328"/>
-    <mergeCell ref="P295:Q295"/>
-    <mergeCell ref="R295:S295"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="D296:E296"/>
-    <mergeCell ref="F296:G296"/>
-    <mergeCell ref="H296:I296"/>
-    <mergeCell ref="N296:O296"/>
-    <mergeCell ref="P296:Q296"/>
-    <mergeCell ref="R296:S296"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="D295:E295"/>
-    <mergeCell ref="F295:G295"/>
-    <mergeCell ref="H295:I295"/>
-    <mergeCell ref="N295:O295"/>
-    <mergeCell ref="P293:Q293"/>
-    <mergeCell ref="R293:S293"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="N291:O291"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="D293:E293"/>
-    <mergeCell ref="F293:G293"/>
-    <mergeCell ref="H293:I293"/>
-    <mergeCell ref="N293:O293"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="N288:O288"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="N289:O289"/>
-    <mergeCell ref="T266:U266"/>
-    <mergeCell ref="P264:Q264"/>
-    <mergeCell ref="R264:S264"/>
-    <mergeCell ref="T264:U264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="N265:O265"/>
-    <mergeCell ref="P265:Q265"/>
-    <mergeCell ref="R265:S265"/>
-    <mergeCell ref="T265:U265"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="F264:G264"/>
-    <mergeCell ref="H264:I264"/>
-    <mergeCell ref="N264:O264"/>
-    <mergeCell ref="P261:Q261"/>
-    <mergeCell ref="R261:S261"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="F263:G263"/>
-    <mergeCell ref="H263:I263"/>
-    <mergeCell ref="N263:O263"/>
-    <mergeCell ref="P263:Q263"/>
-    <mergeCell ref="R263:S263"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="F261:G261"/>
-    <mergeCell ref="H261:I261"/>
-    <mergeCell ref="N261:O261"/>
-    <mergeCell ref="R259:S259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="H260:I260"/>
-    <mergeCell ref="N260:O260"/>
-    <mergeCell ref="P260:Q260"/>
-    <mergeCell ref="R260:S260"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="F259:G259"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="P259:Q259"/>
-    <mergeCell ref="P257:Q257"/>
-    <mergeCell ref="R257:S257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="H258:I258"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="P258:Q258"/>
-    <mergeCell ref="R258:S258"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="F257:G257"/>
-    <mergeCell ref="H257:I257"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="P255:Q255"/>
-    <mergeCell ref="R255:S255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="F256:G256"/>
-    <mergeCell ref="H256:I256"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="P256:Q256"/>
-    <mergeCell ref="R256:S256"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="F255:G255"/>
-    <mergeCell ref="H255:I255"/>
-    <mergeCell ref="N255:O255"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="N251:O251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="N248:O248"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="N249:O249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="N250:O250"/>
-    <mergeCell ref="T217:U217"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="N162:O162"/>
-    <mergeCell ref="P162:Q162"/>
-    <mergeCell ref="R162:S162"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="N212:O212"/>
-    <mergeCell ref="P212:Q212"/>
-    <mergeCell ref="R212:S212"/>
-    <mergeCell ref="T215:U215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="F216:G216"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="N216:O216"/>
-    <mergeCell ref="P216:Q216"/>
-    <mergeCell ref="R216:S216"/>
-    <mergeCell ref="T216:U216"/>
-    <mergeCell ref="P214:Q214"/>
-    <mergeCell ref="R214:S214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="F215:G215"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="N215:O215"/>
-    <mergeCell ref="P215:Q215"/>
-    <mergeCell ref="R215:S215"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="N214:O214"/>
-    <mergeCell ref="R210:S210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="F211:G211"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="N211:O211"/>
-    <mergeCell ref="P211:Q211"/>
-    <mergeCell ref="R211:S211"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="F210:G210"/>
-    <mergeCell ref="N210:O210"/>
-    <mergeCell ref="P210:Q210"/>
-    <mergeCell ref="P208:Q208"/>
-    <mergeCell ref="R208:S208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="F209:G209"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="N209:O209"/>
-    <mergeCell ref="P209:Q209"/>
-    <mergeCell ref="R209:S209"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="F208:G208"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="N208:O208"/>
-    <mergeCell ref="P206:Q206"/>
-    <mergeCell ref="R206:S206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="F207:G207"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="P207:Q207"/>
-    <mergeCell ref="R207:S207"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="N204:O204"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="F206:G206"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="N201:O201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="N202:O202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="N203:O203"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="N199:O199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="N200:O200"/>
-    <mergeCell ref="N160:O160"/>
-    <mergeCell ref="P160:Q160"/>
-    <mergeCell ref="R160:S160"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="T165:U165"/>
-    <mergeCell ref="T167:U167"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="N161:O161"/>
-    <mergeCell ref="P161:Q161"/>
-    <mergeCell ref="R161:S161"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="N166:O166"/>
-    <mergeCell ref="P166:Q166"/>
-    <mergeCell ref="R166:S166"/>
-    <mergeCell ref="T166:U166"/>
-    <mergeCell ref="P164:Q164"/>
-    <mergeCell ref="R164:S164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="N165:O165"/>
-    <mergeCell ref="P165:Q165"/>
-    <mergeCell ref="R165:S165"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="N164:O164"/>
-    <mergeCell ref="P158:Q158"/>
-    <mergeCell ref="R158:S158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="N159:O159"/>
-    <mergeCell ref="P159:Q159"/>
-    <mergeCell ref="R159:S159"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="N158:O158"/>
-    <mergeCell ref="P156:Q156"/>
-    <mergeCell ref="R156:S156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="N157:O157"/>
-    <mergeCell ref="P157:Q157"/>
-    <mergeCell ref="R157:S157"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="N156:O156"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="R116:S116"/>
-    <mergeCell ref="T116:U116"/>
-    <mergeCell ref="T117:U117"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="N108:O108"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="R113:S113"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="R112:S112"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="R115:S115"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="R110:S110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="R111:S111"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="B366:O366"/>
-    <mergeCell ref="B368:O368"/>
-    <mergeCell ref="B353:O353"/>
-    <mergeCell ref="B356:O356"/>
-    <mergeCell ref="B358:O358"/>
-    <mergeCell ref="B360:O360"/>
-    <mergeCell ref="B362:O362"/>
-    <mergeCell ref="B364:O364"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -39119,12 +39138,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U266"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -39379,54 +39398,54 @@
       </c>
     </row>
     <row r="57" spans="2:21">
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="32"/>
-      <c r="N57" s="32" t="s">
+      <c r="C57" s="37"/>
+      <c r="N57" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O57" s="32"/>
+      <c r="O57" s="37"/>
     </row>
     <row r="58" spans="2:21">
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="N58" s="31" t="s">
+      <c r="C58" s="40"/>
+      <c r="N58" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O58" s="31"/>
+      <c r="O58" s="40"/>
     </row>
     <row r="59" spans="2:21">
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="N59" s="31" t="s">
+      <c r="C59" s="40"/>
+      <c r="N59" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="O59" s="31"/>
+      <c r="O59" s="40"/>
     </row>
     <row r="60" spans="2:21">
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="N60" s="31" t="s">
+      <c r="C60" s="40"/>
+      <c r="N60" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="O60" s="31"/>
+      <c r="O60" s="40"/>
     </row>
     <row r="61" spans="2:21">
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="N61" s="31" t="s">
+      <c r="C61" s="40"/>
+      <c r="N61" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="O61" s="31"/>
+      <c r="O61" s="40"/>
     </row>
     <row r="62" spans="2:21">
       <c r="B62" t="s">
@@ -39437,232 +39456,232 @@
       </c>
     </row>
     <row r="63" spans="2:21">
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32" t="s">
+      <c r="C63" s="37"/>
+      <c r="D63" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32" t="s">
+      <c r="E63" s="37"/>
+      <c r="F63" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G63" s="32"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="41"/>
-      <c r="N63" s="32" t="s">
+      <c r="G63" s="37"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="39"/>
+      <c r="N63" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32" t="s">
+      <c r="O63" s="37"/>
+      <c r="P63" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32" t="s">
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S63" s="32"/>
-      <c r="T63" s="46"/>
-      <c r="U63" s="55"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="30"/>
     </row>
     <row r="64" spans="2:21">
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31" t="s">
+      <c r="C64" s="40"/>
+      <c r="D64" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E64" s="31"/>
-      <c r="F64" s="34" t="s">
+      <c r="E64" s="40"/>
+      <c r="F64" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="34"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="33"/>
-      <c r="N64" s="31" t="s">
+      <c r="G64" s="41"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="43"/>
+      <c r="N64" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31" t="s">
+      <c r="O64" s="40"/>
+      <c r="P64" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="34" t="s">
+      <c r="Q64" s="40"/>
+      <c r="R64" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S64" s="34"/>
-      <c r="T64" s="45"/>
-      <c r="U64" s="44"/>
+      <c r="S64" s="41"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="27"/>
     </row>
     <row r="65" spans="2:21">
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31" t="s">
+      <c r="C65" s="40"/>
+      <c r="D65" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="34" t="s">
+      <c r="E65" s="40"/>
+      <c r="F65" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G65" s="34"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="33"/>
-      <c r="N65" s="31" t="s">
+      <c r="G65" s="41"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="43"/>
+      <c r="N65" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31" t="s">
+      <c r="O65" s="40"/>
+      <c r="P65" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="34" t="s">
+      <c r="Q65" s="40"/>
+      <c r="R65" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S65" s="34"/>
-      <c r="T65" s="45"/>
-      <c r="U65" s="44"/>
+      <c r="S65" s="41"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="27"/>
     </row>
     <row r="66" spans="2:21">
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31" t="s">
+      <c r="C66" s="40"/>
+      <c r="D66" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="34" t="s">
+      <c r="E66" s="40"/>
+      <c r="F66" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G66" s="34"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="33"/>
-      <c r="N66" s="31" t="s">
+      <c r="G66" s="41"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="43"/>
+      <c r="N66" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31" t="s">
+      <c r="O66" s="40"/>
+      <c r="P66" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="34" t="s">
+      <c r="Q66" s="40"/>
+      <c r="R66" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S66" s="34"/>
-      <c r="T66" s="45"/>
-      <c r="U66" s="44"/>
+      <c r="S66" s="41"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="27"/>
     </row>
     <row r="67" spans="2:21">
       <c r="B67" t="s">
         <v>68</v>
       </c>
-      <c r="N67" s="53" t="s">
+      <c r="N67" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="O67" s="54"/>
-      <c r="P67" s="53" t="s">
+      <c r="O67" s="68"/>
+      <c r="P67" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="58" t="s">
+      <c r="Q67" s="68"/>
+      <c r="R67" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="S67" s="59"/>
-      <c r="T67" s="45"/>
-      <c r="U67" s="44"/>
+      <c r="S67" s="66"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="27"/>
     </row>
     <row r="68" spans="2:21">
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32" t="s">
+      <c r="C68" s="37"/>
+      <c r="D68" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32" t="s">
+      <c r="E68" s="37"/>
+      <c r="F68" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32" t="s">
+      <c r="G68" s="37"/>
+      <c r="H68" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I68" s="32"/>
+      <c r="I68" s="37"/>
       <c r="N68" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31">
+      <c r="C69" s="40"/>
+      <c r="D69" s="40">
         <v>1</v>
       </c>
-      <c r="E69" s="31"/>
-      <c r="F69" s="34" t="s">
+      <c r="E69" s="40"/>
+      <c r="F69" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="34"/>
-      <c r="H69" s="31" t="s">
+      <c r="G69" s="41"/>
+      <c r="H69" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I69" s="31"/>
-      <c r="N69" s="32" t="s">
+      <c r="I69" s="40"/>
+      <c r="N69" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32" t="s">
+      <c r="O69" s="37"/>
+      <c r="P69" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="Q69" s="32"/>
-      <c r="R69" s="32" t="s">
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S69" s="32"/>
-      <c r="T69" s="32" t="s">
+      <c r="S69" s="37"/>
+      <c r="T69" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="U69" s="32"/>
+      <c r="U69" s="37"/>
     </row>
     <row r="70" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="N70" s="31" t="s">
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="N70" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="O70" s="31"/>
-      <c r="P70" s="31">
+      <c r="O70" s="40"/>
+      <c r="P70" s="40">
         <v>1</v>
       </c>
-      <c r="Q70" s="31"/>
-      <c r="R70" s="34" t="s">
+      <c r="Q70" s="40"/>
+      <c r="R70" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S70" s="34"/>
-      <c r="T70" s="43" t="s">
+      <c r="S70" s="41"/>
+      <c r="T70" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="U70" s="43"/>
+      <c r="U70" s="59"/>
     </row>
     <row r="72" spans="2:21">
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="44"/>
-      <c r="U72" s="44"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="26"/>
+      <c r="S72" s="26"/>
+      <c r="T72" s="27"/>
+      <c r="U72" s="27"/>
     </row>
     <row r="73" spans="2:21">
       <c r="B73" s="2" t="s">
@@ -39685,433 +39704,433 @@
       </c>
     </row>
     <row r="131" spans="2:21">
-      <c r="B131" s="32" t="s">
+      <c r="B131" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C131" s="32"/>
+      <c r="C131" s="37"/>
       <c r="N131" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="132" spans="2:21">
-      <c r="B132" s="31" t="s">
+      <c r="B132" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C132" s="31"/>
-      <c r="N132" s="37" t="s">
+      <c r="C132" s="40"/>
+      <c r="N132" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="O132" s="38"/>
+      <c r="O132" s="58"/>
     </row>
     <row r="133" spans="2:21">
-      <c r="B133" s="31" t="s">
+      <c r="B133" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C133" s="31"/>
-      <c r="N133" s="47" t="s">
+      <c r="C133" s="40"/>
+      <c r="N133" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="O133" s="48"/>
+      <c r="O133" s="61"/>
     </row>
     <row r="134" spans="2:21">
-      <c r="B134" s="31" t="s">
+      <c r="B134" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C134" s="31"/>
-      <c r="N134" s="47" t="s">
+      <c r="C134" s="40"/>
+      <c r="N134" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="O134" s="48"/>
+      <c r="O134" s="61"/>
     </row>
     <row r="135" spans="2:21">
-      <c r="B135" s="31" t="s">
+      <c r="B135" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C135" s="31"/>
-      <c r="N135" s="47" t="s">
+      <c r="C135" s="40"/>
+      <c r="N135" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="O135" s="48"/>
+      <c r="O135" s="61"/>
     </row>
     <row r="136" spans="2:21">
-      <c r="B136" s="31" t="s">
+      <c r="B136" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C136" s="31"/>
-      <c r="N136" s="47" t="s">
+      <c r="C136" s="40"/>
+      <c r="N136" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="O136" s="48"/>
+      <c r="O136" s="61"/>
     </row>
     <row r="137" spans="2:21">
-      <c r="B137" s="31" t="s">
+      <c r="B137" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C137" s="31"/>
-      <c r="N137" s="47" t="s">
+      <c r="C137" s="40"/>
+      <c r="N137" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="O137" s="48"/>
+      <c r="O137" s="61"/>
     </row>
     <row r="138" spans="2:21">
       <c r="B138" t="s">
         <v>65</v>
       </c>
-      <c r="N138" s="47" t="s">
+      <c r="N138" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="O138" s="48"/>
+      <c r="O138" s="61"/>
     </row>
     <row r="139" spans="2:21">
-      <c r="B139" s="32" t="s">
+      <c r="B139" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C139" s="32"/>
-      <c r="D139" s="32" t="s">
+      <c r="C139" s="37"/>
+      <c r="D139" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E139" s="32"/>
-      <c r="F139" s="32" t="s">
+      <c r="E139" s="37"/>
+      <c r="F139" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G139" s="32"/>
-      <c r="H139" s="40"/>
-      <c r="I139" s="41"/>
+      <c r="G139" s="37"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="39"/>
       <c r="N139" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="140" spans="2:21">
-      <c r="B140" s="31" t="s">
+      <c r="B140" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C140" s="31"/>
-      <c r="D140" s="31" t="s">
+      <c r="C140" s="40"/>
+      <c r="D140" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E140" s="31"/>
-      <c r="F140" s="34" t="s">
+      <c r="E140" s="40"/>
+      <c r="F140" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G140" s="34"/>
-      <c r="H140" s="39"/>
-      <c r="I140" s="33"/>
-      <c r="N140" s="37" t="s">
+      <c r="G140" s="41"/>
+      <c r="H140" s="42"/>
+      <c r="I140" s="43"/>
+      <c r="N140" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="O140" s="38"/>
-      <c r="P140" s="37" t="s">
+      <c r="O140" s="58"/>
+      <c r="P140" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="Q140" s="38"/>
-      <c r="R140" s="37" t="s">
+      <c r="Q140" s="58"/>
+      <c r="R140" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="S140" s="38"/>
-      <c r="T140" s="41"/>
-      <c r="U140" s="51"/>
+      <c r="S140" s="58"/>
+      <c r="T140" s="39"/>
+      <c r="U140" s="46"/>
     </row>
     <row r="141" spans="2:21">
-      <c r="B141" s="31" t="s">
+      <c r="B141" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C141" s="31"/>
-      <c r="D141" s="31" t="s">
+      <c r="C141" s="40"/>
+      <c r="D141" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E141" s="31"/>
-      <c r="F141" s="34" t="s">
+      <c r="E141" s="40"/>
+      <c r="F141" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G141" s="34"/>
-      <c r="H141" s="39"/>
-      <c r="I141" s="33"/>
-      <c r="N141" s="47" t="s">
+      <c r="G141" s="41"/>
+      <c r="H141" s="42"/>
+      <c r="I141" s="43"/>
+      <c r="N141" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="O141" s="48"/>
-      <c r="P141" s="47" t="s">
+      <c r="O141" s="61"/>
+      <c r="P141" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="Q141" s="48"/>
-      <c r="R141" s="49" t="s">
+      <c r="Q141" s="61"/>
+      <c r="R141" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="S141" s="50"/>
-      <c r="T141" s="42"/>
-      <c r="U141" s="52"/>
+      <c r="S141" s="63"/>
+      <c r="T141" s="64"/>
+      <c r="U141" s="36"/>
     </row>
     <row r="142" spans="2:21">
-      <c r="B142" s="31" t="s">
+      <c r="B142" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C142" s="31"/>
-      <c r="D142" s="31" t="s">
+      <c r="C142" s="40"/>
+      <c r="D142" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E142" s="31"/>
-      <c r="F142" s="34" t="s">
+      <c r="E142" s="40"/>
+      <c r="F142" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G142" s="34"/>
-      <c r="H142" s="39"/>
-      <c r="I142" s="33"/>
-      <c r="N142" s="47" t="s">
+      <c r="G142" s="41"/>
+      <c r="H142" s="42"/>
+      <c r="I142" s="43"/>
+      <c r="N142" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="O142" s="48"/>
-      <c r="P142" s="47" t="s">
+      <c r="O142" s="61"/>
+      <c r="P142" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="Q142" s="48"/>
-      <c r="R142" s="49" t="s">
+      <c r="Q142" s="61"/>
+      <c r="R142" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="S142" s="50"/>
-      <c r="T142" s="42"/>
-      <c r="U142" s="52"/>
+      <c r="S142" s="63"/>
+      <c r="T142" s="64"/>
+      <c r="U142" s="36"/>
     </row>
     <row r="143" spans="2:21">
-      <c r="B143" s="31" t="s">
+      <c r="B143" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C143" s="31"/>
-      <c r="D143" s="31" t="s">
+      <c r="C143" s="40"/>
+      <c r="D143" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E143" s="31"/>
-      <c r="F143" s="34" t="s">
+      <c r="E143" s="40"/>
+      <c r="F143" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G143" s="34"/>
-      <c r="H143" s="39"/>
-      <c r="I143" s="33"/>
-      <c r="N143" s="47" t="s">
+      <c r="G143" s="41"/>
+      <c r="H143" s="42"/>
+      <c r="I143" s="43"/>
+      <c r="N143" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="O143" s="48"/>
-      <c r="P143" s="47" t="s">
+      <c r="O143" s="61"/>
+      <c r="P143" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="Q143" s="48"/>
-      <c r="R143" s="49" t="s">
+      <c r="Q143" s="61"/>
+      <c r="R143" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="S143" s="50"/>
-      <c r="T143" s="41"/>
-      <c r="U143" s="51"/>
+      <c r="S143" s="63"/>
+      <c r="T143" s="39"/>
+      <c r="U143" s="46"/>
     </row>
     <row r="144" spans="2:21">
-      <c r="B144" s="31" t="s">
+      <c r="B144" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C144" s="31"/>
-      <c r="D144" s="31" t="s">
+      <c r="C144" s="40"/>
+      <c r="D144" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E144" s="31"/>
-      <c r="F144" s="34" t="s">
+      <c r="E144" s="40"/>
+      <c r="F144" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G144" s="34"/>
-      <c r="H144" s="39"/>
-      <c r="I144" s="33"/>
-      <c r="N144" s="47" t="s">
+      <c r="G144" s="41"/>
+      <c r="H144" s="42"/>
+      <c r="I144" s="43"/>
+      <c r="N144" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="O144" s="48"/>
-      <c r="P144" s="47" t="s">
+      <c r="O144" s="61"/>
+      <c r="P144" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="Q144" s="48"/>
-      <c r="R144" s="49" t="s">
+      <c r="Q144" s="61"/>
+      <c r="R144" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="S144" s="50"/>
-      <c r="T144" s="42"/>
-      <c r="U144" s="52"/>
+      <c r="S144" s="63"/>
+      <c r="T144" s="64"/>
+      <c r="U144" s="36"/>
     </row>
     <row r="145" spans="2:21">
-      <c r="B145" s="31" t="s">
+      <c r="B145" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C145" s="31"/>
-      <c r="D145" s="31" t="s">
+      <c r="C145" s="40"/>
+      <c r="D145" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E145" s="31"/>
-      <c r="F145" s="34" t="s">
+      <c r="E145" s="40"/>
+      <c r="F145" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G145" s="34"/>
-      <c r="H145" s="39"/>
-      <c r="I145" s="33"/>
-      <c r="N145" s="47" t="s">
+      <c r="G145" s="41"/>
+      <c r="H145" s="42"/>
+      <c r="I145" s="43"/>
+      <c r="N145" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="O145" s="48"/>
-      <c r="P145" s="47" t="s">
+      <c r="O145" s="61"/>
+      <c r="P145" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="Q145" s="48"/>
-      <c r="R145" s="49" t="s">
+      <c r="Q145" s="61"/>
+      <c r="R145" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="S145" s="50"/>
-      <c r="T145" s="42"/>
-      <c r="U145" s="52"/>
+      <c r="S145" s="63"/>
+      <c r="T145" s="64"/>
+      <c r="U145" s="36"/>
     </row>
     <row r="146" spans="2:21">
-      <c r="N146" s="47" t="s">
+      <c r="N146" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="O146" s="48"/>
-      <c r="P146" s="47" t="s">
+      <c r="O146" s="61"/>
+      <c r="P146" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="Q146" s="48"/>
-      <c r="R146" s="49" t="s">
+      <c r="Q146" s="61"/>
+      <c r="R146" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="S146" s="50"/>
-      <c r="T146" s="42"/>
-      <c r="U146" s="52"/>
+      <c r="S146" s="63"/>
+      <c r="T146" s="64"/>
+      <c r="U146" s="36"/>
     </row>
     <row r="147" spans="2:21">
       <c r="B147" t="s">
         <v>68</v>
       </c>
-      <c r="N147" s="53" t="s">
+      <c r="N147" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="O147" s="54"/>
-      <c r="P147" s="53" t="s">
+      <c r="O147" s="68"/>
+      <c r="P147" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="Q147" s="54"/>
-      <c r="R147" s="58" t="s">
+      <c r="Q147" s="68"/>
+      <c r="R147" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="S147" s="59"/>
-      <c r="T147" s="42"/>
-      <c r="U147" s="52"/>
+      <c r="S147" s="66"/>
+      <c r="T147" s="64"/>
+      <c r="U147" s="36"/>
     </row>
     <row r="148" spans="2:21">
-      <c r="B148" s="32" t="s">
+      <c r="B148" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C148" s="32"/>
-      <c r="D148" s="32" t="s">
+      <c r="C148" s="37"/>
+      <c r="D148" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E148" s="32"/>
-      <c r="F148" s="32" t="s">
+      <c r="E148" s="37"/>
+      <c r="F148" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G148" s="32"/>
-      <c r="H148" s="32" t="s">
+      <c r="G148" s="37"/>
+      <c r="H148" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I148" s="32"/>
+      <c r="I148" s="37"/>
       <c r="N148" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="149" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B149" s="31" t="s">
+      <c r="B149" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C149" s="31"/>
-      <c r="D149" s="31">
+      <c r="C149" s="40"/>
+      <c r="D149" s="40">
         <v>1</v>
       </c>
-      <c r="E149" s="31"/>
-      <c r="F149" s="34" t="s">
+      <c r="E149" s="40"/>
+      <c r="F149" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G149" s="34"/>
-      <c r="H149" s="31" t="s">
+      <c r="G149" s="41"/>
+      <c r="H149" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I149" s="31"/>
-      <c r="N149" s="37" t="s">
+      <c r="I149" s="40"/>
+      <c r="N149" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="O149" s="38"/>
-      <c r="P149" s="37" t="s">
+      <c r="O149" s="58"/>
+      <c r="P149" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="Q149" s="38"/>
-      <c r="R149" s="37" t="s">
+      <c r="Q149" s="58"/>
+      <c r="R149" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="S149" s="38"/>
-      <c r="T149" s="37" t="s">
+      <c r="S149" s="58"/>
+      <c r="T149" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="U149" s="38"/>
+      <c r="U149" s="58"/>
     </row>
     <row r="150" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B150" s="31" t="s">
+      <c r="B150" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C150" s="31"/>
-      <c r="D150" s="31">
+      <c r="C150" s="40"/>
+      <c r="D150" s="40">
         <v>1</v>
       </c>
-      <c r="E150" s="31"/>
-      <c r="F150" s="34" t="s">
+      <c r="E150" s="40"/>
+      <c r="F150" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G150" s="34"/>
-      <c r="H150" s="31" t="s">
+      <c r="G150" s="41"/>
+      <c r="H150" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="I150" s="31"/>
-      <c r="N150" s="47" t="s">
+      <c r="I150" s="40"/>
+      <c r="N150" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="O150" s="48"/>
-      <c r="P150" s="47">
+      <c r="O150" s="61"/>
+      <c r="P150" s="60">
         <v>1</v>
       </c>
-      <c r="Q150" s="48"/>
-      <c r="R150" s="49" t="s">
+      <c r="Q150" s="61"/>
+      <c r="R150" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="S150" s="50"/>
-      <c r="T150" s="43" t="s">
+      <c r="S150" s="63"/>
+      <c r="T150" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="U150" s="43"/>
+      <c r="U150" s="59"/>
     </row>
     <row r="151" spans="2:21">
-      <c r="N151" s="47" t="s">
+      <c r="N151" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="O151" s="48"/>
-      <c r="P151" s="47">
+      <c r="O151" s="61"/>
+      <c r="P151" s="60">
         <v>1</v>
       </c>
-      <c r="Q151" s="48"/>
-      <c r="R151" s="49" t="s">
+      <c r="Q151" s="61"/>
+      <c r="R151" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="S151" s="50"/>
-      <c r="T151" s="31" t="s">
+      <c r="S151" s="63"/>
+      <c r="T151" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="U151" s="31"/>
+      <c r="U151" s="40"/>
     </row>
     <row r="152" spans="2:21">
-      <c r="N152" s="35"/>
-      <c r="O152" s="35"/>
-      <c r="P152" s="35"/>
-      <c r="Q152" s="35"/>
-      <c r="R152" s="36"/>
-      <c r="S152" s="36"/>
-      <c r="T152" s="44"/>
-      <c r="U152" s="44"/>
+      <c r="N152" s="25"/>
+      <c r="O152" s="25"/>
+      <c r="P152" s="25"/>
+      <c r="Q152" s="25"/>
+      <c r="R152" s="26"/>
+      <c r="S152" s="26"/>
+      <c r="T152" s="27"/>
+      <c r="U152" s="27"/>
     </row>
     <row r="154" spans="2:21">
       <c r="B154" s="2" t="s">
@@ -40137,44 +40156,44 @@
       </c>
     </row>
     <row r="182" spans="2:21">
-      <c r="B182" s="32" t="s">
+      <c r="B182" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C182" s="32"/>
-      <c r="N182" s="37" t="s">
+      <c r="C182" s="37"/>
+      <c r="N182" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="O182" s="38"/>
+      <c r="O182" s="58"/>
     </row>
     <row r="183" spans="2:21">
-      <c r="B183" s="31" t="s">
+      <c r="B183" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C183" s="31"/>
-      <c r="N183" s="47" t="s">
+      <c r="C183" s="40"/>
+      <c r="N183" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="O183" s="48"/>
+      <c r="O183" s="61"/>
     </row>
     <row r="184" spans="2:21">
-      <c r="B184" s="31" t="s">
+      <c r="B184" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C184" s="31"/>
-      <c r="N184" s="47" t="s">
+      <c r="C184" s="40"/>
+      <c r="N184" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="O184" s="48"/>
+      <c r="O184" s="61"/>
     </row>
     <row r="185" spans="2:21">
-      <c r="B185" s="31" t="s">
+      <c r="B185" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C185" s="31"/>
-      <c r="N185" s="31" t="s">
+      <c r="C185" s="40"/>
+      <c r="N185" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="O185" s="31"/>
+      <c r="O185" s="40"/>
     </row>
     <row r="186" spans="2:21">
       <c r="B186" t="s">
@@ -40185,124 +40204,124 @@
       </c>
     </row>
     <row r="187" spans="2:21">
-      <c r="B187" s="32" t="s">
+      <c r="B187" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C187" s="32"/>
-      <c r="D187" s="32" t="s">
+      <c r="C187" s="37"/>
+      <c r="D187" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E187" s="32"/>
-      <c r="F187" s="32" t="s">
+      <c r="E187" s="37"/>
+      <c r="F187" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G187" s="32"/>
-      <c r="H187" s="40"/>
-      <c r="I187" s="41"/>
-      <c r="N187" s="37" t="s">
+      <c r="G187" s="37"/>
+      <c r="H187" s="38"/>
+      <c r="I187" s="39"/>
+      <c r="N187" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="O187" s="38"/>
-      <c r="P187" s="37" t="s">
+      <c r="O187" s="58"/>
+      <c r="P187" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="Q187" s="38"/>
-      <c r="R187" s="37" t="s">
+      <c r="Q187" s="58"/>
+      <c r="R187" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="S187" s="38"/>
-      <c r="T187" s="46"/>
-      <c r="U187" s="55"/>
+      <c r="S187" s="58"/>
+      <c r="T187" s="29"/>
+      <c r="U187" s="30"/>
     </row>
     <row r="188" spans="2:21">
-      <c r="B188" s="31" t="s">
+      <c r="B188" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C188" s="31"/>
-      <c r="D188" s="31" t="s">
+      <c r="C188" s="40"/>
+      <c r="D188" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E188" s="31"/>
-      <c r="F188" s="34" t="s">
+      <c r="E188" s="40"/>
+      <c r="F188" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G188" s="34"/>
-      <c r="H188" s="39"/>
-      <c r="I188" s="33"/>
-      <c r="N188" s="31" t="s">
+      <c r="G188" s="41"/>
+      <c r="H188" s="42"/>
+      <c r="I188" s="43"/>
+      <c r="N188" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O188" s="31"/>
-      <c r="P188" s="31" t="s">
+      <c r="O188" s="40"/>
+      <c r="P188" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q188" s="31"/>
-      <c r="R188" s="34" t="s">
+      <c r="Q188" s="40"/>
+      <c r="R188" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S188" s="34"/>
-      <c r="T188" s="45"/>
-      <c r="U188" s="44"/>
+      <c r="S188" s="41"/>
+      <c r="T188" s="28"/>
+      <c r="U188" s="27"/>
     </row>
     <row r="189" spans="2:21">
-      <c r="B189" s="31" t="s">
+      <c r="B189" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C189" s="31"/>
-      <c r="D189" s="31" t="s">
+      <c r="C189" s="40"/>
+      <c r="D189" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E189" s="31"/>
-      <c r="F189" s="34" t="s">
+      <c r="E189" s="40"/>
+      <c r="F189" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G189" s="34"/>
-      <c r="H189" s="39"/>
-      <c r="I189" s="33"/>
-      <c r="N189" s="31" t="s">
+      <c r="G189" s="41"/>
+      <c r="H189" s="42"/>
+      <c r="I189" s="43"/>
+      <c r="N189" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="O189" s="31"/>
-      <c r="P189" s="31" t="s">
+      <c r="O189" s="40"/>
+      <c r="P189" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q189" s="31"/>
-      <c r="R189" s="34" t="s">
+      <c r="Q189" s="40"/>
+      <c r="R189" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S189" s="34"/>
-      <c r="T189" s="45"/>
-      <c r="U189" s="44"/>
+      <c r="S189" s="41"/>
+      <c r="T189" s="28"/>
+      <c r="U189" s="27"/>
     </row>
     <row r="190" spans="2:21">
-      <c r="B190" s="31" t="s">
+      <c r="B190" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C190" s="31"/>
-      <c r="D190" s="31" t="s">
+      <c r="C190" s="40"/>
+      <c r="D190" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E190" s="31"/>
-      <c r="F190" s="34" t="s">
+      <c r="E190" s="40"/>
+      <c r="F190" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G190" s="34"/>
-      <c r="H190" s="39"/>
-      <c r="I190" s="33"/>
-      <c r="N190" s="31" t="s">
+      <c r="G190" s="41"/>
+      <c r="H190" s="42"/>
+      <c r="I190" s="43"/>
+      <c r="N190" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="O190" s="31"/>
-      <c r="P190" s="31" t="s">
+      <c r="O190" s="40"/>
+      <c r="P190" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q190" s="31"/>
-      <c r="R190" s="34" t="s">
+      <c r="Q190" s="40"/>
+      <c r="R190" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S190" s="34"/>
-      <c r="T190" s="46"/>
-      <c r="U190" s="55"/>
+      <c r="S190" s="41"/>
+      <c r="T190" s="29"/>
+      <c r="U190" s="30"/>
     </row>
     <row r="191" spans="2:21">
       <c r="B191" t="s">
@@ -40313,82 +40332,82 @@
       </c>
     </row>
     <row r="192" spans="2:21">
-      <c r="B192" s="32" t="s">
+      <c r="B192" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C192" s="32"/>
-      <c r="D192" s="32" t="s">
+      <c r="C192" s="37"/>
+      <c r="D192" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E192" s="32"/>
-      <c r="F192" s="32" t="s">
+      <c r="E192" s="37"/>
+      <c r="F192" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G192" s="32"/>
-      <c r="H192" s="32" t="s">
+      <c r="G192" s="37"/>
+      <c r="H192" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I192" s="32"/>
-      <c r="N192" s="32" t="s">
+      <c r="I192" s="37"/>
+      <c r="N192" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="O192" s="32"/>
-      <c r="P192" s="32" t="s">
+      <c r="O192" s="37"/>
+      <c r="P192" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="Q192" s="32"/>
-      <c r="R192" s="32" t="s">
+      <c r="Q192" s="37"/>
+      <c r="R192" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S192" s="32"/>
-      <c r="T192" s="32" t="s">
+      <c r="S192" s="37"/>
+      <c r="T192" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="U192" s="32"/>
+      <c r="U192" s="37"/>
     </row>
     <row r="193" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B193" s="31" t="s">
+      <c r="B193" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C193" s="31"/>
-      <c r="D193" s="31">
+      <c r="C193" s="40"/>
+      <c r="D193" s="40">
         <v>1</v>
       </c>
-      <c r="E193" s="31"/>
-      <c r="F193" s="34" t="s">
+      <c r="E193" s="40"/>
+      <c r="F193" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G193" s="34"/>
-      <c r="H193" s="31" t="s">
+      <c r="G193" s="41"/>
+      <c r="H193" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I193" s="31"/>
-      <c r="N193" s="31" t="s">
+      <c r="I193" s="40"/>
+      <c r="N193" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="O193" s="31"/>
-      <c r="P193" s="31">
+      <c r="O193" s="40"/>
+      <c r="P193" s="40">
         <v>1</v>
       </c>
-      <c r="Q193" s="31"/>
-      <c r="R193" s="34" t="s">
+      <c r="Q193" s="40"/>
+      <c r="R193" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S193" s="34"/>
-      <c r="T193" s="43" t="s">
+      <c r="S193" s="41"/>
+      <c r="T193" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="U193" s="43"/>
+      <c r="U193" s="59"/>
     </row>
     <row r="195" spans="2:21">
-      <c r="N195" s="35"/>
-      <c r="O195" s="35"/>
-      <c r="P195" s="35"/>
-      <c r="Q195" s="35"/>
-      <c r="R195" s="36"/>
-      <c r="S195" s="36"/>
-      <c r="T195" s="44"/>
-      <c r="U195" s="44"/>
+      <c r="N195" s="25"/>
+      <c r="O195" s="25"/>
+      <c r="P195" s="25"/>
+      <c r="Q195" s="25"/>
+      <c r="R195" s="26"/>
+      <c r="S195" s="26"/>
+      <c r="T195" s="27"/>
+      <c r="U195" s="27"/>
     </row>
     <row r="196" spans="2:21">
       <c r="B196" s="2" t="s">
@@ -40409,64 +40428,64 @@
       </c>
     </row>
     <row r="248" spans="2:21">
-      <c r="B248" s="32" t="s">
+      <c r="B248" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C248" s="32"/>
-      <c r="N248" s="37" t="s">
+      <c r="C248" s="37"/>
+      <c r="N248" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="O248" s="38"/>
+      <c r="O248" s="58"/>
     </row>
     <row r="249" spans="2:21">
-      <c r="B249" s="31" t="s">
+      <c r="B249" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C249" s="31"/>
-      <c r="N249" s="31" t="s">
+      <c r="C249" s="40"/>
+      <c r="N249" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O249" s="31"/>
+      <c r="O249" s="40"/>
     </row>
     <row r="250" spans="2:21">
-      <c r="B250" s="31" t="s">
+      <c r="B250" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C250" s="31"/>
-      <c r="N250" s="31" t="s">
+      <c r="C250" s="40"/>
+      <c r="N250" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="O250" s="31"/>
+      <c r="O250" s="40"/>
     </row>
     <row r="251" spans="2:21">
-      <c r="B251" s="31" t="s">
+      <c r="B251" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C251" s="31"/>
-      <c r="N251" s="31" t="s">
+      <c r="C251" s="40"/>
+      <c r="N251" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="O251" s="31"/>
+      <c r="O251" s="40"/>
     </row>
     <row r="252" spans="2:21">
-      <c r="B252" s="31" t="s">
+      <c r="B252" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C252" s="31"/>
-      <c r="N252" s="31" t="s">
+      <c r="C252" s="40"/>
+      <c r="N252" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="O252" s="31"/>
+      <c r="O252" s="40"/>
     </row>
     <row r="253" spans="2:21">
-      <c r="B253" s="31" t="s">
+      <c r="B253" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C253" s="31"/>
-      <c r="N253" s="31" t="s">
+      <c r="C253" s="40"/>
+      <c r="N253" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="O253" s="31"/>
+      <c r="O253" s="40"/>
     </row>
     <row r="254" spans="2:21">
       <c r="B254" t="s">
@@ -40477,214 +40496,214 @@
       </c>
     </row>
     <row r="255" spans="2:21">
-      <c r="B255" s="32" t="s">
+      <c r="B255" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C255" s="32"/>
-      <c r="D255" s="32" t="s">
+      <c r="C255" s="37"/>
+      <c r="D255" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E255" s="32"/>
-      <c r="F255" s="32" t="s">
+      <c r="E255" s="37"/>
+      <c r="F255" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G255" s="32"/>
-      <c r="H255" s="40"/>
-      <c r="I255" s="41"/>
-      <c r="N255" s="37" t="s">
+      <c r="G255" s="37"/>
+      <c r="H255" s="38"/>
+      <c r="I255" s="39"/>
+      <c r="N255" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="O255" s="38"/>
-      <c r="P255" s="37" t="s">
+      <c r="O255" s="58"/>
+      <c r="P255" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="Q255" s="38"/>
-      <c r="R255" s="37" t="s">
+      <c r="Q255" s="58"/>
+      <c r="R255" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="S255" s="38"/>
-      <c r="T255" s="46"/>
-      <c r="U255" s="55"/>
+      <c r="S255" s="58"/>
+      <c r="T255" s="29"/>
+      <c r="U255" s="30"/>
     </row>
     <row r="256" spans="2:21">
-      <c r="B256" s="31" t="s">
+      <c r="B256" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C256" s="31"/>
-      <c r="D256" s="31" t="s">
+      <c r="C256" s="40"/>
+      <c r="D256" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E256" s="31"/>
-      <c r="F256" s="34" t="s">
+      <c r="E256" s="40"/>
+      <c r="F256" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G256" s="34"/>
-      <c r="H256" s="39"/>
-      <c r="I256" s="33"/>
-      <c r="N256" s="31" t="s">
+      <c r="G256" s="41"/>
+      <c r="H256" s="42"/>
+      <c r="I256" s="43"/>
+      <c r="N256" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="O256" s="31"/>
-      <c r="P256" s="31" t="s">
+      <c r="O256" s="40"/>
+      <c r="P256" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q256" s="31"/>
-      <c r="R256" s="34" t="s">
+      <c r="Q256" s="40"/>
+      <c r="R256" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S256" s="34"/>
-      <c r="T256" s="45"/>
-      <c r="U256" s="44"/>
+      <c r="S256" s="41"/>
+      <c r="T256" s="28"/>
+      <c r="U256" s="27"/>
     </row>
     <row r="257" spans="2:21">
-      <c r="B257" s="31" t="s">
+      <c r="B257" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C257" s="31"/>
-      <c r="D257" s="31" t="s">
+      <c r="C257" s="40"/>
+      <c r="D257" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E257" s="31"/>
-      <c r="F257" s="34" t="s">
+      <c r="E257" s="40"/>
+      <c r="F257" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G257" s="34"/>
-      <c r="H257" s="39"/>
-      <c r="I257" s="33"/>
-      <c r="N257" s="31" t="s">
+      <c r="G257" s="41"/>
+      <c r="H257" s="42"/>
+      <c r="I257" s="43"/>
+      <c r="N257" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="O257" s="31"/>
-      <c r="P257" s="31" t="s">
+      <c r="O257" s="40"/>
+      <c r="P257" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q257" s="31"/>
-      <c r="R257" s="34" t="s">
+      <c r="Q257" s="40"/>
+      <c r="R257" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S257" s="34"/>
-      <c r="T257" s="45"/>
-      <c r="U257" s="44"/>
+      <c r="S257" s="41"/>
+      <c r="T257" s="28"/>
+      <c r="U257" s="27"/>
     </row>
     <row r="258" spans="2:21">
-      <c r="B258" s="31" t="s">
+      <c r="B258" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C258" s="31"/>
-      <c r="D258" s="31" t="s">
+      <c r="C258" s="40"/>
+      <c r="D258" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E258" s="31"/>
-      <c r="F258" s="34" t="s">
+      <c r="E258" s="40"/>
+      <c r="F258" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G258" s="34"/>
-      <c r="H258" s="39"/>
-      <c r="I258" s="33"/>
-      <c r="N258" s="31" t="s">
+      <c r="G258" s="41"/>
+      <c r="H258" s="42"/>
+      <c r="I258" s="43"/>
+      <c r="N258" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="O258" s="31"/>
-      <c r="P258" s="31" t="s">
+      <c r="O258" s="40"/>
+      <c r="P258" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q258" s="31"/>
-      <c r="R258" s="34" t="s">
+      <c r="Q258" s="40"/>
+      <c r="R258" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S258" s="34"/>
-      <c r="T258" s="46"/>
-      <c r="U258" s="55"/>
+      <c r="S258" s="41"/>
+      <c r="T258" s="29"/>
+      <c r="U258" s="30"/>
     </row>
     <row r="259" spans="2:21">
-      <c r="B259" s="31" t="s">
+      <c r="B259" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C259" s="31"/>
-      <c r="D259" s="31" t="s">
+      <c r="C259" s="40"/>
+      <c r="D259" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E259" s="31"/>
-      <c r="F259" s="34" t="s">
+      <c r="E259" s="40"/>
+      <c r="F259" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G259" s="34"/>
-      <c r="H259" s="39"/>
-      <c r="I259" s="33"/>
-      <c r="N259" s="31" t="s">
+      <c r="G259" s="41"/>
+      <c r="H259" s="42"/>
+      <c r="I259" s="43"/>
+      <c r="N259" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="O259" s="31"/>
-      <c r="P259" s="31" t="s">
+      <c r="O259" s="40"/>
+      <c r="P259" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="Q259" s="31"/>
-      <c r="R259" s="34" t="s">
+      <c r="Q259" s="40"/>
+      <c r="R259" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S259" s="34"/>
-      <c r="T259" s="45"/>
-      <c r="U259" s="44"/>
+      <c r="S259" s="41"/>
+      <c r="T259" s="28"/>
+      <c r="U259" s="27"/>
     </row>
     <row r="260" spans="2:21">
-      <c r="B260" s="31" t="s">
+      <c r="B260" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C260" s="31"/>
-      <c r="D260" s="31" t="s">
+      <c r="C260" s="40"/>
+      <c r="D260" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E260" s="31"/>
-      <c r="F260" s="34" t="s">
+      <c r="E260" s="40"/>
+      <c r="F260" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G260" s="34"/>
-      <c r="H260" s="39"/>
-      <c r="I260" s="33"/>
-      <c r="N260" s="31" t="s">
+      <c r="G260" s="41"/>
+      <c r="H260" s="42"/>
+      <c r="I260" s="43"/>
+      <c r="N260" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="O260" s="31"/>
-      <c r="P260" s="31" t="s">
+      <c r="O260" s="40"/>
+      <c r="P260" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="Q260" s="31"/>
-      <c r="R260" s="34" t="s">
+      <c r="Q260" s="40"/>
+      <c r="R260" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S260" s="34"/>
-      <c r="T260" s="45"/>
-      <c r="U260" s="44"/>
+      <c r="S260" s="41"/>
+      <c r="T260" s="28"/>
+      <c r="U260" s="27"/>
     </row>
     <row r="261" spans="2:21">
-      <c r="B261" s="31" t="s">
+      <c r="B261" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C261" s="31"/>
-      <c r="D261" s="31" t="s">
+      <c r="C261" s="40"/>
+      <c r="D261" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E261" s="31"/>
-      <c r="F261" s="34" t="s">
+      <c r="E261" s="40"/>
+      <c r="F261" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G261" s="34"/>
-      <c r="H261" s="39"/>
-      <c r="I261" s="33"/>
-      <c r="N261" s="31" t="s">
+      <c r="G261" s="41"/>
+      <c r="H261" s="42"/>
+      <c r="I261" s="43"/>
+      <c r="N261" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="O261" s="31"/>
-      <c r="P261" s="31" t="s">
+      <c r="O261" s="40"/>
+      <c r="P261" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="Q261" s="31"/>
-      <c r="R261" s="34" t="s">
+      <c r="Q261" s="40"/>
+      <c r="R261" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S261" s="34"/>
-      <c r="T261" s="45"/>
-      <c r="U261" s="44"/>
+      <c r="S261" s="41"/>
+      <c r="T261" s="28"/>
+      <c r="U261" s="27"/>
     </row>
     <row r="262" spans="2:21">
       <c r="B262" t="s">
@@ -40695,248 +40714,236 @@
       </c>
     </row>
     <row r="263" spans="2:21">
-      <c r="B263" s="32" t="s">
+      <c r="B263" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C263" s="32"/>
-      <c r="D263" s="32" t="s">
+      <c r="C263" s="37"/>
+      <c r="D263" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E263" s="32"/>
-      <c r="F263" s="32" t="s">
+      <c r="E263" s="37"/>
+      <c r="F263" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G263" s="32"/>
-      <c r="H263" s="32" t="s">
+      <c r="G263" s="37"/>
+      <c r="H263" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I263" s="32"/>
-      <c r="N263" s="32" t="s">
+      <c r="I263" s="37"/>
+      <c r="N263" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="O263" s="32"/>
-      <c r="P263" s="32" t="s">
+      <c r="O263" s="37"/>
+      <c r="P263" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="Q263" s="32"/>
-      <c r="R263" s="32" t="s">
+      <c r="Q263" s="37"/>
+      <c r="R263" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S263" s="32"/>
-      <c r="T263" s="32" t="s">
+      <c r="S263" s="37"/>
+      <c r="T263" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="U263" s="32"/>
+      <c r="U263" s="37"/>
     </row>
     <row r="264" spans="2:21">
-      <c r="B264" s="31" t="s">
+      <c r="B264" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C264" s="31"/>
-      <c r="D264" s="31">
+      <c r="C264" s="40"/>
+      <c r="D264" s="40">
         <v>1</v>
       </c>
-      <c r="E264" s="31"/>
-      <c r="F264" s="34" t="s">
+      <c r="E264" s="40"/>
+      <c r="F264" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G264" s="34"/>
-      <c r="H264" s="31" t="s">
+      <c r="G264" s="41"/>
+      <c r="H264" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I264" s="31"/>
-      <c r="N264" s="31" t="s">
+      <c r="I264" s="40"/>
+      <c r="N264" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="O264" s="31"/>
-      <c r="P264" s="31">
+      <c r="O264" s="40"/>
+      <c r="P264" s="40">
         <v>1</v>
       </c>
-      <c r="Q264" s="31"/>
-      <c r="R264" s="34" t="s">
+      <c r="Q264" s="40"/>
+      <c r="R264" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S264" s="34"/>
-      <c r="T264" s="43" t="s">
+      <c r="S264" s="41"/>
+      <c r="T264" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="U264" s="43"/>
+      <c r="U264" s="59"/>
     </row>
     <row r="265" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B265" s="31" t="s">
+      <c r="B265" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C265" s="31"/>
-      <c r="D265" s="31">
+      <c r="C265" s="40"/>
+      <c r="D265" s="40">
         <v>1</v>
       </c>
-      <c r="E265" s="31"/>
-      <c r="F265" s="34" t="s">
+      <c r="E265" s="40"/>
+      <c r="F265" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G265" s="34"/>
-      <c r="H265" s="31" t="s">
+      <c r="G265" s="41"/>
+      <c r="H265" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="I265" s="31"/>
-      <c r="N265" s="31" t="s">
+      <c r="I265" s="40"/>
+      <c r="N265" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="O265" s="31"/>
-      <c r="P265" s="31">
+      <c r="O265" s="40"/>
+      <c r="P265" s="40">
         <v>1</v>
       </c>
-      <c r="Q265" s="31"/>
-      <c r="R265" s="34" t="s">
+      <c r="Q265" s="40"/>
+      <c r="R265" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="S265" s="34"/>
-      <c r="T265" s="31" t="s">
+      <c r="S265" s="41"/>
+      <c r="T265" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="U265" s="31"/>
+      <c r="U265" s="40"/>
     </row>
     <row r="266" spans="2:21" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="292">
-    <mergeCell ref="R261:S261"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="P259:Q259"/>
-    <mergeCell ref="N255:O255"/>
-    <mergeCell ref="P255:Q255"/>
-    <mergeCell ref="R255:S255"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="F261:G261"/>
-    <mergeCell ref="H261:I261"/>
-    <mergeCell ref="N261:O261"/>
-    <mergeCell ref="P261:Q261"/>
-    <mergeCell ref="N249:O249"/>
-    <mergeCell ref="N250:O250"/>
-    <mergeCell ref="N251:O251"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="N265:O265"/>
-    <mergeCell ref="N264:O264"/>
-    <mergeCell ref="P264:Q264"/>
-    <mergeCell ref="R264:S264"/>
-    <mergeCell ref="T264:U264"/>
-    <mergeCell ref="P265:Q265"/>
-    <mergeCell ref="R265:S265"/>
-    <mergeCell ref="T265:U265"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="F264:G264"/>
-    <mergeCell ref="H264:I264"/>
-    <mergeCell ref="R263:S263"/>
-    <mergeCell ref="T263:U263"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="F263:G263"/>
-    <mergeCell ref="H263:I263"/>
-    <mergeCell ref="N263:O263"/>
-    <mergeCell ref="P263:Q263"/>
-    <mergeCell ref="R259:S259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="H260:I260"/>
-    <mergeCell ref="N260:O260"/>
-    <mergeCell ref="P260:Q260"/>
-    <mergeCell ref="R260:S260"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="F259:G259"/>
-    <mergeCell ref="H259:I259"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="H258:I258"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="P258:Q258"/>
-    <mergeCell ref="R258:S258"/>
-    <mergeCell ref="P256:Q256"/>
-    <mergeCell ref="R256:S256"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="F257:G257"/>
-    <mergeCell ref="H257:I257"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="P257:Q257"/>
-    <mergeCell ref="R257:S257"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="F255:G255"/>
-    <mergeCell ref="H255:I255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="F256:G256"/>
-    <mergeCell ref="H256:I256"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="R187:S187"/>
-    <mergeCell ref="N192:O192"/>
-    <mergeCell ref="P192:Q192"/>
-    <mergeCell ref="R192:S192"/>
-    <mergeCell ref="T192:U192"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="N248:O248"/>
-    <mergeCell ref="N182:O182"/>
-    <mergeCell ref="N183:O183"/>
-    <mergeCell ref="N184:O184"/>
-    <mergeCell ref="P187:Q187"/>
-    <mergeCell ref="N193:O193"/>
-    <mergeCell ref="P193:Q193"/>
-    <mergeCell ref="R193:S193"/>
-    <mergeCell ref="T193:U193"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="N190:O190"/>
-    <mergeCell ref="P190:Q190"/>
-    <mergeCell ref="R190:S190"/>
-    <mergeCell ref="P188:Q188"/>
-    <mergeCell ref="R188:S188"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="F189:G189"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="N189:O189"/>
-    <mergeCell ref="P189:Q189"/>
-    <mergeCell ref="R189:S189"/>
-    <mergeCell ref="N185:O185"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="N188:O188"/>
-    <mergeCell ref="N187:O187"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="R140:S140"/>
+    <mergeCell ref="T140:U140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="R141:S141"/>
+    <mergeCell ref="T141:U141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="R142:S142"/>
+    <mergeCell ref="T142:U142"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="P151:Q151"/>
+    <mergeCell ref="R147:S147"/>
+    <mergeCell ref="T147:U147"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="R149:S149"/>
+    <mergeCell ref="T149:U149"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="T143:U143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="P144:Q144"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="P150:Q150"/>
+    <mergeCell ref="R150:S150"/>
+    <mergeCell ref="T150:U150"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="R146:S146"/>
+    <mergeCell ref="T146:U146"/>
     <mergeCell ref="B182:C182"/>
     <mergeCell ref="B183:C183"/>
     <mergeCell ref="B184:C184"/>
@@ -40961,140 +40968,174 @@
     <mergeCell ref="N145:O145"/>
     <mergeCell ref="P145:Q145"/>
     <mergeCell ref="R145:S145"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="N188:O188"/>
+    <mergeCell ref="N187:O187"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="N190:O190"/>
+    <mergeCell ref="P190:Q190"/>
+    <mergeCell ref="R190:S190"/>
+    <mergeCell ref="P188:Q188"/>
+    <mergeCell ref="R188:S188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="N189:O189"/>
+    <mergeCell ref="P189:Q189"/>
+    <mergeCell ref="R189:S189"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="R187:S187"/>
+    <mergeCell ref="N192:O192"/>
+    <mergeCell ref="P192:Q192"/>
+    <mergeCell ref="R192:S192"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="N248:O248"/>
+    <mergeCell ref="P187:Q187"/>
+    <mergeCell ref="N193:O193"/>
+    <mergeCell ref="P193:Q193"/>
+    <mergeCell ref="R193:S193"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="F255:G255"/>
+    <mergeCell ref="H255:I255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="F256:G256"/>
+    <mergeCell ref="H256:I256"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="R263:S263"/>
+    <mergeCell ref="T263:U263"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="F263:G263"/>
+    <mergeCell ref="H263:I263"/>
+    <mergeCell ref="N263:O263"/>
+    <mergeCell ref="P263:Q263"/>
+    <mergeCell ref="R259:S259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="H260:I260"/>
+    <mergeCell ref="N260:O260"/>
+    <mergeCell ref="P260:Q260"/>
+    <mergeCell ref="R260:S260"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="F259:G259"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="N265:O265"/>
+    <mergeCell ref="N264:O264"/>
+    <mergeCell ref="P264:Q264"/>
+    <mergeCell ref="R264:S264"/>
+    <mergeCell ref="T264:U264"/>
+    <mergeCell ref="P265:Q265"/>
+    <mergeCell ref="R265:S265"/>
+    <mergeCell ref="T265:U265"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="F264:G264"/>
+    <mergeCell ref="H264:I264"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="F261:G261"/>
+    <mergeCell ref="H261:I261"/>
+    <mergeCell ref="N261:O261"/>
+    <mergeCell ref="P261:Q261"/>
+    <mergeCell ref="N249:O249"/>
+    <mergeCell ref="N250:O250"/>
+    <mergeCell ref="N251:O251"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="P258:Q258"/>
+    <mergeCell ref="P256:Q256"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="F257:G257"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="R261:S261"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="P259:Q259"/>
+    <mergeCell ref="N255:O255"/>
+    <mergeCell ref="P255:Q255"/>
+    <mergeCell ref="R255:S255"/>
+    <mergeCell ref="R258:S258"/>
+    <mergeCell ref="R256:S256"/>
+    <mergeCell ref="P257:Q257"/>
+    <mergeCell ref="R257:S257"/>
+    <mergeCell ref="T192:U192"/>
+    <mergeCell ref="N182:O182"/>
+    <mergeCell ref="N183:O183"/>
+    <mergeCell ref="N184:O184"/>
+    <mergeCell ref="T193:U193"/>
+    <mergeCell ref="N185:O185"/>
     <mergeCell ref="T145:U145"/>
     <mergeCell ref="N143:O143"/>
     <mergeCell ref="P143:Q143"/>
     <mergeCell ref="R143:S143"/>
-    <mergeCell ref="T143:U143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="N144:O144"/>
-    <mergeCell ref="P144:Q144"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="P150:Q150"/>
-    <mergeCell ref="R150:S150"/>
-    <mergeCell ref="T150:U150"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="P151:Q151"/>
-    <mergeCell ref="R147:S147"/>
-    <mergeCell ref="T147:U147"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="R149:S149"/>
-    <mergeCell ref="T149:U149"/>
-    <mergeCell ref="N146:O146"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="R146:S146"/>
-    <mergeCell ref="T146:U146"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="N147:O147"/>
-    <mergeCell ref="P147:Q147"/>
-    <mergeCell ref="T141:U141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="N142:O142"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="R142:S142"/>
-    <mergeCell ref="T142:U142"/>
-    <mergeCell ref="P140:Q140"/>
-    <mergeCell ref="R140:S140"/>
-    <mergeCell ref="T140:U140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="N141:O141"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="R141:S141"/>
-    <mergeCell ref="N138:O138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="N140:O140"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="N132:O132"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/appendix.xlsx
+++ b/appendix.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="115">
   <si>
     <t>アカウント・グループ紐付解除パターン</t>
     <rPh sb="10" eb="11">
@@ -2009,49 +2009,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2072,13 +2033,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2094,18 +2106,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -35964,34 +35964,34 @@
       </c>
     </row>
     <row r="67" spans="2:21">
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="37"/>
-      <c r="N67" s="37" t="s">
+      <c r="C67" s="36"/>
+      <c r="N67" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O67" s="37"/>
+      <c r="O67" s="36"/>
     </row>
     <row r="68" spans="2:21">
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="40"/>
-      <c r="N68" s="40" t="s">
+      <c r="C68" s="37"/>
+      <c r="N68" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O68" s="40"/>
+      <c r="O68" s="37"/>
     </row>
     <row r="69" spans="2:21">
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="40"/>
-      <c r="N69" s="40" t="s">
+      <c r="C69" s="37"/>
+      <c r="N69" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="O69" s="40"/>
+      <c r="O69" s="37"/>
       <c r="P69" s="35" t="s">
         <v>85</v>
       </c>
@@ -36005,80 +36005,80 @@
       </c>
     </row>
     <row r="71" spans="2:21">
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37" t="s">
+      <c r="C71" s="36"/>
+      <c r="D71" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37" t="s">
+      <c r="E71" s="36"/>
+      <c r="F71" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G71" s="37"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="39"/>
-      <c r="N71" s="37" t="s">
+      <c r="G71" s="36"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="48"/>
+      <c r="N71" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37" t="s">
+      <c r="O71" s="36"/>
+      <c r="P71" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37" t="s">
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S71" s="37"/>
+      <c r="S71" s="36"/>
       <c r="T71" s="29"/>
       <c r="U71" s="30"/>
     </row>
     <row r="72" spans="2:21">
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40" t="s">
+      <c r="C72" s="37"/>
+      <c r="D72" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="40"/>
-      <c r="F72" s="41" t="s">
+      <c r="E72" s="37"/>
+      <c r="F72" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="41"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="43"/>
-      <c r="N72" s="40" t="s">
+      <c r="G72" s="44"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="46"/>
+      <c r="N72" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40" t="s">
+      <c r="O72" s="37"/>
+      <c r="P72" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="41" t="s">
+      <c r="Q72" s="37"/>
+      <c r="R72" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S72" s="41"/>
+      <c r="S72" s="44"/>
       <c r="T72" s="28"/>
       <c r="U72" s="27"/>
     </row>
     <row r="73" spans="2:21">
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40" t="s">
+      <c r="C73" s="37"/>
+      <c r="D73" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E73" s="40"/>
-      <c r="F73" s="41" t="s">
+      <c r="E73" s="37"/>
+      <c r="F73" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G73" s="41"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="43"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="46"/>
       <c r="N73" s="49" t="s">
         <v>62</v>
       </c>
@@ -36105,64 +36105,64 @@
       <c r="U74" s="27"/>
     </row>
     <row r="75" spans="2:21">
-      <c r="B75" s="37" t="s">
+      <c r="B75" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37" t="s">
+      <c r="C75" s="36"/>
+      <c r="D75" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37" t="s">
+      <c r="E75" s="36"/>
+      <c r="F75" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G75" s="37"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="43"/>
-      <c r="N75" s="37" t="s">
+      <c r="G75" s="36"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="46"/>
+      <c r="N75" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37" t="s">
+      <c r="O75" s="36"/>
+      <c r="P75" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37" t="s">
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S75" s="37"/>
+      <c r="S75" s="36"/>
       <c r="T75" s="33"/>
       <c r="U75" s="34"/>
     </row>
     <row r="76" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40">
+      <c r="C76" s="37"/>
+      <c r="D76" s="37">
         <v>1</v>
       </c>
-      <c r="E76" s="40"/>
-      <c r="F76" s="41" t="s">
+      <c r="E76" s="37"/>
+      <c r="F76" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G76" s="41"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="43"/>
-      <c r="N76" s="40" t="s">
+      <c r="G76" s="44"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="46"/>
+      <c r="N76" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40">
+      <c r="O76" s="37"/>
+      <c r="P76" s="37">
         <v>1</v>
       </c>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="41" t="s">
+      <c r="Q76" s="37"/>
+      <c r="R76" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S76" s="41"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="46"/>
+      <c r="S76" s="44"/>
+      <c r="T76" s="48"/>
+      <c r="U76" s="51"/>
     </row>
     <row r="77" spans="2:21" ht="14.25" customHeight="1">
       <c r="B77" s="25"/>
@@ -36171,8 +36171,8 @@
       <c r="E77" s="25"/>
       <c r="F77" s="26"/>
       <c r="G77" s="26"/>
-      <c r="T77" s="36"/>
-      <c r="U77" s="36"/>
+      <c r="T77" s="52"/>
+      <c r="U77" s="52"/>
     </row>
     <row r="78" spans="2:21">
       <c r="T78" s="34"/>
@@ -36202,47 +36202,47 @@
       </c>
     </row>
     <row r="105" spans="2:21">
-      <c r="B105" s="37" t="s">
+      <c r="B105" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C105" s="37"/>
-      <c r="N105" s="37" t="s">
+      <c r="C105" s="36"/>
+      <c r="N105" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O105" s="37"/>
+      <c r="O105" s="36"/>
     </row>
     <row r="106" spans="2:21">
-      <c r="B106" s="40" t="s">
+      <c r="B106" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C106" s="40"/>
-      <c r="N106" s="40" t="s">
+      <c r="C106" s="37"/>
+      <c r="N106" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O106" s="40"/>
+      <c r="O106" s="37"/>
     </row>
     <row r="107" spans="2:21">
-      <c r="B107" s="40" t="s">
+      <c r="B107" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C107" s="40"/>
-      <c r="N107" s="40" t="s">
+      <c r="C107" s="37"/>
+      <c r="N107" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="O107" s="40"/>
+      <c r="O107" s="37"/>
       <c r="P107" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="108" spans="2:21">
-      <c r="B108" s="40" t="s">
+      <c r="B108" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C108" s="40"/>
-      <c r="N108" s="40" t="s">
+      <c r="C108" s="37"/>
+      <c r="N108" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="O108" s="40"/>
+      <c r="O108" s="37"/>
     </row>
     <row r="109" spans="2:21">
       <c r="B109" t="s">
@@ -36253,80 +36253,80 @@
       </c>
     </row>
     <row r="110" spans="2:21">
-      <c r="B110" s="37" t="s">
+      <c r="B110" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37" t="s">
+      <c r="C110" s="36"/>
+      <c r="D110" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E110" s="37"/>
-      <c r="F110" s="37" t="s">
+      <c r="E110" s="36"/>
+      <c r="F110" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G110" s="37"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="39"/>
-      <c r="N110" s="37" t="s">
+      <c r="G110" s="36"/>
+      <c r="H110" s="47"/>
+      <c r="I110" s="48"/>
+      <c r="N110" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O110" s="37"/>
-      <c r="P110" s="37" t="s">
+      <c r="O110" s="36"/>
+      <c r="P110" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Q110" s="37"/>
-      <c r="R110" s="37" t="s">
+      <c r="Q110" s="36"/>
+      <c r="R110" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S110" s="37"/>
+      <c r="S110" s="36"/>
       <c r="T110" s="29"/>
       <c r="U110" s="30"/>
     </row>
     <row r="111" spans="2:21">
-      <c r="B111" s="40" t="s">
+      <c r="B111" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40" t="s">
+      <c r="C111" s="37"/>
+      <c r="D111" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E111" s="40"/>
-      <c r="F111" s="41" t="s">
+      <c r="E111" s="37"/>
+      <c r="F111" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G111" s="41"/>
-      <c r="H111" s="42"/>
-      <c r="I111" s="43"/>
-      <c r="N111" s="40" t="s">
+      <c r="G111" s="44"/>
+      <c r="H111" s="45"/>
+      <c r="I111" s="46"/>
+      <c r="N111" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O111" s="40"/>
-      <c r="P111" s="40" t="s">
+      <c r="O111" s="37"/>
+      <c r="P111" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q111" s="40"/>
-      <c r="R111" s="41" t="s">
+      <c r="Q111" s="37"/>
+      <c r="R111" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S111" s="41"/>
+      <c r="S111" s="44"/>
       <c r="T111" s="28"/>
       <c r="U111" s="27"/>
     </row>
     <row r="112" spans="2:21">
-      <c r="B112" s="40" t="s">
+      <c r="B112" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40" t="s">
+      <c r="C112" s="37"/>
+      <c r="D112" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E112" s="40"/>
-      <c r="F112" s="41" t="s">
+      <c r="E112" s="37"/>
+      <c r="F112" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G112" s="41"/>
-      <c r="H112" s="42"/>
-      <c r="I112" s="43"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="45"/>
+      <c r="I112" s="46"/>
       <c r="N112" s="49" t="s">
         <v>62</v>
       </c>
@@ -36343,32 +36343,32 @@
       <c r="U112" s="27"/>
     </row>
     <row r="113" spans="2:21">
-      <c r="B113" s="40" t="s">
+      <c r="B113" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C113" s="40"/>
-      <c r="D113" s="40" t="s">
+      <c r="C113" s="37"/>
+      <c r="D113" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E113" s="40"/>
-      <c r="F113" s="41" t="s">
+      <c r="E113" s="37"/>
+      <c r="F113" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G113" s="41"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="43"/>
-      <c r="N113" s="40" t="s">
+      <c r="G113" s="44"/>
+      <c r="H113" s="45"/>
+      <c r="I113" s="46"/>
+      <c r="N113" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="O113" s="40"/>
-      <c r="P113" s="40" t="s">
+      <c r="O113" s="37"/>
+      <c r="P113" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q113" s="40"/>
-      <c r="R113" s="41" t="s">
+      <c r="Q113" s="37"/>
+      <c r="R113" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S113" s="41"/>
+      <c r="S113" s="44"/>
       <c r="T113" s="28"/>
       <c r="U113" s="27"/>
     </row>
@@ -36383,64 +36383,64 @@
       <c r="U114" s="27"/>
     </row>
     <row r="115" spans="2:21">
-      <c r="B115" s="37" t="s">
+      <c r="B115" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37" t="s">
+      <c r="C115" s="36"/>
+      <c r="D115" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E115" s="37"/>
-      <c r="F115" s="37" t="s">
+      <c r="E115" s="36"/>
+      <c r="F115" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G115" s="37"/>
-      <c r="H115" s="42"/>
-      <c r="I115" s="43"/>
-      <c r="N115" s="37" t="s">
+      <c r="G115" s="36"/>
+      <c r="H115" s="45"/>
+      <c r="I115" s="46"/>
+      <c r="N115" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O115" s="37"/>
-      <c r="P115" s="37" t="s">
+      <c r="O115" s="36"/>
+      <c r="P115" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Q115" s="37"/>
-      <c r="R115" s="37" t="s">
+      <c r="Q115" s="36"/>
+      <c r="R115" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S115" s="37"/>
+      <c r="S115" s="36"/>
       <c r="T115" s="33"/>
       <c r="U115" s="34"/>
     </row>
     <row r="116" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B116" s="40" t="s">
+      <c r="B116" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40">
+      <c r="C116" s="37"/>
+      <c r="D116" s="37">
         <v>1</v>
       </c>
-      <c r="E116" s="40"/>
-      <c r="F116" s="41" t="s">
+      <c r="E116" s="37"/>
+      <c r="F116" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G116" s="41"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="43"/>
-      <c r="N116" s="40" t="s">
+      <c r="G116" s="44"/>
+      <c r="H116" s="45"/>
+      <c r="I116" s="46"/>
+      <c r="N116" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O116" s="40"/>
-      <c r="P116" s="40">
+      <c r="O116" s="37"/>
+      <c r="P116" s="37">
         <v>1</v>
       </c>
-      <c r="Q116" s="40"/>
-      <c r="R116" s="41" t="s">
+      <c r="Q116" s="37"/>
+      <c r="R116" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S116" s="41"/>
-      <c r="T116" s="39"/>
-      <c r="U116" s="46"/>
+      <c r="S116" s="44"/>
+      <c r="T116" s="48"/>
+      <c r="U116" s="51"/>
     </row>
     <row r="117" spans="2:21" ht="14.25" customHeight="1">
       <c r="B117" s="25"/>
@@ -36449,8 +36449,8 @@
       <c r="E117" s="25"/>
       <c r="F117" s="26"/>
       <c r="G117" s="26"/>
-      <c r="T117" s="36"/>
-      <c r="U117" s="36"/>
+      <c r="T117" s="52"/>
+      <c r="U117" s="52"/>
     </row>
     <row r="119" spans="2:21">
       <c r="B119" s="2" t="s">
@@ -36476,67 +36476,67 @@
       </c>
     </row>
     <row r="149" spans="2:21">
-      <c r="B149" s="37" t="s">
+      <c r="B149" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C149" s="37"/>
-      <c r="N149" s="37" t="s">
+      <c r="C149" s="36"/>
+      <c r="N149" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O149" s="37"/>
+      <c r="O149" s="36"/>
     </row>
     <row r="150" spans="2:21">
-      <c r="B150" s="40" t="s">
+      <c r="B150" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C150" s="40"/>
-      <c r="N150" s="40" t="s">
+      <c r="C150" s="37"/>
+      <c r="N150" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O150" s="40"/>
+      <c r="O150" s="37"/>
     </row>
     <row r="151" spans="2:21">
-      <c r="B151" s="40" t="s">
+      <c r="B151" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C151" s="40"/>
-      <c r="N151" s="40" t="s">
+      <c r="C151" s="37"/>
+      <c r="N151" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="O151" s="40"/>
+      <c r="O151" s="37"/>
       <c r="P151" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="152" spans="2:21">
-      <c r="B152" s="40" t="s">
+      <c r="B152" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C152" s="40"/>
-      <c r="N152" s="40" t="s">
+      <c r="C152" s="37"/>
+      <c r="N152" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="O152" s="40"/>
+      <c r="O152" s="37"/>
     </row>
     <row r="153" spans="2:21">
-      <c r="B153" s="40" t="s">
+      <c r="B153" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C153" s="40"/>
-      <c r="N153" s="40" t="s">
+      <c r="C153" s="37"/>
+      <c r="N153" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O153" s="40"/>
+      <c r="O153" s="37"/>
     </row>
     <row r="154" spans="2:21">
-      <c r="B154" s="40" t="s">
+      <c r="B154" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C154" s="40"/>
-      <c r="N154" s="40" t="s">
+      <c r="C154" s="37"/>
+      <c r="N154" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="O154" s="40"/>
+      <c r="O154" s="37"/>
     </row>
     <row r="155" spans="2:21">
       <c r="B155" t="s">
@@ -36547,212 +36547,212 @@
       </c>
     </row>
     <row r="156" spans="2:21">
-      <c r="B156" s="37" t="s">
+      <c r="B156" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C156" s="37"/>
-      <c r="D156" s="37" t="s">
+      <c r="C156" s="36"/>
+      <c r="D156" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E156" s="37"/>
-      <c r="F156" s="37" t="s">
+      <c r="E156" s="36"/>
+      <c r="F156" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G156" s="37"/>
-      <c r="H156" s="38"/>
-      <c r="I156" s="39"/>
-      <c r="N156" s="37" t="s">
+      <c r="G156" s="36"/>
+      <c r="H156" s="47"/>
+      <c r="I156" s="48"/>
+      <c r="N156" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O156" s="37"/>
-      <c r="P156" s="37" t="s">
+      <c r="O156" s="36"/>
+      <c r="P156" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Q156" s="37"/>
-      <c r="R156" s="37" t="s">
+      <c r="Q156" s="36"/>
+      <c r="R156" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S156" s="37"/>
+      <c r="S156" s="36"/>
       <c r="T156" s="29"/>
       <c r="U156" s="30"/>
     </row>
     <row r="157" spans="2:21">
-      <c r="B157" s="40" t="s">
+      <c r="B157" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C157" s="40"/>
-      <c r="D157" s="40" t="s">
+      <c r="C157" s="37"/>
+      <c r="D157" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E157" s="40"/>
-      <c r="F157" s="41" t="s">
+      <c r="E157" s="37"/>
+      <c r="F157" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G157" s="41"/>
-      <c r="H157" s="42"/>
-      <c r="I157" s="43"/>
-      <c r="N157" s="40" t="s">
+      <c r="G157" s="44"/>
+      <c r="H157" s="45"/>
+      <c r="I157" s="46"/>
+      <c r="N157" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O157" s="40"/>
-      <c r="P157" s="40" t="s">
+      <c r="O157" s="37"/>
+      <c r="P157" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q157" s="40"/>
-      <c r="R157" s="41" t="s">
+      <c r="Q157" s="37"/>
+      <c r="R157" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S157" s="41"/>
+      <c r="S157" s="44"/>
       <c r="T157" s="28"/>
       <c r="U157" s="27"/>
     </row>
     <row r="158" spans="2:21">
-      <c r="B158" s="40" t="s">
+      <c r="B158" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C158" s="40"/>
-      <c r="D158" s="40" t="s">
+      <c r="C158" s="37"/>
+      <c r="D158" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E158" s="40"/>
-      <c r="F158" s="41" t="s">
+      <c r="E158" s="37"/>
+      <c r="F158" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G158" s="41"/>
-      <c r="H158" s="42"/>
-      <c r="I158" s="43"/>
-      <c r="N158" s="44" t="s">
+      <c r="G158" s="44"/>
+      <c r="H158" s="45"/>
+      <c r="I158" s="46"/>
+      <c r="N158" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="O158" s="44"/>
-      <c r="P158" s="44" t="s">
+      <c r="O158" s="53"/>
+      <c r="P158" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="Q158" s="44"/>
-      <c r="R158" s="45" t="s">
+      <c r="Q158" s="53"/>
+      <c r="R158" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="S158" s="45"/>
+      <c r="S158" s="54"/>
       <c r="T158" s="28"/>
       <c r="U158" s="27"/>
     </row>
     <row r="159" spans="2:21">
-      <c r="B159" s="40" t="s">
+      <c r="B159" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="40"/>
-      <c r="D159" s="40" t="s">
+      <c r="C159" s="37"/>
+      <c r="D159" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E159" s="40"/>
-      <c r="F159" s="41" t="s">
+      <c r="E159" s="37"/>
+      <c r="F159" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G159" s="41"/>
-      <c r="H159" s="42"/>
-      <c r="I159" s="43"/>
-      <c r="N159" s="40" t="s">
+      <c r="G159" s="44"/>
+      <c r="H159" s="45"/>
+      <c r="I159" s="46"/>
+      <c r="N159" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="O159" s="40"/>
-      <c r="P159" s="40" t="s">
+      <c r="O159" s="37"/>
+      <c r="P159" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q159" s="40"/>
-      <c r="R159" s="41" t="s">
+      <c r="Q159" s="37"/>
+      <c r="R159" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S159" s="41"/>
+      <c r="S159" s="44"/>
       <c r="T159" s="28"/>
       <c r="U159" s="27"/>
     </row>
     <row r="160" spans="2:21">
-      <c r="B160" s="40" t="s">
+      <c r="B160" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C160" s="40"/>
-      <c r="D160" s="40" t="s">
+      <c r="C160" s="37"/>
+      <c r="D160" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E160" s="40"/>
-      <c r="F160" s="41" t="s">
+      <c r="E160" s="37"/>
+      <c r="F160" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G160" s="41"/>
+      <c r="G160" s="44"/>
       <c r="H160" s="31"/>
       <c r="I160" s="32"/>
-      <c r="N160" s="40" t="s">
+      <c r="N160" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O160" s="40"/>
-      <c r="P160" s="40" t="s">
+      <c r="O160" s="37"/>
+      <c r="P160" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="Q160" s="40"/>
-      <c r="R160" s="41" t="s">
+      <c r="Q160" s="37"/>
+      <c r="R160" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S160" s="41"/>
+      <c r="S160" s="44"/>
       <c r="T160" s="28"/>
       <c r="U160" s="27"/>
     </row>
     <row r="161" spans="2:21">
-      <c r="B161" s="40" t="s">
+      <c r="B161" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C161" s="40"/>
-      <c r="D161" s="40" t="s">
+      <c r="C161" s="37"/>
+      <c r="D161" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E161" s="40"/>
-      <c r="F161" s="41" t="s">
+      <c r="E161" s="37"/>
+      <c r="F161" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G161" s="41"/>
-      <c r="H161" s="42"/>
-      <c r="I161" s="43"/>
-      <c r="N161" s="40" t="s">
+      <c r="G161" s="44"/>
+      <c r="H161" s="45"/>
+      <c r="I161" s="46"/>
+      <c r="N161" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="O161" s="40"/>
-      <c r="P161" s="40" t="s">
+      <c r="O161" s="37"/>
+      <c r="P161" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="Q161" s="40"/>
-      <c r="R161" s="41" t="s">
+      <c r="Q161" s="37"/>
+      <c r="R161" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S161" s="41"/>
+      <c r="S161" s="44"/>
       <c r="T161" s="28"/>
       <c r="U161" s="27"/>
     </row>
     <row r="162" spans="2:21">
-      <c r="B162" s="40" t="s">
+      <c r="B162" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C162" s="40"/>
-      <c r="D162" s="40" t="s">
+      <c r="C162" s="37"/>
+      <c r="D162" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E162" s="40"/>
-      <c r="F162" s="41" t="s">
+      <c r="E162" s="37"/>
+      <c r="F162" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G162" s="41"/>
-      <c r="H162" s="42"/>
-      <c r="I162" s="43"/>
-      <c r="N162" s="40" t="s">
+      <c r="G162" s="44"/>
+      <c r="H162" s="45"/>
+      <c r="I162" s="46"/>
+      <c r="N162" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O162" s="40"/>
-      <c r="P162" s="40" t="s">
+      <c r="O162" s="37"/>
+      <c r="P162" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="Q162" s="40"/>
-      <c r="R162" s="41" t="s">
+      <c r="Q162" s="37"/>
+      <c r="R162" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S162" s="41"/>
+      <c r="S162" s="44"/>
       <c r="T162" s="28"/>
       <c r="U162" s="27"/>
     </row>
@@ -36767,94 +36767,94 @@
       <c r="U163" s="27"/>
     </row>
     <row r="164" spans="2:21">
-      <c r="B164" s="37" t="s">
+      <c r="B164" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C164" s="37"/>
-      <c r="D164" s="37" t="s">
+      <c r="C164" s="36"/>
+      <c r="D164" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E164" s="37"/>
-      <c r="F164" s="37" t="s">
+      <c r="E164" s="36"/>
+      <c r="F164" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G164" s="37"/>
-      <c r="H164" s="42"/>
-      <c r="I164" s="43"/>
-      <c r="N164" s="37" t="s">
+      <c r="G164" s="36"/>
+      <c r="H164" s="45"/>
+      <c r="I164" s="46"/>
+      <c r="N164" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O164" s="37"/>
-      <c r="P164" s="37" t="s">
+      <c r="O164" s="36"/>
+      <c r="P164" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Q164" s="37"/>
-      <c r="R164" s="37" t="s">
+      <c r="Q164" s="36"/>
+      <c r="R164" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S164" s="37"/>
+      <c r="S164" s="36"/>
       <c r="T164" s="33"/>
       <c r="U164" s="34"/>
     </row>
     <row r="165" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B165" s="40" t="s">
+      <c r="B165" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C165" s="40"/>
-      <c r="D165" s="40">
+      <c r="C165" s="37"/>
+      <c r="D165" s="37">
         <v>1</v>
       </c>
-      <c r="E165" s="40"/>
-      <c r="F165" s="41" t="s">
+      <c r="E165" s="37"/>
+      <c r="F165" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G165" s="41"/>
-      <c r="H165" s="42"/>
-      <c r="I165" s="43"/>
-      <c r="N165" s="40" t="s">
+      <c r="G165" s="44"/>
+      <c r="H165" s="45"/>
+      <c r="I165" s="46"/>
+      <c r="N165" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O165" s="40"/>
-      <c r="P165" s="40">
+      <c r="O165" s="37"/>
+      <c r="P165" s="37">
         <v>1</v>
       </c>
-      <c r="Q165" s="40"/>
-      <c r="R165" s="41" t="s">
+      <c r="Q165" s="37"/>
+      <c r="R165" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S165" s="41"/>
-      <c r="T165" s="39"/>
-      <c r="U165" s="46"/>
+      <c r="S165" s="44"/>
+      <c r="T165" s="48"/>
+      <c r="U165" s="51"/>
     </row>
     <row r="166" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B166" s="40" t="s">
+      <c r="B166" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C166" s="40"/>
-      <c r="D166" s="40">
+      <c r="C166" s="37"/>
+      <c r="D166" s="37">
         <v>1</v>
       </c>
-      <c r="E166" s="40"/>
-      <c r="F166" s="41" t="s">
+      <c r="E166" s="37"/>
+      <c r="F166" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G166" s="41"/>
-      <c r="H166" s="42"/>
-      <c r="I166" s="43"/>
-      <c r="N166" s="40" t="s">
+      <c r="G166" s="44"/>
+      <c r="H166" s="45"/>
+      <c r="I166" s="46"/>
+      <c r="N166" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="O166" s="40"/>
-      <c r="P166" s="40">
+      <c r="O166" s="37"/>
+      <c r="P166" s="37">
         <v>1</v>
       </c>
-      <c r="Q166" s="40"/>
-      <c r="R166" s="41" t="s">
+      <c r="Q166" s="37"/>
+      <c r="R166" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S166" s="41"/>
-      <c r="T166" s="39"/>
-      <c r="U166" s="46"/>
+      <c r="S166" s="44"/>
+      <c r="T166" s="48"/>
+      <c r="U166" s="51"/>
     </row>
     <row r="167" spans="2:21" ht="14.25" customHeight="1">
       <c r="B167" s="25"/>
@@ -36863,8 +36863,8 @@
       <c r="E167" s="25"/>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
-      <c r="T167" s="36"/>
-      <c r="U167" s="36"/>
+      <c r="T167" s="52"/>
+      <c r="U167" s="52"/>
     </row>
     <row r="168" spans="2:21">
       <c r="B168" s="2" t="s">
@@ -36898,65 +36898,65 @@
       </c>
     </row>
     <row r="199" spans="2:21">
-      <c r="B199" s="37" t="s">
+      <c r="B199" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C199" s="37"/>
-      <c r="N199" s="37" t="s">
+      <c r="C199" s="36"/>
+      <c r="N199" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O199" s="37"/>
+      <c r="O199" s="36"/>
     </row>
     <row r="200" spans="2:21">
-      <c r="B200" s="40" t="s">
+      <c r="B200" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C200" s="40"/>
-      <c r="N200" s="40" t="s">
+      <c r="C200" s="37"/>
+      <c r="N200" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O200" s="40"/>
+      <c r="O200" s="37"/>
     </row>
     <row r="201" spans="2:21">
-      <c r="B201" s="40" t="s">
+      <c r="B201" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C201" s="40"/>
-      <c r="N201" s="40" t="s">
+      <c r="C201" s="37"/>
+      <c r="N201" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="O201" s="40"/>
+      <c r="O201" s="37"/>
       <c r="P201" s="35"/>
     </row>
     <row r="202" spans="2:21">
-      <c r="B202" s="40" t="s">
+      <c r="B202" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C202" s="40"/>
-      <c r="N202" s="40" t="s">
+      <c r="C202" s="37"/>
+      <c r="N202" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="O202" s="40"/>
+      <c r="O202" s="37"/>
     </row>
     <row r="203" spans="2:21">
-      <c r="B203" s="40" t="s">
+      <c r="B203" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C203" s="40"/>
-      <c r="N203" s="40" t="s">
+      <c r="C203" s="37"/>
+      <c r="N203" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O203" s="40"/>
+      <c r="O203" s="37"/>
     </row>
     <row r="204" spans="2:21">
-      <c r="B204" s="40" t="s">
+      <c r="B204" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C204" s="40"/>
-      <c r="N204" s="40" t="s">
+      <c r="C204" s="37"/>
+      <c r="N204" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="O204" s="40"/>
+      <c r="O204" s="37"/>
     </row>
     <row r="205" spans="2:21">
       <c r="B205" t="s">
@@ -36967,212 +36967,212 @@
       </c>
     </row>
     <row r="206" spans="2:21">
-      <c r="B206" s="37" t="s">
+      <c r="B206" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C206" s="37"/>
-      <c r="D206" s="37" t="s">
+      <c r="C206" s="36"/>
+      <c r="D206" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E206" s="37"/>
-      <c r="F206" s="37" t="s">
+      <c r="E206" s="36"/>
+      <c r="F206" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G206" s="37"/>
-      <c r="H206" s="38"/>
-      <c r="I206" s="39"/>
-      <c r="N206" s="37" t="s">
+      <c r="G206" s="36"/>
+      <c r="H206" s="47"/>
+      <c r="I206" s="48"/>
+      <c r="N206" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O206" s="37"/>
-      <c r="P206" s="37" t="s">
+      <c r="O206" s="36"/>
+      <c r="P206" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Q206" s="37"/>
-      <c r="R206" s="37" t="s">
+      <c r="Q206" s="36"/>
+      <c r="R206" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S206" s="37"/>
+      <c r="S206" s="36"/>
       <c r="T206" s="29"/>
       <c r="U206" s="30"/>
     </row>
     <row r="207" spans="2:21">
-      <c r="B207" s="40" t="s">
+      <c r="B207" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C207" s="40"/>
-      <c r="D207" s="40" t="s">
+      <c r="C207" s="37"/>
+      <c r="D207" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E207" s="40"/>
-      <c r="F207" s="41" t="s">
+      <c r="E207" s="37"/>
+      <c r="F207" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G207" s="41"/>
-      <c r="H207" s="42"/>
-      <c r="I207" s="43"/>
-      <c r="N207" s="40" t="s">
+      <c r="G207" s="44"/>
+      <c r="H207" s="45"/>
+      <c r="I207" s="46"/>
+      <c r="N207" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O207" s="40"/>
-      <c r="P207" s="40" t="s">
+      <c r="O207" s="37"/>
+      <c r="P207" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q207" s="40"/>
-      <c r="R207" s="41" t="s">
+      <c r="Q207" s="37"/>
+      <c r="R207" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S207" s="41"/>
+      <c r="S207" s="44"/>
       <c r="T207" s="28"/>
       <c r="U207" s="27"/>
     </row>
     <row r="208" spans="2:21">
-      <c r="B208" s="40" t="s">
+      <c r="B208" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C208" s="40"/>
-      <c r="D208" s="40" t="s">
+      <c r="C208" s="37"/>
+      <c r="D208" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E208" s="40"/>
-      <c r="F208" s="41" t="s">
+      <c r="E208" s="37"/>
+      <c r="F208" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G208" s="41"/>
-      <c r="H208" s="42"/>
-      <c r="I208" s="43"/>
-      <c r="N208" s="48" t="s">
+      <c r="G208" s="44"/>
+      <c r="H208" s="45"/>
+      <c r="I208" s="46"/>
+      <c r="N208" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="O208" s="48"/>
-      <c r="P208" s="48" t="s">
+      <c r="O208" s="55"/>
+      <c r="P208" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="Q208" s="48"/>
-      <c r="R208" s="47" t="s">
+      <c r="Q208" s="55"/>
+      <c r="R208" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="S208" s="47"/>
+      <c r="S208" s="56"/>
       <c r="T208" s="28"/>
       <c r="U208" s="27"/>
     </row>
     <row r="209" spans="2:21">
-      <c r="B209" s="40" t="s">
+      <c r="B209" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C209" s="40"/>
-      <c r="D209" s="40" t="s">
+      <c r="C209" s="37"/>
+      <c r="D209" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E209" s="40"/>
-      <c r="F209" s="41" t="s">
+      <c r="E209" s="37"/>
+      <c r="F209" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G209" s="41"/>
-      <c r="H209" s="42"/>
-      <c r="I209" s="43"/>
-      <c r="N209" s="40" t="s">
+      <c r="G209" s="44"/>
+      <c r="H209" s="45"/>
+      <c r="I209" s="46"/>
+      <c r="N209" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="O209" s="40"/>
-      <c r="P209" s="40" t="s">
+      <c r="O209" s="37"/>
+      <c r="P209" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q209" s="40"/>
-      <c r="R209" s="41" t="s">
+      <c r="Q209" s="37"/>
+      <c r="R209" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S209" s="41"/>
+      <c r="S209" s="44"/>
       <c r="T209" s="28"/>
       <c r="U209" s="27"/>
     </row>
     <row r="210" spans="2:21">
-      <c r="B210" s="40" t="s">
+      <c r="B210" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C210" s="40"/>
-      <c r="D210" s="40" t="s">
+      <c r="C210" s="37"/>
+      <c r="D210" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E210" s="40"/>
-      <c r="F210" s="41" t="s">
+      <c r="E210" s="37"/>
+      <c r="F210" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G210" s="41"/>
+      <c r="G210" s="44"/>
       <c r="H210" s="31"/>
       <c r="I210" s="32"/>
-      <c r="N210" s="40" t="s">
+      <c r="N210" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O210" s="40"/>
-      <c r="P210" s="40" t="s">
+      <c r="O210" s="37"/>
+      <c r="P210" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="Q210" s="40"/>
-      <c r="R210" s="41" t="s">
+      <c r="Q210" s="37"/>
+      <c r="R210" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S210" s="41"/>
+      <c r="S210" s="44"/>
       <c r="T210" s="28"/>
       <c r="U210" s="27"/>
     </row>
     <row r="211" spans="2:21">
-      <c r="B211" s="40" t="s">
+      <c r="B211" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C211" s="40"/>
-      <c r="D211" s="40" t="s">
+      <c r="C211" s="37"/>
+      <c r="D211" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E211" s="40"/>
-      <c r="F211" s="41" t="s">
+      <c r="E211" s="37"/>
+      <c r="F211" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G211" s="41"/>
-      <c r="H211" s="42"/>
-      <c r="I211" s="43"/>
-      <c r="N211" s="40" t="s">
+      <c r="G211" s="44"/>
+      <c r="H211" s="45"/>
+      <c r="I211" s="46"/>
+      <c r="N211" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="O211" s="40"/>
-      <c r="P211" s="40" t="s">
+      <c r="O211" s="37"/>
+      <c r="P211" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="Q211" s="40"/>
-      <c r="R211" s="41" t="s">
+      <c r="Q211" s="37"/>
+      <c r="R211" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S211" s="41"/>
+      <c r="S211" s="44"/>
       <c r="T211" s="28"/>
       <c r="U211" s="27"/>
     </row>
     <row r="212" spans="2:21">
-      <c r="B212" s="40" t="s">
+      <c r="B212" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C212" s="40"/>
-      <c r="D212" s="40" t="s">
+      <c r="C212" s="37"/>
+      <c r="D212" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E212" s="40"/>
-      <c r="F212" s="41" t="s">
+      <c r="E212" s="37"/>
+      <c r="F212" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G212" s="41"/>
-      <c r="H212" s="42"/>
-      <c r="I212" s="43"/>
-      <c r="N212" s="44" t="s">
+      <c r="G212" s="44"/>
+      <c r="H212" s="45"/>
+      <c r="I212" s="46"/>
+      <c r="N212" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="O212" s="44"/>
-      <c r="P212" s="44" t="s">
+      <c r="O212" s="53"/>
+      <c r="P212" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="Q212" s="44"/>
-      <c r="R212" s="45" t="s">
+      <c r="Q212" s="53"/>
+      <c r="R212" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="S212" s="45"/>
+      <c r="S212" s="54"/>
       <c r="T212" s="28"/>
       <c r="U212" s="27"/>
     </row>
@@ -37187,94 +37187,94 @@
       <c r="U213" s="27"/>
     </row>
     <row r="214" spans="2:21">
-      <c r="B214" s="37" t="s">
+      <c r="B214" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C214" s="37"/>
-      <c r="D214" s="37" t="s">
+      <c r="C214" s="36"/>
+      <c r="D214" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E214" s="37"/>
-      <c r="F214" s="37" t="s">
+      <c r="E214" s="36"/>
+      <c r="F214" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G214" s="37"/>
-      <c r="H214" s="42"/>
-      <c r="I214" s="43"/>
-      <c r="N214" s="37" t="s">
+      <c r="G214" s="36"/>
+      <c r="H214" s="45"/>
+      <c r="I214" s="46"/>
+      <c r="N214" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O214" s="37"/>
-      <c r="P214" s="37" t="s">
+      <c r="O214" s="36"/>
+      <c r="P214" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Q214" s="37"/>
-      <c r="R214" s="37" t="s">
+      <c r="Q214" s="36"/>
+      <c r="R214" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S214" s="37"/>
+      <c r="S214" s="36"/>
       <c r="T214" s="33"/>
       <c r="U214" s="34"/>
     </row>
     <row r="215" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B215" s="40" t="s">
+      <c r="B215" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C215" s="40"/>
-      <c r="D215" s="40">
+      <c r="C215" s="37"/>
+      <c r="D215" s="37">
         <v>1</v>
       </c>
-      <c r="E215" s="40"/>
-      <c r="F215" s="41" t="s">
+      <c r="E215" s="37"/>
+      <c r="F215" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G215" s="41"/>
-      <c r="H215" s="42"/>
-      <c r="I215" s="43"/>
-      <c r="N215" s="40" t="s">
+      <c r="G215" s="44"/>
+      <c r="H215" s="45"/>
+      <c r="I215" s="46"/>
+      <c r="N215" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O215" s="40"/>
-      <c r="P215" s="40">
+      <c r="O215" s="37"/>
+      <c r="P215" s="37">
         <v>1</v>
       </c>
-      <c r="Q215" s="40"/>
-      <c r="R215" s="41" t="s">
+      <c r="Q215" s="37"/>
+      <c r="R215" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S215" s="41"/>
-      <c r="T215" s="39"/>
-      <c r="U215" s="46"/>
+      <c r="S215" s="44"/>
+      <c r="T215" s="48"/>
+      <c r="U215" s="51"/>
     </row>
     <row r="216" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B216" s="40" t="s">
+      <c r="B216" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C216" s="40"/>
-      <c r="D216" s="40">
+      <c r="C216" s="37"/>
+      <c r="D216" s="37">
         <v>1</v>
       </c>
-      <c r="E216" s="40"/>
-      <c r="F216" s="41" t="s">
+      <c r="E216" s="37"/>
+      <c r="F216" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G216" s="41"/>
-      <c r="H216" s="42"/>
-      <c r="I216" s="43"/>
-      <c r="N216" s="40" t="s">
+      <c r="G216" s="44"/>
+      <c r="H216" s="45"/>
+      <c r="I216" s="46"/>
+      <c r="N216" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="O216" s="40"/>
-      <c r="P216" s="40">
+      <c r="O216" s="37"/>
+      <c r="P216" s="37">
         <v>1</v>
       </c>
-      <c r="Q216" s="40"/>
-      <c r="R216" s="41" t="s">
+      <c r="Q216" s="37"/>
+      <c r="R216" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S216" s="41"/>
-      <c r="T216" s="39"/>
-      <c r="U216" s="46"/>
+      <c r="S216" s="44"/>
+      <c r="T216" s="48"/>
+      <c r="U216" s="51"/>
     </row>
     <row r="217" spans="2:21" ht="14.25" customHeight="1">
       <c r="B217" s="25"/>
@@ -37283,8 +37283,8 @@
       <c r="E217" s="25"/>
       <c r="F217" s="26"/>
       <c r="G217" s="26"/>
-      <c r="T217" s="36"/>
-      <c r="U217" s="36"/>
+      <c r="T217" s="52"/>
+      <c r="U217" s="52"/>
     </row>
     <row r="221" spans="2:21">
       <c r="B221" t="s">
@@ -37305,67 +37305,67 @@
       </c>
     </row>
     <row r="248" spans="2:21">
-      <c r="B248" s="37" t="s">
+      <c r="B248" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C248" s="37"/>
-      <c r="N248" s="37" t="s">
+      <c r="C248" s="36"/>
+      <c r="N248" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O248" s="37"/>
+      <c r="O248" s="36"/>
     </row>
     <row r="249" spans="2:21">
-      <c r="B249" s="40" t="s">
+      <c r="B249" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C249" s="40"/>
-      <c r="N249" s="40" t="s">
+      <c r="C249" s="37"/>
+      <c r="N249" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O249" s="40"/>
+      <c r="O249" s="37"/>
     </row>
     <row r="250" spans="2:21">
-      <c r="B250" s="40" t="s">
+      <c r="B250" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C250" s="40"/>
-      <c r="N250" s="40" t="s">
+      <c r="C250" s="37"/>
+      <c r="N250" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="O250" s="40"/>
+      <c r="O250" s="37"/>
       <c r="P250" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="251" spans="2:21">
-      <c r="B251" s="40" t="s">
+      <c r="B251" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C251" s="40"/>
-      <c r="N251" s="40" t="s">
+      <c r="C251" s="37"/>
+      <c r="N251" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="O251" s="40"/>
+      <c r="O251" s="37"/>
     </row>
     <row r="252" spans="2:21">
-      <c r="B252" s="40" t="s">
+      <c r="B252" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C252" s="40"/>
-      <c r="N252" s="40" t="s">
+      <c r="C252" s="37"/>
+      <c r="N252" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O252" s="40"/>
+      <c r="O252" s="37"/>
     </row>
     <row r="253" spans="2:21">
-      <c r="B253" s="40" t="s">
+      <c r="B253" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C253" s="40"/>
-      <c r="N253" s="40" t="s">
+      <c r="C253" s="37"/>
+      <c r="N253" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="O253" s="40"/>
+      <c r="O253" s="37"/>
     </row>
     <row r="254" spans="2:21">
       <c r="B254" t="s">
@@ -37376,212 +37376,212 @@
       </c>
     </row>
     <row r="255" spans="2:21">
-      <c r="B255" s="37" t="s">
+      <c r="B255" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C255" s="37"/>
-      <c r="D255" s="37" t="s">
+      <c r="C255" s="36"/>
+      <c r="D255" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E255" s="37"/>
-      <c r="F255" s="37" t="s">
+      <c r="E255" s="36"/>
+      <c r="F255" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G255" s="37"/>
-      <c r="H255" s="38"/>
-      <c r="I255" s="39"/>
-      <c r="N255" s="37" t="s">
+      <c r="G255" s="36"/>
+      <c r="H255" s="47"/>
+      <c r="I255" s="48"/>
+      <c r="N255" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O255" s="37"/>
-      <c r="P255" s="37" t="s">
+      <c r="O255" s="36"/>
+      <c r="P255" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Q255" s="37"/>
-      <c r="R255" s="37" t="s">
+      <c r="Q255" s="36"/>
+      <c r="R255" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S255" s="37"/>
+      <c r="S255" s="36"/>
       <c r="T255" s="29"/>
       <c r="U255" s="30"/>
     </row>
     <row r="256" spans="2:21">
-      <c r="B256" s="40" t="s">
+      <c r="B256" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C256" s="40"/>
-      <c r="D256" s="40" t="s">
+      <c r="C256" s="37"/>
+      <c r="D256" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E256" s="40"/>
-      <c r="F256" s="41" t="s">
+      <c r="E256" s="37"/>
+      <c r="F256" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G256" s="41"/>
-      <c r="H256" s="42"/>
-      <c r="I256" s="43"/>
-      <c r="N256" s="40" t="s">
+      <c r="G256" s="44"/>
+      <c r="H256" s="45"/>
+      <c r="I256" s="46"/>
+      <c r="N256" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O256" s="40"/>
-      <c r="P256" s="40" t="s">
+      <c r="O256" s="37"/>
+      <c r="P256" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q256" s="40"/>
-      <c r="R256" s="41" t="s">
+      <c r="Q256" s="37"/>
+      <c r="R256" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S256" s="41"/>
+      <c r="S256" s="44"/>
       <c r="T256" s="28"/>
       <c r="U256" s="27"/>
     </row>
     <row r="257" spans="2:21">
-      <c r="B257" s="40" t="s">
+      <c r="B257" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C257" s="40"/>
-      <c r="D257" s="40" t="s">
+      <c r="C257" s="37"/>
+      <c r="D257" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E257" s="40"/>
-      <c r="F257" s="41" t="s">
+      <c r="E257" s="37"/>
+      <c r="F257" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G257" s="41"/>
-      <c r="H257" s="42"/>
-      <c r="I257" s="43"/>
-      <c r="N257" s="44" t="s">
+      <c r="G257" s="44"/>
+      <c r="H257" s="45"/>
+      <c r="I257" s="46"/>
+      <c r="N257" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="O257" s="44"/>
-      <c r="P257" s="44" t="s">
+      <c r="O257" s="53"/>
+      <c r="P257" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="Q257" s="44"/>
-      <c r="R257" s="45" t="s">
+      <c r="Q257" s="53"/>
+      <c r="R257" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="S257" s="45"/>
+      <c r="S257" s="54"/>
       <c r="T257" s="28"/>
       <c r="U257" s="27"/>
     </row>
     <row r="258" spans="2:21">
-      <c r="B258" s="40" t="s">
+      <c r="B258" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C258" s="40"/>
-      <c r="D258" s="40" t="s">
+      <c r="C258" s="37"/>
+      <c r="D258" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E258" s="40"/>
-      <c r="F258" s="41" t="s">
+      <c r="E258" s="37"/>
+      <c r="F258" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G258" s="41"/>
-      <c r="H258" s="42"/>
-      <c r="I258" s="43"/>
-      <c r="N258" s="40" t="s">
+      <c r="G258" s="44"/>
+      <c r="H258" s="45"/>
+      <c r="I258" s="46"/>
+      <c r="N258" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="O258" s="40"/>
-      <c r="P258" s="40" t="s">
+      <c r="O258" s="37"/>
+      <c r="P258" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q258" s="40"/>
-      <c r="R258" s="41" t="s">
+      <c r="Q258" s="37"/>
+      <c r="R258" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S258" s="41"/>
+      <c r="S258" s="44"/>
       <c r="T258" s="28"/>
       <c r="U258" s="27"/>
     </row>
     <row r="259" spans="2:21">
-      <c r="B259" s="40" t="s">
+      <c r="B259" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C259" s="40"/>
-      <c r="D259" s="40" t="s">
+      <c r="C259" s="37"/>
+      <c r="D259" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E259" s="40"/>
-      <c r="F259" s="41" t="s">
+      <c r="E259" s="37"/>
+      <c r="F259" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G259" s="41"/>
+      <c r="G259" s="44"/>
       <c r="H259" s="31"/>
       <c r="I259" s="32"/>
-      <c r="N259" s="40" t="s">
+      <c r="N259" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O259" s="40"/>
-      <c r="P259" s="40" t="s">
+      <c r="O259" s="37"/>
+      <c r="P259" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="Q259" s="40"/>
-      <c r="R259" s="41" t="s">
+      <c r="Q259" s="37"/>
+      <c r="R259" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S259" s="41"/>
+      <c r="S259" s="44"/>
       <c r="T259" s="28"/>
       <c r="U259" s="27"/>
     </row>
     <row r="260" spans="2:21">
-      <c r="B260" s="40" t="s">
+      <c r="B260" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C260" s="40"/>
-      <c r="D260" s="40" t="s">
+      <c r="C260" s="37"/>
+      <c r="D260" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E260" s="40"/>
-      <c r="F260" s="41" t="s">
+      <c r="E260" s="37"/>
+      <c r="F260" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G260" s="41"/>
-      <c r="H260" s="42"/>
-      <c r="I260" s="43"/>
-      <c r="N260" s="48" t="s">
+      <c r="G260" s="44"/>
+      <c r="H260" s="45"/>
+      <c r="I260" s="46"/>
+      <c r="N260" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="O260" s="48"/>
-      <c r="P260" s="48" t="s">
+      <c r="O260" s="55"/>
+      <c r="P260" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="Q260" s="48"/>
-      <c r="R260" s="47" t="s">
+      <c r="Q260" s="55"/>
+      <c r="R260" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="S260" s="47"/>
+      <c r="S260" s="56"/>
       <c r="T260" s="28"/>
       <c r="U260" s="27"/>
     </row>
     <row r="261" spans="2:21">
-      <c r="B261" s="40" t="s">
+      <c r="B261" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C261" s="40"/>
-      <c r="D261" s="40" t="s">
+      <c r="C261" s="37"/>
+      <c r="D261" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E261" s="40"/>
-      <c r="F261" s="41" t="s">
+      <c r="E261" s="37"/>
+      <c r="F261" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G261" s="41"/>
-      <c r="H261" s="42"/>
-      <c r="I261" s="43"/>
-      <c r="N261" s="48" t="s">
+      <c r="G261" s="44"/>
+      <c r="H261" s="45"/>
+      <c r="I261" s="46"/>
+      <c r="N261" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="O261" s="48"/>
-      <c r="P261" s="48" t="s">
+      <c r="O261" s="55"/>
+      <c r="P261" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="Q261" s="48"/>
-      <c r="R261" s="47" t="s">
+      <c r="Q261" s="55"/>
+      <c r="R261" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="S261" s="47"/>
+      <c r="S261" s="56"/>
       <c r="T261" s="28"/>
       <c r="U261" s="27"/>
     </row>
@@ -37596,94 +37596,94 @@
       <c r="U262" s="27"/>
     </row>
     <row r="263" spans="2:21">
-      <c r="B263" s="37" t="s">
+      <c r="B263" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C263" s="37"/>
-      <c r="D263" s="37" t="s">
+      <c r="C263" s="36"/>
+      <c r="D263" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E263" s="37"/>
-      <c r="F263" s="37" t="s">
+      <c r="E263" s="36"/>
+      <c r="F263" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G263" s="37"/>
-      <c r="H263" s="42"/>
-      <c r="I263" s="43"/>
-      <c r="N263" s="37" t="s">
+      <c r="G263" s="36"/>
+      <c r="H263" s="45"/>
+      <c r="I263" s="46"/>
+      <c r="N263" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O263" s="37"/>
-      <c r="P263" s="37" t="s">
+      <c r="O263" s="36"/>
+      <c r="P263" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Q263" s="37"/>
-      <c r="R263" s="37" t="s">
+      <c r="Q263" s="36"/>
+      <c r="R263" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S263" s="37"/>
+      <c r="S263" s="36"/>
       <c r="T263" s="33"/>
       <c r="U263" s="34"/>
     </row>
     <row r="264" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B264" s="40" t="s">
+      <c r="B264" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C264" s="40"/>
-      <c r="D264" s="40">
+      <c r="C264" s="37"/>
+      <c r="D264" s="37">
         <v>1</v>
       </c>
-      <c r="E264" s="40"/>
-      <c r="F264" s="41" t="s">
+      <c r="E264" s="37"/>
+      <c r="F264" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G264" s="41"/>
-      <c r="H264" s="42"/>
-      <c r="I264" s="43"/>
-      <c r="N264" s="40" t="s">
+      <c r="G264" s="44"/>
+      <c r="H264" s="45"/>
+      <c r="I264" s="46"/>
+      <c r="N264" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O264" s="40"/>
-      <c r="P264" s="40">
+      <c r="O264" s="37"/>
+      <c r="P264" s="37">
         <v>1</v>
       </c>
-      <c r="Q264" s="40"/>
-      <c r="R264" s="41" t="s">
+      <c r="Q264" s="37"/>
+      <c r="R264" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S264" s="41"/>
-      <c r="T264" s="39"/>
-      <c r="U264" s="46"/>
+      <c r="S264" s="44"/>
+      <c r="T264" s="48"/>
+      <c r="U264" s="51"/>
     </row>
     <row r="265" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B265" s="40" t="s">
+      <c r="B265" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C265" s="40"/>
-      <c r="D265" s="40">
+      <c r="C265" s="37"/>
+      <c r="D265" s="37">
         <v>1</v>
       </c>
-      <c r="E265" s="40"/>
-      <c r="F265" s="41" t="s">
+      <c r="E265" s="37"/>
+      <c r="F265" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G265" s="41"/>
-      <c r="H265" s="42"/>
-      <c r="I265" s="43"/>
-      <c r="N265" s="40" t="s">
+      <c r="G265" s="44"/>
+      <c r="H265" s="45"/>
+      <c r="I265" s="46"/>
+      <c r="N265" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="O265" s="40"/>
-      <c r="P265" s="40">
+      <c r="O265" s="37"/>
+      <c r="P265" s="37">
         <v>1</v>
       </c>
-      <c r="Q265" s="40"/>
-      <c r="R265" s="41" t="s">
+      <c r="Q265" s="37"/>
+      <c r="R265" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S265" s="41"/>
-      <c r="T265" s="39"/>
-      <c r="U265" s="46"/>
+      <c r="S265" s="44"/>
+      <c r="T265" s="48"/>
+      <c r="U265" s="51"/>
     </row>
     <row r="266" spans="2:21" ht="14.25" customHeight="1">
       <c r="B266" s="25"/>
@@ -37692,8 +37692,8 @@
       <c r="E266" s="25"/>
       <c r="F266" s="26"/>
       <c r="G266" s="26"/>
-      <c r="T266" s="36"/>
-      <c r="U266" s="36"/>
+      <c r="T266" s="52"/>
+      <c r="U266" s="52"/>
     </row>
     <row r="268" spans="2:21">
       <c r="B268" s="2" t="s">
@@ -37719,37 +37719,37 @@
       </c>
     </row>
     <row r="287" spans="2:16">
-      <c r="B287" s="37" t="s">
+      <c r="B287" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C287" s="37"/>
-      <c r="N287" s="37" t="s">
+      <c r="C287" s="36"/>
+      <c r="N287" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O287" s="37"/>
+      <c r="O287" s="36"/>
     </row>
     <row r="288" spans="2:16">
-      <c r="B288" s="40" t="s">
+      <c r="B288" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C288" s="40"/>
-      <c r="N288" s="40" t="s">
+      <c r="C288" s="37"/>
+      <c r="N288" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O288" s="40"/>
+      <c r="O288" s="37"/>
       <c r="P288" s="35" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="289" spans="2:21">
-      <c r="B289" s="40" t="s">
+      <c r="B289" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C289" s="40"/>
-      <c r="N289" s="40" t="s">
+      <c r="C289" s="37"/>
+      <c r="N289" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="O289" s="40"/>
+      <c r="O289" s="37"/>
       <c r="P289" s="35"/>
     </row>
     <row r="290" spans="2:21">
@@ -37761,92 +37761,92 @@
       </c>
     </row>
     <row r="291" spans="2:21">
-      <c r="B291" s="37" t="s">
+      <c r="B291" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C291" s="37"/>
-      <c r="D291" s="37" t="s">
+      <c r="C291" s="36"/>
+      <c r="D291" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E291" s="37"/>
-      <c r="F291" s="37" t="s">
+      <c r="E291" s="36"/>
+      <c r="F291" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G291" s="37"/>
-      <c r="H291" s="38"/>
-      <c r="I291" s="39"/>
-      <c r="N291" s="37" t="s">
+      <c r="G291" s="36"/>
+      <c r="H291" s="47"/>
+      <c r="I291" s="48"/>
+      <c r="N291" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O291" s="37"/>
-      <c r="P291" s="37" t="s">
+      <c r="O291" s="36"/>
+      <c r="P291" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Q291" s="37"/>
-      <c r="R291" s="37" t="s">
+      <c r="Q291" s="36"/>
+      <c r="R291" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S291" s="37"/>
+      <c r="S291" s="36"/>
       <c r="T291" s="29"/>
       <c r="U291" s="30"/>
     </row>
     <row r="292" spans="2:21">
-      <c r="B292" s="40" t="s">
+      <c r="B292" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C292" s="40"/>
-      <c r="D292" s="40" t="s">
+      <c r="C292" s="37"/>
+      <c r="D292" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E292" s="40"/>
-      <c r="F292" s="41" t="s">
+      <c r="E292" s="37"/>
+      <c r="F292" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G292" s="41"/>
-      <c r="H292" s="42"/>
-      <c r="I292" s="43"/>
-      <c r="N292" s="44" t="s">
+      <c r="G292" s="44"/>
+      <c r="H292" s="45"/>
+      <c r="I292" s="46"/>
+      <c r="N292" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="O292" s="44"/>
-      <c r="P292" s="44" t="s">
+      <c r="O292" s="53"/>
+      <c r="P292" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="Q292" s="44"/>
-      <c r="R292" s="45" t="s">
+      <c r="Q292" s="53"/>
+      <c r="R292" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="S292" s="45"/>
+      <c r="S292" s="54"/>
       <c r="T292" s="28"/>
       <c r="U292" s="27"/>
     </row>
     <row r="293" spans="2:21">
-      <c r="B293" s="40" t="s">
+      <c r="B293" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C293" s="40"/>
-      <c r="D293" s="40" t="s">
+      <c r="C293" s="37"/>
+      <c r="D293" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E293" s="40"/>
-      <c r="F293" s="41" t="s">
+      <c r="E293" s="37"/>
+      <c r="F293" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G293" s="41"/>
-      <c r="H293" s="42"/>
-      <c r="I293" s="43"/>
-      <c r="N293" s="48" t="s">
+      <c r="G293" s="44"/>
+      <c r="H293" s="45"/>
+      <c r="I293" s="46"/>
+      <c r="N293" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="O293" s="48"/>
-      <c r="P293" s="40" t="s">
+      <c r="O293" s="55"/>
+      <c r="P293" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="Q293" s="40"/>
-      <c r="R293" s="47" t="s">
+      <c r="Q293" s="37"/>
+      <c r="R293" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="S293" s="47"/>
+      <c r="S293" s="56"/>
       <c r="T293" s="28"/>
       <c r="U293" s="27"/>
     </row>
@@ -37861,64 +37861,64 @@
       <c r="U294" s="27"/>
     </row>
     <row r="295" spans="2:21">
-      <c r="B295" s="37" t="s">
+      <c r="B295" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C295" s="37"/>
-      <c r="D295" s="37" t="s">
+      <c r="C295" s="36"/>
+      <c r="D295" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E295" s="37"/>
-      <c r="F295" s="37" t="s">
+      <c r="E295" s="36"/>
+      <c r="F295" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G295" s="37"/>
-      <c r="H295" s="42"/>
-      <c r="I295" s="43"/>
-      <c r="N295" s="37" t="s">
+      <c r="G295" s="36"/>
+      <c r="H295" s="45"/>
+      <c r="I295" s="46"/>
+      <c r="N295" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O295" s="37"/>
-      <c r="P295" s="37" t="s">
+      <c r="O295" s="36"/>
+      <c r="P295" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Q295" s="37"/>
-      <c r="R295" s="37" t="s">
+      <c r="Q295" s="36"/>
+      <c r="R295" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S295" s="37"/>
+      <c r="S295" s="36"/>
       <c r="T295" s="33"/>
       <c r="U295" s="34"/>
     </row>
     <row r="296" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B296" s="40" t="s">
+      <c r="B296" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C296" s="40"/>
-      <c r="D296" s="40">
+      <c r="C296" s="37"/>
+      <c r="D296" s="37">
         <v>1</v>
       </c>
-      <c r="E296" s="40"/>
-      <c r="F296" s="41" t="s">
+      <c r="E296" s="37"/>
+      <c r="F296" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G296" s="41"/>
-      <c r="H296" s="42"/>
-      <c r="I296" s="43"/>
-      <c r="N296" s="40" t="s">
+      <c r="G296" s="44"/>
+      <c r="H296" s="45"/>
+      <c r="I296" s="46"/>
+      <c r="N296" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="O296" s="40"/>
-      <c r="P296" s="40">
+      <c r="O296" s="37"/>
+      <c r="P296" s="37">
         <v>1</v>
       </c>
-      <c r="Q296" s="40"/>
-      <c r="R296" s="41" t="s">
+      <c r="Q296" s="37"/>
+      <c r="R296" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S296" s="41"/>
-      <c r="T296" s="39"/>
-      <c r="U296" s="46"/>
+      <c r="S296" s="44"/>
+      <c r="T296" s="48"/>
+      <c r="U296" s="51"/>
     </row>
     <row r="297" spans="2:21" ht="14.25" customHeight="1">
       <c r="B297" s="25"/>
@@ -37927,8 +37927,8 @@
       <c r="E297" s="25"/>
       <c r="F297" s="26"/>
       <c r="G297" s="26"/>
-      <c r="T297" s="36"/>
-      <c r="U297" s="36"/>
+      <c r="T297" s="52"/>
+      <c r="U297" s="52"/>
     </row>
     <row r="298" spans="2:21">
       <c r="B298" s="2" t="s">
@@ -37954,65 +37954,65 @@
       </c>
     </row>
     <row r="327" spans="2:21">
-      <c r="B327" s="37" t="s">
+      <c r="B327" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C327" s="37"/>
-      <c r="N327" s="37" t="s">
+      <c r="C327" s="36"/>
+      <c r="N327" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O327" s="37"/>
+      <c r="O327" s="36"/>
     </row>
     <row r="328" spans="2:21">
-      <c r="B328" s="40" t="s">
+      <c r="B328" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C328" s="40"/>
-      <c r="N328" s="40" t="s">
+      <c r="C328" s="37"/>
+      <c r="N328" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O328" s="40"/>
+      <c r="O328" s="37"/>
     </row>
     <row r="329" spans="2:21">
-      <c r="B329" s="40" t="s">
+      <c r="B329" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C329" s="40"/>
-      <c r="N329" s="40" t="s">
+      <c r="C329" s="37"/>
+      <c r="N329" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="O329" s="40"/>
+      <c r="O329" s="37"/>
       <c r="P329" s="35"/>
     </row>
     <row r="330" spans="2:21">
-      <c r="B330" s="40" t="s">
+      <c r="B330" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C330" s="40"/>
-      <c r="N330" s="40" t="s">
+      <c r="C330" s="37"/>
+      <c r="N330" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="O330" s="40"/>
+      <c r="O330" s="37"/>
     </row>
     <row r="331" spans="2:21">
-      <c r="B331" s="40" t="s">
+      <c r="B331" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C331" s="40"/>
-      <c r="N331" s="40" t="s">
+      <c r="C331" s="37"/>
+      <c r="N331" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O331" s="40"/>
+      <c r="O331" s="37"/>
     </row>
     <row r="332" spans="2:21">
-      <c r="B332" s="40" t="s">
+      <c r="B332" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C332" s="40"/>
-      <c r="N332" s="40" t="s">
+      <c r="C332" s="37"/>
+      <c r="N332" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="O332" s="40"/>
+      <c r="O332" s="37"/>
     </row>
     <row r="333" spans="2:21">
       <c r="B333" t="s">
@@ -38023,212 +38023,212 @@
       </c>
     </row>
     <row r="334" spans="2:21">
-      <c r="B334" s="37" t="s">
+      <c r="B334" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C334" s="37"/>
-      <c r="D334" s="37" t="s">
+      <c r="C334" s="36"/>
+      <c r="D334" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E334" s="37"/>
-      <c r="F334" s="37" t="s">
+      <c r="E334" s="36"/>
+      <c r="F334" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G334" s="37"/>
-      <c r="H334" s="38"/>
-      <c r="I334" s="39"/>
-      <c r="N334" s="37" t="s">
+      <c r="G334" s="36"/>
+      <c r="H334" s="47"/>
+      <c r="I334" s="48"/>
+      <c r="N334" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O334" s="37"/>
-      <c r="P334" s="37" t="s">
+      <c r="O334" s="36"/>
+      <c r="P334" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Q334" s="37"/>
-      <c r="R334" s="37" t="s">
+      <c r="Q334" s="36"/>
+      <c r="R334" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S334" s="37"/>
+      <c r="S334" s="36"/>
       <c r="T334" s="29"/>
       <c r="U334" s="30"/>
     </row>
     <row r="335" spans="2:21">
-      <c r="B335" s="40" t="s">
+      <c r="B335" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C335" s="40"/>
-      <c r="D335" s="40" t="s">
+      <c r="C335" s="37"/>
+      <c r="D335" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E335" s="40"/>
-      <c r="F335" s="41" t="s">
+      <c r="E335" s="37"/>
+      <c r="F335" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G335" s="41"/>
-      <c r="H335" s="42"/>
-      <c r="I335" s="43"/>
-      <c r="N335" s="44" t="s">
+      <c r="G335" s="44"/>
+      <c r="H335" s="45"/>
+      <c r="I335" s="46"/>
+      <c r="N335" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="O335" s="44"/>
-      <c r="P335" s="44" t="s">
+      <c r="O335" s="53"/>
+      <c r="P335" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="Q335" s="44"/>
-      <c r="R335" s="45" t="s">
+      <c r="Q335" s="53"/>
+      <c r="R335" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="S335" s="45"/>
+      <c r="S335" s="54"/>
       <c r="T335" s="28"/>
       <c r="U335" s="27"/>
     </row>
     <row r="336" spans="2:21">
-      <c r="B336" s="40" t="s">
+      <c r="B336" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C336" s="40"/>
-      <c r="D336" s="40" t="s">
+      <c r="C336" s="37"/>
+      <c r="D336" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E336" s="40"/>
-      <c r="F336" s="41" t="s">
+      <c r="E336" s="37"/>
+      <c r="F336" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G336" s="41"/>
-      <c r="H336" s="42"/>
-      <c r="I336" s="43"/>
-      <c r="N336" s="48" t="s">
+      <c r="G336" s="44"/>
+      <c r="H336" s="45"/>
+      <c r="I336" s="46"/>
+      <c r="N336" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="O336" s="48"/>
-      <c r="P336" s="40" t="s">
+      <c r="O336" s="55"/>
+      <c r="P336" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="Q336" s="40"/>
-      <c r="R336" s="47" t="s">
+      <c r="Q336" s="37"/>
+      <c r="R336" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="S336" s="47"/>
+      <c r="S336" s="56"/>
       <c r="T336" s="28"/>
       <c r="U336" s="27"/>
     </row>
     <row r="337" spans="2:21">
-      <c r="B337" s="40" t="s">
+      <c r="B337" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C337" s="40"/>
-      <c r="D337" s="40" t="s">
+      <c r="C337" s="37"/>
+      <c r="D337" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E337" s="40"/>
-      <c r="F337" s="41" t="s">
+      <c r="E337" s="37"/>
+      <c r="F337" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G337" s="41"/>
-      <c r="H337" s="42"/>
-      <c r="I337" s="43"/>
-      <c r="N337" s="40" t="s">
+      <c r="G337" s="44"/>
+      <c r="H337" s="45"/>
+      <c r="I337" s="46"/>
+      <c r="N337" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="O337" s="40"/>
-      <c r="P337" s="40" t="s">
+      <c r="O337" s="37"/>
+      <c r="P337" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="Q337" s="40"/>
-      <c r="R337" s="41" t="s">
+      <c r="Q337" s="37"/>
+      <c r="R337" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S337" s="41"/>
+      <c r="S337" s="44"/>
       <c r="T337" s="28"/>
       <c r="U337" s="27"/>
     </row>
     <row r="338" spans="2:21">
-      <c r="B338" s="40" t="s">
+      <c r="B338" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C338" s="40"/>
-      <c r="D338" s="40" t="s">
+      <c r="C338" s="37"/>
+      <c r="D338" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E338" s="40"/>
-      <c r="F338" s="41" t="s">
+      <c r="E338" s="37"/>
+      <c r="F338" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G338" s="41"/>
+      <c r="G338" s="44"/>
       <c r="H338" s="31"/>
       <c r="I338" s="32"/>
-      <c r="N338" s="40" t="s">
+      <c r="N338" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O338" s="40"/>
-      <c r="P338" s="40" t="s">
+      <c r="O338" s="37"/>
+      <c r="P338" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="Q338" s="40"/>
-      <c r="R338" s="41" t="s">
+      <c r="Q338" s="37"/>
+      <c r="R338" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S338" s="41"/>
+      <c r="S338" s="44"/>
       <c r="T338" s="28"/>
       <c r="U338" s="27"/>
     </row>
     <row r="339" spans="2:21">
-      <c r="B339" s="40" t="s">
+      <c r="B339" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C339" s="40"/>
-      <c r="D339" s="40" t="s">
+      <c r="C339" s="37"/>
+      <c r="D339" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E339" s="40"/>
-      <c r="F339" s="41" t="s">
+      <c r="E339" s="37"/>
+      <c r="F339" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G339" s="41"/>
-      <c r="H339" s="42"/>
-      <c r="I339" s="43"/>
-      <c r="N339" s="48" t="s">
+      <c r="G339" s="44"/>
+      <c r="H339" s="45"/>
+      <c r="I339" s="46"/>
+      <c r="N339" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="O339" s="48"/>
-      <c r="P339" s="40" t="s">
+      <c r="O339" s="55"/>
+      <c r="P339" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="Q339" s="40"/>
-      <c r="R339" s="47" t="s">
+      <c r="Q339" s="37"/>
+      <c r="R339" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="S339" s="47"/>
+      <c r="S339" s="56"/>
       <c r="T339" s="28"/>
       <c r="U339" s="27"/>
     </row>
     <row r="340" spans="2:21">
-      <c r="B340" s="40" t="s">
+      <c r="B340" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C340" s="40"/>
-      <c r="D340" s="40" t="s">
+      <c r="C340" s="37"/>
+      <c r="D340" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E340" s="40"/>
-      <c r="F340" s="41" t="s">
+      <c r="E340" s="37"/>
+      <c r="F340" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G340" s="41"/>
-      <c r="H340" s="42"/>
-      <c r="I340" s="43"/>
-      <c r="N340" s="48" t="s">
+      <c r="G340" s="44"/>
+      <c r="H340" s="45"/>
+      <c r="I340" s="46"/>
+      <c r="N340" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="O340" s="48"/>
-      <c r="P340" s="40" t="s">
+      <c r="O340" s="55"/>
+      <c r="P340" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="Q340" s="40"/>
-      <c r="R340" s="47" t="s">
+      <c r="Q340" s="37"/>
+      <c r="R340" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="S340" s="47"/>
+      <c r="S340" s="56"/>
       <c r="T340" s="28"/>
       <c r="U340" s="27"/>
     </row>
@@ -38243,94 +38243,94 @@
       <c r="U341" s="27"/>
     </row>
     <row r="342" spans="2:21">
-      <c r="B342" s="37" t="s">
+      <c r="B342" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C342" s="37"/>
-      <c r="D342" s="37" t="s">
+      <c r="C342" s="36"/>
+      <c r="D342" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E342" s="37"/>
-      <c r="F342" s="37" t="s">
+      <c r="E342" s="36"/>
+      <c r="F342" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G342" s="37"/>
-      <c r="H342" s="42"/>
-      <c r="I342" s="43"/>
-      <c r="N342" s="37" t="s">
+      <c r="G342" s="36"/>
+      <c r="H342" s="45"/>
+      <c r="I342" s="46"/>
+      <c r="N342" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O342" s="37"/>
-      <c r="P342" s="37" t="s">
+      <c r="O342" s="36"/>
+      <c r="P342" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Q342" s="37"/>
-      <c r="R342" s="37" t="s">
+      <c r="Q342" s="36"/>
+      <c r="R342" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S342" s="37"/>
+      <c r="S342" s="36"/>
       <c r="T342" s="33"/>
       <c r="U342" s="34"/>
     </row>
     <row r="343" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B343" s="40" t="s">
+      <c r="B343" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C343" s="40"/>
-      <c r="D343" s="40">
+      <c r="C343" s="37"/>
+      <c r="D343" s="37">
         <v>1</v>
       </c>
-      <c r="E343" s="40"/>
-      <c r="F343" s="41" t="s">
+      <c r="E343" s="37"/>
+      <c r="F343" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G343" s="41"/>
-      <c r="H343" s="42"/>
-      <c r="I343" s="43"/>
-      <c r="N343" s="40" t="s">
+      <c r="G343" s="44"/>
+      <c r="H343" s="45"/>
+      <c r="I343" s="46"/>
+      <c r="N343" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="O343" s="40"/>
-      <c r="P343" s="40">
+      <c r="O343" s="37"/>
+      <c r="P343" s="37">
         <v>1</v>
       </c>
-      <c r="Q343" s="40"/>
-      <c r="R343" s="41" t="s">
+      <c r="Q343" s="37"/>
+      <c r="R343" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S343" s="41"/>
-      <c r="T343" s="39"/>
-      <c r="U343" s="46"/>
+      <c r="S343" s="44"/>
+      <c r="T343" s="48"/>
+      <c r="U343" s="51"/>
     </row>
     <row r="344" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B344" s="40" t="s">
+      <c r="B344" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C344" s="40"/>
-      <c r="D344" s="40">
+      <c r="C344" s="37"/>
+      <c r="D344" s="37">
         <v>1</v>
       </c>
-      <c r="E344" s="40"/>
-      <c r="F344" s="41" t="s">
+      <c r="E344" s="37"/>
+      <c r="F344" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G344" s="41"/>
-      <c r="H344" s="42"/>
-      <c r="I344" s="43"/>
-      <c r="N344" s="40" t="s">
+      <c r="G344" s="44"/>
+      <c r="H344" s="45"/>
+      <c r="I344" s="46"/>
+      <c r="N344" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="O344" s="40"/>
-      <c r="P344" s="40">
+      <c r="O344" s="37"/>
+      <c r="P344" s="37">
         <v>1</v>
       </c>
-      <c r="Q344" s="40"/>
-      <c r="R344" s="41" t="s">
+      <c r="Q344" s="37"/>
+      <c r="R344" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S344" s="41"/>
-      <c r="T344" s="39"/>
-      <c r="U344" s="46"/>
+      <c r="S344" s="44"/>
+      <c r="T344" s="48"/>
+      <c r="U344" s="51"/>
     </row>
     <row r="345" spans="2:21" ht="14.25" customHeight="1">
       <c r="B345" s="25"/>
@@ -38339,8 +38339,8 @@
       <c r="E345" s="25"/>
       <c r="F345" s="26"/>
       <c r="G345" s="26"/>
-      <c r="T345" s="36"/>
-      <c r="U345" s="36"/>
+      <c r="T345" s="52"/>
+      <c r="U345" s="52"/>
     </row>
     <row r="348" spans="2:21" ht="14.25">
       <c r="B348" s="20" t="s">
@@ -38377,22 +38377,22 @@
       <c r="O352" s="24"/>
     </row>
     <row r="353" spans="2:15" ht="66" customHeight="1">
-      <c r="B353" s="51" t="s">
+      <c r="B353" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C353" s="54"/>
-      <c r="D353" s="54"/>
-      <c r="E353" s="54"/>
-      <c r="F353" s="54"/>
-      <c r="G353" s="54"/>
-      <c r="H353" s="54"/>
-      <c r="I353" s="54"/>
-      <c r="J353" s="54"/>
-      <c r="K353" s="54"/>
-      <c r="L353" s="54"/>
-      <c r="M353" s="54"/>
-      <c r="N353" s="54"/>
-      <c r="O353" s="55"/>
+      <c r="C353" s="41"/>
+      <c r="D353" s="41"/>
+      <c r="E353" s="41"/>
+      <c r="F353" s="41"/>
+      <c r="G353" s="41"/>
+      <c r="H353" s="41"/>
+      <c r="I353" s="41"/>
+      <c r="J353" s="41"/>
+      <c r="K353" s="41"/>
+      <c r="L353" s="41"/>
+      <c r="M353" s="41"/>
+      <c r="N353" s="41"/>
+      <c r="O353" s="42"/>
     </row>
     <row r="355" spans="2:15">
       <c r="B355" s="22" t="s">
@@ -38413,22 +38413,22 @@
       <c r="O355" s="24"/>
     </row>
     <row r="356" spans="2:15" ht="30.75" customHeight="1">
-      <c r="B356" s="56" t="s">
+      <c r="B356" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C356" s="52"/>
-      <c r="D356" s="52"/>
-      <c r="E356" s="52"/>
-      <c r="F356" s="52"/>
-      <c r="G356" s="52"/>
-      <c r="H356" s="52"/>
-      <c r="I356" s="52"/>
-      <c r="J356" s="52"/>
-      <c r="K356" s="52"/>
-      <c r="L356" s="52"/>
-      <c r="M356" s="52"/>
-      <c r="N356" s="52"/>
-      <c r="O356" s="53"/>
+      <c r="C356" s="39"/>
+      <c r="D356" s="39"/>
+      <c r="E356" s="39"/>
+      <c r="F356" s="39"/>
+      <c r="G356" s="39"/>
+      <c r="H356" s="39"/>
+      <c r="I356" s="39"/>
+      <c r="J356" s="39"/>
+      <c r="K356" s="39"/>
+      <c r="L356" s="39"/>
+      <c r="M356" s="39"/>
+      <c r="N356" s="39"/>
+      <c r="O356" s="40"/>
     </row>
     <row r="357" spans="2:15">
       <c r="B357" s="22" t="s">
@@ -38449,22 +38449,22 @@
       <c r="O357" s="24"/>
     </row>
     <row r="358" spans="2:15" ht="64.5" customHeight="1">
-      <c r="B358" s="51" t="s">
+      <c r="B358" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C358" s="52"/>
-      <c r="D358" s="52"/>
-      <c r="E358" s="52"/>
-      <c r="F358" s="52"/>
-      <c r="G358" s="52"/>
-      <c r="H358" s="52"/>
-      <c r="I358" s="52"/>
-      <c r="J358" s="52"/>
-      <c r="K358" s="52"/>
-      <c r="L358" s="52"/>
-      <c r="M358" s="52"/>
-      <c r="N358" s="52"/>
-      <c r="O358" s="53"/>
+      <c r="C358" s="39"/>
+      <c r="D358" s="39"/>
+      <c r="E358" s="39"/>
+      <c r="F358" s="39"/>
+      <c r="G358" s="39"/>
+      <c r="H358" s="39"/>
+      <c r="I358" s="39"/>
+      <c r="J358" s="39"/>
+      <c r="K358" s="39"/>
+      <c r="L358" s="39"/>
+      <c r="M358" s="39"/>
+      <c r="N358" s="39"/>
+      <c r="O358" s="40"/>
     </row>
     <row r="359" spans="2:15">
       <c r="B359" s="22" t="s">
@@ -38485,22 +38485,22 @@
       <c r="O359" s="24"/>
     </row>
     <row r="360" spans="2:15" ht="66.75" customHeight="1">
-      <c r="B360" s="51" t="s">
+      <c r="B360" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C360" s="52"/>
-      <c r="D360" s="52"/>
-      <c r="E360" s="52"/>
-      <c r="F360" s="52"/>
-      <c r="G360" s="52"/>
-      <c r="H360" s="52"/>
-      <c r="I360" s="52"/>
-      <c r="J360" s="52"/>
-      <c r="K360" s="52"/>
-      <c r="L360" s="52"/>
-      <c r="M360" s="52"/>
-      <c r="N360" s="52"/>
-      <c r="O360" s="53"/>
+      <c r="C360" s="39"/>
+      <c r="D360" s="39"/>
+      <c r="E360" s="39"/>
+      <c r="F360" s="39"/>
+      <c r="G360" s="39"/>
+      <c r="H360" s="39"/>
+      <c r="I360" s="39"/>
+      <c r="J360" s="39"/>
+      <c r="K360" s="39"/>
+      <c r="L360" s="39"/>
+      <c r="M360" s="39"/>
+      <c r="N360" s="39"/>
+      <c r="O360" s="40"/>
     </row>
     <row r="361" spans="2:15">
       <c r="B361" s="22" t="s">
@@ -38521,22 +38521,22 @@
       <c r="O361" s="24"/>
     </row>
     <row r="362" spans="2:15" ht="61.5" customHeight="1">
-      <c r="B362" s="51" t="s">
+      <c r="B362" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C362" s="52"/>
-      <c r="D362" s="52"/>
-      <c r="E362" s="52"/>
-      <c r="F362" s="52"/>
-      <c r="G362" s="52"/>
-      <c r="H362" s="52"/>
-      <c r="I362" s="52"/>
-      <c r="J362" s="52"/>
-      <c r="K362" s="52"/>
-      <c r="L362" s="52"/>
-      <c r="M362" s="52"/>
-      <c r="N362" s="52"/>
-      <c r="O362" s="53"/>
+      <c r="C362" s="39"/>
+      <c r="D362" s="39"/>
+      <c r="E362" s="39"/>
+      <c r="F362" s="39"/>
+      <c r="G362" s="39"/>
+      <c r="H362" s="39"/>
+      <c r="I362" s="39"/>
+      <c r="J362" s="39"/>
+      <c r="K362" s="39"/>
+      <c r="L362" s="39"/>
+      <c r="M362" s="39"/>
+      <c r="N362" s="39"/>
+      <c r="O362" s="40"/>
     </row>
     <row r="363" spans="2:15">
       <c r="B363" s="22" t="s">
@@ -38557,22 +38557,22 @@
       <c r="O363" s="24"/>
     </row>
     <row r="364" spans="2:15" ht="66.75" customHeight="1">
-      <c r="B364" s="51" t="s">
+      <c r="B364" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C364" s="52"/>
-      <c r="D364" s="52"/>
-      <c r="E364" s="52"/>
-      <c r="F364" s="52"/>
-      <c r="G364" s="52"/>
-      <c r="H364" s="52"/>
-      <c r="I364" s="52"/>
-      <c r="J364" s="52"/>
-      <c r="K364" s="52"/>
-      <c r="L364" s="52"/>
-      <c r="M364" s="52"/>
-      <c r="N364" s="52"/>
-      <c r="O364" s="53"/>
+      <c r="C364" s="39"/>
+      <c r="D364" s="39"/>
+      <c r="E364" s="39"/>
+      <c r="F364" s="39"/>
+      <c r="G364" s="39"/>
+      <c r="H364" s="39"/>
+      <c r="I364" s="39"/>
+      <c r="J364" s="39"/>
+      <c r="K364" s="39"/>
+      <c r="L364" s="39"/>
+      <c r="M364" s="39"/>
+      <c r="N364" s="39"/>
+      <c r="O364" s="40"/>
     </row>
     <row r="365" spans="2:15">
       <c r="B365" s="22" t="s">
@@ -38593,22 +38593,22 @@
       <c r="O365" s="24"/>
     </row>
     <row r="366" spans="2:15" ht="67.5" customHeight="1">
-      <c r="B366" s="51" t="s">
+      <c r="B366" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C366" s="52"/>
-      <c r="D366" s="52"/>
-      <c r="E366" s="52"/>
-      <c r="F366" s="52"/>
-      <c r="G366" s="52"/>
-      <c r="H366" s="52"/>
-      <c r="I366" s="52"/>
-      <c r="J366" s="52"/>
-      <c r="K366" s="52"/>
-      <c r="L366" s="52"/>
-      <c r="M366" s="52"/>
-      <c r="N366" s="52"/>
-      <c r="O366" s="53"/>
+      <c r="C366" s="39"/>
+      <c r="D366" s="39"/>
+      <c r="E366" s="39"/>
+      <c r="F366" s="39"/>
+      <c r="G366" s="39"/>
+      <c r="H366" s="39"/>
+      <c r="I366" s="39"/>
+      <c r="J366" s="39"/>
+      <c r="K366" s="39"/>
+      <c r="L366" s="39"/>
+      <c r="M366" s="39"/>
+      <c r="N366" s="39"/>
+      <c r="O366" s="40"/>
     </row>
     <row r="367" spans="2:15">
       <c r="B367" s="22" t="s">
@@ -38629,104 +38629,404 @@
       <c r="O367" s="24"/>
     </row>
     <row r="368" spans="2:15" ht="54" customHeight="1">
-      <c r="B368" s="51" t="s">
+      <c r="B368" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C368" s="52"/>
-      <c r="D368" s="52"/>
-      <c r="E368" s="52"/>
-      <c r="F368" s="52"/>
-      <c r="G368" s="52"/>
-      <c r="H368" s="52"/>
-      <c r="I368" s="52"/>
-      <c r="J368" s="52"/>
-      <c r="K368" s="52"/>
-      <c r="L368" s="52"/>
-      <c r="M368" s="52"/>
-      <c r="N368" s="52"/>
-      <c r="O368" s="53"/>
+      <c r="C368" s="39"/>
+      <c r="D368" s="39"/>
+      <c r="E368" s="39"/>
+      <c r="F368" s="39"/>
+      <c r="G368" s="39"/>
+      <c r="H368" s="39"/>
+      <c r="I368" s="39"/>
+      <c r="J368" s="39"/>
+      <c r="K368" s="39"/>
+      <c r="L368" s="39"/>
+      <c r="M368" s="39"/>
+      <c r="N368" s="39"/>
+      <c r="O368" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="482">
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="B366:O366"/>
-    <mergeCell ref="B368:O368"/>
-    <mergeCell ref="B353:O353"/>
-    <mergeCell ref="B356:O356"/>
-    <mergeCell ref="B358:O358"/>
-    <mergeCell ref="B360:O360"/>
-    <mergeCell ref="B362:O362"/>
-    <mergeCell ref="B364:O364"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="R115:S115"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="R110:S110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="R111:S111"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="T297:U297"/>
+    <mergeCell ref="T345:U345"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="N287:O287"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="P291:Q291"/>
+    <mergeCell ref="R291:S291"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="N292:O292"/>
+    <mergeCell ref="P292:Q292"/>
+    <mergeCell ref="R292:S292"/>
+    <mergeCell ref="T296:U296"/>
+    <mergeCell ref="P343:Q343"/>
+    <mergeCell ref="R343:S343"/>
+    <mergeCell ref="T343:U343"/>
+    <mergeCell ref="B344:C344"/>
+    <mergeCell ref="D344:E344"/>
+    <mergeCell ref="F344:G344"/>
+    <mergeCell ref="H344:I344"/>
+    <mergeCell ref="N344:O344"/>
+    <mergeCell ref="P344:Q344"/>
+    <mergeCell ref="R344:S344"/>
+    <mergeCell ref="T344:U344"/>
+    <mergeCell ref="B343:C343"/>
+    <mergeCell ref="D343:E343"/>
+    <mergeCell ref="F343:G343"/>
+    <mergeCell ref="H343:I343"/>
+    <mergeCell ref="N343:O343"/>
+    <mergeCell ref="P340:Q340"/>
+    <mergeCell ref="R340:S340"/>
+    <mergeCell ref="B342:C342"/>
+    <mergeCell ref="D342:E342"/>
+    <mergeCell ref="F342:G342"/>
+    <mergeCell ref="H342:I342"/>
+    <mergeCell ref="N342:O342"/>
+    <mergeCell ref="P342:Q342"/>
+    <mergeCell ref="R342:S342"/>
+    <mergeCell ref="B340:C340"/>
+    <mergeCell ref="D340:E340"/>
+    <mergeCell ref="F340:G340"/>
+    <mergeCell ref="H340:I340"/>
+    <mergeCell ref="N340:O340"/>
+    <mergeCell ref="R338:S338"/>
+    <mergeCell ref="B339:C339"/>
+    <mergeCell ref="D339:E339"/>
+    <mergeCell ref="F339:G339"/>
+    <mergeCell ref="H339:I339"/>
+    <mergeCell ref="N339:O339"/>
+    <mergeCell ref="P339:Q339"/>
+    <mergeCell ref="R339:S339"/>
+    <mergeCell ref="B338:C338"/>
+    <mergeCell ref="D338:E338"/>
+    <mergeCell ref="F338:G338"/>
+    <mergeCell ref="N338:O338"/>
+    <mergeCell ref="P338:Q338"/>
+    <mergeCell ref="P336:Q336"/>
+    <mergeCell ref="R336:S336"/>
+    <mergeCell ref="B337:C337"/>
+    <mergeCell ref="D337:E337"/>
+    <mergeCell ref="F337:G337"/>
+    <mergeCell ref="H337:I337"/>
+    <mergeCell ref="N337:O337"/>
+    <mergeCell ref="P337:Q337"/>
+    <mergeCell ref="R337:S337"/>
+    <mergeCell ref="B336:C336"/>
+    <mergeCell ref="D336:E336"/>
+    <mergeCell ref="F336:G336"/>
+    <mergeCell ref="H336:I336"/>
+    <mergeCell ref="N336:O336"/>
+    <mergeCell ref="P334:Q334"/>
+    <mergeCell ref="R334:S334"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="D335:E335"/>
+    <mergeCell ref="F335:G335"/>
+    <mergeCell ref="H335:I335"/>
+    <mergeCell ref="N335:O335"/>
+    <mergeCell ref="P335:Q335"/>
+    <mergeCell ref="R335:S335"/>
+    <mergeCell ref="B332:C332"/>
+    <mergeCell ref="N332:O332"/>
+    <mergeCell ref="B334:C334"/>
+    <mergeCell ref="D334:E334"/>
+    <mergeCell ref="F334:G334"/>
+    <mergeCell ref="H334:I334"/>
+    <mergeCell ref="N334:O334"/>
+    <mergeCell ref="B329:C329"/>
+    <mergeCell ref="N329:O329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="N330:O330"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="N331:O331"/>
+    <mergeCell ref="B327:C327"/>
+    <mergeCell ref="N327:O327"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="N328:O328"/>
+    <mergeCell ref="P295:Q295"/>
+    <mergeCell ref="R295:S295"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="F296:G296"/>
+    <mergeCell ref="H296:I296"/>
+    <mergeCell ref="N296:O296"/>
+    <mergeCell ref="P296:Q296"/>
+    <mergeCell ref="R296:S296"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="D295:E295"/>
+    <mergeCell ref="F295:G295"/>
+    <mergeCell ref="H295:I295"/>
+    <mergeCell ref="N295:O295"/>
+    <mergeCell ref="P293:Q293"/>
+    <mergeCell ref="R293:S293"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="N291:O291"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="D293:E293"/>
+    <mergeCell ref="F293:G293"/>
+    <mergeCell ref="H293:I293"/>
+    <mergeCell ref="N293:O293"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="N288:O288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="N289:O289"/>
+    <mergeCell ref="T266:U266"/>
+    <mergeCell ref="P264:Q264"/>
+    <mergeCell ref="R264:S264"/>
+    <mergeCell ref="T264:U264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="N265:O265"/>
+    <mergeCell ref="P265:Q265"/>
+    <mergeCell ref="R265:S265"/>
+    <mergeCell ref="T265:U265"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="F264:G264"/>
+    <mergeCell ref="H264:I264"/>
+    <mergeCell ref="N264:O264"/>
+    <mergeCell ref="P261:Q261"/>
+    <mergeCell ref="R261:S261"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="F263:G263"/>
+    <mergeCell ref="H263:I263"/>
+    <mergeCell ref="N263:O263"/>
+    <mergeCell ref="P263:Q263"/>
+    <mergeCell ref="R263:S263"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="F261:G261"/>
+    <mergeCell ref="H261:I261"/>
+    <mergeCell ref="N261:O261"/>
+    <mergeCell ref="R259:S259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="H260:I260"/>
+    <mergeCell ref="N260:O260"/>
+    <mergeCell ref="P260:Q260"/>
+    <mergeCell ref="R260:S260"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="F259:G259"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="P259:Q259"/>
+    <mergeCell ref="P257:Q257"/>
+    <mergeCell ref="R257:S257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="P258:Q258"/>
+    <mergeCell ref="R258:S258"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="F257:G257"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="P255:Q255"/>
+    <mergeCell ref="R255:S255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="F256:G256"/>
+    <mergeCell ref="H256:I256"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="P256:Q256"/>
+    <mergeCell ref="R256:S256"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="F255:G255"/>
+    <mergeCell ref="H255:I255"/>
+    <mergeCell ref="N255:O255"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="N251:O251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="N248:O248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="N249:O249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="N250:O250"/>
+    <mergeCell ref="T217:U217"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="N162:O162"/>
+    <mergeCell ref="P162:Q162"/>
+    <mergeCell ref="R162:S162"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="N212:O212"/>
+    <mergeCell ref="P212:Q212"/>
+    <mergeCell ref="R212:S212"/>
+    <mergeCell ref="T215:U215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="N216:O216"/>
+    <mergeCell ref="P216:Q216"/>
+    <mergeCell ref="R216:S216"/>
+    <mergeCell ref="T216:U216"/>
+    <mergeCell ref="P214:Q214"/>
+    <mergeCell ref="R214:S214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="F215:G215"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="N215:O215"/>
+    <mergeCell ref="P215:Q215"/>
+    <mergeCell ref="R215:S215"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="N214:O214"/>
+    <mergeCell ref="R210:S210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="F211:G211"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="N211:O211"/>
+    <mergeCell ref="P211:Q211"/>
+    <mergeCell ref="R211:S211"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="F210:G210"/>
+    <mergeCell ref="N210:O210"/>
+    <mergeCell ref="P210:Q210"/>
+    <mergeCell ref="P208:Q208"/>
+    <mergeCell ref="R208:S208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="F209:G209"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="N209:O209"/>
+    <mergeCell ref="P209:Q209"/>
+    <mergeCell ref="R209:S209"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="F208:G208"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="N208:O208"/>
+    <mergeCell ref="P206:Q206"/>
+    <mergeCell ref="R206:S206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="F207:G207"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="P207:Q207"/>
+    <mergeCell ref="R207:S207"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="N204:O204"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="F206:G206"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="N206:O206"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="N201:O201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="N202:O202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="N203:O203"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="N199:O199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="N200:O200"/>
+    <mergeCell ref="N160:O160"/>
+    <mergeCell ref="P160:Q160"/>
+    <mergeCell ref="R160:S160"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="N164:O164"/>
+    <mergeCell ref="P158:Q158"/>
+    <mergeCell ref="R158:S158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="T165:U165"/>
+    <mergeCell ref="T167:U167"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="N161:O161"/>
+    <mergeCell ref="P161:Q161"/>
+    <mergeCell ref="R161:S161"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="N166:O166"/>
+    <mergeCell ref="P166:Q166"/>
+    <mergeCell ref="R166:S166"/>
+    <mergeCell ref="T166:U166"/>
+    <mergeCell ref="P164:Q164"/>
+    <mergeCell ref="R164:S164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="N165:O165"/>
+    <mergeCell ref="P165:Q165"/>
+    <mergeCell ref="R165:S165"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="N159:O159"/>
+    <mergeCell ref="P159:Q159"/>
+    <mergeCell ref="R159:S159"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="N158:O158"/>
+    <mergeCell ref="P156:Q156"/>
+    <mergeCell ref="R156:S156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="N157:O157"/>
+    <mergeCell ref="P157:Q157"/>
+    <mergeCell ref="R157:S157"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="N156:O156"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="N152:O152"/>
     <mergeCell ref="P116:Q116"/>
     <mergeCell ref="R116:S116"/>
     <mergeCell ref="T116:U116"/>
@@ -38751,385 +39051,85 @@
     <mergeCell ref="D115:E115"/>
     <mergeCell ref="F115:G115"/>
     <mergeCell ref="H115:I115"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="N156:O156"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="P156:Q156"/>
-    <mergeCell ref="R156:S156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="N157:O157"/>
-    <mergeCell ref="P157:Q157"/>
-    <mergeCell ref="R157:S157"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="N159:O159"/>
-    <mergeCell ref="P159:Q159"/>
-    <mergeCell ref="R159:S159"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="N158:O158"/>
-    <mergeCell ref="T165:U165"/>
-    <mergeCell ref="T167:U167"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="N161:O161"/>
-    <mergeCell ref="P161:Q161"/>
-    <mergeCell ref="R161:S161"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="N166:O166"/>
-    <mergeCell ref="P166:Q166"/>
-    <mergeCell ref="R166:S166"/>
-    <mergeCell ref="T166:U166"/>
-    <mergeCell ref="P164:Q164"/>
-    <mergeCell ref="R164:S164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="N165:O165"/>
-    <mergeCell ref="P165:Q165"/>
-    <mergeCell ref="R165:S165"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="N199:O199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="N200:O200"/>
-    <mergeCell ref="N160:O160"/>
-    <mergeCell ref="P160:Q160"/>
-    <mergeCell ref="R160:S160"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="N164:O164"/>
-    <mergeCell ref="P158:Q158"/>
-    <mergeCell ref="R158:S158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="N204:O204"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="F206:G206"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="N201:O201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="N202:O202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="N203:O203"/>
-    <mergeCell ref="P206:Q206"/>
-    <mergeCell ref="R206:S206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="F207:G207"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="P207:Q207"/>
-    <mergeCell ref="R207:S207"/>
-    <mergeCell ref="P208:Q208"/>
-    <mergeCell ref="R208:S208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="F209:G209"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="N209:O209"/>
-    <mergeCell ref="P209:Q209"/>
-    <mergeCell ref="R209:S209"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="F208:G208"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="N208:O208"/>
-    <mergeCell ref="R210:S210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="F211:G211"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="N211:O211"/>
-    <mergeCell ref="P211:Q211"/>
-    <mergeCell ref="R211:S211"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="F210:G210"/>
-    <mergeCell ref="N210:O210"/>
-    <mergeCell ref="P210:Q210"/>
-    <mergeCell ref="P214:Q214"/>
-    <mergeCell ref="R214:S214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="F215:G215"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="N215:O215"/>
-    <mergeCell ref="P215:Q215"/>
-    <mergeCell ref="R215:S215"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="N214:O214"/>
-    <mergeCell ref="T217:U217"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="N162:O162"/>
-    <mergeCell ref="P162:Q162"/>
-    <mergeCell ref="R162:S162"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="N212:O212"/>
-    <mergeCell ref="P212:Q212"/>
-    <mergeCell ref="R212:S212"/>
-    <mergeCell ref="T215:U215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="F216:G216"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="N216:O216"/>
-    <mergeCell ref="P216:Q216"/>
-    <mergeCell ref="R216:S216"/>
-    <mergeCell ref="T216:U216"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="N251:O251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="N248:O248"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="N249:O249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="N250:O250"/>
-    <mergeCell ref="P255:Q255"/>
-    <mergeCell ref="R255:S255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="F256:G256"/>
-    <mergeCell ref="H256:I256"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="P256:Q256"/>
-    <mergeCell ref="R256:S256"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="F255:G255"/>
-    <mergeCell ref="H255:I255"/>
-    <mergeCell ref="N255:O255"/>
-    <mergeCell ref="P257:Q257"/>
-    <mergeCell ref="R257:S257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="H258:I258"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="P258:Q258"/>
-    <mergeCell ref="R258:S258"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="F257:G257"/>
-    <mergeCell ref="H257:I257"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="R259:S259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="H260:I260"/>
-    <mergeCell ref="N260:O260"/>
-    <mergeCell ref="P260:Q260"/>
-    <mergeCell ref="R260:S260"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="F259:G259"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="P259:Q259"/>
-    <mergeCell ref="P261:Q261"/>
-    <mergeCell ref="R261:S261"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="F263:G263"/>
-    <mergeCell ref="H263:I263"/>
-    <mergeCell ref="N263:O263"/>
-    <mergeCell ref="P263:Q263"/>
-    <mergeCell ref="R263:S263"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="F261:G261"/>
-    <mergeCell ref="H261:I261"/>
-    <mergeCell ref="N261:O261"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="N288:O288"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="N289:O289"/>
-    <mergeCell ref="T266:U266"/>
-    <mergeCell ref="P264:Q264"/>
-    <mergeCell ref="R264:S264"/>
-    <mergeCell ref="T264:U264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="N265:O265"/>
-    <mergeCell ref="P265:Q265"/>
-    <mergeCell ref="R265:S265"/>
-    <mergeCell ref="T265:U265"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="F264:G264"/>
-    <mergeCell ref="H264:I264"/>
-    <mergeCell ref="N264:O264"/>
-    <mergeCell ref="P293:Q293"/>
-    <mergeCell ref="R293:S293"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="N291:O291"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="D293:E293"/>
-    <mergeCell ref="F293:G293"/>
-    <mergeCell ref="H293:I293"/>
-    <mergeCell ref="N293:O293"/>
-    <mergeCell ref="B327:C327"/>
-    <mergeCell ref="N327:O327"/>
-    <mergeCell ref="B328:C328"/>
-    <mergeCell ref="N328:O328"/>
-    <mergeCell ref="P295:Q295"/>
-    <mergeCell ref="R295:S295"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="D296:E296"/>
-    <mergeCell ref="F296:G296"/>
-    <mergeCell ref="H296:I296"/>
-    <mergeCell ref="N296:O296"/>
-    <mergeCell ref="P296:Q296"/>
-    <mergeCell ref="R296:S296"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="D295:E295"/>
-    <mergeCell ref="F295:G295"/>
-    <mergeCell ref="H295:I295"/>
-    <mergeCell ref="N295:O295"/>
-    <mergeCell ref="B332:C332"/>
-    <mergeCell ref="N332:O332"/>
-    <mergeCell ref="B334:C334"/>
-    <mergeCell ref="D334:E334"/>
-    <mergeCell ref="F334:G334"/>
-    <mergeCell ref="H334:I334"/>
-    <mergeCell ref="N334:O334"/>
-    <mergeCell ref="B329:C329"/>
-    <mergeCell ref="N329:O329"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="N330:O330"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="N331:O331"/>
-    <mergeCell ref="P334:Q334"/>
-    <mergeCell ref="R334:S334"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="D335:E335"/>
-    <mergeCell ref="F335:G335"/>
-    <mergeCell ref="H335:I335"/>
-    <mergeCell ref="N335:O335"/>
-    <mergeCell ref="P335:Q335"/>
-    <mergeCell ref="R335:S335"/>
-    <mergeCell ref="P336:Q336"/>
-    <mergeCell ref="R336:S336"/>
-    <mergeCell ref="B337:C337"/>
-    <mergeCell ref="D337:E337"/>
-    <mergeCell ref="F337:G337"/>
-    <mergeCell ref="H337:I337"/>
-    <mergeCell ref="N337:O337"/>
-    <mergeCell ref="P337:Q337"/>
-    <mergeCell ref="R337:S337"/>
-    <mergeCell ref="B336:C336"/>
-    <mergeCell ref="D336:E336"/>
-    <mergeCell ref="F336:G336"/>
-    <mergeCell ref="H336:I336"/>
-    <mergeCell ref="N336:O336"/>
-    <mergeCell ref="R338:S338"/>
-    <mergeCell ref="B339:C339"/>
-    <mergeCell ref="D339:E339"/>
-    <mergeCell ref="F339:G339"/>
-    <mergeCell ref="H339:I339"/>
-    <mergeCell ref="N339:O339"/>
-    <mergeCell ref="P339:Q339"/>
-    <mergeCell ref="R339:S339"/>
-    <mergeCell ref="B338:C338"/>
-    <mergeCell ref="D338:E338"/>
-    <mergeCell ref="F338:G338"/>
-    <mergeCell ref="N338:O338"/>
-    <mergeCell ref="P338:Q338"/>
-    <mergeCell ref="P340:Q340"/>
-    <mergeCell ref="R340:S340"/>
-    <mergeCell ref="B342:C342"/>
-    <mergeCell ref="D342:E342"/>
-    <mergeCell ref="F342:G342"/>
-    <mergeCell ref="H342:I342"/>
-    <mergeCell ref="N342:O342"/>
-    <mergeCell ref="P342:Q342"/>
-    <mergeCell ref="R342:S342"/>
-    <mergeCell ref="B340:C340"/>
-    <mergeCell ref="D340:E340"/>
-    <mergeCell ref="F340:G340"/>
-    <mergeCell ref="H340:I340"/>
-    <mergeCell ref="N340:O340"/>
-    <mergeCell ref="N344:O344"/>
-    <mergeCell ref="P344:Q344"/>
-    <mergeCell ref="R344:S344"/>
-    <mergeCell ref="T344:U344"/>
-    <mergeCell ref="B343:C343"/>
-    <mergeCell ref="D343:E343"/>
-    <mergeCell ref="F343:G343"/>
-    <mergeCell ref="H343:I343"/>
-    <mergeCell ref="N343:O343"/>
-    <mergeCell ref="T297:U297"/>
-    <mergeCell ref="T345:U345"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="N287:O287"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="P291:Q291"/>
-    <mergeCell ref="R291:S291"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="N292:O292"/>
-    <mergeCell ref="P292:Q292"/>
-    <mergeCell ref="R292:S292"/>
-    <mergeCell ref="T296:U296"/>
-    <mergeCell ref="P343:Q343"/>
-    <mergeCell ref="R343:S343"/>
-    <mergeCell ref="T343:U343"/>
-    <mergeCell ref="B344:C344"/>
-    <mergeCell ref="D344:E344"/>
-    <mergeCell ref="F344:G344"/>
-    <mergeCell ref="H344:I344"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="R115:S115"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="R110:S110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="R111:S111"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="B366:O366"/>
+    <mergeCell ref="B368:O368"/>
+    <mergeCell ref="B353:O353"/>
+    <mergeCell ref="B356:O356"/>
+    <mergeCell ref="B358:O358"/>
+    <mergeCell ref="B360:O360"/>
+    <mergeCell ref="B362:O362"/>
+    <mergeCell ref="B364:O364"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="B107:C107"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -39398,54 +39398,54 @@
       </c>
     </row>
     <row r="57" spans="2:21">
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="37"/>
-      <c r="N57" s="37" t="s">
+      <c r="C57" s="36"/>
+      <c r="N57" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O57" s="37"/>
+      <c r="O57" s="36"/>
     </row>
     <row r="58" spans="2:21">
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="N58" s="40" t="s">
+      <c r="C58" s="37"/>
+      <c r="N58" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O58" s="40"/>
+      <c r="O58" s="37"/>
     </row>
     <row r="59" spans="2:21">
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="40"/>
-      <c r="N59" s="40" t="s">
+      <c r="C59" s="37"/>
+      <c r="N59" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="O59" s="40"/>
+      <c r="O59" s="37"/>
     </row>
     <row r="60" spans="2:21">
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="40"/>
-      <c r="N60" s="40" t="s">
+      <c r="C60" s="37"/>
+      <c r="N60" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="O60" s="40"/>
+      <c r="O60" s="37"/>
     </row>
     <row r="61" spans="2:21">
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="40"/>
-      <c r="N61" s="40" t="s">
+      <c r="C61" s="37"/>
+      <c r="N61" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="O61" s="40"/>
+      <c r="O61" s="37"/>
     </row>
     <row r="62" spans="2:21">
       <c r="B62" t="s">
@@ -39456,122 +39456,122 @@
       </c>
     </row>
     <row r="63" spans="2:21">
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37" t="s">
+      <c r="C63" s="36"/>
+      <c r="D63" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37" t="s">
+      <c r="E63" s="36"/>
+      <c r="F63" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G63" s="37"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="39"/>
-      <c r="N63" s="37" t="s">
+      <c r="G63" s="36"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="48"/>
+      <c r="N63" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37" t="s">
+      <c r="O63" s="36"/>
+      <c r="P63" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37" t="s">
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S63" s="37"/>
+      <c r="S63" s="36"/>
       <c r="T63" s="29"/>
       <c r="U63" s="30"/>
     </row>
     <row r="64" spans="2:21">
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40" t="s">
+      <c r="C64" s="37"/>
+      <c r="D64" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E64" s="40"/>
-      <c r="F64" s="41" t="s">
+      <c r="E64" s="37"/>
+      <c r="F64" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="41"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="43"/>
-      <c r="N64" s="40" t="s">
+      <c r="G64" s="44"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="46"/>
+      <c r="N64" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40" t="s">
+      <c r="O64" s="37"/>
+      <c r="P64" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="41" t="s">
+      <c r="Q64" s="37"/>
+      <c r="R64" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S64" s="41"/>
+      <c r="S64" s="44"/>
       <c r="T64" s="28"/>
       <c r="U64" s="27"/>
     </row>
     <row r="65" spans="2:21">
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40" t="s">
+      <c r="C65" s="37"/>
+      <c r="D65" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E65" s="40"/>
-      <c r="F65" s="41" t="s">
+      <c r="E65" s="37"/>
+      <c r="F65" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G65" s="41"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="43"/>
-      <c r="N65" s="40" t="s">
+      <c r="G65" s="44"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="46"/>
+      <c r="N65" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40" t="s">
+      <c r="O65" s="37"/>
+      <c r="P65" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="41" t="s">
+      <c r="Q65" s="37"/>
+      <c r="R65" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S65" s="41"/>
+      <c r="S65" s="44"/>
       <c r="T65" s="28"/>
       <c r="U65" s="27"/>
     </row>
     <row r="66" spans="2:21">
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40" t="s">
+      <c r="C66" s="37"/>
+      <c r="D66" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E66" s="40"/>
-      <c r="F66" s="41" t="s">
+      <c r="E66" s="37"/>
+      <c r="F66" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="43"/>
-      <c r="N66" s="40" t="s">
+      <c r="G66" s="44"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="46"/>
+      <c r="N66" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40" t="s">
+      <c r="O66" s="37"/>
+      <c r="P66" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="41" t="s">
+      <c r="Q66" s="37"/>
+      <c r="R66" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S66" s="41"/>
+      <c r="S66" s="44"/>
       <c r="T66" s="28"/>
       <c r="U66" s="27"/>
     </row>
@@ -39579,75 +39579,75 @@
       <c r="B67" t="s">
         <v>68</v>
       </c>
-      <c r="N67" s="67" t="s">
+      <c r="N67" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="O67" s="68"/>
-      <c r="P67" s="67" t="s">
+      <c r="O67" s="61"/>
+      <c r="P67" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="Q67" s="68"/>
-      <c r="R67" s="65" t="s">
+      <c r="Q67" s="61"/>
+      <c r="R67" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="S67" s="66"/>
+      <c r="S67" s="63"/>
       <c r="T67" s="28"/>
       <c r="U67" s="27"/>
     </row>
     <row r="68" spans="2:21">
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37" t="s">
+      <c r="C68" s="36"/>
+      <c r="D68" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37" t="s">
+      <c r="E68" s="36"/>
+      <c r="F68" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37" t="s">
+      <c r="G68" s="36"/>
+      <c r="H68" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="I68" s="37"/>
+      <c r="I68" s="36"/>
       <c r="N68" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40">
+      <c r="C69" s="37"/>
+      <c r="D69" s="37">
         <v>1</v>
       </c>
-      <c r="E69" s="40"/>
-      <c r="F69" s="41" t="s">
+      <c r="E69" s="37"/>
+      <c r="F69" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="41"/>
-      <c r="H69" s="40" t="s">
+      <c r="G69" s="44"/>
+      <c r="H69" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="I69" s="40"/>
-      <c r="N69" s="37" t="s">
+      <c r="I69" s="37"/>
+      <c r="N69" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37" t="s">
+      <c r="O69" s="36"/>
+      <c r="P69" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37" t="s">
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37" t="s">
+      <c r="S69" s="36"/>
+      <c r="T69" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="U69" s="37"/>
+      <c r="U69" s="36"/>
     </row>
     <row r="70" spans="2:21" ht="14.25" customHeight="1">
       <c r="B70" s="25"/>
@@ -39656,22 +39656,22 @@
       <c r="E70" s="25"/>
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
-      <c r="N70" s="40" t="s">
+      <c r="N70" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40">
+      <c r="O70" s="37"/>
+      <c r="P70" s="37">
         <v>1</v>
       </c>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="41" t="s">
+      <c r="Q70" s="37"/>
+      <c r="R70" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S70" s="41"/>
-      <c r="T70" s="59" t="s">
+      <c r="S70" s="44"/>
+      <c r="T70" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="U70" s="59"/>
+      <c r="U70" s="57"/>
     </row>
     <row r="72" spans="2:21">
       <c r="N72" s="25"/>
@@ -39704,423 +39704,423 @@
       </c>
     </row>
     <row r="131" spans="2:21">
-      <c r="B131" s="37" t="s">
+      <c r="B131" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C131" s="37"/>
+      <c r="C131" s="36"/>
       <c r="N131" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="132" spans="2:21">
-      <c r="B132" s="40" t="s">
+      <c r="B132" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C132" s="40"/>
-      <c r="N132" s="57" t="s">
+      <c r="C132" s="37"/>
+      <c r="N132" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="O132" s="58"/>
+      <c r="O132" s="59"/>
     </row>
     <row r="133" spans="2:21">
-      <c r="B133" s="40" t="s">
+      <c r="B133" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C133" s="40"/>
-      <c r="N133" s="60" t="s">
+      <c r="C133" s="37"/>
+      <c r="N133" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="O133" s="61"/>
+      <c r="O133" s="65"/>
     </row>
     <row r="134" spans="2:21">
-      <c r="B134" s="40" t="s">
+      <c r="B134" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C134" s="40"/>
-      <c r="N134" s="60" t="s">
+      <c r="C134" s="37"/>
+      <c r="N134" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="O134" s="61"/>
+      <c r="O134" s="65"/>
     </row>
     <row r="135" spans="2:21">
-      <c r="B135" s="40" t="s">
+      <c r="B135" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C135" s="40"/>
-      <c r="N135" s="60" t="s">
+      <c r="C135" s="37"/>
+      <c r="N135" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="O135" s="61"/>
+      <c r="O135" s="65"/>
     </row>
     <row r="136" spans="2:21">
-      <c r="B136" s="40" t="s">
+      <c r="B136" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C136" s="40"/>
-      <c r="N136" s="60" t="s">
+      <c r="C136" s="37"/>
+      <c r="N136" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="O136" s="61"/>
+      <c r="O136" s="65"/>
     </row>
     <row r="137" spans="2:21">
-      <c r="B137" s="40" t="s">
+      <c r="B137" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C137" s="40"/>
-      <c r="N137" s="60" t="s">
+      <c r="C137" s="37"/>
+      <c r="N137" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="O137" s="61"/>
+      <c r="O137" s="65"/>
     </row>
     <row r="138" spans="2:21">
       <c r="B138" t="s">
         <v>65</v>
       </c>
-      <c r="N138" s="60" t="s">
+      <c r="N138" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="O138" s="61"/>
+      <c r="O138" s="65"/>
     </row>
     <row r="139" spans="2:21">
-      <c r="B139" s="37" t="s">
+      <c r="B139" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C139" s="37"/>
-      <c r="D139" s="37" t="s">
+      <c r="C139" s="36"/>
+      <c r="D139" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E139" s="37"/>
-      <c r="F139" s="37" t="s">
+      <c r="E139" s="36"/>
+      <c r="F139" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G139" s="37"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="39"/>
+      <c r="G139" s="36"/>
+      <c r="H139" s="47"/>
+      <c r="I139" s="48"/>
       <c r="N139" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="140" spans="2:21">
-      <c r="B140" s="40" t="s">
+      <c r="B140" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C140" s="40"/>
-      <c r="D140" s="40" t="s">
+      <c r="C140" s="37"/>
+      <c r="D140" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E140" s="40"/>
-      <c r="F140" s="41" t="s">
+      <c r="E140" s="37"/>
+      <c r="F140" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G140" s="41"/>
-      <c r="H140" s="42"/>
-      <c r="I140" s="43"/>
-      <c r="N140" s="57" t="s">
+      <c r="G140" s="44"/>
+      <c r="H140" s="45"/>
+      <c r="I140" s="46"/>
+      <c r="N140" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="O140" s="58"/>
-      <c r="P140" s="57" t="s">
+      <c r="O140" s="59"/>
+      <c r="P140" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="Q140" s="58"/>
-      <c r="R140" s="57" t="s">
+      <c r="Q140" s="59"/>
+      <c r="R140" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="S140" s="58"/>
-      <c r="T140" s="39"/>
-      <c r="U140" s="46"/>
+      <c r="S140" s="59"/>
+      <c r="T140" s="48"/>
+      <c r="U140" s="51"/>
     </row>
     <row r="141" spans="2:21">
-      <c r="B141" s="40" t="s">
+      <c r="B141" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C141" s="40"/>
-      <c r="D141" s="40" t="s">
+      <c r="C141" s="37"/>
+      <c r="D141" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E141" s="40"/>
-      <c r="F141" s="41" t="s">
+      <c r="E141" s="37"/>
+      <c r="F141" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G141" s="41"/>
-      <c r="H141" s="42"/>
-      <c r="I141" s="43"/>
-      <c r="N141" s="60" t="s">
+      <c r="G141" s="44"/>
+      <c r="H141" s="45"/>
+      <c r="I141" s="46"/>
+      <c r="N141" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="O141" s="61"/>
-      <c r="P141" s="60" t="s">
+      <c r="O141" s="65"/>
+      <c r="P141" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="Q141" s="61"/>
-      <c r="R141" s="62" t="s">
+      <c r="Q141" s="65"/>
+      <c r="R141" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="S141" s="63"/>
-      <c r="T141" s="64"/>
-      <c r="U141" s="36"/>
+      <c r="S141" s="67"/>
+      <c r="T141" s="68"/>
+      <c r="U141" s="52"/>
     </row>
     <row r="142" spans="2:21">
-      <c r="B142" s="40" t="s">
+      <c r="B142" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C142" s="40"/>
-      <c r="D142" s="40" t="s">
+      <c r="C142" s="37"/>
+      <c r="D142" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E142" s="40"/>
-      <c r="F142" s="41" t="s">
+      <c r="E142" s="37"/>
+      <c r="F142" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G142" s="41"/>
-      <c r="H142" s="42"/>
-      <c r="I142" s="43"/>
-      <c r="N142" s="60" t="s">
+      <c r="G142" s="44"/>
+      <c r="H142" s="45"/>
+      <c r="I142" s="46"/>
+      <c r="N142" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="O142" s="61"/>
-      <c r="P142" s="60" t="s">
+      <c r="O142" s="65"/>
+      <c r="P142" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="Q142" s="61"/>
-      <c r="R142" s="62" t="s">
+      <c r="Q142" s="65"/>
+      <c r="R142" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="S142" s="63"/>
-      <c r="T142" s="64"/>
-      <c r="U142" s="36"/>
+      <c r="S142" s="67"/>
+      <c r="T142" s="68"/>
+      <c r="U142" s="52"/>
     </row>
     <row r="143" spans="2:21">
-      <c r="B143" s="40" t="s">
+      <c r="B143" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C143" s="40"/>
-      <c r="D143" s="40" t="s">
+      <c r="C143" s="37"/>
+      <c r="D143" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E143" s="40"/>
-      <c r="F143" s="41" t="s">
+      <c r="E143" s="37"/>
+      <c r="F143" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G143" s="41"/>
-      <c r="H143" s="42"/>
-      <c r="I143" s="43"/>
-      <c r="N143" s="60" t="s">
+      <c r="G143" s="44"/>
+      <c r="H143" s="45"/>
+      <c r="I143" s="46"/>
+      <c r="N143" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="O143" s="61"/>
-      <c r="P143" s="60" t="s">
+      <c r="O143" s="65"/>
+      <c r="P143" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="Q143" s="61"/>
-      <c r="R143" s="62" t="s">
+      <c r="Q143" s="65"/>
+      <c r="R143" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="S143" s="63"/>
-      <c r="T143" s="39"/>
-      <c r="U143" s="46"/>
+      <c r="S143" s="67"/>
+      <c r="T143" s="48"/>
+      <c r="U143" s="51"/>
     </row>
     <row r="144" spans="2:21">
-      <c r="B144" s="40" t="s">
+      <c r="B144" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C144" s="40"/>
-      <c r="D144" s="40" t="s">
+      <c r="C144" s="37"/>
+      <c r="D144" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E144" s="40"/>
-      <c r="F144" s="41" t="s">
+      <c r="E144" s="37"/>
+      <c r="F144" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G144" s="41"/>
-      <c r="H144" s="42"/>
-      <c r="I144" s="43"/>
-      <c r="N144" s="60" t="s">
+      <c r="G144" s="44"/>
+      <c r="H144" s="45"/>
+      <c r="I144" s="46"/>
+      <c r="N144" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="O144" s="61"/>
-      <c r="P144" s="60" t="s">
+      <c r="O144" s="65"/>
+      <c r="P144" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="Q144" s="61"/>
-      <c r="R144" s="62" t="s">
+      <c r="Q144" s="65"/>
+      <c r="R144" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="S144" s="63"/>
-      <c r="T144" s="64"/>
-      <c r="U144" s="36"/>
+      <c r="S144" s="67"/>
+      <c r="T144" s="68"/>
+      <c r="U144" s="52"/>
     </row>
     <row r="145" spans="2:21">
-      <c r="B145" s="40" t="s">
+      <c r="B145" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C145" s="40"/>
-      <c r="D145" s="40" t="s">
+      <c r="C145" s="37"/>
+      <c r="D145" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E145" s="40"/>
-      <c r="F145" s="41" t="s">
+      <c r="E145" s="37"/>
+      <c r="F145" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G145" s="41"/>
-      <c r="H145" s="42"/>
-      <c r="I145" s="43"/>
-      <c r="N145" s="60" t="s">
+      <c r="G145" s="44"/>
+      <c r="H145" s="45"/>
+      <c r="I145" s="46"/>
+      <c r="N145" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="O145" s="61"/>
-      <c r="P145" s="60" t="s">
+      <c r="O145" s="65"/>
+      <c r="P145" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="Q145" s="61"/>
-      <c r="R145" s="62" t="s">
+      <c r="Q145" s="65"/>
+      <c r="R145" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="S145" s="63"/>
-      <c r="T145" s="64"/>
-      <c r="U145" s="36"/>
+      <c r="S145" s="67"/>
+      <c r="T145" s="68"/>
+      <c r="U145" s="52"/>
     </row>
     <row r="146" spans="2:21">
-      <c r="N146" s="60" t="s">
+      <c r="N146" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="O146" s="61"/>
-      <c r="P146" s="60" t="s">
+      <c r="O146" s="65"/>
+      <c r="P146" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="Q146" s="61"/>
-      <c r="R146" s="62" t="s">
+      <c r="Q146" s="65"/>
+      <c r="R146" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="S146" s="63"/>
-      <c r="T146" s="64"/>
-      <c r="U146" s="36"/>
+      <c r="S146" s="67"/>
+      <c r="T146" s="68"/>
+      <c r="U146" s="52"/>
     </row>
     <row r="147" spans="2:21">
       <c r="B147" t="s">
         <v>68</v>
       </c>
-      <c r="N147" s="67" t="s">
+      <c r="N147" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="O147" s="68"/>
-      <c r="P147" s="67" t="s">
+      <c r="O147" s="61"/>
+      <c r="P147" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="Q147" s="68"/>
-      <c r="R147" s="65" t="s">
+      <c r="Q147" s="61"/>
+      <c r="R147" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="S147" s="66"/>
-      <c r="T147" s="64"/>
-      <c r="U147" s="36"/>
+      <c r="S147" s="63"/>
+      <c r="T147" s="68"/>
+      <c r="U147" s="52"/>
     </row>
     <row r="148" spans="2:21">
-      <c r="B148" s="37" t="s">
+      <c r="B148" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C148" s="37"/>
-      <c r="D148" s="37" t="s">
+      <c r="C148" s="36"/>
+      <c r="D148" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E148" s="37"/>
-      <c r="F148" s="37" t="s">
+      <c r="E148" s="36"/>
+      <c r="F148" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G148" s="37"/>
-      <c r="H148" s="37" t="s">
+      <c r="G148" s="36"/>
+      <c r="H148" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="I148" s="37"/>
+      <c r="I148" s="36"/>
       <c r="N148" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="149" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B149" s="40" t="s">
+      <c r="B149" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C149" s="40"/>
-      <c r="D149" s="40">
+      <c r="C149" s="37"/>
+      <c r="D149" s="37">
         <v>1</v>
       </c>
-      <c r="E149" s="40"/>
-      <c r="F149" s="41" t="s">
+      <c r="E149" s="37"/>
+      <c r="F149" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G149" s="41"/>
-      <c r="H149" s="40" t="s">
+      <c r="G149" s="44"/>
+      <c r="H149" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="I149" s="40"/>
-      <c r="N149" s="57" t="s">
+      <c r="I149" s="37"/>
+      <c r="N149" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="O149" s="58"/>
-      <c r="P149" s="57" t="s">
+      <c r="O149" s="59"/>
+      <c r="P149" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="Q149" s="58"/>
-      <c r="R149" s="57" t="s">
+      <c r="Q149" s="59"/>
+      <c r="R149" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="S149" s="58"/>
-      <c r="T149" s="57" t="s">
+      <c r="S149" s="59"/>
+      <c r="T149" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="U149" s="58"/>
+      <c r="U149" s="59"/>
     </row>
     <row r="150" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B150" s="40" t="s">
+      <c r="B150" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C150" s="40"/>
-      <c r="D150" s="40">
+      <c r="C150" s="37"/>
+      <c r="D150" s="37">
         <v>1</v>
       </c>
-      <c r="E150" s="40"/>
-      <c r="F150" s="41" t="s">
+      <c r="E150" s="37"/>
+      <c r="F150" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G150" s="41"/>
-      <c r="H150" s="40" t="s">
+      <c r="G150" s="44"/>
+      <c r="H150" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I150" s="40"/>
-      <c r="N150" s="60" t="s">
+      <c r="I150" s="37"/>
+      <c r="N150" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="O150" s="61"/>
-      <c r="P150" s="60">
+      <c r="O150" s="65"/>
+      <c r="P150" s="64">
         <v>1</v>
       </c>
-      <c r="Q150" s="61"/>
-      <c r="R150" s="62" t="s">
+      <c r="Q150" s="65"/>
+      <c r="R150" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="S150" s="63"/>
-      <c r="T150" s="59" t="s">
+      <c r="S150" s="67"/>
+      <c r="T150" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="U150" s="59"/>
+      <c r="U150" s="57"/>
     </row>
     <row r="151" spans="2:21">
-      <c r="N151" s="60" t="s">
+      <c r="N151" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="O151" s="61"/>
-      <c r="P151" s="60">
+      <c r="O151" s="65"/>
+      <c r="P151" s="64">
         <v>1</v>
       </c>
-      <c r="Q151" s="61"/>
-      <c r="R151" s="62" t="s">
+      <c r="Q151" s="65"/>
+      <c r="R151" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="S151" s="63"/>
-      <c r="T151" s="40" t="s">
+      <c r="S151" s="67"/>
+      <c r="T151" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U151" s="40"/>
+      <c r="U151" s="37"/>
     </row>
     <row r="152" spans="2:21">
       <c r="N152" s="25"/>
@@ -40156,44 +40156,44 @@
       </c>
     </row>
     <row r="182" spans="2:21">
-      <c r="B182" s="37" t="s">
+      <c r="B182" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C182" s="37"/>
-      <c r="N182" s="57" t="s">
+      <c r="C182" s="36"/>
+      <c r="N182" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="O182" s="58"/>
+      <c r="O182" s="59"/>
     </row>
     <row r="183" spans="2:21">
-      <c r="B183" s="40" t="s">
+      <c r="B183" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C183" s="40"/>
-      <c r="N183" s="60" t="s">
+      <c r="C183" s="37"/>
+      <c r="N183" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="O183" s="61"/>
+      <c r="O183" s="65"/>
     </row>
     <row r="184" spans="2:21">
-      <c r="B184" s="40" t="s">
+      <c r="B184" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C184" s="40"/>
-      <c r="N184" s="60" t="s">
+      <c r="C184" s="37"/>
+      <c r="N184" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="O184" s="61"/>
+      <c r="O184" s="65"/>
     </row>
     <row r="185" spans="2:21">
-      <c r="B185" s="40" t="s">
+      <c r="B185" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C185" s="40"/>
-      <c r="N185" s="40" t="s">
+      <c r="C185" s="37"/>
+      <c r="N185" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="O185" s="40"/>
+      <c r="O185" s="37"/>
     </row>
     <row r="186" spans="2:21">
       <c r="B186" t="s">
@@ -40204,122 +40204,122 @@
       </c>
     </row>
     <row r="187" spans="2:21">
-      <c r="B187" s="37" t="s">
+      <c r="B187" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C187" s="37"/>
-      <c r="D187" s="37" t="s">
+      <c r="C187" s="36"/>
+      <c r="D187" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E187" s="37"/>
-      <c r="F187" s="37" t="s">
+      <c r="E187" s="36"/>
+      <c r="F187" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G187" s="37"/>
-      <c r="H187" s="38"/>
-      <c r="I187" s="39"/>
-      <c r="N187" s="57" t="s">
+      <c r="G187" s="36"/>
+      <c r="H187" s="47"/>
+      <c r="I187" s="48"/>
+      <c r="N187" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="O187" s="58"/>
-      <c r="P187" s="57" t="s">
+      <c r="O187" s="59"/>
+      <c r="P187" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="Q187" s="58"/>
-      <c r="R187" s="57" t="s">
+      <c r="Q187" s="59"/>
+      <c r="R187" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="S187" s="58"/>
+      <c r="S187" s="59"/>
       <c r="T187" s="29"/>
       <c r="U187" s="30"/>
     </row>
     <row r="188" spans="2:21">
-      <c r="B188" s="40" t="s">
+      <c r="B188" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C188" s="40"/>
-      <c r="D188" s="40" t="s">
+      <c r="C188" s="37"/>
+      <c r="D188" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E188" s="40"/>
-      <c r="F188" s="41" t="s">
+      <c r="E188" s="37"/>
+      <c r="F188" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G188" s="41"/>
-      <c r="H188" s="42"/>
-      <c r="I188" s="43"/>
-      <c r="N188" s="40" t="s">
+      <c r="G188" s="44"/>
+      <c r="H188" s="45"/>
+      <c r="I188" s="46"/>
+      <c r="N188" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O188" s="40"/>
-      <c r="P188" s="40" t="s">
+      <c r="O188" s="37"/>
+      <c r="P188" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q188" s="40"/>
-      <c r="R188" s="41" t="s">
+      <c r="Q188" s="37"/>
+      <c r="R188" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S188" s="41"/>
+      <c r="S188" s="44"/>
       <c r="T188" s="28"/>
       <c r="U188" s="27"/>
     </row>
     <row r="189" spans="2:21">
-      <c r="B189" s="40" t="s">
+      <c r="B189" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C189" s="40"/>
-      <c r="D189" s="40" t="s">
+      <c r="C189" s="37"/>
+      <c r="D189" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E189" s="40"/>
-      <c r="F189" s="41" t="s">
+      <c r="E189" s="37"/>
+      <c r="F189" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G189" s="41"/>
-      <c r="H189" s="42"/>
-      <c r="I189" s="43"/>
-      <c r="N189" s="40" t="s">
+      <c r="G189" s="44"/>
+      <c r="H189" s="45"/>
+      <c r="I189" s="46"/>
+      <c r="N189" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="O189" s="40"/>
-      <c r="P189" s="40" t="s">
+      <c r="O189" s="37"/>
+      <c r="P189" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q189" s="40"/>
-      <c r="R189" s="41" t="s">
+      <c r="Q189" s="37"/>
+      <c r="R189" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S189" s="41"/>
+      <c r="S189" s="44"/>
       <c r="T189" s="28"/>
       <c r="U189" s="27"/>
     </row>
     <row r="190" spans="2:21">
-      <c r="B190" s="40" t="s">
+      <c r="B190" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C190" s="40"/>
-      <c r="D190" s="40" t="s">
+      <c r="C190" s="37"/>
+      <c r="D190" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E190" s="40"/>
-      <c r="F190" s="41" t="s">
+      <c r="E190" s="37"/>
+      <c r="F190" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G190" s="41"/>
-      <c r="H190" s="42"/>
-      <c r="I190" s="43"/>
-      <c r="N190" s="40" t="s">
+      <c r="G190" s="44"/>
+      <c r="H190" s="45"/>
+      <c r="I190" s="46"/>
+      <c r="N190" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="O190" s="40"/>
-      <c r="P190" s="40" t="s">
+      <c r="O190" s="37"/>
+      <c r="P190" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q190" s="40"/>
-      <c r="R190" s="41" t="s">
+      <c r="Q190" s="37"/>
+      <c r="R190" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S190" s="41"/>
+      <c r="S190" s="44"/>
       <c r="T190" s="29"/>
       <c r="U190" s="30"/>
     </row>
@@ -40332,72 +40332,72 @@
       </c>
     </row>
     <row r="192" spans="2:21">
-      <c r="B192" s="37" t="s">
+      <c r="B192" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C192" s="37"/>
-      <c r="D192" s="37" t="s">
+      <c r="C192" s="36"/>
+      <c r="D192" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E192" s="37"/>
-      <c r="F192" s="37" t="s">
+      <c r="E192" s="36"/>
+      <c r="F192" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G192" s="37"/>
-      <c r="H192" s="37" t="s">
+      <c r="G192" s="36"/>
+      <c r="H192" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="I192" s="37"/>
-      <c r="N192" s="37" t="s">
+      <c r="I192" s="36"/>
+      <c r="N192" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O192" s="37"/>
-      <c r="P192" s="37" t="s">
+      <c r="O192" s="36"/>
+      <c r="P192" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Q192" s="37"/>
-      <c r="R192" s="37" t="s">
+      <c r="Q192" s="36"/>
+      <c r="R192" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S192" s="37"/>
-      <c r="T192" s="37" t="s">
+      <c r="S192" s="36"/>
+      <c r="T192" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="U192" s="37"/>
+      <c r="U192" s="36"/>
     </row>
     <row r="193" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B193" s="40" t="s">
+      <c r="B193" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C193" s="40"/>
-      <c r="D193" s="40">
+      <c r="C193" s="37"/>
+      <c r="D193" s="37">
         <v>1</v>
       </c>
-      <c r="E193" s="40"/>
-      <c r="F193" s="41" t="s">
+      <c r="E193" s="37"/>
+      <c r="F193" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G193" s="41"/>
-      <c r="H193" s="40" t="s">
+      <c r="G193" s="44"/>
+      <c r="H193" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="I193" s="40"/>
-      <c r="N193" s="40" t="s">
+      <c r="I193" s="37"/>
+      <c r="N193" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O193" s="40"/>
-      <c r="P193" s="40">
+      <c r="O193" s="37"/>
+      <c r="P193" s="37">
         <v>1</v>
       </c>
-      <c r="Q193" s="40"/>
-      <c r="R193" s="41" t="s">
+      <c r="Q193" s="37"/>
+      <c r="R193" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S193" s="41"/>
-      <c r="T193" s="59" t="s">
+      <c r="S193" s="44"/>
+      <c r="T193" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="U193" s="59"/>
+      <c r="U193" s="57"/>
     </row>
     <row r="195" spans="2:21">
       <c r="N195" s="25"/>
@@ -40428,64 +40428,64 @@
       </c>
     </row>
     <row r="248" spans="2:21">
-      <c r="B248" s="37" t="s">
+      <c r="B248" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C248" s="37"/>
-      <c r="N248" s="57" t="s">
+      <c r="C248" s="36"/>
+      <c r="N248" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="O248" s="58"/>
+      <c r="O248" s="59"/>
     </row>
     <row r="249" spans="2:21">
-      <c r="B249" s="40" t="s">
+      <c r="B249" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C249" s="40"/>
-      <c r="N249" s="40" t="s">
+      <c r="C249" s="37"/>
+      <c r="N249" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O249" s="40"/>
+      <c r="O249" s="37"/>
     </row>
     <row r="250" spans="2:21">
-      <c r="B250" s="40" t="s">
+      <c r="B250" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C250" s="40"/>
-      <c r="N250" s="40" t="s">
+      <c r="C250" s="37"/>
+      <c r="N250" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="O250" s="40"/>
+      <c r="O250" s="37"/>
     </row>
     <row r="251" spans="2:21">
-      <c r="B251" s="40" t="s">
+      <c r="B251" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C251" s="40"/>
-      <c r="N251" s="40" t="s">
+      <c r="C251" s="37"/>
+      <c r="N251" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="O251" s="40"/>
+      <c r="O251" s="37"/>
     </row>
     <row r="252" spans="2:21">
-      <c r="B252" s="40" t="s">
+      <c r="B252" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C252" s="40"/>
-      <c r="N252" s="40" t="s">
+      <c r="C252" s="37"/>
+      <c r="N252" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="O252" s="40"/>
+      <c r="O252" s="37"/>
     </row>
     <row r="253" spans="2:21">
-      <c r="B253" s="40" t="s">
+      <c r="B253" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C253" s="40"/>
-      <c r="N253" s="40" t="s">
+      <c r="C253" s="37"/>
+      <c r="N253" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="O253" s="40"/>
+      <c r="O253" s="37"/>
     </row>
     <row r="254" spans="2:21">
       <c r="B254" t="s">
@@ -40496,212 +40496,212 @@
       </c>
     </row>
     <row r="255" spans="2:21">
-      <c r="B255" s="37" t="s">
+      <c r="B255" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C255" s="37"/>
-      <c r="D255" s="37" t="s">
+      <c r="C255" s="36"/>
+      <c r="D255" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E255" s="37"/>
-      <c r="F255" s="37" t="s">
+      <c r="E255" s="36"/>
+      <c r="F255" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G255" s="37"/>
-      <c r="H255" s="38"/>
-      <c r="I255" s="39"/>
-      <c r="N255" s="57" t="s">
+      <c r="G255" s="36"/>
+      <c r="H255" s="47"/>
+      <c r="I255" s="48"/>
+      <c r="N255" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="O255" s="58"/>
-      <c r="P255" s="57" t="s">
+      <c r="O255" s="59"/>
+      <c r="P255" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="Q255" s="58"/>
-      <c r="R255" s="57" t="s">
+      <c r="Q255" s="59"/>
+      <c r="R255" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="S255" s="58"/>
+      <c r="S255" s="59"/>
       <c r="T255" s="29"/>
       <c r="U255" s="30"/>
     </row>
     <row r="256" spans="2:21">
-      <c r="B256" s="40" t="s">
+      <c r="B256" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C256" s="40"/>
-      <c r="D256" s="40" t="s">
+      <c r="C256" s="37"/>
+      <c r="D256" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E256" s="40"/>
-      <c r="F256" s="41" t="s">
+      <c r="E256" s="37"/>
+      <c r="F256" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G256" s="41"/>
-      <c r="H256" s="42"/>
-      <c r="I256" s="43"/>
-      <c r="N256" s="40" t="s">
+      <c r="G256" s="44"/>
+      <c r="H256" s="45"/>
+      <c r="I256" s="46"/>
+      <c r="N256" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O256" s="40"/>
-      <c r="P256" s="40" t="s">
+      <c r="O256" s="37"/>
+      <c r="P256" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q256" s="40"/>
-      <c r="R256" s="41" t="s">
+      <c r="Q256" s="37"/>
+      <c r="R256" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S256" s="41"/>
+      <c r="S256" s="44"/>
       <c r="T256" s="28"/>
       <c r="U256" s="27"/>
     </row>
     <row r="257" spans="2:21">
-      <c r="B257" s="40" t="s">
+      <c r="B257" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C257" s="40"/>
-      <c r="D257" s="40" t="s">
+      <c r="C257" s="37"/>
+      <c r="D257" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E257" s="40"/>
-      <c r="F257" s="41" t="s">
+      <c r="E257" s="37"/>
+      <c r="F257" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G257" s="41"/>
-      <c r="H257" s="42"/>
-      <c r="I257" s="43"/>
-      <c r="N257" s="40" t="s">
+      <c r="G257" s="44"/>
+      <c r="H257" s="45"/>
+      <c r="I257" s="46"/>
+      <c r="N257" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="O257" s="40"/>
-      <c r="P257" s="40" t="s">
+      <c r="O257" s="37"/>
+      <c r="P257" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q257" s="40"/>
-      <c r="R257" s="41" t="s">
+      <c r="Q257" s="37"/>
+      <c r="R257" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S257" s="41"/>
+      <c r="S257" s="44"/>
       <c r="T257" s="28"/>
       <c r="U257" s="27"/>
     </row>
     <row r="258" spans="2:21">
-      <c r="B258" s="40" t="s">
+      <c r="B258" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C258" s="40"/>
-      <c r="D258" s="40" t="s">
+      <c r="C258" s="37"/>
+      <c r="D258" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E258" s="40"/>
-      <c r="F258" s="41" t="s">
+      <c r="E258" s="37"/>
+      <c r="F258" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G258" s="41"/>
-      <c r="H258" s="42"/>
-      <c r="I258" s="43"/>
-      <c r="N258" s="40" t="s">
+      <c r="G258" s="44"/>
+      <c r="H258" s="45"/>
+      <c r="I258" s="46"/>
+      <c r="N258" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="O258" s="40"/>
-      <c r="P258" s="40" t="s">
+      <c r="O258" s="37"/>
+      <c r="P258" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Q258" s="40"/>
-      <c r="R258" s="41" t="s">
+      <c r="Q258" s="37"/>
+      <c r="R258" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S258" s="41"/>
+      <c r="S258" s="44"/>
       <c r="T258" s="29"/>
       <c r="U258" s="30"/>
     </row>
     <row r="259" spans="2:21">
-      <c r="B259" s="40" t="s">
+      <c r="B259" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C259" s="40"/>
-      <c r="D259" s="40" t="s">
+      <c r="C259" s="37"/>
+      <c r="D259" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E259" s="40"/>
-      <c r="F259" s="41" t="s">
+      <c r="E259" s="37"/>
+      <c r="F259" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G259" s="41"/>
-      <c r="H259" s="42"/>
-      <c r="I259" s="43"/>
-      <c r="N259" s="40" t="s">
+      <c r="G259" s="44"/>
+      <c r="H259" s="45"/>
+      <c r="I259" s="46"/>
+      <c r="N259" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="O259" s="40"/>
-      <c r="P259" s="40" t="s">
+      <c r="O259" s="37"/>
+      <c r="P259" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="Q259" s="40"/>
-      <c r="R259" s="41" t="s">
+      <c r="Q259" s="37"/>
+      <c r="R259" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S259" s="41"/>
+      <c r="S259" s="44"/>
       <c r="T259" s="28"/>
       <c r="U259" s="27"/>
     </row>
     <row r="260" spans="2:21">
-      <c r="B260" s="40" t="s">
+      <c r="B260" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C260" s="40"/>
-      <c r="D260" s="40" t="s">
+      <c r="C260" s="37"/>
+      <c r="D260" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E260" s="40"/>
-      <c r="F260" s="41" t="s">
+      <c r="E260" s="37"/>
+      <c r="F260" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G260" s="41"/>
-      <c r="H260" s="42"/>
-      <c r="I260" s="43"/>
-      <c r="N260" s="40" t="s">
+      <c r="G260" s="44"/>
+      <c r="H260" s="45"/>
+      <c r="I260" s="46"/>
+      <c r="N260" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="O260" s="40"/>
-      <c r="P260" s="40" t="s">
+      <c r="O260" s="37"/>
+      <c r="P260" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="Q260" s="40"/>
-      <c r="R260" s="41" t="s">
+      <c r="Q260" s="37"/>
+      <c r="R260" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S260" s="41"/>
+      <c r="S260" s="44"/>
       <c r="T260" s="28"/>
       <c r="U260" s="27"/>
     </row>
     <row r="261" spans="2:21">
-      <c r="B261" s="40" t="s">
+      <c r="B261" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C261" s="40"/>
-      <c r="D261" s="40" t="s">
+      <c r="C261" s="37"/>
+      <c r="D261" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E261" s="40"/>
-      <c r="F261" s="41" t="s">
+      <c r="E261" s="37"/>
+      <c r="F261" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G261" s="41"/>
-      <c r="H261" s="42"/>
-      <c r="I261" s="43"/>
-      <c r="N261" s="40" t="s">
+      <c r="G261" s="44"/>
+      <c r="H261" s="45"/>
+      <c r="I261" s="46"/>
+      <c r="N261" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="O261" s="40"/>
-      <c r="P261" s="40" t="s">
+      <c r="O261" s="37"/>
+      <c r="P261" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="Q261" s="40"/>
-      <c r="R261" s="41" t="s">
+      <c r="Q261" s="37"/>
+      <c r="R261" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S261" s="41"/>
+      <c r="S261" s="44"/>
       <c r="T261" s="28"/>
       <c r="U261" s="27"/>
     </row>
@@ -40714,144 +40714,344 @@
       </c>
     </row>
     <row r="263" spans="2:21">
-      <c r="B263" s="37" t="s">
+      <c r="B263" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C263" s="37"/>
-      <c r="D263" s="37" t="s">
+      <c r="C263" s="36"/>
+      <c r="D263" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E263" s="37"/>
-      <c r="F263" s="37" t="s">
+      <c r="E263" s="36"/>
+      <c r="F263" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G263" s="37"/>
-      <c r="H263" s="37" t="s">
+      <c r="G263" s="36"/>
+      <c r="H263" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="I263" s="37"/>
-      <c r="N263" s="37" t="s">
+      <c r="I263" s="36"/>
+      <c r="N263" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="O263" s="37"/>
-      <c r="P263" s="37" t="s">
+      <c r="O263" s="36"/>
+      <c r="P263" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Q263" s="37"/>
-      <c r="R263" s="37" t="s">
+      <c r="Q263" s="36"/>
+      <c r="R263" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="S263" s="37"/>
-      <c r="T263" s="37" t="s">
+      <c r="S263" s="36"/>
+      <c r="T263" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="U263" s="37"/>
+      <c r="U263" s="36"/>
     </row>
     <row r="264" spans="2:21">
-      <c r="B264" s="40" t="s">
+      <c r="B264" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C264" s="40"/>
-      <c r="D264" s="40">
+      <c r="C264" s="37"/>
+      <c r="D264" s="37">
         <v>1</v>
       </c>
-      <c r="E264" s="40"/>
-      <c r="F264" s="41" t="s">
+      <c r="E264" s="37"/>
+      <c r="F264" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G264" s="41"/>
-      <c r="H264" s="40" t="s">
+      <c r="G264" s="44"/>
+      <c r="H264" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="I264" s="40"/>
-      <c r="N264" s="40" t="s">
+      <c r="I264" s="37"/>
+      <c r="N264" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O264" s="40"/>
-      <c r="P264" s="40">
+      <c r="O264" s="37"/>
+      <c r="P264" s="37">
         <v>1</v>
       </c>
-      <c r="Q264" s="40"/>
-      <c r="R264" s="41" t="s">
+      <c r="Q264" s="37"/>
+      <c r="R264" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S264" s="41"/>
-      <c r="T264" s="59" t="s">
+      <c r="S264" s="44"/>
+      <c r="T264" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="U264" s="59"/>
+      <c r="U264" s="57"/>
     </row>
     <row r="265" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B265" s="40" t="s">
+      <c r="B265" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C265" s="40"/>
-      <c r="D265" s="40">
+      <c r="C265" s="37"/>
+      <c r="D265" s="37">
         <v>1</v>
       </c>
-      <c r="E265" s="40"/>
-      <c r="F265" s="41" t="s">
+      <c r="E265" s="37"/>
+      <c r="F265" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G265" s="41"/>
-      <c r="H265" s="40" t="s">
+      <c r="G265" s="44"/>
+      <c r="H265" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I265" s="40"/>
-      <c r="N265" s="40" t="s">
+      <c r="I265" s="37"/>
+      <c r="N265" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="O265" s="40"/>
-      <c r="P265" s="40">
+      <c r="O265" s="37"/>
+      <c r="P265" s="37">
         <v>1</v>
       </c>
-      <c r="Q265" s="40"/>
-      <c r="R265" s="41" t="s">
+      <c r="Q265" s="37"/>
+      <c r="R265" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="S265" s="41"/>
-      <c r="T265" s="40" t="s">
+      <c r="S265" s="44"/>
+      <c r="T265" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U265" s="40"/>
+      <c r="U265" s="37"/>
     </row>
     <row r="266" spans="2:21" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="292">
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="R261:S261"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="P259:Q259"/>
+    <mergeCell ref="N255:O255"/>
+    <mergeCell ref="P255:Q255"/>
+    <mergeCell ref="R255:S255"/>
+    <mergeCell ref="R258:S258"/>
+    <mergeCell ref="R256:S256"/>
+    <mergeCell ref="P257:Q257"/>
+    <mergeCell ref="R257:S257"/>
+    <mergeCell ref="T192:U192"/>
+    <mergeCell ref="N182:O182"/>
+    <mergeCell ref="N183:O183"/>
+    <mergeCell ref="N184:O184"/>
+    <mergeCell ref="T193:U193"/>
+    <mergeCell ref="N185:O185"/>
+    <mergeCell ref="T145:U145"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="P143:Q143"/>
+    <mergeCell ref="R143:S143"/>
+    <mergeCell ref="N261:O261"/>
+    <mergeCell ref="P261:Q261"/>
+    <mergeCell ref="N249:O249"/>
+    <mergeCell ref="N250:O250"/>
+    <mergeCell ref="N251:O251"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="P258:Q258"/>
+    <mergeCell ref="P256:Q256"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="F257:G257"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="N265:O265"/>
+    <mergeCell ref="N264:O264"/>
+    <mergeCell ref="P264:Q264"/>
+    <mergeCell ref="R264:S264"/>
+    <mergeCell ref="T264:U264"/>
+    <mergeCell ref="P265:Q265"/>
+    <mergeCell ref="R265:S265"/>
+    <mergeCell ref="T265:U265"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="F264:G264"/>
+    <mergeCell ref="H264:I264"/>
+    <mergeCell ref="R263:S263"/>
+    <mergeCell ref="T263:U263"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="F263:G263"/>
+    <mergeCell ref="H263:I263"/>
+    <mergeCell ref="N263:O263"/>
+    <mergeCell ref="P263:Q263"/>
+    <mergeCell ref="R259:S259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="H260:I260"/>
+    <mergeCell ref="N260:O260"/>
+    <mergeCell ref="P260:Q260"/>
+    <mergeCell ref="R260:S260"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="F259:G259"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="F261:G261"/>
+    <mergeCell ref="H261:I261"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="F255:G255"/>
+    <mergeCell ref="H255:I255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="F256:G256"/>
+    <mergeCell ref="H256:I256"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="R187:S187"/>
+    <mergeCell ref="N192:O192"/>
+    <mergeCell ref="P192:Q192"/>
+    <mergeCell ref="R192:S192"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="N248:O248"/>
+    <mergeCell ref="P187:Q187"/>
+    <mergeCell ref="N193:O193"/>
+    <mergeCell ref="P193:Q193"/>
+    <mergeCell ref="R193:S193"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="N190:O190"/>
+    <mergeCell ref="P190:Q190"/>
+    <mergeCell ref="R190:S190"/>
+    <mergeCell ref="P188:Q188"/>
+    <mergeCell ref="R188:S188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="N189:O189"/>
+    <mergeCell ref="P189:Q189"/>
+    <mergeCell ref="R189:S189"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="N188:O188"/>
+    <mergeCell ref="N187:O187"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="R151:S151"/>
+    <mergeCell ref="T151:U151"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P149:Q149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="R144:S144"/>
+    <mergeCell ref="T144:U144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="P145:Q145"/>
+    <mergeCell ref="R145:S145"/>
+    <mergeCell ref="T143:U143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="P144:Q144"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="P150:Q150"/>
+    <mergeCell ref="R150:S150"/>
+    <mergeCell ref="T150:U150"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="R146:S146"/>
+    <mergeCell ref="T146:U146"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="R142:S142"/>
+    <mergeCell ref="T142:U142"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="P151:Q151"/>
+    <mergeCell ref="R147:S147"/>
+    <mergeCell ref="T147:U147"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="R149:S149"/>
+    <mergeCell ref="T149:U149"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="R140:S140"/>
+    <mergeCell ref="T140:U140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="R141:S141"/>
+    <mergeCell ref="T141:U141"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="N140:O140"/>
     <mergeCell ref="B133:C133"/>
     <mergeCell ref="B134:C134"/>
     <mergeCell ref="B135:C135"/>
@@ -40876,240 +41076,40 @@
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="H68:I68"/>
-    <mergeCell ref="N138:O138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="N140:O140"/>
-    <mergeCell ref="P140:Q140"/>
-    <mergeCell ref="R140:S140"/>
-    <mergeCell ref="T140:U140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="N141:O141"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="R141:S141"/>
-    <mergeCell ref="T141:U141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="N142:O142"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="R142:S142"/>
-    <mergeCell ref="T142:U142"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="P151:Q151"/>
-    <mergeCell ref="R147:S147"/>
-    <mergeCell ref="T147:U147"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="R149:S149"/>
-    <mergeCell ref="T149:U149"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="N147:O147"/>
-    <mergeCell ref="P147:Q147"/>
-    <mergeCell ref="T143:U143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="N144:O144"/>
-    <mergeCell ref="P144:Q144"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="P150:Q150"/>
-    <mergeCell ref="R150:S150"/>
-    <mergeCell ref="T150:U150"/>
-    <mergeCell ref="N146:O146"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="R146:S146"/>
-    <mergeCell ref="T146:U146"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="R151:S151"/>
-    <mergeCell ref="T151:U151"/>
-    <mergeCell ref="N135:O135"/>
-    <mergeCell ref="N134:O134"/>
-    <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P149:Q149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="N136:O136"/>
-    <mergeCell ref="N137:O137"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="R144:S144"/>
-    <mergeCell ref="T144:U144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="N145:O145"/>
-    <mergeCell ref="P145:Q145"/>
-    <mergeCell ref="R145:S145"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="N188:O188"/>
-    <mergeCell ref="N187:O187"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="N190:O190"/>
-    <mergeCell ref="P190:Q190"/>
-    <mergeCell ref="R190:S190"/>
-    <mergeCell ref="P188:Q188"/>
-    <mergeCell ref="R188:S188"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="F189:G189"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="N189:O189"/>
-    <mergeCell ref="P189:Q189"/>
-    <mergeCell ref="R189:S189"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="R187:S187"/>
-    <mergeCell ref="N192:O192"/>
-    <mergeCell ref="P192:Q192"/>
-    <mergeCell ref="R192:S192"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="N248:O248"/>
-    <mergeCell ref="P187:Q187"/>
-    <mergeCell ref="N193:O193"/>
-    <mergeCell ref="P193:Q193"/>
-    <mergeCell ref="R193:S193"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="F255:G255"/>
-    <mergeCell ref="H255:I255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="F256:G256"/>
-    <mergeCell ref="H256:I256"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="R263:S263"/>
-    <mergeCell ref="T263:U263"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="F263:G263"/>
-    <mergeCell ref="H263:I263"/>
-    <mergeCell ref="N263:O263"/>
-    <mergeCell ref="P263:Q263"/>
-    <mergeCell ref="R259:S259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="H260:I260"/>
-    <mergeCell ref="N260:O260"/>
-    <mergeCell ref="P260:Q260"/>
-    <mergeCell ref="R260:S260"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="F259:G259"/>
-    <mergeCell ref="H259:I259"/>
-    <mergeCell ref="N265:O265"/>
-    <mergeCell ref="N264:O264"/>
-    <mergeCell ref="P264:Q264"/>
-    <mergeCell ref="R264:S264"/>
-    <mergeCell ref="T264:U264"/>
-    <mergeCell ref="P265:Q265"/>
-    <mergeCell ref="R265:S265"/>
-    <mergeCell ref="T265:U265"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="F264:G264"/>
-    <mergeCell ref="H264:I264"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="F261:G261"/>
-    <mergeCell ref="H261:I261"/>
-    <mergeCell ref="N261:O261"/>
-    <mergeCell ref="P261:Q261"/>
-    <mergeCell ref="N249:O249"/>
-    <mergeCell ref="N250:O250"/>
-    <mergeCell ref="N251:O251"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="H258:I258"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="P258:Q258"/>
-    <mergeCell ref="P256:Q256"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="F257:G257"/>
-    <mergeCell ref="H257:I257"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="R261:S261"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="P259:Q259"/>
-    <mergeCell ref="N255:O255"/>
-    <mergeCell ref="P255:Q255"/>
-    <mergeCell ref="R255:S255"/>
-    <mergeCell ref="R258:S258"/>
-    <mergeCell ref="R256:S256"/>
-    <mergeCell ref="P257:Q257"/>
-    <mergeCell ref="R257:S257"/>
-    <mergeCell ref="T192:U192"/>
-    <mergeCell ref="N182:O182"/>
-    <mergeCell ref="N183:O183"/>
-    <mergeCell ref="N184:O184"/>
-    <mergeCell ref="T193:U193"/>
-    <mergeCell ref="N185:O185"/>
-    <mergeCell ref="T145:U145"/>
-    <mergeCell ref="N143:O143"/>
-    <mergeCell ref="P143:Q143"/>
-    <mergeCell ref="R143:S143"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B65:C65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41120,10 +41120,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4"/>
+  <dimension ref="B4:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -41133,6 +41133,16 @@
         <v>114</v>
       </c>
     </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/appendix.xlsx
+++ b/appendix.xlsx
@@ -4,22 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント・管理対象ID紐付解除パターン" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="アカウント紐付取得" sheetId="3" r:id="rId3"/>
-    <sheet name="アカウント・グループ紐付解除パターン" sheetId="1" r:id="rId4"/>
-    <sheet name="主アカウント切り替えパターン" sheetId="2" r:id="rId5"/>
-    <sheet name="Gitテスト" sheetId="6" r:id="rId6"/>
+    <sheet name="アカウント紐付取得" sheetId="3" r:id="rId2"/>
+    <sheet name="アカウント・グループ紐付解除パターン" sheetId="1" r:id="rId3"/>
+    <sheet name="主アカウント切り替えパターン" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="114">
   <si>
     <t>アカウント・グループ紐付解除パターン</t>
     <rPh sb="10" eb="11">
@@ -1636,10 +1634,6 @@
     <t>Pattern1 アカウントに紐付く管理対象IDが0つ</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>Gitテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
@@ -1982,39 +1976,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2033,13 +1994,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2048,49 +2027,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2105,9 +2054,54 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -35021,8 +35015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -35299,19 +35293,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T26"/>
   <sheetViews>
@@ -35586,7 +35567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U368"/>
   <sheetViews>
@@ -35964,35 +35945,35 @@
       </c>
     </row>
     <row r="67" spans="2:21">
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="36"/>
-      <c r="N67" s="36" t="s">
+      <c r="C67" s="32"/>
+      <c r="N67" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O67" s="36"/>
+      <c r="O67" s="32"/>
     </row>
     <row r="68" spans="2:21">
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="37"/>
-      <c r="N68" s="37" t="s">
+      <c r="C68" s="31"/>
+      <c r="N68" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O68" s="37"/>
+      <c r="O68" s="31"/>
     </row>
     <row r="69" spans="2:21">
-      <c r="B69" s="37" t="s">
+      <c r="B69" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="37"/>
-      <c r="N69" s="37" t="s">
+      <c r="C69" s="31"/>
+      <c r="N69" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O69" s="37"/>
-      <c r="P69" s="35" t="s">
+      <c r="O69" s="31"/>
+      <c r="P69" s="68" t="s">
         <v>85</v>
       </c>
     </row>
@@ -36005,94 +35986,94 @@
       </c>
     </row>
     <row r="71" spans="2:21">
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36" t="s">
+      <c r="C71" s="32"/>
+      <c r="D71" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36" t="s">
+      <c r="E71" s="32"/>
+      <c r="F71" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G71" s="36"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="48"/>
-      <c r="N71" s="36" t="s">
+      <c r="G71" s="32"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="41"/>
+      <c r="N71" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O71" s="36"/>
-      <c r="P71" s="36" t="s">
+      <c r="O71" s="32"/>
+      <c r="P71" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36" t="s">
+      <c r="Q71" s="32"/>
+      <c r="R71" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S71" s="36"/>
-      <c r="T71" s="29"/>
-      <c r="U71" s="30"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="55"/>
     </row>
     <row r="72" spans="2:21">
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37" t="s">
+      <c r="C72" s="31"/>
+      <c r="D72" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="37"/>
-      <c r="F72" s="44" t="s">
+      <c r="E72" s="31"/>
+      <c r="F72" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="44"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="46"/>
-      <c r="N72" s="37" t="s">
+      <c r="G72" s="34"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="33"/>
+      <c r="N72" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37" t="s">
+      <c r="O72" s="31"/>
+      <c r="P72" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="44" t="s">
+      <c r="Q72" s="31"/>
+      <c r="R72" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S72" s="44"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="27"/>
+      <c r="S72" s="34"/>
+      <c r="T72" s="45"/>
+      <c r="U72" s="44"/>
     </row>
     <row r="73" spans="2:21">
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37" t="s">
+      <c r="C73" s="31"/>
+      <c r="D73" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E73" s="37"/>
-      <c r="F73" s="44" t="s">
+      <c r="E73" s="31"/>
+      <c r="F73" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G73" s="44"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="46"/>
-      <c r="N73" s="49" t="s">
+      <c r="G73" s="34"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="33"/>
+      <c r="N73" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="O73" s="49"/>
-      <c r="P73" s="49" t="s">
+      <c r="O73" s="64"/>
+      <c r="P73" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="Q73" s="49"/>
-      <c r="R73" s="50" t="s">
+      <c r="Q73" s="64"/>
+      <c r="R73" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="S73" s="50"/>
-      <c r="T73" s="28"/>
-      <c r="U73" s="27"/>
+      <c r="S73" s="65"/>
+      <c r="T73" s="45"/>
+      <c r="U73" s="44"/>
     </row>
     <row r="74" spans="2:21">
       <c r="B74" t="s">
@@ -36101,82 +36082,82 @@
       <c r="N74" t="s">
         <v>68</v>
       </c>
-      <c r="T74" s="28"/>
-      <c r="U74" s="27"/>
+      <c r="T74" s="45"/>
+      <c r="U74" s="44"/>
     </row>
     <row r="75" spans="2:21">
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36" t="s">
+      <c r="C75" s="32"/>
+      <c r="D75" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36" t="s">
+      <c r="E75" s="32"/>
+      <c r="F75" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G75" s="36"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="46"/>
-      <c r="N75" s="36" t="s">
+      <c r="G75" s="32"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="33"/>
+      <c r="N75" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="O75" s="36"/>
-      <c r="P75" s="36" t="s">
+      <c r="O75" s="32"/>
+      <c r="P75" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="36" t="s">
+      <c r="Q75" s="32"/>
+      <c r="R75" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S75" s="36"/>
-      <c r="T75" s="33"/>
-      <c r="U75" s="34"/>
+      <c r="S75" s="32"/>
+      <c r="T75" s="60"/>
+      <c r="U75" s="61"/>
     </row>
     <row r="76" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B76" s="37" t="s">
+      <c r="B76" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37">
+      <c r="C76" s="31"/>
+      <c r="D76" s="31">
         <v>1</v>
       </c>
-      <c r="E76" s="37"/>
-      <c r="F76" s="44" t="s">
+      <c r="E76" s="31"/>
+      <c r="F76" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G76" s="44"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="46"/>
-      <c r="N76" s="37" t="s">
+      <c r="G76" s="34"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="33"/>
+      <c r="N76" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37">
+      <c r="O76" s="31"/>
+      <c r="P76" s="31">
         <v>1</v>
       </c>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="44" t="s">
+      <c r="Q76" s="31"/>
+      <c r="R76" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S76" s="44"/>
-      <c r="T76" s="48"/>
+      <c r="S76" s="34"/>
+      <c r="T76" s="41"/>
       <c r="U76" s="51"/>
     </row>
     <row r="77" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
       <c r="T77" s="52"/>
       <c r="U77" s="52"/>
     </row>
     <row r="78" spans="2:21">
-      <c r="T78" s="34"/>
-      <c r="U78" s="34"/>
+      <c r="T78" s="61"/>
+      <c r="U78" s="61"/>
     </row>
     <row r="79" spans="2:21">
       <c r="B79" s="2" t="s">
@@ -36202,47 +36183,47 @@
       </c>
     </row>
     <row r="105" spans="2:21">
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C105" s="36"/>
-      <c r="N105" s="36" t="s">
+      <c r="C105" s="32"/>
+      <c r="N105" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O105" s="36"/>
+      <c r="O105" s="32"/>
     </row>
     <row r="106" spans="2:21">
-      <c r="B106" s="37" t="s">
+      <c r="B106" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C106" s="37"/>
-      <c r="N106" s="37" t="s">
+      <c r="C106" s="31"/>
+      <c r="N106" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O106" s="37"/>
+      <c r="O106" s="31"/>
     </row>
     <row r="107" spans="2:21">
-      <c r="B107" s="37" t="s">
+      <c r="B107" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C107" s="37"/>
-      <c r="N107" s="37" t="s">
+      <c r="C107" s="31"/>
+      <c r="N107" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O107" s="37"/>
-      <c r="P107" s="35" t="s">
+      <c r="O107" s="31"/>
+      <c r="P107" s="68" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="108" spans="2:21">
-      <c r="B108" s="37" t="s">
+      <c r="B108" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C108" s="37"/>
-      <c r="N108" s="37" t="s">
+      <c r="C108" s="31"/>
+      <c r="N108" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="O108" s="37"/>
+      <c r="O108" s="31"/>
     </row>
     <row r="109" spans="2:21">
       <c r="B109" t="s">
@@ -36253,124 +36234,124 @@
       </c>
     </row>
     <row r="110" spans="2:21">
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C110" s="36"/>
-      <c r="D110" s="36" t="s">
+      <c r="C110" s="32"/>
+      <c r="D110" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36" t="s">
+      <c r="E110" s="32"/>
+      <c r="F110" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G110" s="36"/>
-      <c r="H110" s="47"/>
-      <c r="I110" s="48"/>
-      <c r="N110" s="36" t="s">
+      <c r="G110" s="32"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="41"/>
+      <c r="N110" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O110" s="36"/>
-      <c r="P110" s="36" t="s">
+      <c r="O110" s="32"/>
+      <c r="P110" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Q110" s="36"/>
-      <c r="R110" s="36" t="s">
+      <c r="Q110" s="32"/>
+      <c r="R110" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S110" s="36"/>
-      <c r="T110" s="29"/>
-      <c r="U110" s="30"/>
+      <c r="S110" s="32"/>
+      <c r="T110" s="46"/>
+      <c r="U110" s="55"/>
     </row>
     <row r="111" spans="2:21">
-      <c r="B111" s="37" t="s">
+      <c r="B111" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37" t="s">
+      <c r="C111" s="31"/>
+      <c r="D111" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E111" s="37"/>
-      <c r="F111" s="44" t="s">
+      <c r="E111" s="31"/>
+      <c r="F111" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G111" s="44"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="46"/>
-      <c r="N111" s="37" t="s">
+      <c r="G111" s="34"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="33"/>
+      <c r="N111" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O111" s="37"/>
-      <c r="P111" s="37" t="s">
+      <c r="O111" s="31"/>
+      <c r="P111" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q111" s="37"/>
-      <c r="R111" s="44" t="s">
+      <c r="Q111" s="31"/>
+      <c r="R111" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S111" s="44"/>
-      <c r="T111" s="28"/>
-      <c r="U111" s="27"/>
+      <c r="S111" s="34"/>
+      <c r="T111" s="45"/>
+      <c r="U111" s="44"/>
     </row>
     <row r="112" spans="2:21">
-      <c r="B112" s="37" t="s">
+      <c r="B112" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37" t="s">
+      <c r="C112" s="31"/>
+      <c r="D112" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E112" s="37"/>
-      <c r="F112" s="44" t="s">
+      <c r="E112" s="31"/>
+      <c r="F112" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G112" s="44"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="46"/>
-      <c r="N112" s="49" t="s">
+      <c r="G112" s="34"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="33"/>
+      <c r="N112" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="O112" s="49"/>
-      <c r="P112" s="49" t="s">
+      <c r="O112" s="64"/>
+      <c r="P112" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="Q112" s="49"/>
-      <c r="R112" s="50" t="s">
+      <c r="Q112" s="64"/>
+      <c r="R112" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="S112" s="50"/>
-      <c r="T112" s="28"/>
-      <c r="U112" s="27"/>
+      <c r="S112" s="65"/>
+      <c r="T112" s="45"/>
+      <c r="U112" s="44"/>
     </row>
     <row r="113" spans="2:21">
-      <c r="B113" s="37" t="s">
+      <c r="B113" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37" t="s">
+      <c r="C113" s="31"/>
+      <c r="D113" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E113" s="37"/>
-      <c r="F113" s="44" t="s">
+      <c r="E113" s="31"/>
+      <c r="F113" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G113" s="44"/>
-      <c r="H113" s="45"/>
-      <c r="I113" s="46"/>
-      <c r="N113" s="37" t="s">
+      <c r="G113" s="34"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="33"/>
+      <c r="N113" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="O113" s="37"/>
-      <c r="P113" s="37" t="s">
+      <c r="O113" s="31"/>
+      <c r="P113" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q113" s="37"/>
-      <c r="R113" s="44" t="s">
+      <c r="Q113" s="31"/>
+      <c r="R113" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S113" s="44"/>
-      <c r="T113" s="28"/>
-      <c r="U113" s="27"/>
+      <c r="S113" s="34"/>
+      <c r="T113" s="45"/>
+      <c r="U113" s="44"/>
     </row>
     <row r="114" spans="2:21">
       <c r="B114" t="s">
@@ -36379,76 +36360,76 @@
       <c r="N114" t="s">
         <v>68</v>
       </c>
-      <c r="T114" s="28"/>
-      <c r="U114" s="27"/>
+      <c r="T114" s="45"/>
+      <c r="U114" s="44"/>
     </row>
     <row r="115" spans="2:21">
-      <c r="B115" s="36" t="s">
+      <c r="B115" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="36"/>
-      <c r="D115" s="36" t="s">
+      <c r="C115" s="32"/>
+      <c r="D115" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E115" s="36"/>
-      <c r="F115" s="36" t="s">
+      <c r="E115" s="32"/>
+      <c r="F115" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G115" s="36"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="46"/>
-      <c r="N115" s="36" t="s">
+      <c r="G115" s="32"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="33"/>
+      <c r="N115" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="O115" s="36"/>
-      <c r="P115" s="36" t="s">
+      <c r="O115" s="32"/>
+      <c r="P115" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="Q115" s="36"/>
-      <c r="R115" s="36" t="s">
+      <c r="Q115" s="32"/>
+      <c r="R115" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S115" s="36"/>
-      <c r="T115" s="33"/>
-      <c r="U115" s="34"/>
+      <c r="S115" s="32"/>
+      <c r="T115" s="60"/>
+      <c r="U115" s="61"/>
     </row>
     <row r="116" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B116" s="37" t="s">
+      <c r="B116" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37">
+      <c r="C116" s="31"/>
+      <c r="D116" s="31">
         <v>1</v>
       </c>
-      <c r="E116" s="37"/>
-      <c r="F116" s="44" t="s">
+      <c r="E116" s="31"/>
+      <c r="F116" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G116" s="44"/>
-      <c r="H116" s="45"/>
-      <c r="I116" s="46"/>
-      <c r="N116" s="37" t="s">
+      <c r="G116" s="34"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="33"/>
+      <c r="N116" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="O116" s="37"/>
-      <c r="P116" s="37">
+      <c r="O116" s="31"/>
+      <c r="P116" s="31">
         <v>1</v>
       </c>
-      <c r="Q116" s="37"/>
-      <c r="R116" s="44" t="s">
+      <c r="Q116" s="31"/>
+      <c r="R116" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S116" s="44"/>
-      <c r="T116" s="48"/>
+      <c r="S116" s="34"/>
+      <c r="T116" s="41"/>
       <c r="U116" s="51"/>
     </row>
     <row r="117" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="35"/>
+      <c r="F117" s="36"/>
+      <c r="G117" s="36"/>
       <c r="T117" s="52"/>
       <c r="U117" s="52"/>
     </row>
@@ -36476,67 +36457,67 @@
       </c>
     </row>
     <row r="149" spans="2:21">
-      <c r="B149" s="36" t="s">
+      <c r="B149" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C149" s="36"/>
-      <c r="N149" s="36" t="s">
+      <c r="C149" s="32"/>
+      <c r="N149" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O149" s="36"/>
+      <c r="O149" s="32"/>
     </row>
     <row r="150" spans="2:21">
-      <c r="B150" s="37" t="s">
+      <c r="B150" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C150" s="37"/>
-      <c r="N150" s="37" t="s">
+      <c r="C150" s="31"/>
+      <c r="N150" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O150" s="37"/>
+      <c r="O150" s="31"/>
     </row>
     <row r="151" spans="2:21">
-      <c r="B151" s="37" t="s">
+      <c r="B151" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C151" s="37"/>
-      <c r="N151" s="37" t="s">
+      <c r="C151" s="31"/>
+      <c r="N151" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O151" s="37"/>
-      <c r="P151" s="35" t="s">
+      <c r="O151" s="31"/>
+      <c r="P151" s="68" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="152" spans="2:21">
-      <c r="B152" s="37" t="s">
+      <c r="B152" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C152" s="37"/>
-      <c r="N152" s="37" t="s">
+      <c r="C152" s="31"/>
+      <c r="N152" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="O152" s="37"/>
+      <c r="O152" s="31"/>
     </row>
     <row r="153" spans="2:21">
-      <c r="B153" s="37" t="s">
+      <c r="B153" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C153" s="37"/>
-      <c r="N153" s="37" t="s">
+      <c r="C153" s="31"/>
+      <c r="N153" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="O153" s="37"/>
+      <c r="O153" s="31"/>
     </row>
     <row r="154" spans="2:21">
-      <c r="B154" s="37" t="s">
+      <c r="B154" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C154" s="37"/>
-      <c r="N154" s="37" t="s">
+      <c r="C154" s="31"/>
+      <c r="N154" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O154" s="37"/>
+      <c r="O154" s="31"/>
     </row>
     <row r="155" spans="2:21">
       <c r="B155" t="s">
@@ -36547,214 +36528,214 @@
       </c>
     </row>
     <row r="156" spans="2:21">
-      <c r="B156" s="36" t="s">
+      <c r="B156" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C156" s="36"/>
-      <c r="D156" s="36" t="s">
+      <c r="C156" s="32"/>
+      <c r="D156" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E156" s="36"/>
-      <c r="F156" s="36" t="s">
+      <c r="E156" s="32"/>
+      <c r="F156" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G156" s="36"/>
-      <c r="H156" s="47"/>
-      <c r="I156" s="48"/>
-      <c r="N156" s="36" t="s">
+      <c r="G156" s="32"/>
+      <c r="H156" s="40"/>
+      <c r="I156" s="41"/>
+      <c r="N156" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O156" s="36"/>
-      <c r="P156" s="36" t="s">
+      <c r="O156" s="32"/>
+      <c r="P156" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Q156" s="36"/>
-      <c r="R156" s="36" t="s">
+      <c r="Q156" s="32"/>
+      <c r="R156" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S156" s="36"/>
-      <c r="T156" s="29"/>
-      <c r="U156" s="30"/>
+      <c r="S156" s="32"/>
+      <c r="T156" s="46"/>
+      <c r="U156" s="55"/>
     </row>
     <row r="157" spans="2:21">
-      <c r="B157" s="37" t="s">
+      <c r="B157" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C157" s="37"/>
-      <c r="D157" s="37" t="s">
+      <c r="C157" s="31"/>
+      <c r="D157" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E157" s="37"/>
-      <c r="F157" s="44" t="s">
+      <c r="E157" s="31"/>
+      <c r="F157" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G157" s="44"/>
-      <c r="H157" s="45"/>
-      <c r="I157" s="46"/>
-      <c r="N157" s="37" t="s">
+      <c r="G157" s="34"/>
+      <c r="H157" s="39"/>
+      <c r="I157" s="33"/>
+      <c r="N157" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O157" s="37"/>
-      <c r="P157" s="37" t="s">
+      <c r="O157" s="31"/>
+      <c r="P157" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q157" s="37"/>
-      <c r="R157" s="44" t="s">
+      <c r="Q157" s="31"/>
+      <c r="R157" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S157" s="44"/>
-      <c r="T157" s="28"/>
-      <c r="U157" s="27"/>
+      <c r="S157" s="34"/>
+      <c r="T157" s="45"/>
+      <c r="U157" s="44"/>
     </row>
     <row r="158" spans="2:21">
-      <c r="B158" s="37" t="s">
+      <c r="B158" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C158" s="37"/>
-      <c r="D158" s="37" t="s">
+      <c r="C158" s="31"/>
+      <c r="D158" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E158" s="37"/>
-      <c r="F158" s="44" t="s">
+      <c r="E158" s="31"/>
+      <c r="F158" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G158" s="44"/>
-      <c r="H158" s="45"/>
-      <c r="I158" s="46"/>
-      <c r="N158" s="53" t="s">
+      <c r="G158" s="34"/>
+      <c r="H158" s="39"/>
+      <c r="I158" s="33"/>
+      <c r="N158" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="O158" s="53"/>
-      <c r="P158" s="53" t="s">
+      <c r="O158" s="62"/>
+      <c r="P158" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="Q158" s="53"/>
-      <c r="R158" s="54" t="s">
+      <c r="Q158" s="62"/>
+      <c r="R158" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="S158" s="54"/>
-      <c r="T158" s="28"/>
-      <c r="U158" s="27"/>
+      <c r="S158" s="63"/>
+      <c r="T158" s="45"/>
+      <c r="U158" s="44"/>
     </row>
     <row r="159" spans="2:21">
-      <c r="B159" s="37" t="s">
+      <c r="B159" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37" t="s">
+      <c r="C159" s="31"/>
+      <c r="D159" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E159" s="37"/>
-      <c r="F159" s="44" t="s">
+      <c r="E159" s="31"/>
+      <c r="F159" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G159" s="44"/>
-      <c r="H159" s="45"/>
-      <c r="I159" s="46"/>
-      <c r="N159" s="37" t="s">
+      <c r="G159" s="34"/>
+      <c r="H159" s="39"/>
+      <c r="I159" s="33"/>
+      <c r="N159" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="O159" s="37"/>
-      <c r="P159" s="37" t="s">
+      <c r="O159" s="31"/>
+      <c r="P159" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q159" s="37"/>
-      <c r="R159" s="44" t="s">
+      <c r="Q159" s="31"/>
+      <c r="R159" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S159" s="44"/>
-      <c r="T159" s="28"/>
-      <c r="U159" s="27"/>
+      <c r="S159" s="34"/>
+      <c r="T159" s="45"/>
+      <c r="U159" s="44"/>
     </row>
     <row r="160" spans="2:21">
-      <c r="B160" s="37" t="s">
+      <c r="B160" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C160" s="37"/>
-      <c r="D160" s="37" t="s">
+      <c r="C160" s="31"/>
+      <c r="D160" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E160" s="37"/>
-      <c r="F160" s="44" t="s">
+      <c r="E160" s="31"/>
+      <c r="F160" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G160" s="44"/>
-      <c r="H160" s="31"/>
-      <c r="I160" s="32"/>
-      <c r="N160" s="37" t="s">
+      <c r="G160" s="34"/>
+      <c r="H160" s="56"/>
+      <c r="I160" s="57"/>
+      <c r="N160" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="O160" s="37"/>
-      <c r="P160" s="37" t="s">
+      <c r="O160" s="31"/>
+      <c r="P160" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="Q160" s="37"/>
-      <c r="R160" s="44" t="s">
+      <c r="Q160" s="31"/>
+      <c r="R160" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S160" s="44"/>
-      <c r="T160" s="28"/>
-      <c r="U160" s="27"/>
+      <c r="S160" s="34"/>
+      <c r="T160" s="45"/>
+      <c r="U160" s="44"/>
     </row>
     <row r="161" spans="2:21">
-      <c r="B161" s="37" t="s">
+      <c r="B161" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C161" s="37"/>
-      <c r="D161" s="37" t="s">
+      <c r="C161" s="31"/>
+      <c r="D161" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E161" s="37"/>
-      <c r="F161" s="44" t="s">
+      <c r="E161" s="31"/>
+      <c r="F161" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G161" s="44"/>
-      <c r="H161" s="45"/>
-      <c r="I161" s="46"/>
-      <c r="N161" s="37" t="s">
+      <c r="G161" s="34"/>
+      <c r="H161" s="39"/>
+      <c r="I161" s="33"/>
+      <c r="N161" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O161" s="37"/>
-      <c r="P161" s="37" t="s">
+      <c r="O161" s="31"/>
+      <c r="P161" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="Q161" s="37"/>
-      <c r="R161" s="44" t="s">
+      <c r="Q161" s="31"/>
+      <c r="R161" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S161" s="44"/>
-      <c r="T161" s="28"/>
-      <c r="U161" s="27"/>
+      <c r="S161" s="34"/>
+      <c r="T161" s="45"/>
+      <c r="U161" s="44"/>
     </row>
     <row r="162" spans="2:21">
-      <c r="B162" s="37" t="s">
+      <c r="B162" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C162" s="37"/>
-      <c r="D162" s="37" t="s">
+      <c r="C162" s="31"/>
+      <c r="D162" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E162" s="37"/>
-      <c r="F162" s="44" t="s">
+      <c r="E162" s="31"/>
+      <c r="F162" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G162" s="44"/>
-      <c r="H162" s="45"/>
-      <c r="I162" s="46"/>
-      <c r="N162" s="37" t="s">
+      <c r="G162" s="34"/>
+      <c r="H162" s="39"/>
+      <c r="I162" s="33"/>
+      <c r="N162" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O162" s="37"/>
-      <c r="P162" s="37" t="s">
+      <c r="O162" s="31"/>
+      <c r="P162" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="Q162" s="37"/>
-      <c r="R162" s="44" t="s">
+      <c r="Q162" s="31"/>
+      <c r="R162" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S162" s="44"/>
-      <c r="T162" s="28"/>
-      <c r="U162" s="27"/>
+      <c r="S162" s="34"/>
+      <c r="T162" s="45"/>
+      <c r="U162" s="44"/>
     </row>
     <row r="163" spans="2:21">
       <c r="B163" t="s">
@@ -36763,106 +36744,106 @@
       <c r="N163" t="s">
         <v>68</v>
       </c>
-      <c r="T163" s="28"/>
-      <c r="U163" s="27"/>
+      <c r="T163" s="45"/>
+      <c r="U163" s="44"/>
     </row>
     <row r="164" spans="2:21">
-      <c r="B164" s="36" t="s">
+      <c r="B164" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C164" s="36"/>
-      <c r="D164" s="36" t="s">
+      <c r="C164" s="32"/>
+      <c r="D164" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E164" s="36"/>
-      <c r="F164" s="36" t="s">
+      <c r="E164" s="32"/>
+      <c r="F164" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G164" s="36"/>
-      <c r="H164" s="45"/>
-      <c r="I164" s="46"/>
-      <c r="N164" s="36" t="s">
+      <c r="G164" s="32"/>
+      <c r="H164" s="39"/>
+      <c r="I164" s="33"/>
+      <c r="N164" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="O164" s="36"/>
-      <c r="P164" s="36" t="s">
+      <c r="O164" s="32"/>
+      <c r="P164" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="Q164" s="36"/>
-      <c r="R164" s="36" t="s">
+      <c r="Q164" s="32"/>
+      <c r="R164" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S164" s="36"/>
-      <c r="T164" s="33"/>
-      <c r="U164" s="34"/>
+      <c r="S164" s="32"/>
+      <c r="T164" s="60"/>
+      <c r="U164" s="61"/>
     </row>
     <row r="165" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B165" s="37" t="s">
+      <c r="B165" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C165" s="37"/>
-      <c r="D165" s="37">
+      <c r="C165" s="31"/>
+      <c r="D165" s="31">
         <v>1</v>
       </c>
-      <c r="E165" s="37"/>
-      <c r="F165" s="44" t="s">
+      <c r="E165" s="31"/>
+      <c r="F165" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G165" s="44"/>
-      <c r="H165" s="45"/>
-      <c r="I165" s="46"/>
-      <c r="N165" s="37" t="s">
+      <c r="G165" s="34"/>
+      <c r="H165" s="39"/>
+      <c r="I165" s="33"/>
+      <c r="N165" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="O165" s="37"/>
-      <c r="P165" s="37">
+      <c r="O165" s="31"/>
+      <c r="P165" s="31">
         <v>1</v>
       </c>
-      <c r="Q165" s="37"/>
-      <c r="R165" s="44" t="s">
+      <c r="Q165" s="31"/>
+      <c r="R165" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S165" s="44"/>
-      <c r="T165" s="48"/>
+      <c r="S165" s="34"/>
+      <c r="T165" s="41"/>
       <c r="U165" s="51"/>
     </row>
     <row r="166" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B166" s="37" t="s">
+      <c r="B166" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C166" s="37"/>
-      <c r="D166" s="37">
+      <c r="C166" s="31"/>
+      <c r="D166" s="31">
         <v>1</v>
       </c>
-      <c r="E166" s="37"/>
-      <c r="F166" s="44" t="s">
+      <c r="E166" s="31"/>
+      <c r="F166" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G166" s="44"/>
-      <c r="H166" s="45"/>
-      <c r="I166" s="46"/>
-      <c r="N166" s="37" t="s">
+      <c r="G166" s="34"/>
+      <c r="H166" s="39"/>
+      <c r="I166" s="33"/>
+      <c r="N166" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="O166" s="37"/>
-      <c r="P166" s="37">
+      <c r="O166" s="31"/>
+      <c r="P166" s="31">
         <v>1</v>
       </c>
-      <c r="Q166" s="37"/>
-      <c r="R166" s="44" t="s">
+      <c r="Q166" s="31"/>
+      <c r="R166" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S166" s="44"/>
-      <c r="T166" s="48"/>
+      <c r="S166" s="34"/>
+      <c r="T166" s="41"/>
       <c r="U166" s="51"/>
     </row>
     <row r="167" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B167" s="25"/>
-      <c r="C167" s="25"/>
-      <c r="D167" s="25"/>
-      <c r="E167" s="25"/>
-      <c r="F167" s="26"/>
-      <c r="G167" s="26"/>
+      <c r="B167" s="35"/>
+      <c r="C167" s="35"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="35"/>
+      <c r="F167" s="36"/>
+      <c r="G167" s="36"/>
       <c r="T167" s="52"/>
       <c r="U167" s="52"/>
     </row>
@@ -36898,65 +36879,65 @@
       </c>
     </row>
     <row r="199" spans="2:21">
-      <c r="B199" s="36" t="s">
+      <c r="B199" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C199" s="36"/>
-      <c r="N199" s="36" t="s">
+      <c r="C199" s="32"/>
+      <c r="N199" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O199" s="36"/>
+      <c r="O199" s="32"/>
     </row>
     <row r="200" spans="2:21">
-      <c r="B200" s="37" t="s">
+      <c r="B200" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C200" s="37"/>
-      <c r="N200" s="37" t="s">
+      <c r="C200" s="31"/>
+      <c r="N200" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O200" s="37"/>
+      <c r="O200" s="31"/>
     </row>
     <row r="201" spans="2:21">
-      <c r="B201" s="37" t="s">
+      <c r="B201" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C201" s="37"/>
-      <c r="N201" s="37" t="s">
+      <c r="C201" s="31"/>
+      <c r="N201" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O201" s="37"/>
-      <c r="P201" s="35"/>
+      <c r="O201" s="31"/>
+      <c r="P201" s="68"/>
     </row>
     <row r="202" spans="2:21">
-      <c r="B202" s="37" t="s">
+      <c r="B202" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C202" s="37"/>
-      <c r="N202" s="37" t="s">
+      <c r="C202" s="31"/>
+      <c r="N202" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="O202" s="37"/>
+      <c r="O202" s="31"/>
     </row>
     <row r="203" spans="2:21">
-      <c r="B203" s="37" t="s">
+      <c r="B203" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C203" s="37"/>
-      <c r="N203" s="37" t="s">
+      <c r="C203" s="31"/>
+      <c r="N203" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="O203" s="37"/>
+      <c r="O203" s="31"/>
     </row>
     <row r="204" spans="2:21">
-      <c r="B204" s="37" t="s">
+      <c r="B204" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C204" s="37"/>
-      <c r="N204" s="37" t="s">
+      <c r="C204" s="31"/>
+      <c r="N204" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O204" s="37"/>
+      <c r="O204" s="31"/>
     </row>
     <row r="205" spans="2:21">
       <c r="B205" t="s">
@@ -36967,214 +36948,214 @@
       </c>
     </row>
     <row r="206" spans="2:21">
-      <c r="B206" s="36" t="s">
+      <c r="B206" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C206" s="36"/>
-      <c r="D206" s="36" t="s">
+      <c r="C206" s="32"/>
+      <c r="D206" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E206" s="36"/>
-      <c r="F206" s="36" t="s">
+      <c r="E206" s="32"/>
+      <c r="F206" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G206" s="36"/>
-      <c r="H206" s="47"/>
-      <c r="I206" s="48"/>
-      <c r="N206" s="36" t="s">
+      <c r="G206" s="32"/>
+      <c r="H206" s="40"/>
+      <c r="I206" s="41"/>
+      <c r="N206" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O206" s="36"/>
-      <c r="P206" s="36" t="s">
+      <c r="O206" s="32"/>
+      <c r="P206" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Q206" s="36"/>
-      <c r="R206" s="36" t="s">
+      <c r="Q206" s="32"/>
+      <c r="R206" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S206" s="36"/>
-      <c r="T206" s="29"/>
-      <c r="U206" s="30"/>
+      <c r="S206" s="32"/>
+      <c r="T206" s="46"/>
+      <c r="U206" s="55"/>
     </row>
     <row r="207" spans="2:21">
-      <c r="B207" s="37" t="s">
+      <c r="B207" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C207" s="37"/>
-      <c r="D207" s="37" t="s">
+      <c r="C207" s="31"/>
+      <c r="D207" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E207" s="37"/>
-      <c r="F207" s="44" t="s">
+      <c r="E207" s="31"/>
+      <c r="F207" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G207" s="44"/>
-      <c r="H207" s="45"/>
-      <c r="I207" s="46"/>
-      <c r="N207" s="37" t="s">
+      <c r="G207" s="34"/>
+      <c r="H207" s="39"/>
+      <c r="I207" s="33"/>
+      <c r="N207" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O207" s="37"/>
-      <c r="P207" s="37" t="s">
+      <c r="O207" s="31"/>
+      <c r="P207" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q207" s="37"/>
-      <c r="R207" s="44" t="s">
+      <c r="Q207" s="31"/>
+      <c r="R207" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S207" s="44"/>
-      <c r="T207" s="28"/>
-      <c r="U207" s="27"/>
+      <c r="S207" s="34"/>
+      <c r="T207" s="45"/>
+      <c r="U207" s="44"/>
     </row>
     <row r="208" spans="2:21">
-      <c r="B208" s="37" t="s">
+      <c r="B208" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C208" s="37"/>
-      <c r="D208" s="37" t="s">
+      <c r="C208" s="31"/>
+      <c r="D208" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E208" s="37"/>
-      <c r="F208" s="44" t="s">
+      <c r="E208" s="31"/>
+      <c r="F208" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G208" s="44"/>
-      <c r="H208" s="45"/>
-      <c r="I208" s="46"/>
-      <c r="N208" s="55" t="s">
+      <c r="G208" s="34"/>
+      <c r="H208" s="39"/>
+      <c r="I208" s="33"/>
+      <c r="N208" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="O208" s="55"/>
-      <c r="P208" s="55" t="s">
+      <c r="O208" s="66"/>
+      <c r="P208" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="Q208" s="55"/>
-      <c r="R208" s="56" t="s">
+      <c r="Q208" s="66"/>
+      <c r="R208" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="S208" s="56"/>
-      <c r="T208" s="28"/>
-      <c r="U208" s="27"/>
+      <c r="S208" s="67"/>
+      <c r="T208" s="45"/>
+      <c r="U208" s="44"/>
     </row>
     <row r="209" spans="2:21">
-      <c r="B209" s="37" t="s">
+      <c r="B209" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C209" s="37"/>
-      <c r="D209" s="37" t="s">
+      <c r="C209" s="31"/>
+      <c r="D209" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E209" s="37"/>
-      <c r="F209" s="44" t="s">
+      <c r="E209" s="31"/>
+      <c r="F209" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G209" s="44"/>
-      <c r="H209" s="45"/>
-      <c r="I209" s="46"/>
-      <c r="N209" s="37" t="s">
+      <c r="G209" s="34"/>
+      <c r="H209" s="39"/>
+      <c r="I209" s="33"/>
+      <c r="N209" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="O209" s="37"/>
-      <c r="P209" s="37" t="s">
+      <c r="O209" s="31"/>
+      <c r="P209" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q209" s="37"/>
-      <c r="R209" s="44" t="s">
+      <c r="Q209" s="31"/>
+      <c r="R209" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S209" s="44"/>
-      <c r="T209" s="28"/>
-      <c r="U209" s="27"/>
+      <c r="S209" s="34"/>
+      <c r="T209" s="45"/>
+      <c r="U209" s="44"/>
     </row>
     <row r="210" spans="2:21">
-      <c r="B210" s="37" t="s">
+      <c r="B210" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C210" s="37"/>
-      <c r="D210" s="37" t="s">
+      <c r="C210" s="31"/>
+      <c r="D210" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E210" s="37"/>
-      <c r="F210" s="44" t="s">
+      <c r="E210" s="31"/>
+      <c r="F210" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G210" s="44"/>
-      <c r="H210" s="31"/>
-      <c r="I210" s="32"/>
-      <c r="N210" s="37" t="s">
+      <c r="G210" s="34"/>
+      <c r="H210" s="56"/>
+      <c r="I210" s="57"/>
+      <c r="N210" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="O210" s="37"/>
-      <c r="P210" s="37" t="s">
+      <c r="O210" s="31"/>
+      <c r="P210" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="Q210" s="37"/>
-      <c r="R210" s="44" t="s">
+      <c r="Q210" s="31"/>
+      <c r="R210" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S210" s="44"/>
-      <c r="T210" s="28"/>
-      <c r="U210" s="27"/>
+      <c r="S210" s="34"/>
+      <c r="T210" s="45"/>
+      <c r="U210" s="44"/>
     </row>
     <row r="211" spans="2:21">
-      <c r="B211" s="37" t="s">
+      <c r="B211" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C211" s="37"/>
-      <c r="D211" s="37" t="s">
+      <c r="C211" s="31"/>
+      <c r="D211" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E211" s="37"/>
-      <c r="F211" s="44" t="s">
+      <c r="E211" s="31"/>
+      <c r="F211" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G211" s="44"/>
-      <c r="H211" s="45"/>
-      <c r="I211" s="46"/>
-      <c r="N211" s="37" t="s">
+      <c r="G211" s="34"/>
+      <c r="H211" s="39"/>
+      <c r="I211" s="33"/>
+      <c r="N211" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O211" s="37"/>
-      <c r="P211" s="37" t="s">
+      <c r="O211" s="31"/>
+      <c r="P211" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="Q211" s="37"/>
-      <c r="R211" s="44" t="s">
+      <c r="Q211" s="31"/>
+      <c r="R211" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S211" s="44"/>
-      <c r="T211" s="28"/>
-      <c r="U211" s="27"/>
+      <c r="S211" s="34"/>
+      <c r="T211" s="45"/>
+      <c r="U211" s="44"/>
     </row>
     <row r="212" spans="2:21">
-      <c r="B212" s="37" t="s">
+      <c r="B212" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C212" s="37"/>
-      <c r="D212" s="37" t="s">
+      <c r="C212" s="31"/>
+      <c r="D212" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E212" s="37"/>
-      <c r="F212" s="44" t="s">
+      <c r="E212" s="31"/>
+      <c r="F212" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G212" s="44"/>
-      <c r="H212" s="45"/>
-      <c r="I212" s="46"/>
-      <c r="N212" s="53" t="s">
+      <c r="G212" s="34"/>
+      <c r="H212" s="39"/>
+      <c r="I212" s="33"/>
+      <c r="N212" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="O212" s="53"/>
-      <c r="P212" s="53" t="s">
+      <c r="O212" s="62"/>
+      <c r="P212" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="Q212" s="53"/>
-      <c r="R212" s="54" t="s">
+      <c r="Q212" s="62"/>
+      <c r="R212" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="S212" s="54"/>
-      <c r="T212" s="28"/>
-      <c r="U212" s="27"/>
+      <c r="S212" s="63"/>
+      <c r="T212" s="45"/>
+      <c r="U212" s="44"/>
     </row>
     <row r="213" spans="2:21">
       <c r="B213" t="s">
@@ -37183,106 +37164,106 @@
       <c r="N213" t="s">
         <v>68</v>
       </c>
-      <c r="T213" s="28"/>
-      <c r="U213" s="27"/>
+      <c r="T213" s="45"/>
+      <c r="U213" s="44"/>
     </row>
     <row r="214" spans="2:21">
-      <c r="B214" s="36" t="s">
+      <c r="B214" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C214" s="36"/>
-      <c r="D214" s="36" t="s">
+      <c r="C214" s="32"/>
+      <c r="D214" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E214" s="36"/>
-      <c r="F214" s="36" t="s">
+      <c r="E214" s="32"/>
+      <c r="F214" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G214" s="36"/>
-      <c r="H214" s="45"/>
-      <c r="I214" s="46"/>
-      <c r="N214" s="36" t="s">
+      <c r="G214" s="32"/>
+      <c r="H214" s="39"/>
+      <c r="I214" s="33"/>
+      <c r="N214" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="O214" s="36"/>
-      <c r="P214" s="36" t="s">
+      <c r="O214" s="32"/>
+      <c r="P214" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="Q214" s="36"/>
-      <c r="R214" s="36" t="s">
+      <c r="Q214" s="32"/>
+      <c r="R214" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S214" s="36"/>
-      <c r="T214" s="33"/>
-      <c r="U214" s="34"/>
+      <c r="S214" s="32"/>
+      <c r="T214" s="60"/>
+      <c r="U214" s="61"/>
     </row>
     <row r="215" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B215" s="37" t="s">
+      <c r="B215" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C215" s="37"/>
-      <c r="D215" s="37">
+      <c r="C215" s="31"/>
+      <c r="D215" s="31">
         <v>1</v>
       </c>
-      <c r="E215" s="37"/>
-      <c r="F215" s="44" t="s">
+      <c r="E215" s="31"/>
+      <c r="F215" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G215" s="44"/>
-      <c r="H215" s="45"/>
-      <c r="I215" s="46"/>
-      <c r="N215" s="37" t="s">
+      <c r="G215" s="34"/>
+      <c r="H215" s="39"/>
+      <c r="I215" s="33"/>
+      <c r="N215" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="O215" s="37"/>
-      <c r="P215" s="37">
+      <c r="O215" s="31"/>
+      <c r="P215" s="31">
         <v>1</v>
       </c>
-      <c r="Q215" s="37"/>
-      <c r="R215" s="44" t="s">
+      <c r="Q215" s="31"/>
+      <c r="R215" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S215" s="44"/>
-      <c r="T215" s="48"/>
+      <c r="S215" s="34"/>
+      <c r="T215" s="41"/>
       <c r="U215" s="51"/>
     </row>
     <row r="216" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B216" s="37" t="s">
+      <c r="B216" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C216" s="37"/>
-      <c r="D216" s="37">
+      <c r="C216" s="31"/>
+      <c r="D216" s="31">
         <v>1</v>
       </c>
-      <c r="E216" s="37"/>
-      <c r="F216" s="44" t="s">
+      <c r="E216" s="31"/>
+      <c r="F216" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G216" s="44"/>
-      <c r="H216" s="45"/>
-      <c r="I216" s="46"/>
-      <c r="N216" s="37" t="s">
+      <c r="G216" s="34"/>
+      <c r="H216" s="39"/>
+      <c r="I216" s="33"/>
+      <c r="N216" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="O216" s="37"/>
-      <c r="P216" s="37">
+      <c r="O216" s="31"/>
+      <c r="P216" s="31">
         <v>1</v>
       </c>
-      <c r="Q216" s="37"/>
-      <c r="R216" s="44" t="s">
+      <c r="Q216" s="31"/>
+      <c r="R216" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S216" s="44"/>
-      <c r="T216" s="48"/>
+      <c r="S216" s="34"/>
+      <c r="T216" s="41"/>
       <c r="U216" s="51"/>
     </row>
     <row r="217" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B217" s="25"/>
-      <c r="C217" s="25"/>
-      <c r="D217" s="25"/>
-      <c r="E217" s="25"/>
-      <c r="F217" s="26"/>
-      <c r="G217" s="26"/>
+      <c r="B217" s="35"/>
+      <c r="C217" s="35"/>
+      <c r="D217" s="35"/>
+      <c r="E217" s="35"/>
+      <c r="F217" s="36"/>
+      <c r="G217" s="36"/>
       <c r="T217" s="52"/>
       <c r="U217" s="52"/>
     </row>
@@ -37305,67 +37286,67 @@
       </c>
     </row>
     <row r="248" spans="2:21">
-      <c r="B248" s="36" t="s">
+      <c r="B248" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C248" s="36"/>
-      <c r="N248" s="36" t="s">
+      <c r="C248" s="32"/>
+      <c r="N248" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O248" s="36"/>
+      <c r="O248" s="32"/>
     </row>
     <row r="249" spans="2:21">
-      <c r="B249" s="37" t="s">
+      <c r="B249" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C249" s="37"/>
-      <c r="N249" s="37" t="s">
+      <c r="C249" s="31"/>
+      <c r="N249" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O249" s="37"/>
+      <c r="O249" s="31"/>
     </row>
     <row r="250" spans="2:21">
-      <c r="B250" s="37" t="s">
+      <c r="B250" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C250" s="37"/>
-      <c r="N250" s="37" t="s">
+      <c r="C250" s="31"/>
+      <c r="N250" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O250" s="37"/>
-      <c r="P250" s="35" t="s">
+      <c r="O250" s="31"/>
+      <c r="P250" s="68" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="251" spans="2:21">
-      <c r="B251" s="37" t="s">
+      <c r="B251" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C251" s="37"/>
-      <c r="N251" s="37" t="s">
+      <c r="C251" s="31"/>
+      <c r="N251" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="O251" s="37"/>
+      <c r="O251" s="31"/>
     </row>
     <row r="252" spans="2:21">
-      <c r="B252" s="37" t="s">
+      <c r="B252" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C252" s="37"/>
-      <c r="N252" s="37" t="s">
+      <c r="C252" s="31"/>
+      <c r="N252" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="O252" s="37"/>
+      <c r="O252" s="31"/>
     </row>
     <row r="253" spans="2:21">
-      <c r="B253" s="37" t="s">
+      <c r="B253" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C253" s="37"/>
-      <c r="N253" s="37" t="s">
+      <c r="C253" s="31"/>
+      <c r="N253" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O253" s="37"/>
+      <c r="O253" s="31"/>
     </row>
     <row r="254" spans="2:21">
       <c r="B254" t="s">
@@ -37376,214 +37357,214 @@
       </c>
     </row>
     <row r="255" spans="2:21">
-      <c r="B255" s="36" t="s">
+      <c r="B255" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C255" s="36"/>
-      <c r="D255" s="36" t="s">
+      <c r="C255" s="32"/>
+      <c r="D255" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E255" s="36"/>
-      <c r="F255" s="36" t="s">
+      <c r="E255" s="32"/>
+      <c r="F255" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G255" s="36"/>
-      <c r="H255" s="47"/>
-      <c r="I255" s="48"/>
-      <c r="N255" s="36" t="s">
+      <c r="G255" s="32"/>
+      <c r="H255" s="40"/>
+      <c r="I255" s="41"/>
+      <c r="N255" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O255" s="36"/>
-      <c r="P255" s="36" t="s">
+      <c r="O255" s="32"/>
+      <c r="P255" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Q255" s="36"/>
-      <c r="R255" s="36" t="s">
+      <c r="Q255" s="32"/>
+      <c r="R255" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S255" s="36"/>
-      <c r="T255" s="29"/>
-      <c r="U255" s="30"/>
+      <c r="S255" s="32"/>
+      <c r="T255" s="46"/>
+      <c r="U255" s="55"/>
     </row>
     <row r="256" spans="2:21">
-      <c r="B256" s="37" t="s">
+      <c r="B256" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C256" s="37"/>
-      <c r="D256" s="37" t="s">
+      <c r="C256" s="31"/>
+      <c r="D256" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E256" s="37"/>
-      <c r="F256" s="44" t="s">
+      <c r="E256" s="31"/>
+      <c r="F256" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G256" s="44"/>
-      <c r="H256" s="45"/>
-      <c r="I256" s="46"/>
-      <c r="N256" s="37" t="s">
+      <c r="G256" s="34"/>
+      <c r="H256" s="39"/>
+      <c r="I256" s="33"/>
+      <c r="N256" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O256" s="37"/>
-      <c r="P256" s="37" t="s">
+      <c r="O256" s="31"/>
+      <c r="P256" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q256" s="37"/>
-      <c r="R256" s="44" t="s">
+      <c r="Q256" s="31"/>
+      <c r="R256" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S256" s="44"/>
-      <c r="T256" s="28"/>
-      <c r="U256" s="27"/>
+      <c r="S256" s="34"/>
+      <c r="T256" s="45"/>
+      <c r="U256" s="44"/>
     </row>
     <row r="257" spans="2:21">
-      <c r="B257" s="37" t="s">
+      <c r="B257" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C257" s="37"/>
-      <c r="D257" s="37" t="s">
+      <c r="C257" s="31"/>
+      <c r="D257" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E257" s="37"/>
-      <c r="F257" s="44" t="s">
+      <c r="E257" s="31"/>
+      <c r="F257" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G257" s="44"/>
-      <c r="H257" s="45"/>
-      <c r="I257" s="46"/>
-      <c r="N257" s="53" t="s">
+      <c r="G257" s="34"/>
+      <c r="H257" s="39"/>
+      <c r="I257" s="33"/>
+      <c r="N257" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="O257" s="53"/>
-      <c r="P257" s="53" t="s">
+      <c r="O257" s="62"/>
+      <c r="P257" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="Q257" s="53"/>
-      <c r="R257" s="54" t="s">
+      <c r="Q257" s="62"/>
+      <c r="R257" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="S257" s="54"/>
-      <c r="T257" s="28"/>
-      <c r="U257" s="27"/>
+      <c r="S257" s="63"/>
+      <c r="T257" s="45"/>
+      <c r="U257" s="44"/>
     </row>
     <row r="258" spans="2:21">
-      <c r="B258" s="37" t="s">
+      <c r="B258" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C258" s="37"/>
-      <c r="D258" s="37" t="s">
+      <c r="C258" s="31"/>
+      <c r="D258" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E258" s="37"/>
-      <c r="F258" s="44" t="s">
+      <c r="E258" s="31"/>
+      <c r="F258" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G258" s="44"/>
-      <c r="H258" s="45"/>
-      <c r="I258" s="46"/>
-      <c r="N258" s="37" t="s">
+      <c r="G258" s="34"/>
+      <c r="H258" s="39"/>
+      <c r="I258" s="33"/>
+      <c r="N258" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="O258" s="37"/>
-      <c r="P258" s="37" t="s">
+      <c r="O258" s="31"/>
+      <c r="P258" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q258" s="37"/>
-      <c r="R258" s="44" t="s">
+      <c r="Q258" s="31"/>
+      <c r="R258" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S258" s="44"/>
-      <c r="T258" s="28"/>
-      <c r="U258" s="27"/>
+      <c r="S258" s="34"/>
+      <c r="T258" s="45"/>
+      <c r="U258" s="44"/>
     </row>
     <row r="259" spans="2:21">
-      <c r="B259" s="37" t="s">
+      <c r="B259" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C259" s="37"/>
-      <c r="D259" s="37" t="s">
+      <c r="C259" s="31"/>
+      <c r="D259" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E259" s="37"/>
-      <c r="F259" s="44" t="s">
+      <c r="E259" s="31"/>
+      <c r="F259" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G259" s="44"/>
-      <c r="H259" s="31"/>
-      <c r="I259" s="32"/>
-      <c r="N259" s="37" t="s">
+      <c r="G259" s="34"/>
+      <c r="H259" s="56"/>
+      <c r="I259" s="57"/>
+      <c r="N259" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="O259" s="37"/>
-      <c r="P259" s="37" t="s">
+      <c r="O259" s="31"/>
+      <c r="P259" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="Q259" s="37"/>
-      <c r="R259" s="44" t="s">
+      <c r="Q259" s="31"/>
+      <c r="R259" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S259" s="44"/>
-      <c r="T259" s="28"/>
-      <c r="U259" s="27"/>
+      <c r="S259" s="34"/>
+      <c r="T259" s="45"/>
+      <c r="U259" s="44"/>
     </row>
     <row r="260" spans="2:21">
-      <c r="B260" s="37" t="s">
+      <c r="B260" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C260" s="37"/>
-      <c r="D260" s="37" t="s">
+      <c r="C260" s="31"/>
+      <c r="D260" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E260" s="37"/>
-      <c r="F260" s="44" t="s">
+      <c r="E260" s="31"/>
+      <c r="F260" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G260" s="44"/>
-      <c r="H260" s="45"/>
-      <c r="I260" s="46"/>
-      <c r="N260" s="55" t="s">
+      <c r="G260" s="34"/>
+      <c r="H260" s="39"/>
+      <c r="I260" s="33"/>
+      <c r="N260" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="O260" s="55"/>
-      <c r="P260" s="55" t="s">
+      <c r="O260" s="66"/>
+      <c r="P260" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="Q260" s="55"/>
-      <c r="R260" s="56" t="s">
+      <c r="Q260" s="66"/>
+      <c r="R260" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="S260" s="56"/>
-      <c r="T260" s="28"/>
-      <c r="U260" s="27"/>
+      <c r="S260" s="67"/>
+      <c r="T260" s="45"/>
+      <c r="U260" s="44"/>
     </row>
     <row r="261" spans="2:21">
-      <c r="B261" s="37" t="s">
+      <c r="B261" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C261" s="37"/>
-      <c r="D261" s="37" t="s">
+      <c r="C261" s="31"/>
+      <c r="D261" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E261" s="37"/>
-      <c r="F261" s="44" t="s">
+      <c r="E261" s="31"/>
+      <c r="F261" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G261" s="44"/>
-      <c r="H261" s="45"/>
-      <c r="I261" s="46"/>
-      <c r="N261" s="55" t="s">
+      <c r="G261" s="34"/>
+      <c r="H261" s="39"/>
+      <c r="I261" s="33"/>
+      <c r="N261" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="O261" s="55"/>
-      <c r="P261" s="55" t="s">
+      <c r="O261" s="66"/>
+      <c r="P261" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="Q261" s="55"/>
-      <c r="R261" s="56" t="s">
+      <c r="Q261" s="66"/>
+      <c r="R261" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="S261" s="56"/>
-      <c r="T261" s="28"/>
-      <c r="U261" s="27"/>
+      <c r="S261" s="67"/>
+      <c r="T261" s="45"/>
+      <c r="U261" s="44"/>
     </row>
     <row r="262" spans="2:21">
       <c r="B262" t="s">
@@ -37592,106 +37573,106 @@
       <c r="N262" t="s">
         <v>68</v>
       </c>
-      <c r="T262" s="28"/>
-      <c r="U262" s="27"/>
+      <c r="T262" s="45"/>
+      <c r="U262" s="44"/>
     </row>
     <row r="263" spans="2:21">
-      <c r="B263" s="36" t="s">
+      <c r="B263" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C263" s="36"/>
-      <c r="D263" s="36" t="s">
+      <c r="C263" s="32"/>
+      <c r="D263" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E263" s="36"/>
-      <c r="F263" s="36" t="s">
+      <c r="E263" s="32"/>
+      <c r="F263" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G263" s="36"/>
-      <c r="H263" s="45"/>
-      <c r="I263" s="46"/>
-      <c r="N263" s="36" t="s">
+      <c r="G263" s="32"/>
+      <c r="H263" s="39"/>
+      <c r="I263" s="33"/>
+      <c r="N263" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="O263" s="36"/>
-      <c r="P263" s="36" t="s">
+      <c r="O263" s="32"/>
+      <c r="P263" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="Q263" s="36"/>
-      <c r="R263" s="36" t="s">
+      <c r="Q263" s="32"/>
+      <c r="R263" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S263" s="36"/>
-      <c r="T263" s="33"/>
-      <c r="U263" s="34"/>
+      <c r="S263" s="32"/>
+      <c r="T263" s="60"/>
+      <c r="U263" s="61"/>
     </row>
     <row r="264" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B264" s="37" t="s">
+      <c r="B264" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C264" s="37"/>
-      <c r="D264" s="37">
+      <c r="C264" s="31"/>
+      <c r="D264" s="31">
         <v>1</v>
       </c>
-      <c r="E264" s="37"/>
-      <c r="F264" s="44" t="s">
+      <c r="E264" s="31"/>
+      <c r="F264" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G264" s="44"/>
-      <c r="H264" s="45"/>
-      <c r="I264" s="46"/>
-      <c r="N264" s="37" t="s">
+      <c r="G264" s="34"/>
+      <c r="H264" s="39"/>
+      <c r="I264" s="33"/>
+      <c r="N264" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="O264" s="37"/>
-      <c r="P264" s="37">
+      <c r="O264" s="31"/>
+      <c r="P264" s="31">
         <v>1</v>
       </c>
-      <c r="Q264" s="37"/>
-      <c r="R264" s="44" t="s">
+      <c r="Q264" s="31"/>
+      <c r="R264" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S264" s="44"/>
-      <c r="T264" s="48"/>
+      <c r="S264" s="34"/>
+      <c r="T264" s="41"/>
       <c r="U264" s="51"/>
     </row>
     <row r="265" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B265" s="37" t="s">
+      <c r="B265" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C265" s="37"/>
-      <c r="D265" s="37">
+      <c r="C265" s="31"/>
+      <c r="D265" s="31">
         <v>1</v>
       </c>
-      <c r="E265" s="37"/>
-      <c r="F265" s="44" t="s">
+      <c r="E265" s="31"/>
+      <c r="F265" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G265" s="44"/>
-      <c r="H265" s="45"/>
-      <c r="I265" s="46"/>
-      <c r="N265" s="37" t="s">
+      <c r="G265" s="34"/>
+      <c r="H265" s="39"/>
+      <c r="I265" s="33"/>
+      <c r="N265" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="O265" s="37"/>
-      <c r="P265" s="37">
+      <c r="O265" s="31"/>
+      <c r="P265" s="31">
         <v>1</v>
       </c>
-      <c r="Q265" s="37"/>
-      <c r="R265" s="44" t="s">
+      <c r="Q265" s="31"/>
+      <c r="R265" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S265" s="44"/>
-      <c r="T265" s="48"/>
+      <c r="S265" s="34"/>
+      <c r="T265" s="41"/>
       <c r="U265" s="51"/>
     </row>
     <row r="266" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B266" s="25"/>
-      <c r="C266" s="25"/>
-      <c r="D266" s="25"/>
-      <c r="E266" s="25"/>
-      <c r="F266" s="26"/>
-      <c r="G266" s="26"/>
+      <c r="B266" s="35"/>
+      <c r="C266" s="35"/>
+      <c r="D266" s="35"/>
+      <c r="E266" s="35"/>
+      <c r="F266" s="36"/>
+      <c r="G266" s="36"/>
       <c r="T266" s="52"/>
       <c r="U266" s="52"/>
     </row>
@@ -37719,38 +37700,38 @@
       </c>
     </row>
     <row r="287" spans="2:16">
-      <c r="B287" s="36" t="s">
+      <c r="B287" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C287" s="36"/>
-      <c r="N287" s="36" t="s">
+      <c r="C287" s="32"/>
+      <c r="N287" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O287" s="36"/>
+      <c r="O287" s="32"/>
     </row>
     <row r="288" spans="2:16">
-      <c r="B288" s="37" t="s">
+      <c r="B288" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C288" s="37"/>
-      <c r="N288" s="37" t="s">
+      <c r="C288" s="31"/>
+      <c r="N288" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O288" s="37"/>
-      <c r="P288" s="35" t="s">
+      <c r="O288" s="31"/>
+      <c r="P288" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="289" spans="2:21">
-      <c r="B289" s="37" t="s">
+      <c r="B289" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C289" s="37"/>
-      <c r="N289" s="37" t="s">
+      <c r="C289" s="31"/>
+      <c r="N289" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O289" s="37"/>
-      <c r="P289" s="35"/>
+      <c r="O289" s="31"/>
+      <c r="P289" s="68"/>
     </row>
     <row r="290" spans="2:21">
       <c r="B290" t="s">
@@ -37761,94 +37742,94 @@
       </c>
     </row>
     <row r="291" spans="2:21">
-      <c r="B291" s="36" t="s">
+      <c r="B291" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C291" s="36"/>
-      <c r="D291" s="36" t="s">
+      <c r="C291" s="32"/>
+      <c r="D291" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E291" s="36"/>
-      <c r="F291" s="36" t="s">
+      <c r="E291" s="32"/>
+      <c r="F291" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G291" s="36"/>
-      <c r="H291" s="47"/>
-      <c r="I291" s="48"/>
-      <c r="N291" s="36" t="s">
+      <c r="G291" s="32"/>
+      <c r="H291" s="40"/>
+      <c r="I291" s="41"/>
+      <c r="N291" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O291" s="36"/>
-      <c r="P291" s="36" t="s">
+      <c r="O291" s="32"/>
+      <c r="P291" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Q291" s="36"/>
-      <c r="R291" s="36" t="s">
+      <c r="Q291" s="32"/>
+      <c r="R291" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S291" s="36"/>
-      <c r="T291" s="29"/>
-      <c r="U291" s="30"/>
+      <c r="S291" s="32"/>
+      <c r="T291" s="46"/>
+      <c r="U291" s="55"/>
     </row>
     <row r="292" spans="2:21">
-      <c r="B292" s="37" t="s">
+      <c r="B292" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C292" s="37"/>
-      <c r="D292" s="37" t="s">
+      <c r="C292" s="31"/>
+      <c r="D292" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E292" s="37"/>
-      <c r="F292" s="44" t="s">
+      <c r="E292" s="31"/>
+      <c r="F292" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G292" s="44"/>
-      <c r="H292" s="45"/>
-      <c r="I292" s="46"/>
-      <c r="N292" s="53" t="s">
+      <c r="G292" s="34"/>
+      <c r="H292" s="39"/>
+      <c r="I292" s="33"/>
+      <c r="N292" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="O292" s="53"/>
-      <c r="P292" s="53" t="s">
+      <c r="O292" s="62"/>
+      <c r="P292" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="Q292" s="53"/>
-      <c r="R292" s="54" t="s">
+      <c r="Q292" s="62"/>
+      <c r="R292" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="S292" s="54"/>
-      <c r="T292" s="28"/>
-      <c r="U292" s="27"/>
+      <c r="S292" s="63"/>
+      <c r="T292" s="45"/>
+      <c r="U292" s="44"/>
     </row>
     <row r="293" spans="2:21">
-      <c r="B293" s="37" t="s">
+      <c r="B293" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C293" s="37"/>
-      <c r="D293" s="37" t="s">
+      <c r="C293" s="31"/>
+      <c r="D293" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E293" s="37"/>
-      <c r="F293" s="44" t="s">
+      <c r="E293" s="31"/>
+      <c r="F293" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G293" s="44"/>
-      <c r="H293" s="45"/>
-      <c r="I293" s="46"/>
-      <c r="N293" s="55" t="s">
+      <c r="G293" s="34"/>
+      <c r="H293" s="39"/>
+      <c r="I293" s="33"/>
+      <c r="N293" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="O293" s="55"/>
-      <c r="P293" s="37" t="s">
+      <c r="O293" s="66"/>
+      <c r="P293" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="Q293" s="37"/>
-      <c r="R293" s="56" t="s">
+      <c r="Q293" s="31"/>
+      <c r="R293" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="S293" s="56"/>
-      <c r="T293" s="28"/>
-      <c r="U293" s="27"/>
+      <c r="S293" s="67"/>
+      <c r="T293" s="45"/>
+      <c r="U293" s="44"/>
     </row>
     <row r="294" spans="2:21">
       <c r="B294" t="s">
@@ -37857,76 +37838,76 @@
       <c r="N294" t="s">
         <v>68</v>
       </c>
-      <c r="T294" s="28"/>
-      <c r="U294" s="27"/>
+      <c r="T294" s="45"/>
+      <c r="U294" s="44"/>
     </row>
     <row r="295" spans="2:21">
-      <c r="B295" s="36" t="s">
+      <c r="B295" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C295" s="36"/>
-      <c r="D295" s="36" t="s">
+      <c r="C295" s="32"/>
+      <c r="D295" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E295" s="36"/>
-      <c r="F295" s="36" t="s">
+      <c r="E295" s="32"/>
+      <c r="F295" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G295" s="36"/>
-      <c r="H295" s="45"/>
-      <c r="I295" s="46"/>
-      <c r="N295" s="36" t="s">
+      <c r="G295" s="32"/>
+      <c r="H295" s="39"/>
+      <c r="I295" s="33"/>
+      <c r="N295" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="O295" s="36"/>
-      <c r="P295" s="36" t="s">
+      <c r="O295" s="32"/>
+      <c r="P295" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="Q295" s="36"/>
-      <c r="R295" s="36" t="s">
+      <c r="Q295" s="32"/>
+      <c r="R295" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S295" s="36"/>
-      <c r="T295" s="33"/>
-      <c r="U295" s="34"/>
+      <c r="S295" s="32"/>
+      <c r="T295" s="60"/>
+      <c r="U295" s="61"/>
     </row>
     <row r="296" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B296" s="37" t="s">
+      <c r="B296" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C296" s="37"/>
-      <c r="D296" s="37">
+      <c r="C296" s="31"/>
+      <c r="D296" s="31">
         <v>1</v>
       </c>
-      <c r="E296" s="37"/>
-      <c r="F296" s="44" t="s">
+      <c r="E296" s="31"/>
+      <c r="F296" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G296" s="44"/>
-      <c r="H296" s="45"/>
-      <c r="I296" s="46"/>
-      <c r="N296" s="37" t="s">
+      <c r="G296" s="34"/>
+      <c r="H296" s="39"/>
+      <c r="I296" s="33"/>
+      <c r="N296" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="O296" s="37"/>
-      <c r="P296" s="37">
+      <c r="O296" s="31"/>
+      <c r="P296" s="31">
         <v>1</v>
       </c>
-      <c r="Q296" s="37"/>
-      <c r="R296" s="44" t="s">
+      <c r="Q296" s="31"/>
+      <c r="R296" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S296" s="44"/>
-      <c r="T296" s="48"/>
+      <c r="S296" s="34"/>
+      <c r="T296" s="41"/>
       <c r="U296" s="51"/>
     </row>
     <row r="297" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B297" s="25"/>
-      <c r="C297" s="25"/>
-      <c r="D297" s="25"/>
-      <c r="E297" s="25"/>
-      <c r="F297" s="26"/>
-      <c r="G297" s="26"/>
+      <c r="B297" s="35"/>
+      <c r="C297" s="35"/>
+      <c r="D297" s="35"/>
+      <c r="E297" s="35"/>
+      <c r="F297" s="36"/>
+      <c r="G297" s="36"/>
       <c r="T297" s="52"/>
       <c r="U297" s="52"/>
     </row>
@@ -37954,65 +37935,65 @@
       </c>
     </row>
     <row r="327" spans="2:21">
-      <c r="B327" s="36" t="s">
+      <c r="B327" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C327" s="36"/>
-      <c r="N327" s="36" t="s">
+      <c r="C327" s="32"/>
+      <c r="N327" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O327" s="36"/>
+      <c r="O327" s="32"/>
     </row>
     <row r="328" spans="2:21">
-      <c r="B328" s="37" t="s">
+      <c r="B328" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C328" s="37"/>
-      <c r="N328" s="37" t="s">
+      <c r="C328" s="31"/>
+      <c r="N328" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O328" s="37"/>
+      <c r="O328" s="31"/>
     </row>
     <row r="329" spans="2:21">
-      <c r="B329" s="37" t="s">
+      <c r="B329" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C329" s="37"/>
-      <c r="N329" s="37" t="s">
+      <c r="C329" s="31"/>
+      <c r="N329" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O329" s="37"/>
-      <c r="P329" s="35"/>
+      <c r="O329" s="31"/>
+      <c r="P329" s="68"/>
     </row>
     <row r="330" spans="2:21">
-      <c r="B330" s="37" t="s">
+      <c r="B330" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C330" s="37"/>
-      <c r="N330" s="37" t="s">
+      <c r="C330" s="31"/>
+      <c r="N330" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="O330" s="37"/>
+      <c r="O330" s="31"/>
     </row>
     <row r="331" spans="2:21">
-      <c r="B331" s="37" t="s">
+      <c r="B331" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C331" s="37"/>
-      <c r="N331" s="37" t="s">
+      <c r="C331" s="31"/>
+      <c r="N331" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="O331" s="37"/>
+      <c r="O331" s="31"/>
     </row>
     <row r="332" spans="2:21">
-      <c r="B332" s="37" t="s">
+      <c r="B332" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C332" s="37"/>
-      <c r="N332" s="37" t="s">
+      <c r="C332" s="31"/>
+      <c r="N332" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O332" s="37"/>
+      <c r="O332" s="31"/>
     </row>
     <row r="333" spans="2:21">
       <c r="B333" t="s">
@@ -38023,214 +38004,214 @@
       </c>
     </row>
     <row r="334" spans="2:21">
-      <c r="B334" s="36" t="s">
+      <c r="B334" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C334" s="36"/>
-      <c r="D334" s="36" t="s">
+      <c r="C334" s="32"/>
+      <c r="D334" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E334" s="36"/>
-      <c r="F334" s="36" t="s">
+      <c r="E334" s="32"/>
+      <c r="F334" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G334" s="36"/>
-      <c r="H334" s="47"/>
-      <c r="I334" s="48"/>
-      <c r="N334" s="36" t="s">
+      <c r="G334" s="32"/>
+      <c r="H334" s="40"/>
+      <c r="I334" s="41"/>
+      <c r="N334" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O334" s="36"/>
-      <c r="P334" s="36" t="s">
+      <c r="O334" s="32"/>
+      <c r="P334" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Q334" s="36"/>
-      <c r="R334" s="36" t="s">
+      <c r="Q334" s="32"/>
+      <c r="R334" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S334" s="36"/>
-      <c r="T334" s="29"/>
-      <c r="U334" s="30"/>
+      <c r="S334" s="32"/>
+      <c r="T334" s="46"/>
+      <c r="U334" s="55"/>
     </row>
     <row r="335" spans="2:21">
-      <c r="B335" s="37" t="s">
+      <c r="B335" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C335" s="37"/>
-      <c r="D335" s="37" t="s">
+      <c r="C335" s="31"/>
+      <c r="D335" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E335" s="37"/>
-      <c r="F335" s="44" t="s">
+      <c r="E335" s="31"/>
+      <c r="F335" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G335" s="44"/>
-      <c r="H335" s="45"/>
-      <c r="I335" s="46"/>
-      <c r="N335" s="53" t="s">
+      <c r="G335" s="34"/>
+      <c r="H335" s="39"/>
+      <c r="I335" s="33"/>
+      <c r="N335" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="O335" s="53"/>
-      <c r="P335" s="53" t="s">
+      <c r="O335" s="62"/>
+      <c r="P335" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="Q335" s="53"/>
-      <c r="R335" s="54" t="s">
+      <c r="Q335" s="62"/>
+      <c r="R335" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="S335" s="54"/>
-      <c r="T335" s="28"/>
-      <c r="U335" s="27"/>
+      <c r="S335" s="63"/>
+      <c r="T335" s="45"/>
+      <c r="U335" s="44"/>
     </row>
     <row r="336" spans="2:21">
-      <c r="B336" s="37" t="s">
+      <c r="B336" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C336" s="37"/>
-      <c r="D336" s="37" t="s">
+      <c r="C336" s="31"/>
+      <c r="D336" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E336" s="37"/>
-      <c r="F336" s="44" t="s">
+      <c r="E336" s="31"/>
+      <c r="F336" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G336" s="44"/>
-      <c r="H336" s="45"/>
-      <c r="I336" s="46"/>
-      <c r="N336" s="55" t="s">
+      <c r="G336" s="34"/>
+      <c r="H336" s="39"/>
+      <c r="I336" s="33"/>
+      <c r="N336" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="O336" s="55"/>
-      <c r="P336" s="37" t="s">
+      <c r="O336" s="66"/>
+      <c r="P336" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="Q336" s="37"/>
-      <c r="R336" s="56" t="s">
+      <c r="Q336" s="31"/>
+      <c r="R336" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="S336" s="56"/>
-      <c r="T336" s="28"/>
-      <c r="U336" s="27"/>
+      <c r="S336" s="67"/>
+      <c r="T336" s="45"/>
+      <c r="U336" s="44"/>
     </row>
     <row r="337" spans="2:21">
-      <c r="B337" s="37" t="s">
+      <c r="B337" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C337" s="37"/>
-      <c r="D337" s="37" t="s">
+      <c r="C337" s="31"/>
+      <c r="D337" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E337" s="37"/>
-      <c r="F337" s="44" t="s">
+      <c r="E337" s="31"/>
+      <c r="F337" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G337" s="44"/>
-      <c r="H337" s="45"/>
-      <c r="I337" s="46"/>
-      <c r="N337" s="37" t="s">
+      <c r="G337" s="34"/>
+      <c r="H337" s="39"/>
+      <c r="I337" s="33"/>
+      <c r="N337" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="O337" s="37"/>
-      <c r="P337" s="37" t="s">
+      <c r="O337" s="31"/>
+      <c r="P337" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="Q337" s="37"/>
-      <c r="R337" s="44" t="s">
+      <c r="Q337" s="31"/>
+      <c r="R337" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S337" s="44"/>
-      <c r="T337" s="28"/>
-      <c r="U337" s="27"/>
+      <c r="S337" s="34"/>
+      <c r="T337" s="45"/>
+      <c r="U337" s="44"/>
     </row>
     <row r="338" spans="2:21">
-      <c r="B338" s="37" t="s">
+      <c r="B338" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C338" s="37"/>
-      <c r="D338" s="37" t="s">
+      <c r="C338" s="31"/>
+      <c r="D338" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="E338" s="37"/>
-      <c r="F338" s="44" t="s">
+      <c r="E338" s="31"/>
+      <c r="F338" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G338" s="44"/>
-      <c r="H338" s="31"/>
-      <c r="I338" s="32"/>
-      <c r="N338" s="37" t="s">
+      <c r="G338" s="34"/>
+      <c r="H338" s="56"/>
+      <c r="I338" s="57"/>
+      <c r="N338" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="O338" s="37"/>
-      <c r="P338" s="37" t="s">
+      <c r="O338" s="31"/>
+      <c r="P338" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="Q338" s="37"/>
-      <c r="R338" s="44" t="s">
+      <c r="Q338" s="31"/>
+      <c r="R338" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S338" s="44"/>
-      <c r="T338" s="28"/>
-      <c r="U338" s="27"/>
+      <c r="S338" s="34"/>
+      <c r="T338" s="45"/>
+      <c r="U338" s="44"/>
     </row>
     <row r="339" spans="2:21">
-      <c r="B339" s="37" t="s">
+      <c r="B339" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C339" s="37"/>
-      <c r="D339" s="37" t="s">
+      <c r="C339" s="31"/>
+      <c r="D339" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="E339" s="37"/>
-      <c r="F339" s="44" t="s">
+      <c r="E339" s="31"/>
+      <c r="F339" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G339" s="44"/>
-      <c r="H339" s="45"/>
-      <c r="I339" s="46"/>
-      <c r="N339" s="55" t="s">
+      <c r="G339" s="34"/>
+      <c r="H339" s="39"/>
+      <c r="I339" s="33"/>
+      <c r="N339" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="O339" s="55"/>
-      <c r="P339" s="37" t="s">
+      <c r="O339" s="66"/>
+      <c r="P339" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="Q339" s="37"/>
-      <c r="R339" s="56" t="s">
+      <c r="Q339" s="31"/>
+      <c r="R339" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="S339" s="56"/>
-      <c r="T339" s="28"/>
-      <c r="U339" s="27"/>
+      <c r="S339" s="67"/>
+      <c r="T339" s="45"/>
+      <c r="U339" s="44"/>
     </row>
     <row r="340" spans="2:21">
-      <c r="B340" s="37" t="s">
+      <c r="B340" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C340" s="37"/>
-      <c r="D340" s="37" t="s">
+      <c r="C340" s="31"/>
+      <c r="D340" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="E340" s="37"/>
-      <c r="F340" s="44" t="s">
+      <c r="E340" s="31"/>
+      <c r="F340" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G340" s="44"/>
-      <c r="H340" s="45"/>
-      <c r="I340" s="46"/>
-      <c r="N340" s="55" t="s">
+      <c r="G340" s="34"/>
+      <c r="H340" s="39"/>
+      <c r="I340" s="33"/>
+      <c r="N340" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="O340" s="55"/>
-      <c r="P340" s="37" t="s">
+      <c r="O340" s="66"/>
+      <c r="P340" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="Q340" s="37"/>
-      <c r="R340" s="56" t="s">
+      <c r="Q340" s="31"/>
+      <c r="R340" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="S340" s="56"/>
-      <c r="T340" s="28"/>
-      <c r="U340" s="27"/>
+      <c r="S340" s="67"/>
+      <c r="T340" s="45"/>
+      <c r="U340" s="44"/>
     </row>
     <row r="341" spans="2:21">
       <c r="B341" t="s">
@@ -38239,106 +38220,106 @@
       <c r="N341" t="s">
         <v>68</v>
       </c>
-      <c r="T341" s="28"/>
-      <c r="U341" s="27"/>
+      <c r="T341" s="45"/>
+      <c r="U341" s="44"/>
     </row>
     <row r="342" spans="2:21">
-      <c r="B342" s="36" t="s">
+      <c r="B342" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C342" s="36"/>
-      <c r="D342" s="36" t="s">
+      <c r="C342" s="32"/>
+      <c r="D342" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E342" s="36"/>
-      <c r="F342" s="36" t="s">
+      <c r="E342" s="32"/>
+      <c r="F342" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G342" s="36"/>
-      <c r="H342" s="45"/>
-      <c r="I342" s="46"/>
-      <c r="N342" s="36" t="s">
+      <c r="G342" s="32"/>
+      <c r="H342" s="39"/>
+      <c r="I342" s="33"/>
+      <c r="N342" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="O342" s="36"/>
-      <c r="P342" s="36" t="s">
+      <c r="O342" s="32"/>
+      <c r="P342" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="Q342" s="36"/>
-      <c r="R342" s="36" t="s">
+      <c r="Q342" s="32"/>
+      <c r="R342" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S342" s="36"/>
-      <c r="T342" s="33"/>
-      <c r="U342" s="34"/>
+      <c r="S342" s="32"/>
+      <c r="T342" s="60"/>
+      <c r="U342" s="61"/>
     </row>
     <row r="343" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B343" s="37" t="s">
+      <c r="B343" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C343" s="37"/>
-      <c r="D343" s="37">
+      <c r="C343" s="31"/>
+      <c r="D343" s="31">
         <v>1</v>
       </c>
-      <c r="E343" s="37"/>
-      <c r="F343" s="44" t="s">
+      <c r="E343" s="31"/>
+      <c r="F343" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G343" s="44"/>
-      <c r="H343" s="45"/>
-      <c r="I343" s="46"/>
-      <c r="N343" s="37" t="s">
+      <c r="G343" s="34"/>
+      <c r="H343" s="39"/>
+      <c r="I343" s="33"/>
+      <c r="N343" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="O343" s="37"/>
-      <c r="P343" s="37">
+      <c r="O343" s="31"/>
+      <c r="P343" s="31">
         <v>1</v>
       </c>
-      <c r="Q343" s="37"/>
-      <c r="R343" s="44" t="s">
+      <c r="Q343" s="31"/>
+      <c r="R343" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S343" s="44"/>
-      <c r="T343" s="48"/>
+      <c r="S343" s="34"/>
+      <c r="T343" s="41"/>
       <c r="U343" s="51"/>
     </row>
     <row r="344" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B344" s="37" t="s">
+      <c r="B344" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C344" s="37"/>
-      <c r="D344" s="37">
+      <c r="C344" s="31"/>
+      <c r="D344" s="31">
         <v>1</v>
       </c>
-      <c r="E344" s="37"/>
-      <c r="F344" s="44" t="s">
+      <c r="E344" s="31"/>
+      <c r="F344" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G344" s="44"/>
-      <c r="H344" s="45"/>
-      <c r="I344" s="46"/>
-      <c r="N344" s="37" t="s">
+      <c r="G344" s="34"/>
+      <c r="H344" s="39"/>
+      <c r="I344" s="33"/>
+      <c r="N344" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="O344" s="37"/>
-      <c r="P344" s="37">
+      <c r="O344" s="31"/>
+      <c r="P344" s="31">
         <v>1</v>
       </c>
-      <c r="Q344" s="37"/>
-      <c r="R344" s="44" t="s">
+      <c r="Q344" s="31"/>
+      <c r="R344" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S344" s="44"/>
-      <c r="T344" s="48"/>
+      <c r="S344" s="34"/>
+      <c r="T344" s="41"/>
       <c r="U344" s="51"/>
     </row>
     <row r="345" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B345" s="25"/>
-      <c r="C345" s="25"/>
-      <c r="D345" s="25"/>
-      <c r="E345" s="25"/>
-      <c r="F345" s="26"/>
-      <c r="G345" s="26"/>
+      <c r="B345" s="35"/>
+      <c r="C345" s="35"/>
+      <c r="D345" s="35"/>
+      <c r="E345" s="35"/>
+      <c r="F345" s="36"/>
+      <c r="G345" s="36"/>
       <c r="T345" s="52"/>
       <c r="U345" s="52"/>
     </row>
@@ -38377,22 +38358,22 @@
       <c r="O352" s="24"/>
     </row>
     <row r="353" spans="2:15" ht="66" customHeight="1">
-      <c r="B353" s="38" t="s">
+      <c r="B353" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C353" s="41"/>
-      <c r="D353" s="41"/>
-      <c r="E353" s="41"/>
-      <c r="F353" s="41"/>
-      <c r="G353" s="41"/>
-      <c r="H353" s="41"/>
-      <c r="I353" s="41"/>
-      <c r="J353" s="41"/>
-      <c r="K353" s="41"/>
-      <c r="L353" s="41"/>
-      <c r="M353" s="41"/>
-      <c r="N353" s="41"/>
-      <c r="O353" s="42"/>
+      <c r="C353" s="28"/>
+      <c r="D353" s="28"/>
+      <c r="E353" s="28"/>
+      <c r="F353" s="28"/>
+      <c r="G353" s="28"/>
+      <c r="H353" s="28"/>
+      <c r="I353" s="28"/>
+      <c r="J353" s="28"/>
+      <c r="K353" s="28"/>
+      <c r="L353" s="28"/>
+      <c r="M353" s="28"/>
+      <c r="N353" s="28"/>
+      <c r="O353" s="29"/>
     </row>
     <row r="355" spans="2:15">
       <c r="B355" s="22" t="s">
@@ -38413,22 +38394,22 @@
       <c r="O355" s="24"/>
     </row>
     <row r="356" spans="2:15" ht="30.75" customHeight="1">
-      <c r="B356" s="43" t="s">
+      <c r="B356" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C356" s="39"/>
-      <c r="D356" s="39"/>
-      <c r="E356" s="39"/>
-      <c r="F356" s="39"/>
-      <c r="G356" s="39"/>
-      <c r="H356" s="39"/>
-      <c r="I356" s="39"/>
-      <c r="J356" s="39"/>
-      <c r="K356" s="39"/>
-      <c r="L356" s="39"/>
-      <c r="M356" s="39"/>
-      <c r="N356" s="39"/>
-      <c r="O356" s="40"/>
+      <c r="C356" s="26"/>
+      <c r="D356" s="26"/>
+      <c r="E356" s="26"/>
+      <c r="F356" s="26"/>
+      <c r="G356" s="26"/>
+      <c r="H356" s="26"/>
+      <c r="I356" s="26"/>
+      <c r="J356" s="26"/>
+      <c r="K356" s="26"/>
+      <c r="L356" s="26"/>
+      <c r="M356" s="26"/>
+      <c r="N356" s="26"/>
+      <c r="O356" s="27"/>
     </row>
     <row r="357" spans="2:15">
       <c r="B357" s="22" t="s">
@@ -38449,22 +38430,22 @@
       <c r="O357" s="24"/>
     </row>
     <row r="358" spans="2:15" ht="64.5" customHeight="1">
-      <c r="B358" s="38" t="s">
+      <c r="B358" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C358" s="39"/>
-      <c r="D358" s="39"/>
-      <c r="E358" s="39"/>
-      <c r="F358" s="39"/>
-      <c r="G358" s="39"/>
-      <c r="H358" s="39"/>
-      <c r="I358" s="39"/>
-      <c r="J358" s="39"/>
-      <c r="K358" s="39"/>
-      <c r="L358" s="39"/>
-      <c r="M358" s="39"/>
-      <c r="N358" s="39"/>
-      <c r="O358" s="40"/>
+      <c r="C358" s="26"/>
+      <c r="D358" s="26"/>
+      <c r="E358" s="26"/>
+      <c r="F358" s="26"/>
+      <c r="G358" s="26"/>
+      <c r="H358" s="26"/>
+      <c r="I358" s="26"/>
+      <c r="J358" s="26"/>
+      <c r="K358" s="26"/>
+      <c r="L358" s="26"/>
+      <c r="M358" s="26"/>
+      <c r="N358" s="26"/>
+      <c r="O358" s="27"/>
     </row>
     <row r="359" spans="2:15">
       <c r="B359" s="22" t="s">
@@ -38485,22 +38466,22 @@
       <c r="O359" s="24"/>
     </row>
     <row r="360" spans="2:15" ht="66.75" customHeight="1">
-      <c r="B360" s="38" t="s">
+      <c r="B360" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C360" s="39"/>
-      <c r="D360" s="39"/>
-      <c r="E360" s="39"/>
-      <c r="F360" s="39"/>
-      <c r="G360" s="39"/>
-      <c r="H360" s="39"/>
-      <c r="I360" s="39"/>
-      <c r="J360" s="39"/>
-      <c r="K360" s="39"/>
-      <c r="L360" s="39"/>
-      <c r="M360" s="39"/>
-      <c r="N360" s="39"/>
-      <c r="O360" s="40"/>
+      <c r="C360" s="26"/>
+      <c r="D360" s="26"/>
+      <c r="E360" s="26"/>
+      <c r="F360" s="26"/>
+      <c r="G360" s="26"/>
+      <c r="H360" s="26"/>
+      <c r="I360" s="26"/>
+      <c r="J360" s="26"/>
+      <c r="K360" s="26"/>
+      <c r="L360" s="26"/>
+      <c r="M360" s="26"/>
+      <c r="N360" s="26"/>
+      <c r="O360" s="27"/>
     </row>
     <row r="361" spans="2:15">
       <c r="B361" s="22" t="s">
@@ -38521,22 +38502,22 @@
       <c r="O361" s="24"/>
     </row>
     <row r="362" spans="2:15" ht="61.5" customHeight="1">
-      <c r="B362" s="38" t="s">
+      <c r="B362" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C362" s="39"/>
-      <c r="D362" s="39"/>
-      <c r="E362" s="39"/>
-      <c r="F362" s="39"/>
-      <c r="G362" s="39"/>
-      <c r="H362" s="39"/>
-      <c r="I362" s="39"/>
-      <c r="J362" s="39"/>
-      <c r="K362" s="39"/>
-      <c r="L362" s="39"/>
-      <c r="M362" s="39"/>
-      <c r="N362" s="39"/>
-      <c r="O362" s="40"/>
+      <c r="C362" s="26"/>
+      <c r="D362" s="26"/>
+      <c r="E362" s="26"/>
+      <c r="F362" s="26"/>
+      <c r="G362" s="26"/>
+      <c r="H362" s="26"/>
+      <c r="I362" s="26"/>
+      <c r="J362" s="26"/>
+      <c r="K362" s="26"/>
+      <c r="L362" s="26"/>
+      <c r="M362" s="26"/>
+      <c r="N362" s="26"/>
+      <c r="O362" s="27"/>
     </row>
     <row r="363" spans="2:15">
       <c r="B363" s="22" t="s">
@@ -38557,22 +38538,22 @@
       <c r="O363" s="24"/>
     </row>
     <row r="364" spans="2:15" ht="66.75" customHeight="1">
-      <c r="B364" s="38" t="s">
+      <c r="B364" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C364" s="39"/>
-      <c r="D364" s="39"/>
-      <c r="E364" s="39"/>
-      <c r="F364" s="39"/>
-      <c r="G364" s="39"/>
-      <c r="H364" s="39"/>
-      <c r="I364" s="39"/>
-      <c r="J364" s="39"/>
-      <c r="K364" s="39"/>
-      <c r="L364" s="39"/>
-      <c r="M364" s="39"/>
-      <c r="N364" s="39"/>
-      <c r="O364" s="40"/>
+      <c r="C364" s="26"/>
+      <c r="D364" s="26"/>
+      <c r="E364" s="26"/>
+      <c r="F364" s="26"/>
+      <c r="G364" s="26"/>
+      <c r="H364" s="26"/>
+      <c r="I364" s="26"/>
+      <c r="J364" s="26"/>
+      <c r="K364" s="26"/>
+      <c r="L364" s="26"/>
+      <c r="M364" s="26"/>
+      <c r="N364" s="26"/>
+      <c r="O364" s="27"/>
     </row>
     <row r="365" spans="2:15">
       <c r="B365" s="22" t="s">
@@ -38593,22 +38574,22 @@
       <c r="O365" s="24"/>
     </row>
     <row r="366" spans="2:15" ht="67.5" customHeight="1">
-      <c r="B366" s="38" t="s">
+      <c r="B366" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C366" s="39"/>
-      <c r="D366" s="39"/>
-      <c r="E366" s="39"/>
-      <c r="F366" s="39"/>
-      <c r="G366" s="39"/>
-      <c r="H366" s="39"/>
-      <c r="I366" s="39"/>
-      <c r="J366" s="39"/>
-      <c r="K366" s="39"/>
-      <c r="L366" s="39"/>
-      <c r="M366" s="39"/>
-      <c r="N366" s="39"/>
-      <c r="O366" s="40"/>
+      <c r="C366" s="26"/>
+      <c r="D366" s="26"/>
+      <c r="E366" s="26"/>
+      <c r="F366" s="26"/>
+      <c r="G366" s="26"/>
+      <c r="H366" s="26"/>
+      <c r="I366" s="26"/>
+      <c r="J366" s="26"/>
+      <c r="K366" s="26"/>
+      <c r="L366" s="26"/>
+      <c r="M366" s="26"/>
+      <c r="N366" s="26"/>
+      <c r="O366" s="27"/>
     </row>
     <row r="367" spans="2:15">
       <c r="B367" s="22" t="s">
@@ -38629,22 +38610,22 @@
       <c r="O367" s="24"/>
     </row>
     <row r="368" spans="2:15" ht="54" customHeight="1">
-      <c r="B368" s="38" t="s">
+      <c r="B368" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C368" s="39"/>
-      <c r="D368" s="39"/>
-      <c r="E368" s="39"/>
-      <c r="F368" s="39"/>
-      <c r="G368" s="39"/>
-      <c r="H368" s="39"/>
-      <c r="I368" s="39"/>
-      <c r="J368" s="39"/>
-      <c r="K368" s="39"/>
-      <c r="L368" s="39"/>
-      <c r="M368" s="39"/>
-      <c r="N368" s="39"/>
-      <c r="O368" s="40"/>
+      <c r="C368" s="26"/>
+      <c r="D368" s="26"/>
+      <c r="E368" s="26"/>
+      <c r="F368" s="26"/>
+      <c r="G368" s="26"/>
+      <c r="H368" s="26"/>
+      <c r="I368" s="26"/>
+      <c r="J368" s="26"/>
+      <c r="K368" s="26"/>
+      <c r="L368" s="26"/>
+      <c r="M368" s="26"/>
+      <c r="N368" s="26"/>
+      <c r="O368" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="482">
@@ -38946,6 +38927,8 @@
     <mergeCell ref="N202:O202"/>
     <mergeCell ref="B203:C203"/>
     <mergeCell ref="N203:O203"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="N152:O152"/>
     <mergeCell ref="B199:C199"/>
     <mergeCell ref="N199:O199"/>
     <mergeCell ref="B200:C200"/>
@@ -38961,13 +38944,6 @@
     <mergeCell ref="B166:C166"/>
     <mergeCell ref="D166:E166"/>
     <mergeCell ref="F166:G166"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="N164:O164"/>
-    <mergeCell ref="P158:Q158"/>
-    <mergeCell ref="R158:S158"/>
-    <mergeCell ref="B159:C159"/>
     <mergeCell ref="T165:U165"/>
     <mergeCell ref="T167:U167"/>
     <mergeCell ref="B161:C161"/>
@@ -38992,6 +38968,13 @@
     <mergeCell ref="P165:Q165"/>
     <mergeCell ref="R165:S165"/>
     <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="N164:O164"/>
+    <mergeCell ref="P158:Q158"/>
+    <mergeCell ref="R158:S158"/>
+    <mergeCell ref="B159:C159"/>
     <mergeCell ref="D159:E159"/>
     <mergeCell ref="F159:G159"/>
     <mergeCell ref="H159:I159"/>
@@ -39025,8 +39008,6 @@
     <mergeCell ref="N150:O150"/>
     <mergeCell ref="B151:C151"/>
     <mergeCell ref="N151:O151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="N152:O152"/>
     <mergeCell ref="P116:Q116"/>
     <mergeCell ref="R116:S116"/>
     <mergeCell ref="T116:U116"/>
@@ -39073,6 +39054,11 @@
     <mergeCell ref="F110:G110"/>
     <mergeCell ref="H110:I110"/>
     <mergeCell ref="N110:O110"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="B107:C107"/>
     <mergeCell ref="N107:O107"/>
     <mergeCell ref="T76:U76"/>
     <mergeCell ref="N76:O76"/>
@@ -39083,6 +39069,11 @@
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="H76:I76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="N75:O75"/>
     <mergeCell ref="P75:Q75"/>
     <mergeCell ref="R75:S75"/>
     <mergeCell ref="P73:Q73"/>
@@ -39120,16 +39111,6 @@
     <mergeCell ref="B360:O360"/>
     <mergeCell ref="B362:O362"/>
     <mergeCell ref="B364:O364"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="B107:C107"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -39138,12 +39119,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U266"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -39398,54 +39379,54 @@
       </c>
     </row>
     <row r="57" spans="2:21">
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="N57" s="36" t="s">
+      <c r="C57" s="32"/>
+      <c r="N57" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O57" s="36"/>
+      <c r="O57" s="32"/>
     </row>
     <row r="58" spans="2:21">
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="37"/>
-      <c r="N58" s="37" t="s">
+      <c r="C58" s="31"/>
+      <c r="N58" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O58" s="37"/>
+      <c r="O58" s="31"/>
     </row>
     <row r="59" spans="2:21">
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="37"/>
-      <c r="N59" s="37" t="s">
+      <c r="C59" s="31"/>
+      <c r="N59" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O59" s="37"/>
+      <c r="O59" s="31"/>
     </row>
     <row r="60" spans="2:21">
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="37"/>
-      <c r="N60" s="37" t="s">
+      <c r="C60" s="31"/>
+      <c r="N60" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O60" s="37"/>
+      <c r="O60" s="31"/>
     </row>
     <row r="61" spans="2:21">
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="37"/>
-      <c r="N61" s="37" t="s">
+      <c r="C61" s="31"/>
+      <c r="N61" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="O61" s="37"/>
+      <c r="O61" s="31"/>
     </row>
     <row r="62" spans="2:21">
       <c r="B62" t="s">
@@ -39456,232 +39437,232 @@
       </c>
     </row>
     <row r="63" spans="2:21">
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36" t="s">
+      <c r="C63" s="32"/>
+      <c r="D63" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36" t="s">
+      <c r="E63" s="32"/>
+      <c r="F63" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G63" s="36"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="48"/>
-      <c r="N63" s="36" t="s">
+      <c r="G63" s="32"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="41"/>
+      <c r="N63" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36" t="s">
+      <c r="O63" s="32"/>
+      <c r="P63" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36" t="s">
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S63" s="36"/>
-      <c r="T63" s="29"/>
-      <c r="U63" s="30"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="55"/>
     </row>
     <row r="64" spans="2:21">
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37" t="s">
+      <c r="C64" s="31"/>
+      <c r="D64" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E64" s="37"/>
-      <c r="F64" s="44" t="s">
+      <c r="E64" s="31"/>
+      <c r="F64" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="44"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="46"/>
-      <c r="N64" s="37" t="s">
+      <c r="G64" s="34"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="33"/>
+      <c r="N64" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37" t="s">
+      <c r="O64" s="31"/>
+      <c r="P64" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="44" t="s">
+      <c r="Q64" s="31"/>
+      <c r="R64" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S64" s="44"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="27"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="45"/>
+      <c r="U64" s="44"/>
     </row>
     <row r="65" spans="2:21">
-      <c r="B65" s="37" t="s">
+      <c r="B65" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37" t="s">
+      <c r="C65" s="31"/>
+      <c r="D65" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E65" s="37"/>
-      <c r="F65" s="44" t="s">
+      <c r="E65" s="31"/>
+      <c r="F65" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G65" s="44"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="46"/>
-      <c r="N65" s="37" t="s">
+      <c r="G65" s="34"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="33"/>
+      <c r="N65" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37" t="s">
+      <c r="O65" s="31"/>
+      <c r="P65" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="44" t="s">
+      <c r="Q65" s="31"/>
+      <c r="R65" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S65" s="44"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="27"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="44"/>
     </row>
     <row r="66" spans="2:21">
-      <c r="B66" s="37" t="s">
+      <c r="B66" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37" t="s">
+      <c r="C66" s="31"/>
+      <c r="D66" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E66" s="37"/>
-      <c r="F66" s="44" t="s">
+      <c r="E66" s="31"/>
+      <c r="F66" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G66" s="44"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="46"/>
-      <c r="N66" s="37" t="s">
+      <c r="G66" s="34"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="33"/>
+      <c r="N66" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37" t="s">
+      <c r="O66" s="31"/>
+      <c r="P66" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="44" t="s">
+      <c r="Q66" s="31"/>
+      <c r="R66" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S66" s="44"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="27"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="44"/>
     </row>
     <row r="67" spans="2:21">
       <c r="B67" t="s">
         <v>68</v>
       </c>
-      <c r="N67" s="60" t="s">
+      <c r="N67" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="O67" s="61"/>
-      <c r="P67" s="60" t="s">
+      <c r="O67" s="54"/>
+      <c r="P67" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="Q67" s="61"/>
-      <c r="R67" s="62" t="s">
+      <c r="Q67" s="54"/>
+      <c r="R67" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="S67" s="63"/>
-      <c r="T67" s="28"/>
-      <c r="U67" s="27"/>
+      <c r="S67" s="59"/>
+      <c r="T67" s="45"/>
+      <c r="U67" s="44"/>
     </row>
     <row r="68" spans="2:21">
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36" t="s">
+      <c r="C68" s="32"/>
+      <c r="D68" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36" t="s">
+      <c r="E68" s="32"/>
+      <c r="F68" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36" t="s">
+      <c r="G68" s="32"/>
+      <c r="H68" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I68" s="36"/>
+      <c r="I68" s="32"/>
       <c r="N68" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B69" s="37" t="s">
+      <c r="B69" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37">
+      <c r="C69" s="31"/>
+      <c r="D69" s="31">
         <v>1</v>
       </c>
-      <c r="E69" s="37"/>
-      <c r="F69" s="44" t="s">
+      <c r="E69" s="31"/>
+      <c r="F69" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="44"/>
-      <c r="H69" s="37" t="s">
+      <c r="G69" s="34"/>
+      <c r="H69" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I69" s="37"/>
-      <c r="N69" s="36" t="s">
+      <c r="I69" s="31"/>
+      <c r="N69" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36" t="s">
+      <c r="O69" s="32"/>
+      <c r="P69" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36" t="s">
+      <c r="Q69" s="32"/>
+      <c r="R69" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36" t="s">
+      <c r="S69" s="32"/>
+      <c r="T69" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="U69" s="36"/>
+      <c r="U69" s="32"/>
     </row>
     <row r="70" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="N70" s="37" t="s">
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="N70" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37">
+      <c r="O70" s="31"/>
+      <c r="P70" s="31">
         <v>1</v>
       </c>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="44" t="s">
+      <c r="Q70" s="31"/>
+      <c r="R70" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S70" s="44"/>
-      <c r="T70" s="57" t="s">
+      <c r="S70" s="34"/>
+      <c r="T70" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="U70" s="57"/>
+      <c r="U70" s="43"/>
     </row>
     <row r="72" spans="2:21">
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="25"/>
-      <c r="Q72" s="25"/>
-      <c r="R72" s="26"/>
-      <c r="S72" s="26"/>
-      <c r="T72" s="27"/>
-      <c r="U72" s="27"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="44"/>
+      <c r="U72" s="44"/>
     </row>
     <row r="73" spans="2:21">
       <c r="B73" s="2" t="s">
@@ -39704,433 +39685,433 @@
       </c>
     </row>
     <row r="131" spans="2:21">
-      <c r="B131" s="36" t="s">
+      <c r="B131" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C131" s="36"/>
+      <c r="C131" s="32"/>
       <c r="N131" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="132" spans="2:21">
-      <c r="B132" s="37" t="s">
+      <c r="B132" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C132" s="37"/>
-      <c r="N132" s="58" t="s">
+      <c r="C132" s="31"/>
+      <c r="N132" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O132" s="59"/>
+      <c r="O132" s="38"/>
     </row>
     <row r="133" spans="2:21">
-      <c r="B133" s="37" t="s">
+      <c r="B133" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C133" s="37"/>
-      <c r="N133" s="64" t="s">
+      <c r="C133" s="31"/>
+      <c r="N133" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="O133" s="65"/>
+      <c r="O133" s="48"/>
     </row>
     <row r="134" spans="2:21">
-      <c r="B134" s="37" t="s">
+      <c r="B134" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C134" s="37"/>
-      <c r="N134" s="64" t="s">
+      <c r="C134" s="31"/>
+      <c r="N134" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="O134" s="65"/>
+      <c r="O134" s="48"/>
     </row>
     <row r="135" spans="2:21">
-      <c r="B135" s="37" t="s">
+      <c r="B135" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C135" s="37"/>
-      <c r="N135" s="64" t="s">
+      <c r="C135" s="31"/>
+      <c r="N135" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="O135" s="65"/>
+      <c r="O135" s="48"/>
     </row>
     <row r="136" spans="2:21">
-      <c r="B136" s="37" t="s">
+      <c r="B136" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C136" s="37"/>
-      <c r="N136" s="64" t="s">
+      <c r="C136" s="31"/>
+      <c r="N136" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="O136" s="65"/>
+      <c r="O136" s="48"/>
     </row>
     <row r="137" spans="2:21">
-      <c r="B137" s="37" t="s">
+      <c r="B137" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C137" s="37"/>
-      <c r="N137" s="64" t="s">
+      <c r="C137" s="31"/>
+      <c r="N137" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="O137" s="65"/>
+      <c r="O137" s="48"/>
     </row>
     <row r="138" spans="2:21">
       <c r="B138" t="s">
         <v>65</v>
       </c>
-      <c r="N138" s="64" t="s">
+      <c r="N138" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="O138" s="65"/>
+      <c r="O138" s="48"/>
     </row>
     <row r="139" spans="2:21">
-      <c r="B139" s="36" t="s">
+      <c r="B139" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C139" s="36"/>
-      <c r="D139" s="36" t="s">
+      <c r="C139" s="32"/>
+      <c r="D139" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E139" s="36"/>
-      <c r="F139" s="36" t="s">
+      <c r="E139" s="32"/>
+      <c r="F139" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G139" s="36"/>
-      <c r="H139" s="47"/>
-      <c r="I139" s="48"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="40"/>
+      <c r="I139" s="41"/>
       <c r="N139" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="140" spans="2:21">
-      <c r="B140" s="37" t="s">
+      <c r="B140" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37" t="s">
+      <c r="C140" s="31"/>
+      <c r="D140" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E140" s="37"/>
-      <c r="F140" s="44" t="s">
+      <c r="E140" s="31"/>
+      <c r="F140" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G140" s="44"/>
-      <c r="H140" s="45"/>
-      <c r="I140" s="46"/>
-      <c r="N140" s="58" t="s">
+      <c r="G140" s="34"/>
+      <c r="H140" s="39"/>
+      <c r="I140" s="33"/>
+      <c r="N140" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O140" s="59"/>
-      <c r="P140" s="58" t="s">
+      <c r="O140" s="38"/>
+      <c r="P140" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q140" s="59"/>
-      <c r="R140" s="58" t="s">
+      <c r="Q140" s="38"/>
+      <c r="R140" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S140" s="59"/>
-      <c r="T140" s="48"/>
+      <c r="S140" s="38"/>
+      <c r="T140" s="41"/>
       <c r="U140" s="51"/>
     </row>
     <row r="141" spans="2:21">
-      <c r="B141" s="37" t="s">
+      <c r="B141" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C141" s="37"/>
-      <c r="D141" s="37" t="s">
+      <c r="C141" s="31"/>
+      <c r="D141" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E141" s="37"/>
-      <c r="F141" s="44" t="s">
+      <c r="E141" s="31"/>
+      <c r="F141" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G141" s="44"/>
-      <c r="H141" s="45"/>
-      <c r="I141" s="46"/>
-      <c r="N141" s="64" t="s">
+      <c r="G141" s="34"/>
+      <c r="H141" s="39"/>
+      <c r="I141" s="33"/>
+      <c r="N141" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="O141" s="65"/>
-      <c r="P141" s="64" t="s">
+      <c r="O141" s="48"/>
+      <c r="P141" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="Q141" s="65"/>
-      <c r="R141" s="66" t="s">
+      <c r="Q141" s="48"/>
+      <c r="R141" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="S141" s="67"/>
-      <c r="T141" s="68"/>
+      <c r="S141" s="50"/>
+      <c r="T141" s="42"/>
       <c r="U141" s="52"/>
     </row>
     <row r="142" spans="2:21">
-      <c r="B142" s="37" t="s">
+      <c r="B142" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37" t="s">
+      <c r="C142" s="31"/>
+      <c r="D142" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E142" s="37"/>
-      <c r="F142" s="44" t="s">
+      <c r="E142" s="31"/>
+      <c r="F142" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G142" s="44"/>
-      <c r="H142" s="45"/>
-      <c r="I142" s="46"/>
-      <c r="N142" s="64" t="s">
+      <c r="G142" s="34"/>
+      <c r="H142" s="39"/>
+      <c r="I142" s="33"/>
+      <c r="N142" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="O142" s="65"/>
-      <c r="P142" s="64" t="s">
+      <c r="O142" s="48"/>
+      <c r="P142" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="Q142" s="65"/>
-      <c r="R142" s="66" t="s">
+      <c r="Q142" s="48"/>
+      <c r="R142" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="S142" s="67"/>
-      <c r="T142" s="68"/>
+      <c r="S142" s="50"/>
+      <c r="T142" s="42"/>
       <c r="U142" s="52"/>
     </row>
     <row r="143" spans="2:21">
-      <c r="B143" s="37" t="s">
+      <c r="B143" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C143" s="37"/>
-      <c r="D143" s="37" t="s">
+      <c r="C143" s="31"/>
+      <c r="D143" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E143" s="37"/>
-      <c r="F143" s="44" t="s">
+      <c r="E143" s="31"/>
+      <c r="F143" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G143" s="44"/>
-      <c r="H143" s="45"/>
-      <c r="I143" s="46"/>
-      <c r="N143" s="64" t="s">
+      <c r="G143" s="34"/>
+      <c r="H143" s="39"/>
+      <c r="I143" s="33"/>
+      <c r="N143" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="O143" s="65"/>
-      <c r="P143" s="64" t="s">
+      <c r="O143" s="48"/>
+      <c r="P143" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="Q143" s="65"/>
-      <c r="R143" s="66" t="s">
+      <c r="Q143" s="48"/>
+      <c r="R143" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="S143" s="67"/>
-      <c r="T143" s="48"/>
+      <c r="S143" s="50"/>
+      <c r="T143" s="41"/>
       <c r="U143" s="51"/>
     </row>
     <row r="144" spans="2:21">
-      <c r="B144" s="37" t="s">
+      <c r="B144" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C144" s="37"/>
-      <c r="D144" s="37" t="s">
+      <c r="C144" s="31"/>
+      <c r="D144" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E144" s="37"/>
-      <c r="F144" s="44" t="s">
+      <c r="E144" s="31"/>
+      <c r="F144" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G144" s="44"/>
-      <c r="H144" s="45"/>
-      <c r="I144" s="46"/>
-      <c r="N144" s="64" t="s">
+      <c r="G144" s="34"/>
+      <c r="H144" s="39"/>
+      <c r="I144" s="33"/>
+      <c r="N144" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="O144" s="65"/>
-      <c r="P144" s="64" t="s">
+      <c r="O144" s="48"/>
+      <c r="P144" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="Q144" s="65"/>
-      <c r="R144" s="66" t="s">
+      <c r="Q144" s="48"/>
+      <c r="R144" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="S144" s="67"/>
-      <c r="T144" s="68"/>
+      <c r="S144" s="50"/>
+      <c r="T144" s="42"/>
       <c r="U144" s="52"/>
     </row>
     <row r="145" spans="2:21">
-      <c r="B145" s="37" t="s">
+      <c r="B145" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C145" s="37"/>
-      <c r="D145" s="37" t="s">
+      <c r="C145" s="31"/>
+      <c r="D145" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E145" s="37"/>
-      <c r="F145" s="44" t="s">
+      <c r="E145" s="31"/>
+      <c r="F145" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G145" s="44"/>
-      <c r="H145" s="45"/>
-      <c r="I145" s="46"/>
-      <c r="N145" s="64" t="s">
+      <c r="G145" s="34"/>
+      <c r="H145" s="39"/>
+      <c r="I145" s="33"/>
+      <c r="N145" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="O145" s="65"/>
-      <c r="P145" s="64" t="s">
+      <c r="O145" s="48"/>
+      <c r="P145" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="Q145" s="65"/>
-      <c r="R145" s="66" t="s">
+      <c r="Q145" s="48"/>
+      <c r="R145" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="S145" s="67"/>
-      <c r="T145" s="68"/>
+      <c r="S145" s="50"/>
+      <c r="T145" s="42"/>
       <c r="U145" s="52"/>
     </row>
     <row r="146" spans="2:21">
-      <c r="N146" s="64" t="s">
+      <c r="N146" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="O146" s="65"/>
-      <c r="P146" s="64" t="s">
+      <c r="O146" s="48"/>
+      <c r="P146" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="Q146" s="65"/>
-      <c r="R146" s="66" t="s">
+      <c r="Q146" s="48"/>
+      <c r="R146" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="S146" s="67"/>
-      <c r="T146" s="68"/>
+      <c r="S146" s="50"/>
+      <c r="T146" s="42"/>
       <c r="U146" s="52"/>
     </row>
     <row r="147" spans="2:21">
       <c r="B147" t="s">
         <v>68</v>
       </c>
-      <c r="N147" s="60" t="s">
+      <c r="N147" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="O147" s="61"/>
-      <c r="P147" s="60" t="s">
+      <c r="O147" s="54"/>
+      <c r="P147" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="Q147" s="61"/>
-      <c r="R147" s="62" t="s">
+      <c r="Q147" s="54"/>
+      <c r="R147" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="S147" s="63"/>
-      <c r="T147" s="68"/>
+      <c r="S147" s="59"/>
+      <c r="T147" s="42"/>
       <c r="U147" s="52"/>
     </row>
     <row r="148" spans="2:21">
-      <c r="B148" s="36" t="s">
+      <c r="B148" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C148" s="36"/>
-      <c r="D148" s="36" t="s">
+      <c r="C148" s="32"/>
+      <c r="D148" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E148" s="36"/>
-      <c r="F148" s="36" t="s">
+      <c r="E148" s="32"/>
+      <c r="F148" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G148" s="36"/>
-      <c r="H148" s="36" t="s">
+      <c r="G148" s="32"/>
+      <c r="H148" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I148" s="36"/>
+      <c r="I148" s="32"/>
       <c r="N148" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="149" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B149" s="37" t="s">
+      <c r="B149" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37">
+      <c r="C149" s="31"/>
+      <c r="D149" s="31">
         <v>1</v>
       </c>
-      <c r="E149" s="37"/>
-      <c r="F149" s="44" t="s">
+      <c r="E149" s="31"/>
+      <c r="F149" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G149" s="44"/>
-      <c r="H149" s="37" t="s">
+      <c r="G149" s="34"/>
+      <c r="H149" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I149" s="37"/>
-      <c r="N149" s="58" t="s">
+      <c r="I149" s="31"/>
+      <c r="N149" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="O149" s="59"/>
-      <c r="P149" s="58" t="s">
+      <c r="O149" s="38"/>
+      <c r="P149" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="Q149" s="59"/>
-      <c r="R149" s="58" t="s">
+      <c r="Q149" s="38"/>
+      <c r="R149" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="S149" s="59"/>
-      <c r="T149" s="58" t="s">
+      <c r="S149" s="38"/>
+      <c r="T149" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="U149" s="59"/>
+      <c r="U149" s="38"/>
     </row>
     <row r="150" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B150" s="37" t="s">
+      <c r="B150" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C150" s="37"/>
-      <c r="D150" s="37">
+      <c r="C150" s="31"/>
+      <c r="D150" s="31">
         <v>1</v>
       </c>
-      <c r="E150" s="37"/>
-      <c r="F150" s="44" t="s">
+      <c r="E150" s="31"/>
+      <c r="F150" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G150" s="44"/>
-      <c r="H150" s="37" t="s">
+      <c r="G150" s="34"/>
+      <c r="H150" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I150" s="37"/>
-      <c r="N150" s="64" t="s">
+      <c r="I150" s="31"/>
+      <c r="N150" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="O150" s="65"/>
-      <c r="P150" s="64">
+      <c r="O150" s="48"/>
+      <c r="P150" s="47">
         <v>1</v>
       </c>
-      <c r="Q150" s="65"/>
-      <c r="R150" s="66" t="s">
+      <c r="Q150" s="48"/>
+      <c r="R150" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="S150" s="67"/>
-      <c r="T150" s="57" t="s">
+      <c r="S150" s="50"/>
+      <c r="T150" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="U150" s="57"/>
+      <c r="U150" s="43"/>
     </row>
     <row r="151" spans="2:21">
-      <c r="N151" s="64" t="s">
+      <c r="N151" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="O151" s="65"/>
-      <c r="P151" s="64">
+      <c r="O151" s="48"/>
+      <c r="P151" s="47">
         <v>1</v>
       </c>
-      <c r="Q151" s="65"/>
-      <c r="R151" s="66" t="s">
+      <c r="Q151" s="48"/>
+      <c r="R151" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="S151" s="67"/>
-      <c r="T151" s="37" t="s">
+      <c r="S151" s="50"/>
+      <c r="T151" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="U151" s="37"/>
+      <c r="U151" s="31"/>
     </row>
     <row r="152" spans="2:21">
-      <c r="N152" s="25"/>
-      <c r="O152" s="25"/>
-      <c r="P152" s="25"/>
-      <c r="Q152" s="25"/>
-      <c r="R152" s="26"/>
-      <c r="S152" s="26"/>
-      <c r="T152" s="27"/>
-      <c r="U152" s="27"/>
+      <c r="N152" s="35"/>
+      <c r="O152" s="35"/>
+      <c r="P152" s="35"/>
+      <c r="Q152" s="35"/>
+      <c r="R152" s="36"/>
+      <c r="S152" s="36"/>
+      <c r="T152" s="44"/>
+      <c r="U152" s="44"/>
     </row>
     <row r="154" spans="2:21">
       <c r="B154" s="2" t="s">
@@ -40156,44 +40137,44 @@
       </c>
     </row>
     <row r="182" spans="2:21">
-      <c r="B182" s="36" t="s">
+      <c r="B182" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C182" s="36"/>
-      <c r="N182" s="58" t="s">
+      <c r="C182" s="32"/>
+      <c r="N182" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O182" s="59"/>
+      <c r="O182" s="38"/>
     </row>
     <row r="183" spans="2:21">
-      <c r="B183" s="37" t="s">
+      <c r="B183" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C183" s="37"/>
-      <c r="N183" s="64" t="s">
+      <c r="C183" s="31"/>
+      <c r="N183" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="O183" s="65"/>
+      <c r="O183" s="48"/>
     </row>
     <row r="184" spans="2:21">
-      <c r="B184" s="37" t="s">
+      <c r="B184" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C184" s="37"/>
-      <c r="N184" s="64" t="s">
+      <c r="C184" s="31"/>
+      <c r="N184" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="O184" s="65"/>
+      <c r="O184" s="48"/>
     </row>
     <row r="185" spans="2:21">
-      <c r="B185" s="37" t="s">
+      <c r="B185" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C185" s="37"/>
-      <c r="N185" s="37" t="s">
+      <c r="C185" s="31"/>
+      <c r="N185" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O185" s="37"/>
+      <c r="O185" s="31"/>
     </row>
     <row r="186" spans="2:21">
       <c r="B186" t="s">
@@ -40204,124 +40185,124 @@
       </c>
     </row>
     <row r="187" spans="2:21">
-      <c r="B187" s="36" t="s">
+      <c r="B187" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C187" s="36"/>
-      <c r="D187" s="36" t="s">
+      <c r="C187" s="32"/>
+      <c r="D187" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E187" s="36"/>
-      <c r="F187" s="36" t="s">
+      <c r="E187" s="32"/>
+      <c r="F187" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G187" s="36"/>
-      <c r="H187" s="47"/>
-      <c r="I187" s="48"/>
-      <c r="N187" s="58" t="s">
+      <c r="G187" s="32"/>
+      <c r="H187" s="40"/>
+      <c r="I187" s="41"/>
+      <c r="N187" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O187" s="59"/>
-      <c r="P187" s="58" t="s">
+      <c r="O187" s="38"/>
+      <c r="P187" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q187" s="59"/>
-      <c r="R187" s="58" t="s">
+      <c r="Q187" s="38"/>
+      <c r="R187" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S187" s="59"/>
-      <c r="T187" s="29"/>
-      <c r="U187" s="30"/>
+      <c r="S187" s="38"/>
+      <c r="T187" s="46"/>
+      <c r="U187" s="55"/>
     </row>
     <row r="188" spans="2:21">
-      <c r="B188" s="37" t="s">
+      <c r="B188" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C188" s="37"/>
-      <c r="D188" s="37" t="s">
+      <c r="C188" s="31"/>
+      <c r="D188" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E188" s="37"/>
-      <c r="F188" s="44" t="s">
+      <c r="E188" s="31"/>
+      <c r="F188" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G188" s="44"/>
-      <c r="H188" s="45"/>
-      <c r="I188" s="46"/>
-      <c r="N188" s="37" t="s">
+      <c r="G188" s="34"/>
+      <c r="H188" s="39"/>
+      <c r="I188" s="33"/>
+      <c r="N188" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O188" s="37"/>
-      <c r="P188" s="37" t="s">
+      <c r="O188" s="31"/>
+      <c r="P188" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q188" s="37"/>
-      <c r="R188" s="44" t="s">
+      <c r="Q188" s="31"/>
+      <c r="R188" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S188" s="44"/>
-      <c r="T188" s="28"/>
-      <c r="U188" s="27"/>
+      <c r="S188" s="34"/>
+      <c r="T188" s="45"/>
+      <c r="U188" s="44"/>
     </row>
     <row r="189" spans="2:21">
-      <c r="B189" s="37" t="s">
+      <c r="B189" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C189" s="37"/>
-      <c r="D189" s="37" t="s">
+      <c r="C189" s="31"/>
+      <c r="D189" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E189" s="37"/>
-      <c r="F189" s="44" t="s">
+      <c r="E189" s="31"/>
+      <c r="F189" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G189" s="44"/>
-      <c r="H189" s="45"/>
-      <c r="I189" s="46"/>
-      <c r="N189" s="37" t="s">
+      <c r="G189" s="34"/>
+      <c r="H189" s="39"/>
+      <c r="I189" s="33"/>
+      <c r="N189" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O189" s="37"/>
-      <c r="P189" s="37" t="s">
+      <c r="O189" s="31"/>
+      <c r="P189" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q189" s="37"/>
-      <c r="R189" s="44" t="s">
+      <c r="Q189" s="31"/>
+      <c r="R189" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S189" s="44"/>
-      <c r="T189" s="28"/>
-      <c r="U189" s="27"/>
+      <c r="S189" s="34"/>
+      <c r="T189" s="45"/>
+      <c r="U189" s="44"/>
     </row>
     <row r="190" spans="2:21">
-      <c r="B190" s="37" t="s">
+      <c r="B190" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C190" s="37"/>
-      <c r="D190" s="37" t="s">
+      <c r="C190" s="31"/>
+      <c r="D190" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E190" s="37"/>
-      <c r="F190" s="44" t="s">
+      <c r="E190" s="31"/>
+      <c r="F190" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G190" s="44"/>
-      <c r="H190" s="45"/>
-      <c r="I190" s="46"/>
-      <c r="N190" s="37" t="s">
+      <c r="G190" s="34"/>
+      <c r="H190" s="39"/>
+      <c r="I190" s="33"/>
+      <c r="N190" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O190" s="37"/>
-      <c r="P190" s="37" t="s">
+      <c r="O190" s="31"/>
+      <c r="P190" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q190" s="37"/>
-      <c r="R190" s="44" t="s">
+      <c r="Q190" s="31"/>
+      <c r="R190" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S190" s="44"/>
-      <c r="T190" s="29"/>
-      <c r="U190" s="30"/>
+      <c r="S190" s="34"/>
+      <c r="T190" s="46"/>
+      <c r="U190" s="55"/>
     </row>
     <row r="191" spans="2:21">
       <c r="B191" t="s">
@@ -40332,82 +40313,82 @@
       </c>
     </row>
     <row r="192" spans="2:21">
-      <c r="B192" s="36" t="s">
+      <c r="B192" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C192" s="36"/>
-      <c r="D192" s="36" t="s">
+      <c r="C192" s="32"/>
+      <c r="D192" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E192" s="36"/>
-      <c r="F192" s="36" t="s">
+      <c r="E192" s="32"/>
+      <c r="F192" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G192" s="36"/>
-      <c r="H192" s="36" t="s">
+      <c r="G192" s="32"/>
+      <c r="H192" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I192" s="36"/>
-      <c r="N192" s="36" t="s">
+      <c r="I192" s="32"/>
+      <c r="N192" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="O192" s="36"/>
-      <c r="P192" s="36" t="s">
+      <c r="O192" s="32"/>
+      <c r="P192" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="Q192" s="36"/>
-      <c r="R192" s="36" t="s">
+      <c r="Q192" s="32"/>
+      <c r="R192" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S192" s="36"/>
-      <c r="T192" s="36" t="s">
+      <c r="S192" s="32"/>
+      <c r="T192" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="U192" s="36"/>
+      <c r="U192" s="32"/>
     </row>
     <row r="193" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B193" s="37" t="s">
+      <c r="B193" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C193" s="37"/>
-      <c r="D193" s="37">
+      <c r="C193" s="31"/>
+      <c r="D193" s="31">
         <v>1</v>
       </c>
-      <c r="E193" s="37"/>
-      <c r="F193" s="44" t="s">
+      <c r="E193" s="31"/>
+      <c r="F193" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G193" s="44"/>
-      <c r="H193" s="37" t="s">
+      <c r="G193" s="34"/>
+      <c r="H193" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I193" s="37"/>
-      <c r="N193" s="37" t="s">
+      <c r="I193" s="31"/>
+      <c r="N193" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="O193" s="37"/>
-      <c r="P193" s="37">
+      <c r="O193" s="31"/>
+      <c r="P193" s="31">
         <v>1</v>
       </c>
-      <c r="Q193" s="37"/>
-      <c r="R193" s="44" t="s">
+      <c r="Q193" s="31"/>
+      <c r="R193" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S193" s="44"/>
-      <c r="T193" s="57" t="s">
+      <c r="S193" s="34"/>
+      <c r="T193" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="U193" s="57"/>
+      <c r="U193" s="43"/>
     </row>
     <row r="195" spans="2:21">
-      <c r="N195" s="25"/>
-      <c r="O195" s="25"/>
-      <c r="P195" s="25"/>
-      <c r="Q195" s="25"/>
-      <c r="R195" s="26"/>
-      <c r="S195" s="26"/>
-      <c r="T195" s="27"/>
-      <c r="U195" s="27"/>
+      <c r="N195" s="35"/>
+      <c r="O195" s="35"/>
+      <c r="P195" s="35"/>
+      <c r="Q195" s="35"/>
+      <c r="R195" s="36"/>
+      <c r="S195" s="36"/>
+      <c r="T195" s="44"/>
+      <c r="U195" s="44"/>
     </row>
     <row r="196" spans="2:21">
       <c r="B196" s="2" t="s">
@@ -40428,64 +40409,64 @@
       </c>
     </row>
     <row r="248" spans="2:21">
-      <c r="B248" s="36" t="s">
+      <c r="B248" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C248" s="36"/>
-      <c r="N248" s="58" t="s">
+      <c r="C248" s="32"/>
+      <c r="N248" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O248" s="59"/>
+      <c r="O248" s="38"/>
     </row>
     <row r="249" spans="2:21">
-      <c r="B249" s="37" t="s">
+      <c r="B249" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C249" s="37"/>
-      <c r="N249" s="37" t="s">
+      <c r="C249" s="31"/>
+      <c r="N249" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O249" s="37"/>
+      <c r="O249" s="31"/>
     </row>
     <row r="250" spans="2:21">
-      <c r="B250" s="37" t="s">
+      <c r="B250" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C250" s="37"/>
-      <c r="N250" s="37" t="s">
+      <c r="C250" s="31"/>
+      <c r="N250" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O250" s="37"/>
+      <c r="O250" s="31"/>
     </row>
     <row r="251" spans="2:21">
-      <c r="B251" s="37" t="s">
+      <c r="B251" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C251" s="37"/>
-      <c r="N251" s="37" t="s">
+      <c r="C251" s="31"/>
+      <c r="N251" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O251" s="37"/>
+      <c r="O251" s="31"/>
     </row>
     <row r="252" spans="2:21">
-      <c r="B252" s="37" t="s">
+      <c r="B252" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C252" s="37"/>
-      <c r="N252" s="37" t="s">
+      <c r="C252" s="31"/>
+      <c r="N252" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="O252" s="37"/>
+      <c r="O252" s="31"/>
     </row>
     <row r="253" spans="2:21">
-      <c r="B253" s="37" t="s">
+      <c r="B253" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C253" s="37"/>
-      <c r="N253" s="37" t="s">
+      <c r="C253" s="31"/>
+      <c r="N253" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="O253" s="37"/>
+      <c r="O253" s="31"/>
     </row>
     <row r="254" spans="2:21">
       <c r="B254" t="s">
@@ -40496,214 +40477,214 @@
       </c>
     </row>
     <row r="255" spans="2:21">
-      <c r="B255" s="36" t="s">
+      <c r="B255" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C255" s="36"/>
-      <c r="D255" s="36" t="s">
+      <c r="C255" s="32"/>
+      <c r="D255" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E255" s="36"/>
-      <c r="F255" s="36" t="s">
+      <c r="E255" s="32"/>
+      <c r="F255" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G255" s="36"/>
-      <c r="H255" s="47"/>
-      <c r="I255" s="48"/>
-      <c r="N255" s="58" t="s">
+      <c r="G255" s="32"/>
+      <c r="H255" s="40"/>
+      <c r="I255" s="41"/>
+      <c r="N255" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O255" s="59"/>
-      <c r="P255" s="58" t="s">
+      <c r="O255" s="38"/>
+      <c r="P255" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q255" s="59"/>
-      <c r="R255" s="58" t="s">
+      <c r="Q255" s="38"/>
+      <c r="R255" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="S255" s="59"/>
-      <c r="T255" s="29"/>
-      <c r="U255" s="30"/>
+      <c r="S255" s="38"/>
+      <c r="T255" s="46"/>
+      <c r="U255" s="55"/>
     </row>
     <row r="256" spans="2:21">
-      <c r="B256" s="37" t="s">
+      <c r="B256" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C256" s="37"/>
-      <c r="D256" s="37" t="s">
+      <c r="C256" s="31"/>
+      <c r="D256" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E256" s="37"/>
-      <c r="F256" s="44" t="s">
+      <c r="E256" s="31"/>
+      <c r="F256" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G256" s="44"/>
-      <c r="H256" s="45"/>
-      <c r="I256" s="46"/>
-      <c r="N256" s="37" t="s">
+      <c r="G256" s="34"/>
+      <c r="H256" s="39"/>
+      <c r="I256" s="33"/>
+      <c r="N256" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O256" s="37"/>
-      <c r="P256" s="37" t="s">
+      <c r="O256" s="31"/>
+      <c r="P256" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q256" s="37"/>
-      <c r="R256" s="44" t="s">
+      <c r="Q256" s="31"/>
+      <c r="R256" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S256" s="44"/>
-      <c r="T256" s="28"/>
-      <c r="U256" s="27"/>
+      <c r="S256" s="34"/>
+      <c r="T256" s="45"/>
+      <c r="U256" s="44"/>
     </row>
     <row r="257" spans="2:21">
-      <c r="B257" s="37" t="s">
+      <c r="B257" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C257" s="37"/>
-      <c r="D257" s="37" t="s">
+      <c r="C257" s="31"/>
+      <c r="D257" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E257" s="37"/>
-      <c r="F257" s="44" t="s">
+      <c r="E257" s="31"/>
+      <c r="F257" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G257" s="44"/>
-      <c r="H257" s="45"/>
-      <c r="I257" s="46"/>
-      <c r="N257" s="37" t="s">
+      <c r="G257" s="34"/>
+      <c r="H257" s="39"/>
+      <c r="I257" s="33"/>
+      <c r="N257" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O257" s="37"/>
-      <c r="P257" s="37" t="s">
+      <c r="O257" s="31"/>
+      <c r="P257" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q257" s="37"/>
-      <c r="R257" s="44" t="s">
+      <c r="Q257" s="31"/>
+      <c r="R257" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S257" s="44"/>
-      <c r="T257" s="28"/>
-      <c r="U257" s="27"/>
+      <c r="S257" s="34"/>
+      <c r="T257" s="45"/>
+      <c r="U257" s="44"/>
     </row>
     <row r="258" spans="2:21">
-      <c r="B258" s="37" t="s">
+      <c r="B258" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C258" s="37"/>
-      <c r="D258" s="37" t="s">
+      <c r="C258" s="31"/>
+      <c r="D258" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E258" s="37"/>
-      <c r="F258" s="44" t="s">
+      <c r="E258" s="31"/>
+      <c r="F258" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G258" s="44"/>
-      <c r="H258" s="45"/>
-      <c r="I258" s="46"/>
-      <c r="N258" s="37" t="s">
+      <c r="G258" s="34"/>
+      <c r="H258" s="39"/>
+      <c r="I258" s="33"/>
+      <c r="N258" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="O258" s="37"/>
-      <c r="P258" s="37" t="s">
+      <c r="O258" s="31"/>
+      <c r="P258" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q258" s="37"/>
-      <c r="R258" s="44" t="s">
+      <c r="Q258" s="31"/>
+      <c r="R258" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S258" s="44"/>
-      <c r="T258" s="29"/>
-      <c r="U258" s="30"/>
+      <c r="S258" s="34"/>
+      <c r="T258" s="46"/>
+      <c r="U258" s="55"/>
     </row>
     <row r="259" spans="2:21">
-      <c r="B259" s="37" t="s">
+      <c r="B259" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C259" s="37"/>
-      <c r="D259" s="37" t="s">
+      <c r="C259" s="31"/>
+      <c r="D259" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E259" s="37"/>
-      <c r="F259" s="44" t="s">
+      <c r="E259" s="31"/>
+      <c r="F259" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G259" s="44"/>
-      <c r="H259" s="45"/>
-      <c r="I259" s="46"/>
-      <c r="N259" s="37" t="s">
+      <c r="G259" s="34"/>
+      <c r="H259" s="39"/>
+      <c r="I259" s="33"/>
+      <c r="N259" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="O259" s="37"/>
-      <c r="P259" s="37" t="s">
+      <c r="O259" s="31"/>
+      <c r="P259" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="Q259" s="37"/>
-      <c r="R259" s="44" t="s">
+      <c r="Q259" s="31"/>
+      <c r="R259" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S259" s="44"/>
-      <c r="T259" s="28"/>
-      <c r="U259" s="27"/>
+      <c r="S259" s="34"/>
+      <c r="T259" s="45"/>
+      <c r="U259" s="44"/>
     </row>
     <row r="260" spans="2:21">
-      <c r="B260" s="37" t="s">
+      <c r="B260" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C260" s="37"/>
-      <c r="D260" s="37" t="s">
+      <c r="C260" s="31"/>
+      <c r="D260" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E260" s="37"/>
-      <c r="F260" s="44" t="s">
+      <c r="E260" s="31"/>
+      <c r="F260" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G260" s="44"/>
-      <c r="H260" s="45"/>
-      <c r="I260" s="46"/>
-      <c r="N260" s="37" t="s">
+      <c r="G260" s="34"/>
+      <c r="H260" s="39"/>
+      <c r="I260" s="33"/>
+      <c r="N260" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="O260" s="37"/>
-      <c r="P260" s="37" t="s">
+      <c r="O260" s="31"/>
+      <c r="P260" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="Q260" s="37"/>
-      <c r="R260" s="44" t="s">
+      <c r="Q260" s="31"/>
+      <c r="R260" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S260" s="44"/>
-      <c r="T260" s="28"/>
-      <c r="U260" s="27"/>
+      <c r="S260" s="34"/>
+      <c r="T260" s="45"/>
+      <c r="U260" s="44"/>
     </row>
     <row r="261" spans="2:21">
-      <c r="B261" s="37" t="s">
+      <c r="B261" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C261" s="37"/>
-      <c r="D261" s="37" t="s">
+      <c r="C261" s="31"/>
+      <c r="D261" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E261" s="37"/>
-      <c r="F261" s="44" t="s">
+      <c r="E261" s="31"/>
+      <c r="F261" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G261" s="44"/>
-      <c r="H261" s="45"/>
-      <c r="I261" s="46"/>
-      <c r="N261" s="37" t="s">
+      <c r="G261" s="34"/>
+      <c r="H261" s="39"/>
+      <c r="I261" s="33"/>
+      <c r="N261" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="O261" s="37"/>
-      <c r="P261" s="37" t="s">
+      <c r="O261" s="31"/>
+      <c r="P261" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="Q261" s="37"/>
-      <c r="R261" s="44" t="s">
+      <c r="Q261" s="31"/>
+      <c r="R261" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S261" s="44"/>
-      <c r="T261" s="28"/>
-      <c r="U261" s="27"/>
+      <c r="S261" s="34"/>
+      <c r="T261" s="45"/>
+      <c r="U261" s="44"/>
     </row>
     <row r="262" spans="2:21">
       <c r="B262" t="s">
@@ -40714,106 +40695,106 @@
       </c>
     </row>
     <row r="263" spans="2:21">
-      <c r="B263" s="36" t="s">
+      <c r="B263" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C263" s="36"/>
-      <c r="D263" s="36" t="s">
+      <c r="C263" s="32"/>
+      <c r="D263" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E263" s="36"/>
-      <c r="F263" s="36" t="s">
+      <c r="E263" s="32"/>
+      <c r="F263" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G263" s="36"/>
-      <c r="H263" s="36" t="s">
+      <c r="G263" s="32"/>
+      <c r="H263" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I263" s="36"/>
-      <c r="N263" s="36" t="s">
+      <c r="I263" s="32"/>
+      <c r="N263" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="O263" s="36"/>
-      <c r="P263" s="36" t="s">
+      <c r="O263" s="32"/>
+      <c r="P263" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="Q263" s="36"/>
-      <c r="R263" s="36" t="s">
+      <c r="Q263" s="32"/>
+      <c r="R263" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="S263" s="36"/>
-      <c r="T263" s="36" t="s">
+      <c r="S263" s="32"/>
+      <c r="T263" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="U263" s="36"/>
+      <c r="U263" s="32"/>
     </row>
     <row r="264" spans="2:21">
-      <c r="B264" s="37" t="s">
+      <c r="B264" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C264" s="37"/>
-      <c r="D264" s="37">
+      <c r="C264" s="31"/>
+      <c r="D264" s="31">
         <v>1</v>
       </c>
-      <c r="E264" s="37"/>
-      <c r="F264" s="44" t="s">
+      <c r="E264" s="31"/>
+      <c r="F264" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G264" s="44"/>
-      <c r="H264" s="37" t="s">
+      <c r="G264" s="34"/>
+      <c r="H264" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I264" s="37"/>
-      <c r="N264" s="37" t="s">
+      <c r="I264" s="31"/>
+      <c r="N264" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="O264" s="37"/>
-      <c r="P264" s="37">
+      <c r="O264" s="31"/>
+      <c r="P264" s="31">
         <v>1</v>
       </c>
-      <c r="Q264" s="37"/>
-      <c r="R264" s="44" t="s">
+      <c r="Q264" s="31"/>
+      <c r="R264" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S264" s="44"/>
-      <c r="T264" s="57" t="s">
+      <c r="S264" s="34"/>
+      <c r="T264" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="U264" s="57"/>
+      <c r="U264" s="43"/>
     </row>
     <row r="265" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B265" s="37" t="s">
+      <c r="B265" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C265" s="37"/>
-      <c r="D265" s="37">
+      <c r="C265" s="31"/>
+      <c r="D265" s="31">
         <v>1</v>
       </c>
-      <c r="E265" s="37"/>
-      <c r="F265" s="44" t="s">
+      <c r="E265" s="31"/>
+      <c r="F265" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G265" s="44"/>
-      <c r="H265" s="37" t="s">
+      <c r="G265" s="34"/>
+      <c r="H265" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I265" s="37"/>
-      <c r="N265" s="37" t="s">
+      <c r="I265" s="31"/>
+      <c r="N265" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="O265" s="37"/>
-      <c r="P265" s="37">
+      <c r="O265" s="31"/>
+      <c r="P265" s="31">
         <v>1</v>
       </c>
-      <c r="Q265" s="37"/>
-      <c r="R265" s="44" t="s">
+      <c r="Q265" s="31"/>
+      <c r="R265" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="S265" s="44"/>
-      <c r="T265" s="37" t="s">
+      <c r="S265" s="34"/>
+      <c r="T265" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="U265" s="37"/>
+      <c r="U265" s="31"/>
     </row>
     <row r="266" spans="2:21" ht="14.25" customHeight="1"/>
   </sheetData>
@@ -40828,20 +40809,10 @@
     <mergeCell ref="N255:O255"/>
     <mergeCell ref="P255:Q255"/>
     <mergeCell ref="R255:S255"/>
-    <mergeCell ref="R258:S258"/>
-    <mergeCell ref="R256:S256"/>
-    <mergeCell ref="P257:Q257"/>
-    <mergeCell ref="R257:S257"/>
-    <mergeCell ref="T192:U192"/>
-    <mergeCell ref="N182:O182"/>
-    <mergeCell ref="N183:O183"/>
-    <mergeCell ref="N184:O184"/>
-    <mergeCell ref="T193:U193"/>
-    <mergeCell ref="N185:O185"/>
-    <mergeCell ref="T145:U145"/>
-    <mergeCell ref="N143:O143"/>
-    <mergeCell ref="P143:Q143"/>
-    <mergeCell ref="R143:S143"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="F261:G261"/>
+    <mergeCell ref="H261:I261"/>
     <mergeCell ref="N261:O261"/>
     <mergeCell ref="P261:Q261"/>
     <mergeCell ref="N249:O249"/>
@@ -40850,18 +40821,6 @@
     <mergeCell ref="N252:O252"/>
     <mergeCell ref="N253:O253"/>
     <mergeCell ref="N259:O259"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="H258:I258"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="P258:Q258"/>
-    <mergeCell ref="P256:Q256"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="F257:G257"/>
-    <mergeCell ref="H257:I257"/>
-    <mergeCell ref="N257:O257"/>
     <mergeCell ref="N265:O265"/>
     <mergeCell ref="N264:O264"/>
     <mergeCell ref="P264:Q264"/>
@@ -40898,10 +40857,22 @@
     <mergeCell ref="D259:E259"/>
     <mergeCell ref="F259:G259"/>
     <mergeCell ref="H259:I259"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="F261:G261"/>
-    <mergeCell ref="H261:I261"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="P258:Q258"/>
+    <mergeCell ref="R258:S258"/>
+    <mergeCell ref="P256:Q256"/>
+    <mergeCell ref="R256:S256"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="F257:G257"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="P257:Q257"/>
+    <mergeCell ref="R257:S257"/>
     <mergeCell ref="B255:C255"/>
     <mergeCell ref="D255:E255"/>
     <mergeCell ref="F255:G255"/>
@@ -40920,12 +40891,17 @@
     <mergeCell ref="N192:O192"/>
     <mergeCell ref="P192:Q192"/>
     <mergeCell ref="R192:S192"/>
+    <mergeCell ref="T192:U192"/>
     <mergeCell ref="B248:C248"/>
     <mergeCell ref="N248:O248"/>
+    <mergeCell ref="N182:O182"/>
+    <mergeCell ref="N183:O183"/>
+    <mergeCell ref="N184:O184"/>
     <mergeCell ref="P187:Q187"/>
     <mergeCell ref="N193:O193"/>
     <mergeCell ref="P193:Q193"/>
     <mergeCell ref="R193:S193"/>
+    <mergeCell ref="T193:U193"/>
     <mergeCell ref="B192:C192"/>
     <mergeCell ref="D192:E192"/>
     <mergeCell ref="F192:G192"/>
@@ -40950,6 +40926,7 @@
     <mergeCell ref="N189:O189"/>
     <mergeCell ref="P189:Q189"/>
     <mergeCell ref="R189:S189"/>
+    <mergeCell ref="N185:O185"/>
     <mergeCell ref="B187:C187"/>
     <mergeCell ref="D187:E187"/>
     <mergeCell ref="F187:G187"/>
@@ -40984,6 +40961,10 @@
     <mergeCell ref="N145:O145"/>
     <mergeCell ref="P145:Q145"/>
     <mergeCell ref="R145:S145"/>
+    <mergeCell ref="T145:U145"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="P143:Q143"/>
+    <mergeCell ref="R143:S143"/>
     <mergeCell ref="T143:U143"/>
     <mergeCell ref="B144:C144"/>
     <mergeCell ref="D144:E144"/>
@@ -41003,18 +40984,6 @@
     <mergeCell ref="P150:Q150"/>
     <mergeCell ref="R150:S150"/>
     <mergeCell ref="T150:U150"/>
-    <mergeCell ref="N146:O146"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="R146:S146"/>
-    <mergeCell ref="T146:U146"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="N142:O142"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="R142:S142"/>
-    <mergeCell ref="T142:U142"/>
     <mergeCell ref="N151:O151"/>
     <mergeCell ref="P151:Q151"/>
     <mergeCell ref="R147:S147"/>
@@ -41025,12 +40994,25 @@
     <mergeCell ref="H149:I149"/>
     <mergeCell ref="R149:S149"/>
     <mergeCell ref="T149:U149"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="R146:S146"/>
+    <mergeCell ref="T146:U146"/>
     <mergeCell ref="B148:C148"/>
     <mergeCell ref="D148:E148"/>
     <mergeCell ref="F148:G148"/>
     <mergeCell ref="H148:I148"/>
     <mergeCell ref="N147:O147"/>
     <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="T141:U141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="R142:S142"/>
+    <mergeCell ref="T142:U142"/>
     <mergeCell ref="P140:Q140"/>
     <mergeCell ref="R140:S140"/>
     <mergeCell ref="T140:U140"/>
@@ -41041,7 +41023,6 @@
     <mergeCell ref="N141:O141"/>
     <mergeCell ref="P141:Q141"/>
     <mergeCell ref="R141:S141"/>
-    <mergeCell ref="T141:U141"/>
     <mergeCell ref="N138:O138"/>
     <mergeCell ref="B139:C139"/>
     <mergeCell ref="D139:E139"/>
@@ -41069,13 +41050,6 @@
     <mergeCell ref="N70:O70"/>
     <mergeCell ref="P70:Q70"/>
     <mergeCell ref="R70:S70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H68:I68"/>
     <mergeCell ref="N66:O66"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="R66:S66"/>
@@ -41089,12 +41063,13 @@
     <mergeCell ref="N60:O60"/>
     <mergeCell ref="N61:O61"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H68:I68"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="H64:I64"/>
@@ -41110,42 +41085,16 @@
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>